--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v5.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/GitHub/Fiscal-Impact-Measure/documentation/COVID-19 Changes/September/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA40B64-1853-AC4B-B6A1-B88B8B6B36C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E1D3F6-1411-A545-8264-7845C922E84D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-320" yWindow="540" windowWidth="33600" windowHeight="18880" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18880" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -692,7 +692,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -3173,6 +3173,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3194,29 +3209,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3709,11 +3709,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AN95"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
+      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11204,68 +11204,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="308" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="303"/>
-      <c r="C2" s="303"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="303"/>
-      <c r="F2" s="303"/>
-      <c r="G2" s="303"/>
-      <c r="H2" s="303"/>
-      <c r="I2" s="303"/>
-      <c r="J2" s="303"/>
+      <c r="B2" s="308"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308"/>
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
+      <c r="J2" s="308"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="308" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="303"/>
-      <c r="C3" s="303"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="303"/>
-      <c r="F3" s="303"/>
-      <c r="G3" s="303"/>
-      <c r="H3" s="303"/>
-      <c r="I3" s="303"/>
-      <c r="J3" s="303"/>
+      <c r="B3" s="308"/>
+      <c r="C3" s="308"/>
+      <c r="D3" s="308"/>
+      <c r="E3" s="308"/>
+      <c r="F3" s="308"/>
+      <c r="G3" s="308"/>
+      <c r="H3" s="308"/>
+      <c r="I3" s="308"/>
+      <c r="J3" s="308"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="304"/>
-      <c r="B4" s="304"/>
-      <c r="C4" s="304"/>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="304"/>
-      <c r="J4" s="304"/>
-      <c r="K4" s="309" t="s">
+      <c r="A4" s="309"/>
+      <c r="B4" s="309"/>
+      <c r="C4" s="309"/>
+      <c r="D4" s="309"/>
+      <c r="E4" s="309"/>
+      <c r="F4" s="309"/>
+      <c r="G4" s="309"/>
+      <c r="H4" s="309"/>
+      <c r="I4" s="309"/>
+      <c r="J4" s="309"/>
+      <c r="K4" s="314" t="s">
         <v>161</v>
       </c>
-      <c r="L4" s="309"/>
-      <c r="M4" s="309"/>
-      <c r="N4" s="309"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="314"/>
+      <c r="N4" s="314"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="305" t="s">
+      <c r="C5" s="310" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="306"/>
-      <c r="E5" s="306"/>
-      <c r="F5" s="306"/>
-      <c r="G5" s="306"/>
-      <c r="H5" s="306"/>
-      <c r="I5" s="306"/>
-      <c r="J5" s="307"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="311"/>
+      <c r="F5" s="311"/>
+      <c r="G5" s="311"/>
+      <c r="H5" s="311"/>
+      <c r="I5" s="311"/>
+      <c r="J5" s="312"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="308" t="s">
+      <c r="L5" s="313" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="282"/>
@@ -11276,16 +11276,16 @@
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="311">
+      <c r="C6" s="304">
         <v>2020</v>
       </c>
-      <c r="D6" s="312"/>
-      <c r="E6" s="312"/>
-      <c r="F6" s="312"/>
-      <c r="G6" s="312"/>
-      <c r="H6" s="312"/>
-      <c r="I6" s="312"/>
-      <c r="J6" s="313"/>
+      <c r="D6" s="305"/>
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="306"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -11756,12 +11756,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="314" t="s">
+      <c r="K23" s="307" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="314"/>
-      <c r="M23" s="314"/>
-      <c r="N23" s="314"/>
+      <c r="L23" s="307"/>
+      <c r="M23" s="307"/>
+      <c r="N23" s="307"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -11930,7 +11930,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="310" t="s">
+      <c r="I28" s="303" t="s">
         <v>260</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -11981,7 +11981,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="310"/>
+      <c r="I29" s="303"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -12030,7 +12030,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="310"/>
+      <c r="I30" s="303"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -12079,7 +12079,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="310"/>
+      <c r="I31" s="303"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -12141,7 +12141,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="310" t="s">
+      <c r="I33" s="303" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -12189,7 +12189,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="310"/>
+      <c r="I34" s="303"/>
       <c r="J34" t="s">
         <v>261</v>
       </c>
@@ -12368,6 +12368,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -12375,12 +12381,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12488,22 +12488,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="318" t="s">
+      <c r="E6" s="316" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="318"/>
-      <c r="G6" s="318"/>
-      <c r="H6" s="318"/>
-      <c r="I6" s="318"/>
-      <c r="J6" s="318"/>
-      <c r="K6" s="318"/>
-      <c r="L6" s="318"/>
-      <c r="M6" s="318"/>
-      <c r="N6" s="318"/>
-      <c r="O6" s="318"/>
-      <c r="P6" s="318"/>
-      <c r="Q6" s="318"/>
-      <c r="R6" s="318"/>
+      <c r="F6" s="316"/>
+      <c r="G6" s="316"/>
+      <c r="H6" s="316"/>
+      <c r="I6" s="316"/>
+      <c r="J6" s="316"/>
+      <c r="K6" s="316"/>
+      <c r="L6" s="316"/>
+      <c r="M6" s="316"/>
+      <c r="N6" s="316"/>
+      <c r="O6" s="316"/>
+      <c r="P6" s="316"/>
+      <c r="Q6" s="316"/>
+      <c r="R6" s="316"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="315" t="s">
@@ -13239,21 +13239,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="316" t="s">
+      <c r="H27" s="317" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="316"/>
-      <c r="J27" s="316"/>
-      <c r="K27" s="316"/>
-      <c r="L27" s="316"/>
-      <c r="M27" s="316"/>
-      <c r="N27" s="316"/>
-      <c r="O27" s="316"/>
-      <c r="P27" s="316"/>
-      <c r="Q27" s="316"/>
-      <c r="R27" s="316"/>
-      <c r="S27" s="316"/>
-      <c r="T27" s="316"/>
+      <c r="I27" s="317"/>
+      <c r="J27" s="317"/>
+      <c r="K27" s="317"/>
+      <c r="L27" s="317"/>
+      <c r="M27" s="317"/>
+      <c r="N27" s="317"/>
+      <c r="O27" s="317"/>
+      <c r="P27" s="317"/>
+      <c r="Q27" s="317"/>
+      <c r="R27" s="317"/>
+      <c r="S27" s="317"/>
+      <c r="T27" s="317"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -13569,21 +13569,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="317" t="s">
+      <c r="F37" s="318" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="317"/>
-      <c r="H37" s="317"/>
-      <c r="I37" s="317"/>
-      <c r="J37" s="317"/>
-      <c r="K37" s="317"/>
-      <c r="L37" s="317"/>
-      <c r="M37" s="317"/>
-      <c r="N37" s="317"/>
-      <c r="O37" s="317"/>
-      <c r="P37" s="317"/>
-      <c r="Q37" s="317"/>
-      <c r="R37" s="317"/>
+      <c r="G37" s="318"/>
+      <c r="H37" s="318"/>
+      <c r="I37" s="318"/>
+      <c r="J37" s="318"/>
+      <c r="K37" s="318"/>
+      <c r="L37" s="318"/>
+      <c r="M37" s="318"/>
+      <c r="N37" s="318"/>
+      <c r="O37" s="318"/>
+      <c r="P37" s="318"/>
+      <c r="Q37" s="318"/>
+      <c r="R37" s="318"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -13899,21 +13899,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="316" t="s">
+      <c r="F48" s="317" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="316"/>
-      <c r="H48" s="316"/>
-      <c r="I48" s="316"/>
-      <c r="J48" s="316"/>
-      <c r="K48" s="316"/>
-      <c r="L48" s="316"/>
-      <c r="M48" s="316"/>
-      <c r="N48" s="316"/>
-      <c r="O48" s="316"/>
-      <c r="P48" s="316"/>
-      <c r="Q48" s="316"/>
-      <c r="R48" s="316"/>
+      <c r="G48" s="317"/>
+      <c r="H48" s="317"/>
+      <c r="I48" s="317"/>
+      <c r="J48" s="317"/>
+      <c r="K48" s="317"/>
+      <c r="L48" s="317"/>
+      <c r="M48" s="317"/>
+      <c r="N48" s="317"/>
+      <c r="O48" s="317"/>
+      <c r="P48" s="317"/>
+      <c r="Q48" s="317"/>
+      <c r="R48" s="317"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -14225,12 +14225,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -14239,6 +14233,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22191,7 +22191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -28134,12 +28134,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -28356,6 +28350,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
@@ -28365,23 +28365,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28398,4 +28381,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v5.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v5.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyilla\Documents\Git\Fiscal-Impact-Measure\documentation\COVID-19 Changes\September\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A17D171-897A-498B-B928-A1A5975F6D1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29192E4-CF7D-4AEE-A36A-16C1474A059F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="15840" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId2"/>
+    <sheet name="Haver NA" sheetId="14" r:id="rId2"/>
     <sheet name="add-ons calculations" sheetId="5" r:id="rId3"/>
     <sheet name="FIM Add Factors" sheetId="9" r:id="rId4"/>
     <sheet name="main_nipas" sheetId="10" r:id="rId5"/>
@@ -2014,7 +2014,7 @@
     <numFmt numFmtId="171" formatCode="0.000%"/>
     <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2245,12 +2245,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="18">
@@ -3260,6 +3254,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="17" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3326,6 +3333,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3347,46 +3369,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="17" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3876,10 +3870,10 @@
   <dimension ref="A1:AP96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I70" sqref="I70"/>
+      <selection pane="bottomRight" activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3901,11 +3895,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="283" t="s">
+      <c r="A1" s="290" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="321"/>
+      <c r="B1" s="290"/>
+      <c r="C1" s="281"/>
       <c r="D1" s="35"/>
       <c r="M1" s="35" t="s">
         <v>337</v>
@@ -3913,76 +3907,76 @@
       <c r="AB1" s="179" t="s">
         <v>250</v>
       </c>
-      <c r="AC1" s="285" t="s">
+      <c r="AC1" s="292" t="s">
         <v>248</v>
       </c>
-      <c r="AD1" s="285"/>
-      <c r="AE1" s="285"/>
+      <c r="AD1" s="292"/>
+      <c r="AE1" s="292"/>
       <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="286" t="s">
+      <c r="AH1" s="293" t="s">
         <v>283</v>
       </c>
-      <c r="AI1" s="286"/>
-      <c r="AJ1" s="286"/>
-      <c r="AK1" s="286"/>
-      <c r="AL1" s="284" t="s">
+      <c r="AI1" s="293"/>
+      <c r="AJ1" s="293"/>
+      <c r="AK1" s="293"/>
+      <c r="AL1" s="291" t="s">
         <v>281</v>
       </c>
-      <c r="AM1" s="284"/>
-      <c r="AN1" s="284"/>
-      <c r="AO1" s="284"/>
+      <c r="AM1" s="291"/>
+      <c r="AN1" s="291"/>
+      <c r="AO1" s="291"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="E2" s="282" t="s">
+      <c r="E2" s="289" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282" t="s">
+      <c r="F2" s="289"/>
+      <c r="G2" s="289"/>
+      <c r="H2" s="289"/>
+      <c r="I2" s="289" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="282"/>
-      <c r="K2" s="282"/>
-      <c r="L2" s="282"/>
-      <c r="M2" s="324"/>
-      <c r="N2" s="282" t="s">
+      <c r="J2" s="289"/>
+      <c r="K2" s="289"/>
+      <c r="L2" s="289"/>
+      <c r="M2" s="284"/>
+      <c r="N2" s="289" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="282"/>
-      <c r="P2" s="282"/>
-      <c r="Q2" s="282"/>
-      <c r="R2" s="282" t="s">
+      <c r="O2" s="289"/>
+      <c r="P2" s="289"/>
+      <c r="Q2" s="289"/>
+      <c r="R2" s="289" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="282"/>
-      <c r="T2" s="282"/>
-      <c r="U2" s="282"/>
-      <c r="V2" s="282" t="s">
+      <c r="S2" s="289"/>
+      <c r="T2" s="289"/>
+      <c r="U2" s="289"/>
+      <c r="V2" s="289" t="s">
         <v>269</v>
       </c>
-      <c r="W2" s="282"/>
-      <c r="X2" s="282"/>
-      <c r="Y2" s="282"/>
+      <c r="W2" s="289"/>
+      <c r="X2" s="289"/>
+      <c r="Y2" s="289"/>
       <c r="Z2" s="229"/>
       <c r="AA2" s="229"/>
       <c r="AB2" s="156"/>
-      <c r="AC2" s="282" t="s">
+      <c r="AC2" s="289" t="s">
         <v>102</v>
       </c>
-      <c r="AD2" s="282"/>
-      <c r="AE2" s="282"/>
+      <c r="AD2" s="289"/>
+      <c r="AE2" s="289"/>
       <c r="AF2" s="156"/>
       <c r="AG2" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="AH2" s="282" t="s">
+      <c r="AH2" s="289" t="s">
         <v>102</v>
       </c>
-      <c r="AI2" s="282"/>
-      <c r="AJ2" s="282"/>
+      <c r="AI2" s="289"/>
+      <c r="AJ2" s="289"/>
       <c r="AK2" s="230"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.35">
@@ -4010,7 +4004,7 @@
       <c r="L3" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="323"/>
+      <c r="M3" s="283"/>
       <c r="N3" t="s">
         <v>5</v>
       </c>
@@ -4088,11 +4082,11 @@
       </c>
     </row>
     <row r="4" spans="1:42" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="281" t="s">
+      <c r="A4" s="288" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="281"/>
-      <c r="C4" s="321"/>
+      <c r="B4" s="288"/>
+      <c r="C4" s="281"/>
       <c r="E4" s="199"/>
       <c r="F4" s="199"/>
       <c r="G4" s="199"/>
@@ -4101,7 +4095,7 @@
       <c r="J4" s="199"/>
       <c r="K4" s="199"/>
       <c r="L4" s="199"/>
-      <c r="M4" s="323"/>
+      <c r="M4" s="283"/>
       <c r="AB4" s="192"/>
       <c r="AC4" s="180"/>
       <c r="AD4" s="192"/>
@@ -4147,9 +4141,9 @@
       <c r="L5" s="199">
         <v>21157.599999999999</v>
       </c>
-      <c r="M5" s="323">
-        <f>VLOOKUP(C5,Sheet1!$A$1:$I$33,9,0)</f>
-        <v>21157.599999999999</v>
+      <c r="M5" s="283">
+        <f>VLOOKUP(C5,'Haver NA'!$A$1:$I$33,9,0)</f>
+        <v>21157.1</v>
       </c>
       <c r="N5">
         <v>21585.442357487202</v>
@@ -4202,7 +4196,7 @@
       <c r="A6" s="170" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="322"/>
+      <c r="C6" s="282"/>
       <c r="E6" s="201"/>
       <c r="F6" s="202">
         <f>F5/E5-1</f>
@@ -4232,7 +4226,7 @@
         <f t="shared" si="0"/>
         <v>8.3887889918596636E-2</v>
       </c>
-      <c r="M6" s="323"/>
+      <c r="M6" s="283"/>
       <c r="N6" s="198">
         <f>N5/L5-1</f>
         <v>2.0221686651000326E-2</v>
@@ -4319,8 +4313,8 @@
       <c r="L7" s="199">
         <v>18584</v>
       </c>
-      <c r="M7" s="323">
-        <f>VLOOKUP(C7,Sheet1!$A$1:$I$33,9,0)</f>
+      <c r="M7" s="283">
+        <f>VLOOKUP(C7,'Haver NA'!$A$1:$I$33,9,0)</f>
         <v>18583.5</v>
       </c>
       <c r="N7">
@@ -4383,7 +4377,7 @@
       <c r="J8" s="217"/>
       <c r="K8" s="217"/>
       <c r="L8" s="199"/>
-      <c r="M8" s="323"/>
+      <c r="M8" s="283"/>
       <c r="N8" s="216"/>
       <c r="O8" s="216"/>
       <c r="P8" s="216"/>
@@ -4413,7 +4407,7 @@
       <c r="J9" s="199"/>
       <c r="K9" s="199"/>
       <c r="L9" s="199"/>
-      <c r="M9" s="323"/>
+      <c r="M9" s="283"/>
       <c r="AB9" s="192"/>
       <c r="AC9" s="180"/>
       <c r="AD9" s="192"/>
@@ -4437,7 +4431,7 @@
       <c r="J10" s="199"/>
       <c r="K10" s="199"/>
       <c r="L10" s="199"/>
-      <c r="M10" s="323"/>
+      <c r="M10" s="283"/>
       <c r="AC10" s="146"/>
       <c r="AH10" s="146"/>
     </row>
@@ -4477,7 +4471,7 @@
         <f t="shared" si="1"/>
         <v>3245.1670000000004</v>
       </c>
-      <c r="M11" s="323"/>
+      <c r="M11" s="283"/>
       <c r="N11" s="168">
         <f t="shared" si="1"/>
         <v>3370.5186359999998</v>
@@ -4552,9 +4546,9 @@
       <c r="L12" s="199">
         <v>1686.3530000000001</v>
       </c>
-      <c r="M12" s="323">
-        <f>VLOOKUP(C12,Sheet1!$A$1:$I$33,9,0)</f>
-        <v>1686.4</v>
+      <c r="M12" s="283">
+        <f>VLOOKUP(C12,'Haver NA'!$A$1:$I$33,9,0)</f>
+        <v>1687.2</v>
       </c>
       <c r="N12" s="169">
         <f>L12*(1+N13)</f>
@@ -4638,7 +4632,7 @@
       <c r="A13" s="219" t="s">
         <v>217</v>
       </c>
-      <c r="C13" s="322"/>
+      <c r="C13" s="282"/>
       <c r="E13" s="201"/>
       <c r="F13" s="201"/>
       <c r="G13" s="201"/>
@@ -4647,7 +4641,7 @@
       <c r="J13" s="201"/>
       <c r="K13" s="201"/>
       <c r="L13" s="199"/>
-      <c r="M13" s="323"/>
+      <c r="M13" s="283"/>
       <c r="N13" s="176">
         <v>0.06</v>
       </c>
@@ -4725,8 +4719,8 @@
       <c r="L14" s="199">
         <v>144.66200000000001</v>
       </c>
-      <c r="M14" s="323">
-        <f>VLOOKUP(C14,Sheet1!$A$1:$I$33,9,0)</f>
+      <c r="M14" s="283">
+        <f>VLOOKUP(C14,'Haver NA'!$A$1:$I$33,9,0)</f>
         <v>144.69999999999999</v>
       </c>
       <c r="N14" s="169">
@@ -4807,7 +4801,7 @@
       <c r="A15" s="219" t="s">
         <v>217</v>
       </c>
-      <c r="C15" s="322"/>
+      <c r="C15" s="282"/>
       <c r="E15" s="201"/>
       <c r="F15" s="201"/>
       <c r="G15" s="201"/>
@@ -4816,7 +4810,7 @@
       <c r="J15" s="201"/>
       <c r="K15" s="201"/>
       <c r="L15" s="199"/>
-      <c r="M15" s="323"/>
+      <c r="M15" s="283"/>
       <c r="N15" s="176">
         <v>0.04</v>
       </c>
@@ -4894,9 +4888,9 @@
       <c r="L16" s="199">
         <v>1414.152</v>
       </c>
-      <c r="M16" s="323">
-        <f>VLOOKUP(C16,Sheet1!$A$1:$I$33,9,0)</f>
-        <v>1414.2</v>
+      <c r="M16" s="283">
+        <f>VLOOKUP(C16,'Haver NA'!$A$1:$I$33,9,0)</f>
+        <v>1429.6</v>
       </c>
       <c r="N16" s="169">
         <f>L16*(1+N17)</f>
@@ -4980,7 +4974,7 @@
       <c r="A17" s="219" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="322"/>
+      <c r="C17" s="282"/>
       <c r="E17" s="201"/>
       <c r="F17" s="201"/>
       <c r="G17" s="201"/>
@@ -4989,7 +4983,7 @@
       <c r="J17" s="201"/>
       <c r="K17" s="201"/>
       <c r="L17" s="199"/>
-      <c r="M17" s="323"/>
+      <c r="M17" s="283"/>
       <c r="N17" s="176">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -5068,9 +5062,9 @@
         <f>(4*AH18-SUM(I18:K18))</f>
         <v>191.99161110990462</v>
       </c>
-      <c r="M18" s="323">
-        <f>VLOOKUP(C18,Sheet1!$A$1:$I$33,9,0)</f>
-        <v>193.9</v>
+      <c r="M18" s="283">
+        <f>VLOOKUP(C18,'Haver NA'!$A$1:$I$33,9,0)</f>
+        <v>205.3</v>
       </c>
       <c r="N18" s="169">
         <f>L18*(1+N19)</f>
@@ -5153,7 +5147,7 @@
       <c r="A19" s="178" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="322"/>
+      <c r="C19" s="282"/>
       <c r="E19" s="201"/>
       <c r="F19" s="201"/>
       <c r="G19" s="201"/>
@@ -5162,7 +5156,7 @@
       <c r="J19" s="201"/>
       <c r="K19" s="201"/>
       <c r="L19" s="199"/>
-      <c r="M19" s="323"/>
+      <c r="M19" s="283"/>
       <c r="N19" s="176">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -5208,7 +5202,7 @@
     </row>
     <row r="20" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="170"/>
-      <c r="C20" s="322"/>
+      <c r="C20" s="282"/>
       <c r="E20" s="201"/>
       <c r="F20" s="201"/>
       <c r="G20" s="201"/>
@@ -5217,7 +5211,7 @@
       <c r="J20" s="201"/>
       <c r="K20" s="201"/>
       <c r="L20" s="199"/>
-      <c r="M20" s="323"/>
+      <c r="M20" s="283"/>
       <c r="N20" s="176"/>
       <c r="O20" s="176"/>
       <c r="P20" s="176"/>
@@ -5247,7 +5241,7 @@
       <c r="A21" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="322"/>
+      <c r="C21" s="282"/>
       <c r="E21" s="201"/>
       <c r="F21" s="201"/>
       <c r="G21" s="201"/>
@@ -5256,7 +5250,7 @@
       <c r="J21" s="201"/>
       <c r="K21" s="201"/>
       <c r="L21" s="199"/>
-      <c r="M21" s="323"/>
+      <c r="M21" s="283"/>
       <c r="N21" s="176"/>
       <c r="O21" s="176"/>
       <c r="P21" s="176"/>
@@ -5318,7 +5312,7 @@
         <f t="shared" si="12"/>
         <v>1840.777</v>
       </c>
-      <c r="M22" s="323"/>
+      <c r="M22" s="283"/>
       <c r="N22" s="102">
         <f t="shared" si="12"/>
         <v>1878.0006156883685</v>
@@ -5387,9 +5381,9 @@
       <c r="L23" s="199">
         <v>505.42700000000002</v>
       </c>
-      <c r="M23" s="323">
-        <f>VLOOKUP(C23,Sheet1!$A$1:$I$33,9,0)</f>
-        <v>505.4</v>
+      <c r="M23" s="283">
+        <f>VLOOKUP(C23,'Haver NA'!$A$1:$I$33,9,0)</f>
+        <v>499.4</v>
       </c>
       <c r="N23" s="102">
         <f>L23*(1+N$6)</f>
@@ -5459,9 +5453,9 @@
       <c r="L24" s="199">
         <v>1315.133</v>
       </c>
-      <c r="M24" s="323">
-        <f>VLOOKUP(C24,Sheet1!$A$1:$I$33,9,0)</f>
-        <v>1315.1</v>
+      <c r="M24" s="283">
+        <f>VLOOKUP(C24,'Haver NA'!$A$1:$I$33,9,0)</f>
+        <v>1317.3</v>
       </c>
       <c r="N24" s="102">
         <f>L24*(1+N$6)</f>
@@ -5531,8 +5525,8 @@
       <c r="L25" s="199">
         <v>20.216999999999999</v>
       </c>
-      <c r="M25" s="323">
-        <f>VLOOKUP(C25,Sheet1!$A$1:$I$33,9,0)</f>
+      <c r="M25" s="283">
+        <f>VLOOKUP(C25,'Haver NA'!$A$1:$I$33,9,0)</f>
         <v>20.245999999999999</v>
       </c>
       <c r="N25" s="102">
@@ -5604,9 +5598,9 @@
         <f>K26*(1+L6)</f>
         <v>58.746723633587941</v>
       </c>
-      <c r="M26" s="323">
-        <f>VLOOKUP(C26,Sheet1!$A$1:$I$33,9,0)</f>
-        <v>62.633330000000001</v>
+      <c r="M26" s="283">
+        <f>VLOOKUP(C26,'Haver NA'!$A$1:$I$33,9,0)</f>
+        <v>79.099999999999994</v>
       </c>
       <c r="N26" s="102">
         <f>L26*(1+N6)</f>
@@ -5678,7 +5672,7 @@
         <v>0.31603498542274056</v>
       </c>
       <c r="L27" s="199"/>
-      <c r="M27" s="323"/>
+      <c r="M27" s="283"/>
       <c r="N27" s="195"/>
       <c r="O27" s="195"/>
       <c r="P27" s="195"/>
@@ -5692,7 +5686,7 @@
     <row r="28" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="196"/>
       <c r="B28" s="197"/>
-      <c r="C28" s="322"/>
+      <c r="C28" s="282"/>
       <c r="E28" s="201"/>
       <c r="F28" s="201"/>
       <c r="G28" s="201"/>
@@ -5701,7 +5695,7 @@
       <c r="J28" s="201"/>
       <c r="K28" s="201"/>
       <c r="L28" s="199"/>
-      <c r="M28" s="323"/>
+      <c r="M28" s="283"/>
       <c r="N28" s="176"/>
       <c r="O28" s="176"/>
       <c r="P28" s="176"/>
@@ -5745,7 +5739,7 @@
       <c r="J29" s="199"/>
       <c r="K29" s="203"/>
       <c r="L29" s="199"/>
-      <c r="M29" s="323"/>
+      <c r="M29" s="283"/>
       <c r="N29" s="88"/>
       <c r="O29" s="88"/>
       <c r="P29" s="88"/>
@@ -5794,8 +5788,8 @@
       <c r="L30" s="199">
         <v>3513776</v>
       </c>
-      <c r="M30" s="323">
-        <f>VLOOKUP(C30,Sheet1!$A$1:$I$33,9,0)</f>
+      <c r="M30" s="283">
+        <f>VLOOKUP(C30,'Haver NA'!$A$1:$I$33,9,0)</f>
         <v>3488125</v>
       </c>
       <c r="N30" s="44">
@@ -5897,8 +5891,8 @@
       <c r="L31" s="199">
         <v>842733</v>
       </c>
-      <c r="M31" s="323">
-        <f>VLOOKUP(C31,Sheet1!$A$1:$I$33,9,0)</f>
+      <c r="M31" s="283">
+        <f>VLOOKUP(C31,'Haver NA'!$A$1:$I$33,9,0)</f>
         <v>842733</v>
       </c>
       <c r="N31" s="87">
@@ -6016,8 +6010,8 @@
       <c r="L32" s="199">
         <v>15600</v>
       </c>
-      <c r="M32" s="323">
-        <f>VLOOKUP(C32,Sheet1!$A$1:$I$33,9,0)</f>
+      <c r="M32" s="283">
+        <f>VLOOKUP(C32,'Haver NA'!$A$1:$I$33,9,0)</f>
         <v>15600</v>
       </c>
       <c r="N32" s="87">
@@ -6092,7 +6086,7 @@
         <f>L34+L37</f>
         <v>877703</v>
       </c>
-      <c r="M33" s="323">
+      <c r="M33" s="283">
         <v>877703</v>
       </c>
       <c r="N33" s="87">
@@ -6187,9 +6181,9 @@
       <c r="L34" s="199">
         <v>771503</v>
       </c>
-      <c r="M34" s="323">
-        <f>VLOOKUP(C34,Sheet1!$A$1:$I$33,9,0)</f>
-        <v>771503</v>
+      <c r="M34" s="283">
+        <f>VLOOKUP(C34,'Haver NA'!$A$1:$I$33,9,0)</f>
+        <v>768678</v>
       </c>
       <c r="N34" s="87"/>
       <c r="O34" s="87"/>
@@ -6233,7 +6227,7 @@
         <f t="shared" ref="L35:R35" si="26">L36+L37</f>
         <v>738200</v>
       </c>
-      <c r="M35" s="323"/>
+      <c r="M35" s="283"/>
       <c r="N35" s="87">
         <f t="shared" si="26"/>
         <v>257800</v>
@@ -6275,7 +6269,7 @@
       <c r="AL35" s="184"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A36" s="325" t="s">
+      <c r="A36" s="285" t="s">
         <v>138</v>
       </c>
       <c r="E36" s="204"/>
@@ -6296,7 +6290,7 @@
         <f>1000*'figuring out UI'!N17</f>
         <v>632000</v>
       </c>
-      <c r="M36" s="323"/>
+      <c r="M36" s="283"/>
       <c r="N36" s="87">
         <f>1000*'figuring out UI'!O17</f>
         <v>188000</v>
@@ -6356,7 +6350,7 @@
       <c r="AL36" s="184"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A37" s="325" t="s">
+      <c r="A37" s="285" t="s">
         <v>163</v>
       </c>
       <c r="E37" s="204"/>
@@ -6369,7 +6363,7 @@
       <c r="L37" s="199">
         <v>106200</v>
       </c>
-      <c r="M37" s="323"/>
+      <c r="M37" s="283"/>
       <c r="N37" s="87">
         <f>(44000*4)-L37</f>
         <v>69800</v>
@@ -6420,7 +6414,7 @@
         <f>1000*'figuring out UI'!N18</f>
         <v>140000</v>
       </c>
-      <c r="M38" s="323"/>
+      <c r="M38" s="283"/>
       <c r="N38" s="87">
         <f>1000*'figuring out UI'!O18</f>
         <v>80000</v>
@@ -6504,9 +6498,9 @@
         <f>SUM(L40:L41)</f>
         <v>83700</v>
       </c>
-      <c r="M39" s="323">
+      <c r="M39" s="283">
         <f>SUM(M40:M41)</f>
-        <v>83700</v>
+        <v>85400</v>
       </c>
       <c r="N39" s="87">
         <f>SUM(N40:N41)</f>
@@ -6582,8 +6576,8 @@
       <c r="L40" s="199">
         <v>27000</v>
       </c>
-      <c r="M40" s="323">
-        <f>VLOOKUP(C40,Sheet1!$A$1:$I$33,9,0)</f>
+      <c r="M40" s="283">
+        <f>VLOOKUP(C40,'Haver NA'!$A$1:$I$33,9,0)</f>
         <v>27000</v>
       </c>
       <c r="N40" s="87">
@@ -6643,9 +6637,9 @@
       <c r="L41" s="199">
         <v>56700</v>
       </c>
-      <c r="M41" s="323">
-        <f>VLOOKUP(C41,Sheet1!$A$1:$I$33,9,0)</f>
-        <v>56700</v>
+      <c r="M41" s="283">
+        <f>VLOOKUP(C41,'Haver NA'!$A$1:$I$33,9,0)</f>
+        <v>58400</v>
       </c>
       <c r="N41" s="87">
         <v>43000</v>
@@ -6718,9 +6712,9 @@
         <f>L30-L32-L33-L31-L39</f>
         <v>1694040</v>
       </c>
-      <c r="M42" s="326">
+      <c r="M42" s="286">
         <f>M30-M32-M33-M31-M39</f>
-        <v>1668389</v>
+        <v>1666689</v>
       </c>
       <c r="N42" s="88">
         <f>L42*(1+N44)</f>
@@ -6807,7 +6801,7 @@
       <c r="A43" s="170" t="s">
         <v>217</v>
       </c>
-      <c r="C43" s="322"/>
+      <c r="C43" s="282"/>
       <c r="E43" s="234"/>
       <c r="F43" s="236">
         <f>F42/E42-1</f>
@@ -6834,7 +6828,7 @@
         <v>2.938781628264131E-2</v>
       </c>
       <c r="L43" s="199"/>
-      <c r="M43" s="323"/>
+      <c r="M43" s="283"/>
       <c r="N43" s="235"/>
       <c r="O43" s="235"/>
       <c r="P43" s="235"/>
@@ -6872,7 +6866,7 @@
       <c r="J44" s="202"/>
       <c r="K44" s="202"/>
       <c r="L44" s="199"/>
-      <c r="M44" s="323"/>
+      <c r="M44" s="283"/>
       <c r="N44" s="176">
         <v>-7.4999999999999997E-3</v>
       </c>
@@ -6955,7 +6949,7 @@
         <f t="shared" ref="L45:U45" si="33">L42+L32+L35</f>
         <v>2447840</v>
       </c>
-      <c r="M45" s="323"/>
+      <c r="M45" s="283"/>
       <c r="N45" s="88">
         <f t="shared" si="33"/>
         <v>1939134.7000000002</v>
@@ -7016,7 +7010,7 @@
       <c r="J46" s="199"/>
       <c r="K46" s="199"/>
       <c r="L46" s="199"/>
-      <c r="M46" s="323"/>
+      <c r="M46" s="283"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
@@ -7077,8 +7071,8 @@
       <c r="L47" s="199">
         <v>1212346</v>
       </c>
-      <c r="M47" s="323">
-        <f>VLOOKUP(C47,Sheet1!$A$1:$I$33,9,0)</f>
+      <c r="M47" s="283">
+        <f>VLOOKUP(C47,'Haver NA'!$A$1:$I$33,9,0)</f>
         <v>1213308</v>
       </c>
       <c r="N47" s="144">
@@ -7146,9 +7140,9 @@
         <f>L49+L50</f>
         <v>1093900</v>
       </c>
-      <c r="M48" s="204">
+      <c r="M48" s="283">
         <f>M49+M50</f>
-        <v>229165.6</v>
+        <v>1093900</v>
       </c>
       <c r="N48" s="116">
         <f t="shared" ref="N48:V48" si="35">N49+N50</f>
@@ -7217,9 +7211,9 @@
       <c r="L49" s="199">
         <v>865600</v>
       </c>
-      <c r="M49" s="323">
-        <f>VLOOKUP(C49,Sheet1!$A$1:$I$33,9,0)</f>
-        <v>865.6</v>
+      <c r="M49" s="283">
+        <f>VLOOKUP(C49,'Haver NA'!$A$1:$I$33,9,0)</f>
+        <v>865600</v>
       </c>
       <c r="N49" s="116">
         <f>'[1]Revised Add Factors'!D$13*1000</f>
@@ -7284,8 +7278,8 @@
         <f>SUM(L51:L53)</f>
         <v>228300</v>
       </c>
-      <c r="M50" s="323">
-        <f>VLOOKUP(C50,Sheet1!$A$1:$I$33,9,0)</f>
+      <c r="M50" s="283">
+        <f>VLOOKUP(C50,'Haver NA'!$A$1:$I$33,9,0)</f>
         <v>228300</v>
       </c>
       <c r="N50" s="116">
@@ -7350,9 +7344,9 @@
       <c r="L51" s="264">
         <v>15000</v>
       </c>
-      <c r="M51" s="323">
-        <f>VLOOKUP(C51,Sheet1!$A$1:$I$33,9,0)</f>
-        <v>15</v>
+      <c r="M51" s="283">
+        <f>VLOOKUP(C51,'Haver NA'!$A$1:$I$33,9,0)</f>
+        <v>15000</v>
       </c>
       <c r="N51" s="265"/>
       <c r="O51" s="265"/>
@@ -7397,9 +7391,9 @@
       <c r="L52" s="264">
         <v>73300</v>
       </c>
-      <c r="M52" s="323">
-        <f>VLOOKUP(C52,Sheet1!$A$1:$I$33,9,0)</f>
-        <v>73.3</v>
+      <c r="M52" s="283">
+        <f>VLOOKUP(C52,'Haver NA'!$A$1:$I$33,9,0)</f>
+        <v>73300</v>
       </c>
       <c r="N52" s="265"/>
       <c r="O52" s="265"/>
@@ -7444,9 +7438,9 @@
       <c r="L53" s="264">
         <v>140000</v>
       </c>
-      <c r="M53" s="323">
-        <f>VLOOKUP(C53,Sheet1!$A$1:$I$33,9,0)</f>
-        <v>140</v>
+      <c r="M53" s="283">
+        <f>VLOOKUP(C53,'Haver NA'!$A$1:$I$33,9,0)</f>
+        <v>140000</v>
       </c>
       <c r="N53" s="265"/>
       <c r="O53" s="265"/>
@@ -7479,7 +7473,7 @@
       <c r="J54" s="204"/>
       <c r="K54" s="204"/>
       <c r="L54" s="199"/>
-      <c r="M54" s="323"/>
+      <c r="M54" s="283"/>
       <c r="N54" s="116"/>
       <c r="O54" s="116"/>
       <c r="P54" s="116"/>
@@ -7535,8 +7529,8 @@
       <c r="L55" s="199">
         <v>727479</v>
       </c>
-      <c r="M55" s="323">
-        <f>VLOOKUP(C55,Sheet1!$A$1:$I$33,9,0)</f>
+      <c r="M55" s="283">
+        <f>VLOOKUP(C55,'Haver NA'!$A$1:$I$33,9,0)</f>
         <v>728172</v>
       </c>
       <c r="N55" s="116">
@@ -7613,7 +7607,7 @@
         <f t="shared" si="36"/>
         <v>241407</v>
       </c>
-      <c r="M56" s="199">
+      <c r="M56" s="283">
         <f t="shared" si="36"/>
         <v>242100</v>
       </c>
@@ -7656,7 +7650,7 @@
         <f>K57*(1+L67)</f>
         <v>189924.8072833599</v>
       </c>
-      <c r="M57" s="323"/>
+      <c r="M57" s="283"/>
       <c r="N57" s="116">
         <f>L57*(1+N67)</f>
         <v>191372.88477706737</v>
@@ -7727,10 +7721,7 @@
       <c r="L58" s="199">
         <v>38500</v>
       </c>
-      <c r="M58" s="323" t="e">
-        <f>VLOOKUP(C58,Sheet1!$A$1:$I$33,9,0)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="M58" s="283"/>
       <c r="N58" s="139"/>
       <c r="O58" s="139"/>
       <c r="P58" s="139"/>
@@ -7770,7 +7761,7 @@
         <f>SUM(L60:L62)</f>
         <v>97000</v>
       </c>
-      <c r="M59" s="323"/>
+      <c r="M59" s="283"/>
       <c r="N59" s="116">
         <f t="shared" ref="N59:W59" si="42">SUM(N60:N62)</f>
         <v>107000</v>
@@ -7838,7 +7829,7 @@
       <c r="L60" s="199">
         <v>45000</v>
       </c>
-      <c r="M60" s="323"/>
+      <c r="M60" s="283"/>
       <c r="N60" s="116">
         <v>60000</v>
       </c>
@@ -7896,7 +7887,7 @@
       <c r="L61" s="199">
         <v>27000</v>
       </c>
-      <c r="M61" s="323"/>
+      <c r="M61" s="283"/>
       <c r="N61" s="116">
         <v>12000</v>
       </c>
@@ -7944,7 +7935,7 @@
       <c r="L62" s="199">
         <v>25000</v>
       </c>
-      <c r="M62" s="323"/>
+      <c r="M62" s="283"/>
       <c r="N62" s="116">
         <v>35000</v>
       </c>
@@ -8063,7 +8054,7 @@
       <c r="J64" s="199"/>
       <c r="K64" s="205"/>
       <c r="L64" s="199"/>
-      <c r="M64" s="323"/>
+      <c r="M64" s="283"/>
       <c r="N64" s="135"/>
       <c r="O64" s="135"/>
       <c r="P64" s="135"/>
@@ -8119,9 +8110,9 @@
       <c r="L65" s="199">
         <v>1335.2</v>
       </c>
-      <c r="M65" s="323">
-        <f>VLOOKUP(C65,Sheet1!$A$1:$I$33,9,0)</f>
-        <v>1335229</v>
+      <c r="M65" s="283">
+        <f>VLOOKUP(C65,'Haver NA'!$A$1:$I$33,9,0)</f>
+        <v>1335322</v>
       </c>
       <c r="N65" s="116"/>
       <c r="O65" s="116"/>
@@ -8174,9 +8165,9 @@
       <c r="L66" s="199">
         <v>1486.6</v>
       </c>
-      <c r="M66" s="323">
-        <f>VLOOKUP(C66,Sheet1!$A$1:$I$33,9,0)</f>
-        <v>1486617</v>
+      <c r="M66" s="283">
+        <f>VLOOKUP(C66,'Haver NA'!$A$1:$I$33,9,0)</f>
+        <v>1486802</v>
       </c>
       <c r="N66">
         <v>1497.93454882981</v>
@@ -8242,7 +8233,7 @@
         <f>L66/K66-1</f>
         <v>-1.2094630515683158E-2</v>
       </c>
-      <c r="M67" s="323"/>
+      <c r="M67" s="283"/>
       <c r="N67" s="188">
         <f>N66/L66-1</f>
         <v>7.6244778890153242E-3</v>
@@ -8339,8 +8330,8 @@
       <c r="L68" s="199">
         <v>486072</v>
       </c>
-      <c r="M68" s="323">
-        <f>VLOOKUP(C68,Sheet1!$A$1:$I$33,9,0)</f>
+      <c r="M68" s="283">
+        <f>VLOOKUP(C68,'Haver NA'!$A$1:$I$33,9,0)</f>
         <v>486072</v>
       </c>
       <c r="N68" s="116">
@@ -8456,7 +8447,7 @@
         <f t="shared" ref="L69:U69" si="50">L42+L39+L32+L35</f>
         <v>2531540</v>
       </c>
-      <c r="M69" s="323"/>
+      <c r="M69" s="283"/>
       <c r="N69" s="142">
         <f>N42+N39+N32+N35</f>
         <v>1990939.5416534182</v>
@@ -8515,7 +8506,7 @@
         <f t="shared" ref="L70:U70" si="52">L68+L31</f>
         <v>1328805</v>
       </c>
-      <c r="M70" s="323"/>
+      <c r="M70" s="283"/>
       <c r="N70" s="143">
         <f t="shared" si="52"/>
         <v>1379628.482295726</v>
@@ -8563,7 +8554,7 @@
       <c r="J71" s="199"/>
       <c r="K71" s="199"/>
       <c r="L71" s="199"/>
-      <c r="M71" s="323"/>
+      <c r="M71" s="283"/>
       <c r="AL71" s="243"/>
     </row>
     <row r="72" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
@@ -8600,9 +8591,9 @@
       <c r="L72" s="199">
         <v>843592</v>
       </c>
-      <c r="M72" s="323">
-        <f>VLOOKUP(C72,Sheet1!$A$1:$I$33,9,0)</f>
-        <v>843592</v>
+      <c r="M72" s="283">
+        <f>VLOOKUP(C72,'Haver NA'!$A$1:$I$33,9,0)</f>
+        <v>835999</v>
       </c>
       <c r="N72" s="133">
         <f t="shared" ref="N72:U72" si="54">N73+N75</f>
@@ -8678,7 +8669,7 @@
         <f>L72-L75</f>
         <v>144609</v>
       </c>
-      <c r="M73" s="323"/>
+      <c r="M73" s="283"/>
       <c r="N73" s="133">
         <f>L73*(1+N84-0.015)</f>
         <v>142801.38749999998</v>
@@ -8726,7 +8717,7 @@
       <c r="J74" s="199"/>
       <c r="K74" s="199"/>
       <c r="L74" s="199"/>
-      <c r="M74" s="323"/>
+      <c r="M74" s="283"/>
       <c r="AL74" s="243"/>
     </row>
     <row r="75" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
@@ -8763,9 +8754,9 @@
       <c r="L75" s="199">
         <v>698983</v>
       </c>
-      <c r="M75" s="323">
-        <f>VLOOKUP(C75,Sheet1!$A$1:$I$33,9,0)</f>
-        <v>698983</v>
+      <c r="M75" s="283">
+        <f>VLOOKUP(C75,'Haver NA'!$A$1:$I$33,9,0)</f>
+        <v>691267</v>
       </c>
       <c r="N75" s="135">
         <f>L75*(($AI$75/$AH$75)^0.18)</f>
@@ -8843,7 +8834,7 @@
       <c r="J76" s="202"/>
       <c r="K76" s="202"/>
       <c r="L76" s="199"/>
-      <c r="M76" s="323"/>
+      <c r="M76" s="283"/>
       <c r="N76" s="176"/>
       <c r="O76" s="176"/>
       <c r="P76" s="176"/>
@@ -8898,7 +8889,7 @@
       </c>
       <c r="K77" s="211"/>
       <c r="L77" s="199"/>
-      <c r="M77" s="323"/>
+      <c r="M77" s="283"/>
       <c r="AC77" s="154"/>
       <c r="AD77" s="154"/>
       <c r="AE77" s="154"/>
@@ -8941,9 +8932,9 @@
       <c r="L78" s="199">
         <v>1996.2</v>
       </c>
-      <c r="M78" s="323">
-        <f>VLOOKUP(C78,Sheet1!$A$1:$I$33,9,0)</f>
-        <v>1996158</v>
+      <c r="M78" s="283">
+        <f>VLOOKUP(C78,'Haver NA'!$A$1:$I$33,9,0)</f>
+        <v>1992677</v>
       </c>
       <c r="N78" s="35">
         <f>L78*(1+N80)</f>
@@ -9018,7 +9009,7 @@
         <f>(L78/K78)-1</f>
         <v>-8.39501266703091E-3</v>
       </c>
-      <c r="M79" s="323"/>
+      <c r="M79" s="283"/>
       <c r="N79" s="262"/>
       <c r="O79" s="262"/>
       <c r="P79" s="262"/>
@@ -9049,7 +9040,7 @@
       <c r="J80" s="202"/>
       <c r="K80" s="202"/>
       <c r="L80" s="199"/>
-      <c r="M80" s="323"/>
+      <c r="M80" s="283"/>
       <c r="N80" s="198">
         <v>1.95599022004889E-2</v>
       </c>
@@ -9114,9 +9105,9 @@
       <c r="L81" s="199">
         <v>2337.9</v>
       </c>
-      <c r="M81" s="323">
-        <f>VLOOKUP(C81,Sheet1!$A$1:$I$33,9,0)</f>
-        <v>2337877</v>
+      <c r="M81" s="283">
+        <f>VLOOKUP(C81,'Haver NA'!$A$1:$I$33,9,0)</f>
+        <v>2329677</v>
       </c>
       <c r="N81">
         <v>2431.4160000000002</v>
@@ -9165,7 +9156,7 @@
       <c r="J82" s="199"/>
       <c r="K82" s="199"/>
       <c r="L82" s="199"/>
-      <c r="M82" s="323"/>
+      <c r="M82" s="283"/>
       <c r="N82">
         <f>L81*(1+N84)</f>
         <v>2343.7447499999998</v>
@@ -9230,7 +9221,7 @@
         <f>(((L81/K81))^4)-1</f>
         <v>5.8383978226230759E-3</v>
       </c>
-      <c r="M83" s="323"/>
+      <c r="M83" s="283"/>
       <c r="N83" s="262"/>
       <c r="O83" s="262"/>
       <c r="P83" s="262"/>
@@ -9257,7 +9248,7 @@
       <c r="J84" s="202"/>
       <c r="K84" s="202"/>
       <c r="L84" s="199"/>
-      <c r="M84" s="323"/>
+      <c r="M84" s="283"/>
       <c r="N84" s="176">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -9302,7 +9293,7 @@
       <c r="J85" s="202"/>
       <c r="K85" s="202"/>
       <c r="L85" s="199"/>
-      <c r="M85" s="323"/>
+      <c r="M85" s="283"/>
       <c r="N85" s="176"/>
       <c r="O85" s="176"/>
       <c r="P85" s="176"/>
@@ -9350,7 +9341,7 @@
         <f>L72+L38-L68</f>
         <v>497520</v>
       </c>
-      <c r="M86" s="323"/>
+      <c r="M86" s="283"/>
       <c r="N86" s="223">
         <f t="shared" si="67"/>
         <v>407814.32909080177</v>
@@ -9421,7 +9412,7 @@
         <f t="shared" ref="L87:U87" si="69">L75-L68</f>
         <v>212911</v>
       </c>
-      <c r="M87" s="323"/>
+      <c r="M87" s="283"/>
       <c r="N87" s="142">
         <f t="shared" si="69"/>
         <v>185012.94159080181</v>
@@ -9509,7 +9500,7 @@
         <f>L86-(L75-L68)</f>
         <v>284609</v>
       </c>
-      <c r="M88" s="323"/>
+      <c r="M88" s="283"/>
       <c r="N88" s="143">
         <f t="shared" si="71"/>
         <v>222801.38749999995</v>
@@ -9805,50 +9796,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="296" t="s">
+      <c r="A5" s="303" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="297"/>
-      <c r="C5" s="297"/>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="297"/>
-      <c r="J5" s="297"/>
-      <c r="K5" s="297"/>
-      <c r="L5" s="297"/>
-      <c r="M5" s="297"/>
-      <c r="N5" s="297"/>
-      <c r="O5" s="297"/>
-      <c r="P5" s="297"/>
-      <c r="Q5" s="297"/>
-      <c r="R5" s="297"/>
-      <c r="S5" s="297"/>
+      <c r="B5" s="304"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="304"/>
+      <c r="K5" s="304"/>
+      <c r="L5" s="304"/>
+      <c r="M5" s="304"/>
+      <c r="N5" s="304"/>
+      <c r="O5" s="304"/>
+      <c r="P5" s="304"/>
+      <c r="Q5" s="304"/>
+      <c r="R5" s="304"/>
+      <c r="S5" s="304"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="298" t="s">
+      <c r="A6" s="305" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="298"/>
-      <c r="C6" s="298"/>
-      <c r="D6" s="298"/>
-      <c r="E6" s="298"/>
-      <c r="F6" s="298"/>
-      <c r="G6" s="298"/>
-      <c r="H6" s="298"/>
-      <c r="I6" s="298"/>
-      <c r="J6" s="298"/>
-      <c r="K6" s="298"/>
-      <c r="L6" s="298"/>
-      <c r="M6" s="298"/>
-      <c r="N6" s="298"/>
-      <c r="O6" s="298"/>
-      <c r="P6" s="298"/>
-      <c r="Q6" s="298"/>
-      <c r="R6" s="298"/>
-      <c r="S6" s="298"/>
+      <c r="B6" s="305"/>
+      <c r="C6" s="305"/>
+      <c r="D6" s="305"/>
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="305"/>
+      <c r="N6" s="305"/>
+      <c r="O6" s="305"/>
+      <c r="P6" s="305"/>
+      <c r="Q6" s="305"/>
+      <c r="R6" s="305"/>
+      <c r="S6" s="305"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -9889,8 +9880,8 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="131"/>
-      <c r="R8" s="299"/>
-      <c r="S8" s="300"/>
+      <c r="R8" s="306"/>
+      <c r="S8" s="307"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="130"/>
@@ -10155,10 +10146,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="283" t="s">
+      <c r="A1" s="290" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="283"/>
+      <c r="B1" s="290"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -10166,18 +10157,18 @@
       <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="301" t="s">
+      <c r="Z1" s="308" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="301"/>
-      <c r="AB1" s="301"/>
-      <c r="AC1" s="282"/>
-      <c r="AD1" s="282"/>
-      <c r="AE1" s="282"/>
-      <c r="AF1" s="282"/>
+      <c r="AA1" s="308"/>
+      <c r="AB1" s="308"/>
+      <c r="AC1" s="289"/>
+      <c r="AD1" s="289"/>
+      <c r="AE1" s="289"/>
+      <c r="AF1" s="289"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="302" t="s">
+      <c r="A2" s="309" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="107"/>
@@ -10186,45 +10177,45 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="302"/>
+      <c r="A3" s="309"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="302"/>
+      <c r="A4" s="309"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="302"/>
+      <c r="A5" s="309"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C7" s="292" t="s">
+      <c r="C7" s="299" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="294"/>
-      <c r="G7" s="292" t="s">
+      <c r="D7" s="300"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="299" t="s">
         <v>167</v>
       </c>
-      <c r="H7" s="293"/>
-      <c r="I7" s="293"/>
-      <c r="J7" s="294"/>
-      <c r="K7" s="292" t="s">
+      <c r="H7" s="300"/>
+      <c r="I7" s="300"/>
+      <c r="J7" s="301"/>
+      <c r="K7" s="299" t="s">
         <v>178</v>
       </c>
-      <c r="L7" s="293"/>
-      <c r="M7" s="293"/>
-      <c r="N7" s="294"/>
+      <c r="L7" s="300"/>
+      <c r="M7" s="300"/>
+      <c r="N7" s="301"/>
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
@@ -12105,72 +12096,72 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="315" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="303"/>
-      <c r="C2" s="303"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="303"/>
-      <c r="F2" s="303"/>
-      <c r="G2" s="303"/>
-      <c r="H2" s="303"/>
-      <c r="I2" s="303"/>
-      <c r="J2" s="303"/>
+      <c r="B2" s="315"/>
+      <c r="C2" s="315"/>
+      <c r="D2" s="315"/>
+      <c r="E2" s="315"/>
+      <c r="F2" s="315"/>
+      <c r="G2" s="315"/>
+      <c r="H2" s="315"/>
+      <c r="I2" s="315"/>
+      <c r="J2" s="315"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="315" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="303"/>
-      <c r="C3" s="303"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="303"/>
-      <c r="F3" s="303"/>
-      <c r="G3" s="303"/>
-      <c r="H3" s="303"/>
-      <c r="I3" s="303"/>
-      <c r="J3" s="303"/>
+      <c r="B3" s="315"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="315"/>
+      <c r="E3" s="315"/>
+      <c r="F3" s="315"/>
+      <c r="G3" s="315"/>
+      <c r="H3" s="315"/>
+      <c r="I3" s="315"/>
+      <c r="J3" s="315"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="304"/>
-      <c r="B4" s="304"/>
-      <c r="C4" s="304"/>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="304"/>
-      <c r="J4" s="304"/>
-      <c r="K4" s="309" t="s">
+      <c r="A4" s="316"/>
+      <c r="B4" s="316"/>
+      <c r="C4" s="316"/>
+      <c r="D4" s="316"/>
+      <c r="E4" s="316"/>
+      <c r="F4" s="316"/>
+      <c r="G4" s="316"/>
+      <c r="H4" s="316"/>
+      <c r="I4" s="316"/>
+      <c r="J4" s="316"/>
+      <c r="K4" s="321" t="s">
         <v>161</v>
       </c>
-      <c r="L4" s="309"/>
-      <c r="M4" s="309"/>
-      <c r="N4" s="309"/>
+      <c r="L4" s="321"/>
+      <c r="M4" s="321"/>
+      <c r="N4" s="321"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="305" t="s">
+      <c r="C5" s="317" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="306"/>
-      <c r="E5" s="306"/>
-      <c r="F5" s="306"/>
-      <c r="G5" s="306"/>
-      <c r="H5" s="306"/>
-      <c r="I5" s="306"/>
-      <c r="J5" s="307"/>
+      <c r="D5" s="318"/>
+      <c r="E5" s="318"/>
+      <c r="F5" s="318"/>
+      <c r="G5" s="318"/>
+      <c r="H5" s="318"/>
+      <c r="I5" s="318"/>
+      <c r="J5" s="319"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="308" t="s">
+      <c r="L5" s="320" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="282"/>
-      <c r="N5" s="282"/>
+      <c r="M5" s="289"/>
+      <c r="N5" s="289"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -12623,24 +12614,24 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="K22" s="282" t="s">
+      <c r="K22" s="289" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="282"/>
-      <c r="M22" s="282"/>
-      <c r="N22" s="282"/>
-      <c r="O22" s="282" t="s">
+      <c r="L22" s="289"/>
+      <c r="M22" s="289"/>
+      <c r="N22" s="289"/>
+      <c r="O22" s="289" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="282"/>
-      <c r="Q22" s="282"/>
-      <c r="R22" s="282"/>
-      <c r="S22" s="282" t="s">
+      <c r="P22" s="289"/>
+      <c r="Q22" s="289"/>
+      <c r="R22" s="289"/>
+      <c r="S22" s="289" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="282"/>
-      <c r="U22" s="282"/>
-      <c r="V22" s="282"/>
+      <c r="T22" s="289"/>
+      <c r="U22" s="289"/>
+      <c r="V22" s="289"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C23" s="67"/>
@@ -13269,6 +13260,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -13276,12 +13273,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13389,30 +13380,30 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="318" t="s">
+      <c r="E6" s="323" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="318"/>
-      <c r="G6" s="318"/>
-      <c r="H6" s="318"/>
-      <c r="I6" s="318"/>
-      <c r="J6" s="318"/>
-      <c r="K6" s="318"/>
-      <c r="L6" s="318"/>
-      <c r="M6" s="318"/>
-      <c r="N6" s="318"/>
-      <c r="O6" s="318"/>
-      <c r="P6" s="318"/>
-      <c r="Q6" s="318"/>
-      <c r="R6" s="318"/>
+      <c r="F6" s="323"/>
+      <c r="G6" s="323"/>
+      <c r="H6" s="323"/>
+      <c r="I6" s="323"/>
+      <c r="J6" s="323"/>
+      <c r="K6" s="323"/>
+      <c r="L6" s="323"/>
+      <c r="M6" s="323"/>
+      <c r="N6" s="323"/>
+      <c r="O6" s="323"/>
+      <c r="P6" s="323"/>
+      <c r="Q6" s="323"/>
+      <c r="R6" s="323"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="315" t="s">
+      <c r="A7" s="322" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="315"/>
-      <c r="C7" s="315"/>
-      <c r="D7" s="315"/>
+      <c r="B7" s="322"/>
+      <c r="C7" s="322"/>
+      <c r="D7" s="322"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -13430,11 +13421,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="315" t="s">
+      <c r="B8" s="322" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="315"/>
-      <c r="D8" s="315"/>
+      <c r="C8" s="322"/>
+      <c r="D8" s="322"/>
       <c r="E8" s="42">
         <v>1717.857</v>
       </c>
@@ -13480,11 +13471,11 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
-      <c r="B9" s="315" t="s">
+      <c r="B9" s="322" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="315"/>
-      <c r="D9" s="315"/>
+      <c r="C9" s="322"/>
+      <c r="D9" s="322"/>
       <c r="E9" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -13530,11 +13521,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
-      <c r="B10" s="315" t="s">
+      <c r="B10" s="322" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="315"/>
-      <c r="D10" s="315"/>
+      <c r="C10" s="322"/>
+      <c r="D10" s="322"/>
       <c r="E10" s="42">
         <v>230.245</v>
       </c>
@@ -13580,11 +13571,11 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="36"/>
-      <c r="B11" s="315" t="s">
+      <c r="B11" s="322" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="315"/>
-      <c r="D11" s="315"/>
+      <c r="C11" s="322"/>
+      <c r="D11" s="322"/>
       <c r="E11" s="42">
         <v>271.327</v>
       </c>
@@ -13679,10 +13670,10 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="315" t="s">
+      <c r="C13" s="322" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="315"/>
+      <c r="D13" s="322"/>
       <c r="E13" s="42">
         <v>3462.8009999999999</v>
       </c>
@@ -13833,11 +13824,11 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
-      <c r="B19" s="315" t="s">
+      <c r="B19" s="322" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="315"/>
-      <c r="D19" s="315"/>
+      <c r="C19" s="322"/>
+      <c r="D19" s="322"/>
       <c r="E19" s="42">
         <v>1717.857</v>
       </c>
@@ -13896,11 +13887,11 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
-      <c r="B20" s="315" t="s">
+      <c r="B20" s="322" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="315"/>
-      <c r="D20" s="315"/>
+      <c r="C20" s="322"/>
+      <c r="D20" s="322"/>
       <c r="E20" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -13960,11 +13951,11 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
-      <c r="B21" s="315" t="s">
+      <c r="B21" s="322" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="315"/>
-      <c r="D21" s="315"/>
+      <c r="C21" s="322"/>
+      <c r="D21" s="322"/>
       <c r="E21" s="42">
         <v>230.245</v>
       </c>
@@ -14023,11 +14014,11 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="36"/>
-      <c r="B22" s="315" t="s">
+      <c r="B22" s="322" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="315"/>
-      <c r="D22" s="315"/>
+      <c r="C22" s="322"/>
+      <c r="D22" s="322"/>
       <c r="E22" s="42">
         <v>271.327</v>
       </c>
@@ -14140,21 +14131,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="316" t="s">
+      <c r="H27" s="324" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="316"/>
-      <c r="J27" s="316"/>
-      <c r="K27" s="316"/>
-      <c r="L27" s="316"/>
-      <c r="M27" s="316"/>
-      <c r="N27" s="316"/>
-      <c r="O27" s="316"/>
-      <c r="P27" s="316"/>
-      <c r="Q27" s="316"/>
-      <c r="R27" s="316"/>
-      <c r="S27" s="316"/>
-      <c r="T27" s="316"/>
+      <c r="I27" s="324"/>
+      <c r="J27" s="324"/>
+      <c r="K27" s="324"/>
+      <c r="L27" s="324"/>
+      <c r="M27" s="324"/>
+      <c r="N27" s="324"/>
+      <c r="O27" s="324"/>
+      <c r="P27" s="324"/>
+      <c r="Q27" s="324"/>
+      <c r="R27" s="324"/>
+      <c r="S27" s="324"/>
+      <c r="T27" s="324"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -14470,21 +14461,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="317" t="s">
+      <c r="F37" s="325" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="317"/>
-      <c r="H37" s="317"/>
-      <c r="I37" s="317"/>
-      <c r="J37" s="317"/>
-      <c r="K37" s="317"/>
-      <c r="L37" s="317"/>
-      <c r="M37" s="317"/>
-      <c r="N37" s="317"/>
-      <c r="O37" s="317"/>
-      <c r="P37" s="317"/>
-      <c r="Q37" s="317"/>
-      <c r="R37" s="317"/>
+      <c r="G37" s="325"/>
+      <c r="H37" s="325"/>
+      <c r="I37" s="325"/>
+      <c r="J37" s="325"/>
+      <c r="K37" s="325"/>
+      <c r="L37" s="325"/>
+      <c r="M37" s="325"/>
+      <c r="N37" s="325"/>
+      <c r="O37" s="325"/>
+      <c r="P37" s="325"/>
+      <c r="Q37" s="325"/>
+      <c r="R37" s="325"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -14800,21 +14791,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="316" t="s">
+      <c r="F48" s="324" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="316"/>
-      <c r="H48" s="316"/>
-      <c r="I48" s="316"/>
-      <c r="J48" s="316"/>
-      <c r="K48" s="316"/>
-      <c r="L48" s="316"/>
-      <c r="M48" s="316"/>
-      <c r="N48" s="316"/>
-      <c r="O48" s="316"/>
-      <c r="P48" s="316"/>
-      <c r="Q48" s="316"/>
-      <c r="R48" s="316"/>
+      <c r="G48" s="324"/>
+      <c r="H48" s="324"/>
+      <c r="I48" s="324"/>
+      <c r="J48" s="324"/>
+      <c r="K48" s="324"/>
+      <c r="L48" s="324"/>
+      <c r="M48" s="324"/>
+      <c r="N48" s="324"/>
+      <c r="O48" s="324"/>
+      <c r="P48" s="324"/>
+      <c r="Q48" s="324"/>
+      <c r="R48" s="324"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -15126,12 +15117,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -15140,6 +15125,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15178,50 +15169,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="296" t="s">
+      <c r="A5" s="303" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="297"/>
-      <c r="C5" s="297"/>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="297"/>
-      <c r="J5" s="297"/>
-      <c r="K5" s="297"/>
-      <c r="L5" s="297"/>
-      <c r="M5" s="297"/>
-      <c r="N5" s="297"/>
-      <c r="O5" s="297"/>
-      <c r="P5" s="297"/>
-      <c r="Q5" s="297"/>
-      <c r="R5" s="297"/>
-      <c r="S5" s="297"/>
+      <c r="B5" s="304"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="304"/>
+      <c r="K5" s="304"/>
+      <c r="L5" s="304"/>
+      <c r="M5" s="304"/>
+      <c r="N5" s="304"/>
+      <c r="O5" s="304"/>
+      <c r="P5" s="304"/>
+      <c r="Q5" s="304"/>
+      <c r="R5" s="304"/>
+      <c r="S5" s="304"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="298" t="s">
+      <c r="A6" s="305" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="298"/>
-      <c r="C6" s="298"/>
-      <c r="D6" s="298"/>
-      <c r="E6" s="298"/>
-      <c r="F6" s="298"/>
-      <c r="G6" s="298"/>
-      <c r="H6" s="298"/>
-      <c r="I6" s="298"/>
-      <c r="J6" s="298"/>
-      <c r="K6" s="298"/>
-      <c r="L6" s="298"/>
-      <c r="M6" s="298"/>
-      <c r="N6" s="298"/>
-      <c r="O6" s="298"/>
-      <c r="P6" s="298"/>
-      <c r="Q6" s="298"/>
-      <c r="R6" s="298"/>
-      <c r="S6" s="298"/>
+      <c r="B6" s="305"/>
+      <c r="C6" s="305"/>
+      <c r="D6" s="305"/>
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="305"/>
+      <c r="N6" s="305"/>
+      <c r="O6" s="305"/>
+      <c r="P6" s="305"/>
+      <c r="Q6" s="305"/>
+      <c r="R6" s="305"/>
+      <c r="S6" s="305"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -15261,10 +15252,10 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="299" t="s">
+      <c r="R8" s="306" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="300"/>
+      <c r="S8" s="307"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
@@ -18135,10 +18126,10 @@
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="319" t="s">
+      <c r="D75" s="326" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="320"/>
+      <c r="E75" s="327"/>
       <c r="F75" s="25">
         <v>-75.135000000000005</v>
       </c>
@@ -18814,14 +18805,10 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I34"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" s="280" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="280" t="s">
@@ -18856,57 +18843,57 @@
       <c r="A2" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="327">
+      <c r="B2" s="287">
         <v>20909.900000000001</v>
       </c>
-      <c r="C2" s="327">
+      <c r="C2" s="287">
         <v>21115.3</v>
       </c>
-      <c r="D2" s="327">
+      <c r="D2" s="287">
         <v>21329.9</v>
       </c>
-      <c r="E2" s="327">
+      <c r="E2" s="287">
         <v>21540.3</v>
       </c>
-      <c r="F2" s="327">
+      <c r="F2" s="287">
         <v>21747.4</v>
       </c>
-      <c r="G2" s="327">
+      <c r="G2" s="287">
         <v>21561.1</v>
       </c>
-      <c r="H2" s="327">
+      <c r="H2" s="287">
         <v>19520.099999999999</v>
       </c>
-      <c r="I2" s="327">
-        <v>21157.599999999999</v>
+      <c r="I2" s="287">
+        <v>21157.1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="327">
+      <c r="B3" s="287">
         <v>18813.900000000001</v>
       </c>
-      <c r="C3" s="327">
+      <c r="C3" s="287">
         <v>18950.3</v>
       </c>
-      <c r="D3" s="327">
+      <c r="D3" s="287">
         <v>19020.599999999999</v>
       </c>
-      <c r="E3" s="327">
+      <c r="E3" s="287">
         <v>19141.7</v>
       </c>
-      <c r="F3" s="327">
+      <c r="F3" s="287">
         <v>19254</v>
       </c>
-      <c r="G3" s="327">
+      <c r="G3" s="287">
         <v>19010.8</v>
       </c>
-      <c r="H3" s="327">
+      <c r="H3" s="287">
         <v>17302.5</v>
       </c>
-      <c r="I3" s="327">
+      <c r="I3" s="287">
         <v>18583.5</v>
       </c>
     </row>
@@ -18914,57 +18901,57 @@
       <c r="A4" t="s">
         <v>298</v>
       </c>
-      <c r="B4" s="327">
+      <c r="B4" s="287">
         <v>1634.2</v>
       </c>
-      <c r="C4" s="327">
+      <c r="C4" s="287">
         <v>1695.5</v>
       </c>
-      <c r="D4" s="327">
+      <c r="D4" s="287">
         <v>1703.1</v>
       </c>
-      <c r="E4" s="327">
+      <c r="E4" s="287">
         <v>1713.2</v>
       </c>
-      <c r="F4" s="327">
+      <c r="F4" s="287">
         <v>1740.2</v>
       </c>
-      <c r="G4" s="327">
+      <c r="G4" s="287">
         <v>1756.6</v>
       </c>
-      <c r="H4" s="327">
-        <v>1599.3</v>
-      </c>
-      <c r="I4" s="327">
-        <v>1686.4</v>
+      <c r="H4" s="287">
+        <v>1600.1</v>
+      </c>
+      <c r="I4" s="287">
+        <v>1687.2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="327">
+      <c r="B5" s="287">
         <v>183.5</v>
       </c>
-      <c r="C5" s="327">
+      <c r="C5" s="287">
         <v>172.1</v>
       </c>
-      <c r="D5" s="327">
+      <c r="D5" s="287">
         <v>168.3</v>
       </c>
-      <c r="E5" s="327">
+      <c r="E5" s="287">
         <v>175.1</v>
       </c>
-      <c r="F5" s="327">
+      <c r="F5" s="287">
         <v>179.2</v>
       </c>
-      <c r="G5" s="327">
+      <c r="G5" s="287">
         <v>183.8</v>
       </c>
-      <c r="H5" s="327">
+      <c r="H5" s="287">
         <v>131.4</v>
       </c>
-      <c r="I5" s="327">
+      <c r="I5" s="287">
         <v>144.69999999999999</v>
       </c>
     </row>
@@ -18972,144 +18959,144 @@
       <c r="A6" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="327">
+      <c r="B6" s="287">
         <v>1355.2</v>
       </c>
-      <c r="C6" s="327">
+      <c r="C6" s="287">
         <v>1386.7</v>
       </c>
-      <c r="D6" s="327">
+      <c r="D6" s="287">
         <v>1392.6</v>
       </c>
-      <c r="E6" s="327">
+      <c r="E6" s="287">
         <v>1397.2</v>
       </c>
-      <c r="F6" s="327">
+      <c r="F6" s="287">
         <v>1411.7</v>
       </c>
-      <c r="G6" s="327">
+      <c r="G6" s="287">
         <v>1431.2</v>
       </c>
-      <c r="H6" s="327">
-        <v>1360.8</v>
-      </c>
-      <c r="I6" s="327">
-        <v>1414.2</v>
+      <c r="H6" s="287">
+        <v>1369.2</v>
+      </c>
+      <c r="I6" s="287">
+        <v>1429.6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="327">
+      <c r="B7" s="287">
         <v>234.7</v>
       </c>
-      <c r="C7" s="327">
+      <c r="C7" s="287">
         <v>213.8</v>
       </c>
-      <c r="D7" s="327">
+      <c r="D7" s="287">
         <v>224.2</v>
       </c>
-      <c r="E7" s="327">
+      <c r="E7" s="287">
         <v>201.6</v>
       </c>
-      <c r="F7" s="327">
+      <c r="F7" s="287">
         <v>229.7</v>
       </c>
-      <c r="G7" s="327">
+      <c r="G7" s="287">
         <v>180.5</v>
       </c>
-      <c r="H7" s="327">
+      <c r="H7" s="287">
         <v>171.5</v>
       </c>
-      <c r="I7" s="327">
-        <v>193.9</v>
+      <c r="I7" s="287">
+        <v>205.3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>302</v>
       </c>
-      <c r="B8" s="327">
+      <c r="B8" s="287">
         <v>456.5</v>
       </c>
-      <c r="C8" s="327">
+      <c r="C8" s="287">
         <v>475.2</v>
       </c>
-      <c r="D8" s="327">
+      <c r="D8" s="287">
         <v>519.4</v>
       </c>
-      <c r="E8" s="327">
+      <c r="E8" s="287">
         <v>483.9</v>
       </c>
-      <c r="F8" s="327">
+      <c r="F8" s="287">
         <v>480.9</v>
       </c>
-      <c r="G8" s="327">
+      <c r="G8" s="287">
         <v>495.8</v>
       </c>
-      <c r="H8" s="327">
+      <c r="H8" s="287">
         <v>496.4</v>
       </c>
-      <c r="I8" s="327">
-        <v>505.4</v>
+      <c r="I8" s="287">
+        <v>499.4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>303</v>
       </c>
-      <c r="B9" s="327">
+      <c r="B9" s="287">
         <v>1295.5</v>
       </c>
-      <c r="C9" s="327">
+      <c r="C9" s="287">
         <v>1301.5999999999999</v>
       </c>
-      <c r="D9" s="327">
+      <c r="D9" s="287">
         <v>1312.4</v>
       </c>
-      <c r="E9" s="327">
+      <c r="E9" s="287">
         <v>1326.5</v>
       </c>
-      <c r="F9" s="327">
+      <c r="F9" s="287">
         <v>1330.4</v>
       </c>
-      <c r="G9" s="327">
+      <c r="G9" s="287">
         <v>1346.2</v>
       </c>
-      <c r="H9" s="327">
+      <c r="H9" s="287">
         <v>1264.3</v>
       </c>
-      <c r="I9" s="327">
-        <v>1315.1</v>
+      <c r="I9" s="287">
+        <v>1317.3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>335</v>
       </c>
-      <c r="B10" s="327">
+      <c r="B10" s="287">
         <v>8600</v>
       </c>
-      <c r="C10" s="327">
+      <c r="C10" s="287">
         <v>8932</v>
       </c>
-      <c r="D10" s="327">
+      <c r="D10" s="287">
         <v>8944</v>
       </c>
-      <c r="E10" s="327">
+      <c r="E10" s="287">
         <v>8604</v>
       </c>
-      <c r="F10" s="327">
+      <c r="F10" s="287">
         <v>7908</v>
       </c>
-      <c r="G10" s="327">
+      <c r="G10" s="287">
         <v>7020</v>
       </c>
-      <c r="H10" s="327">
+      <c r="H10" s="287">
         <v>6744</v>
       </c>
-      <c r="I10" s="327">
+      <c r="I10" s="287">
         <v>7248</v>
       </c>
     </row>
@@ -19117,28 +19104,28 @@
       <c r="A11" t="s">
         <v>336</v>
       </c>
-      <c r="B11" s="327">
+      <c r="B11" s="287">
         <v>12969</v>
       </c>
-      <c r="C11" s="327">
+      <c r="C11" s="287">
         <v>13054</v>
       </c>
-      <c r="D11" s="327">
+      <c r="D11" s="287">
         <v>13132</v>
       </c>
-      <c r="E11" s="327">
+      <c r="E11" s="287">
         <v>13183</v>
       </c>
-      <c r="F11" s="327">
+      <c r="F11" s="287">
         <v>13235</v>
       </c>
-      <c r="G11" s="327">
+      <c r="G11" s="287">
         <v>13345</v>
       </c>
-      <c r="H11" s="327">
+      <c r="H11" s="287">
         <v>12362</v>
       </c>
-      <c r="I11" s="327">
+      <c r="I11" s="287">
         <v>12998</v>
       </c>
     </row>
@@ -19146,57 +19133,57 @@
       <c r="A12" t="s">
         <v>305</v>
       </c>
-      <c r="B12" s="327">
+      <c r="B12" s="287">
         <v>63.5</v>
       </c>
-      <c r="C12" s="327">
+      <c r="C12" s="287">
         <v>68.5</v>
       </c>
-      <c r="D12" s="327">
+      <c r="D12" s="287">
         <v>68.7</v>
       </c>
-      <c r="E12" s="327">
+      <c r="E12" s="287">
         <v>69.8</v>
       </c>
-      <c r="F12" s="327">
+      <c r="F12" s="287">
         <v>71</v>
       </c>
-      <c r="G12" s="327">
+      <c r="G12" s="287">
         <v>62.7</v>
       </c>
-      <c r="H12" s="327">
+      <c r="H12" s="287">
         <v>54.2</v>
       </c>
-      <c r="I12" s="327">
-        <v>62.633330000000001</v>
+      <c r="I12" s="287">
+        <v>79.099999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>306</v>
       </c>
-      <c r="B13" s="327">
+      <c r="B13" s="287">
         <v>2220523</v>
       </c>
-      <c r="C13" s="327">
+      <c r="C13" s="287">
         <v>2298792</v>
       </c>
-      <c r="D13" s="327">
+      <c r="D13" s="287">
         <v>2315842</v>
       </c>
-      <c r="E13" s="327">
+      <c r="E13" s="287">
         <v>2331428</v>
       </c>
-      <c r="F13" s="327">
+      <c r="F13" s="287">
         <v>2347737</v>
       </c>
-      <c r="G13" s="327">
+      <c r="G13" s="287">
         <v>2422546</v>
       </c>
-      <c r="H13" s="327">
+      <c r="H13" s="287">
         <v>4815254</v>
       </c>
-      <c r="I13" s="327">
+      <c r="I13" s="287">
         <v>3488125</v>
       </c>
     </row>
@@ -19204,28 +19191,28 @@
       <c r="A14" t="s">
         <v>307</v>
       </c>
-      <c r="B14" s="327">
+      <c r="B14" s="287">
         <v>753311</v>
       </c>
-      <c r="C14" s="327">
+      <c r="C14" s="287">
         <v>767353</v>
       </c>
-      <c r="D14" s="327">
+      <c r="D14" s="287">
         <v>779707</v>
       </c>
-      <c r="E14" s="327">
+      <c r="E14" s="287">
         <v>789893</v>
       </c>
-      <c r="F14" s="327">
+      <c r="F14" s="287">
         <v>797912</v>
       </c>
-      <c r="G14" s="327">
+      <c r="G14" s="287">
         <v>804655</v>
       </c>
-      <c r="H14" s="327">
+      <c r="H14" s="287">
         <v>824058</v>
       </c>
-      <c r="I14" s="327">
+      <c r="I14" s="287">
         <v>842733</v>
       </c>
     </row>
@@ -19233,10 +19220,10 @@
       <c r="A15" t="s">
         <v>308</v>
       </c>
-      <c r="H15" s="327">
+      <c r="H15" s="287">
         <v>1078100</v>
       </c>
-      <c r="I15" s="327">
+      <c r="I15" s="287">
         <v>15600</v>
       </c>
     </row>
@@ -19244,39 +19231,39 @@
       <c r="A16" t="s">
         <v>309</v>
       </c>
-      <c r="B16" s="327">
+      <c r="B16" s="287">
         <v>27025</v>
       </c>
-      <c r="C16" s="327">
+      <c r="C16" s="287">
         <v>28029</v>
       </c>
-      <c r="D16" s="327">
+      <c r="D16" s="287">
         <v>27483</v>
       </c>
-      <c r="E16" s="327">
+      <c r="E16" s="287">
         <v>27578</v>
       </c>
-      <c r="F16" s="327">
+      <c r="F16" s="287">
         <v>27884</v>
       </c>
-      <c r="G16" s="327">
+      <c r="G16" s="287">
         <v>43429</v>
       </c>
-      <c r="H16" s="327">
+      <c r="H16" s="287">
         <v>1084572</v>
       </c>
-      <c r="I16" s="327">
-        <v>771503</v>
+      <c r="I16" s="287">
+        <v>768678</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>310</v>
       </c>
-      <c r="H17" s="327">
+      <c r="H17" s="287">
         <v>19100</v>
       </c>
-      <c r="I17" s="327">
+      <c r="I17" s="287">
         <v>27000</v>
       </c>
     </row>
@@ -19284,39 +19271,39 @@
       <c r="A18" t="s">
         <v>311</v>
       </c>
-      <c r="H18" s="327">
+      <c r="H18" s="287">
         <v>160900</v>
       </c>
-      <c r="I18" s="327">
-        <v>56700</v>
+      <c r="I18" s="287">
+        <v>58400</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>312</v>
       </c>
-      <c r="B19" s="327">
+      <c r="B19" s="287">
         <v>79458</v>
       </c>
-      <c r="C19" s="327">
+      <c r="C19" s="287">
         <v>71318</v>
       </c>
-      <c r="D19" s="327">
+      <c r="D19" s="287">
         <v>61083</v>
       </c>
-      <c r="E19" s="327">
+      <c r="E19" s="287">
         <v>81998</v>
       </c>
-      <c r="F19" s="327">
+      <c r="F19" s="287">
         <v>81147</v>
       </c>
-      <c r="G19" s="327">
+      <c r="G19" s="287">
         <v>75093</v>
       </c>
-      <c r="H19" s="327">
+      <c r="H19" s="287">
         <v>1086548</v>
       </c>
-      <c r="I19" s="327">
+      <c r="I19" s="287">
         <v>1213308</v>
       </c>
     </row>
@@ -19324,72 +19311,72 @@
       <c r="A20" t="s">
         <v>313</v>
       </c>
-      <c r="H20" s="327">
-        <v>609.29999999999995</v>
-      </c>
-      <c r="I20" s="327">
-        <v>865.6</v>
+      <c r="H20" s="287">
+        <v>609300</v>
+      </c>
+      <c r="I20" s="287">
+        <v>865600</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>314</v>
       </c>
-      <c r="H21" s="327">
-        <v>63.8</v>
-      </c>
-      <c r="I21" s="327">
-        <v>15</v>
+      <c r="H21" s="287">
+        <v>63800</v>
+      </c>
+      <c r="I21" s="287">
+        <v>15000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>315</v>
       </c>
-      <c r="H22" s="327">
-        <v>73.3</v>
-      </c>
-      <c r="I22" s="327">
-        <v>73.3</v>
+      <c r="H22" s="287">
+        <v>73300</v>
+      </c>
+      <c r="I22" s="287">
+        <v>73300</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>316</v>
       </c>
-      <c r="H23" s="327">
-        <v>140</v>
-      </c>
-      <c r="I23" s="327">
-        <v>140</v>
+      <c r="H23" s="287">
+        <v>140000</v>
+      </c>
+      <c r="I23" s="287">
+        <v>140000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>317</v>
       </c>
-      <c r="B24" s="327">
+      <c r="B24" s="287">
         <v>586475</v>
       </c>
-      <c r="C24" s="327">
+      <c r="C24" s="287">
         <v>594213</v>
       </c>
-      <c r="D24" s="327">
+      <c r="D24" s="287">
         <v>612547</v>
       </c>
-      <c r="E24" s="327">
+      <c r="E24" s="287">
         <v>610331</v>
       </c>
-      <c r="F24" s="327">
+      <c r="F24" s="287">
         <v>615406</v>
       </c>
-      <c r="G24" s="327">
+      <c r="G24" s="287">
         <v>627805</v>
       </c>
-      <c r="H24" s="327">
+      <c r="H24" s="287">
         <v>1396890</v>
       </c>
-      <c r="I24" s="327">
+      <c r="I24" s="287">
         <v>728172</v>
       </c>
     </row>
@@ -19397,86 +19384,86 @@
       <c r="A25" t="s">
         <v>320</v>
       </c>
-      <c r="B25" s="327">
+      <c r="B25" s="287">
         <v>1368395</v>
       </c>
-      <c r="C25" s="327">
+      <c r="C25" s="287">
         <v>1388750</v>
       </c>
-      <c r="D25" s="327">
+      <c r="D25" s="287">
         <v>1410626</v>
       </c>
-      <c r="E25" s="327">
+      <c r="E25" s="287">
         <v>1429281</v>
       </c>
-      <c r="F25" s="327">
+      <c r="F25" s="287">
         <v>1447946</v>
       </c>
-      <c r="G25" s="327">
+      <c r="G25" s="287">
         <v>1452551</v>
       </c>
-      <c r="H25" s="327">
+      <c r="H25" s="287">
         <v>1504782</v>
       </c>
-      <c r="I25" s="327">
-        <v>1486617</v>
+      <c r="I25" s="287">
+        <v>1486802</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>319</v>
       </c>
-      <c r="B26" s="327">
+      <c r="B26" s="287">
         <v>1241599</v>
       </c>
-      <c r="C26" s="327">
+      <c r="C26" s="287">
         <v>1245767</v>
       </c>
-      <c r="D26" s="327">
+      <c r="D26" s="287">
         <v>1273567</v>
       </c>
-      <c r="E26" s="327">
+      <c r="E26" s="287">
         <v>1288518</v>
       </c>
-      <c r="F26" s="327">
+      <c r="F26" s="287">
         <v>1301120</v>
       </c>
-      <c r="G26" s="327">
+      <c r="G26" s="287">
         <v>1306142</v>
       </c>
-      <c r="H26" s="327">
+      <c r="H26" s="287">
         <v>1356816</v>
       </c>
-      <c r="I26" s="327">
-        <v>1335229</v>
+      <c r="I26" s="287">
+        <v>1335322</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>321</v>
       </c>
-      <c r="B27" s="327">
+      <c r="B27" s="287">
         <v>389624</v>
       </c>
-      <c r="C27" s="327">
+      <c r="C27" s="287">
         <v>404529</v>
       </c>
-      <c r="D27" s="327">
+      <c r="D27" s="287">
         <v>419672</v>
       </c>
-      <c r="E27" s="327">
+      <c r="E27" s="287">
         <v>418824</v>
       </c>
-      <c r="F27" s="327">
+      <c r="F27" s="287">
         <v>411409</v>
       </c>
-      <c r="G27" s="327">
+      <c r="G27" s="287">
         <v>423429</v>
       </c>
-      <c r="H27" s="327">
+      <c r="H27" s="287">
         <v>512640</v>
       </c>
-      <c r="I27" s="327">
+      <c r="I27" s="287">
         <v>486072</v>
       </c>
     </row>
@@ -19484,144 +19471,144 @@
       <c r="A28" t="s">
         <v>322</v>
       </c>
-      <c r="B28" s="327">
+      <c r="B28" s="287">
         <v>728844</v>
       </c>
-      <c r="C28" s="327">
+      <c r="C28" s="287">
         <v>738714</v>
       </c>
-      <c r="D28" s="327">
+      <c r="D28" s="287">
         <v>755204</v>
       </c>
-      <c r="E28" s="327">
+      <c r="E28" s="287">
         <v>763370</v>
       </c>
-      <c r="F28" s="327">
+      <c r="F28" s="287">
         <v>760967</v>
       </c>
-      <c r="G28" s="327">
+      <c r="G28" s="287">
         <v>767087</v>
       </c>
-      <c r="H28" s="327">
+      <c r="H28" s="287">
         <v>812158</v>
       </c>
-      <c r="I28" s="327">
-        <v>843592</v>
+      <c r="I28" s="287">
+        <v>835999</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>323</v>
       </c>
-      <c r="B29" s="327">
+      <c r="B29" s="287">
         <v>589819</v>
       </c>
-      <c r="C29" s="327">
+      <c r="C29" s="287">
         <v>599372</v>
       </c>
-      <c r="D29" s="327">
+      <c r="D29" s="287">
         <v>614976</v>
       </c>
-      <c r="E29" s="327">
+      <c r="E29" s="287">
         <v>622265</v>
       </c>
-      <c r="F29" s="327">
+      <c r="F29" s="287">
         <v>619362</v>
       </c>
-      <c r="G29" s="327">
+      <c r="G29" s="287">
         <v>624096</v>
       </c>
-      <c r="H29" s="327">
+      <c r="H29" s="287">
         <v>668823</v>
       </c>
-      <c r="I29" s="327">
-        <v>698983</v>
+      <c r="I29" s="287">
+        <v>691267</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>324</v>
       </c>
-      <c r="B30" s="327">
+      <c r="B30" s="287">
         <v>1997129</v>
       </c>
-      <c r="C30" s="327">
+      <c r="C30" s="287">
         <v>2012720</v>
       </c>
-      <c r="D30" s="327">
+      <c r="D30" s="287">
         <v>2025477</v>
       </c>
-      <c r="E30" s="327">
+      <c r="E30" s="287">
         <v>2028275</v>
       </c>
-      <c r="F30" s="327">
+      <c r="F30" s="287">
         <v>2035602</v>
       </c>
-      <c r="G30" s="327">
+      <c r="G30" s="287">
         <v>2041017</v>
       </c>
-      <c r="H30" s="327">
+      <c r="H30" s="287">
         <v>2013139</v>
       </c>
-      <c r="I30" s="327">
-        <v>1996158</v>
+      <c r="I30" s="287">
+        <v>1992677</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>325</v>
       </c>
-      <c r="B31" s="327">
+      <c r="B31" s="287">
         <v>2279638</v>
       </c>
-      <c r="C31" s="327">
+      <c r="C31" s="287">
         <v>2292717</v>
       </c>
-      <c r="D31" s="327">
+      <c r="D31" s="287">
         <v>2327018</v>
       </c>
-      <c r="E31" s="327">
+      <c r="E31" s="287">
         <v>2337774</v>
       </c>
-      <c r="F31" s="327">
+      <c r="F31" s="287">
         <v>2357385</v>
       </c>
-      <c r="G31" s="327">
+      <c r="G31" s="287">
         <v>2381563</v>
       </c>
-      <c r="H31" s="327">
+      <c r="H31" s="287">
         <v>2334544</v>
       </c>
-      <c r="I31" s="327">
-        <v>2337877</v>
+      <c r="I31" s="287">
+        <v>2329677</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>304</v>
       </c>
-      <c r="B32" s="327">
+      <c r="B32" s="287">
         <v>21.568999999999999</v>
       </c>
-      <c r="C32" s="327">
+      <c r="C32" s="287">
         <v>21.986000000000001</v>
       </c>
-      <c r="D32" s="327">
+      <c r="D32" s="287">
         <v>22.076000000000001</v>
       </c>
-      <c r="E32" s="327">
+      <c r="E32" s="287">
         <v>21.786999999999999</v>
       </c>
-      <c r="F32" s="327">
+      <c r="F32" s="287">
         <v>21.143000000000001</v>
       </c>
-      <c r="G32" s="327">
+      <c r="G32" s="287">
         <v>20.364999999999998</v>
       </c>
-      <c r="H32" s="327">
+      <c r="H32" s="287">
         <v>19.106000000000002</v>
       </c>
-      <c r="I32" s="327">
+      <c r="I32" s="287">
         <v>20.245999999999999</v>
       </c>
     </row>
@@ -19629,10 +19616,10 @@
       <c r="A33" t="s">
         <v>339</v>
       </c>
-      <c r="H33" s="327">
+      <c r="H33" s="287">
         <v>277100</v>
       </c>
-      <c r="I33" s="327">
+      <c r="I33" s="287">
         <v>228300</v>
       </c>
     </row>
@@ -19640,11 +19627,11 @@
       <c r="A34" t="s">
         <v>318</v>
       </c>
-      <c r="H34" s="327">
+      <c r="H34" s="287">
         <v>690700</v>
       </c>
-      <c r="I34" s="327">
-        <v>38500</v>
+      <c r="I34" s="287">
+        <v>39200</v>
       </c>
     </row>
   </sheetData>
@@ -19657,10 +19644,10 @@
   <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19679,23 +19666,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="294" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="288"/>
+      <c r="B1" s="295"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1" s="250"/>
-      <c r="J1" s="295" t="s">
+      <c r="J1" s="302" t="s">
         <v>284</v>
       </c>
-      <c r="V1" s="282"/>
-      <c r="W1" s="282"/>
-      <c r="X1" s="282"/>
-      <c r="Y1" s="282"/>
+      <c r="V1" s="289"/>
+      <c r="W1" s="289"/>
+      <c r="X1" s="289"/>
+      <c r="Y1" s="289"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="289" t="s">
+      <c r="A2" s="296" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="126"/>
@@ -19703,68 +19690,68 @@
         <v>194</v>
       </c>
       <c r="I2" s="251"/>
-      <c r="J2" s="295"/>
+      <c r="J2" s="302"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="290"/>
+      <c r="A3" s="297"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>195</v>
       </c>
       <c r="I3" s="251"/>
-      <c r="J3" s="295"/>
+      <c r="J3" s="302"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="290"/>
+      <c r="A4" s="297"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="291"/>
+      <c r="A5" s="298"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C7" s="292" t="s">
+      <c r="C7" s="299" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="294"/>
-      <c r="G7" s="292" t="s">
+      <c r="D7" s="300"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="299" t="s">
         <v>167</v>
       </c>
-      <c r="H7" s="293"/>
-      <c r="I7" s="293"/>
-      <c r="J7" s="294"/>
-      <c r="K7" s="292" t="s">
+      <c r="H7" s="300"/>
+      <c r="I7" s="300"/>
+      <c r="J7" s="301"/>
+      <c r="K7" s="299" t="s">
         <v>178</v>
       </c>
-      <c r="L7" s="293"/>
-      <c r="M7" s="293"/>
-      <c r="N7" s="293"/>
-      <c r="O7" s="292" t="s">
+      <c r="L7" s="300"/>
+      <c r="M7" s="300"/>
+      <c r="N7" s="300"/>
+      <c r="O7" s="299" t="s">
         <v>273</v>
       </c>
-      <c r="P7" s="293"/>
-      <c r="Q7" s="293"/>
-      <c r="R7" s="293"/>
-      <c r="S7" s="292" t="s">
+      <c r="P7" s="300"/>
+      <c r="Q7" s="300"/>
+      <c r="R7" s="300"/>
+      <c r="S7" s="299" t="s">
         <v>278</v>
       </c>
-      <c r="T7" s="293"/>
-      <c r="U7" s="293"/>
-      <c r="V7" s="293"/>
-      <c r="W7" s="292" t="s">
+      <c r="T7" s="300"/>
+      <c r="U7" s="300"/>
+      <c r="V7" s="300"/>
+      <c r="W7" s="299" t="s">
         <v>279</v>
       </c>
-      <c r="X7" s="293"/>
-      <c r="Y7" s="293"/>
-      <c r="Z7" s="293"/>
+      <c r="X7" s="300"/>
+      <c r="Y7" s="300"/>
+      <c r="Z7" s="300"/>
       <c r="AA7" s="231" t="s">
         <v>280</v>
       </c>
@@ -24744,36 +24731,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="D1" s="282" t="s">
+      <c r="D1" s="289" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="282"/>
-      <c r="F1" s="282"/>
-      <c r="G1" s="282"/>
-      <c r="H1" s="282" t="s">
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
+      <c r="H1" s="289" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="282"/>
-      <c r="J1" s="282"/>
-      <c r="K1" s="282"/>
-      <c r="L1" s="282" t="s">
+      <c r="I1" s="289"/>
+      <c r="J1" s="289"/>
+      <c r="K1" s="289"/>
+      <c r="L1" s="289" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="282"/>
-      <c r="N1" s="282"/>
-      <c r="O1" s="282"/>
-      <c r="P1" s="282" t="s">
+      <c r="M1" s="289"/>
+      <c r="N1" s="289"/>
+      <c r="O1" s="289"/>
+      <c r="P1" s="289" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="282"/>
-      <c r="R1" s="282"/>
-      <c r="S1" s="282"/>
-      <c r="T1" s="282" t="s">
+      <c r="Q1" s="289"/>
+      <c r="R1" s="289"/>
+      <c r="S1" s="289"/>
+      <c r="T1" s="289" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="282"/>
-      <c r="V1" s="282"/>
-      <c r="W1" s="282"/>
+      <c r="U1" s="289"/>
+      <c r="V1" s="289"/>
+      <c r="W1" s="289"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D2" s="199" t="s">
@@ -25183,22 +25170,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="294" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="288"/>
+      <c r="B1" s="295"/>
       <c r="C1" s="35"/>
       <c r="I1" s="250"/>
-      <c r="J1" s="295" t="s">
+      <c r="J1" s="302" t="s">
         <v>284</v>
       </c>
-      <c r="V1" s="282"/>
-      <c r="W1" s="282"/>
-      <c r="X1" s="282"/>
-      <c r="Y1" s="282"/>
+      <c r="V1" s="289"/>
+      <c r="W1" s="289"/>
+      <c r="X1" s="289"/>
+      <c r="Y1" s="289"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="289" t="s">
+      <c r="A2" s="296" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="126"/>
@@ -25207,20 +25194,20 @@
       </c>
       <c r="H2" s="95"/>
       <c r="I2" s="251"/>
-      <c r="J2" s="295"/>
+      <c r="J2" s="302"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="290"/>
+      <c r="A3" s="297"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>195</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="251"/>
-      <c r="J3" s="295"/>
+      <c r="J3" s="302"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="290"/>
+      <c r="A4" s="297"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>196</v>
@@ -25230,7 +25217,7 @@
       <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="291"/>
+      <c r="A5" s="298"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>183</v>
@@ -25245,42 +25232,42 @@
       <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C7" s="292" t="s">
+      <c r="C7" s="299" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="294"/>
-      <c r="G7" s="292" t="s">
+      <c r="D7" s="300"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="299" t="s">
         <v>167</v>
       </c>
-      <c r="H7" s="293"/>
-      <c r="I7" s="293"/>
-      <c r="J7" s="294"/>
-      <c r="K7" s="292" t="s">
+      <c r="H7" s="300"/>
+      <c r="I7" s="300"/>
+      <c r="J7" s="301"/>
+      <c r="K7" s="299" t="s">
         <v>178</v>
       </c>
-      <c r="L7" s="293"/>
-      <c r="M7" s="293"/>
-      <c r="N7" s="293"/>
-      <c r="O7" s="292" t="s">
+      <c r="L7" s="300"/>
+      <c r="M7" s="300"/>
+      <c r="N7" s="300"/>
+      <c r="O7" s="299" t="s">
         <v>273</v>
       </c>
-      <c r="P7" s="293"/>
-      <c r="Q7" s="293"/>
-      <c r="R7" s="293"/>
-      <c r="S7" s="292" t="s">
+      <c r="P7" s="300"/>
+      <c r="Q7" s="300"/>
+      <c r="R7" s="300"/>
+      <c r="S7" s="299" t="s">
         <v>278</v>
       </c>
-      <c r="T7" s="293"/>
-      <c r="U7" s="293"/>
-      <c r="V7" s="293"/>
-      <c r="W7" s="292" t="s">
+      <c r="T7" s="300"/>
+      <c r="U7" s="300"/>
+      <c r="V7" s="300"/>
+      <c r="W7" s="299" t="s">
         <v>279</v>
       </c>
-      <c r="X7" s="293"/>
-      <c r="Y7" s="293"/>
-      <c r="Z7" s="293"/>
+      <c r="X7" s="300"/>
+      <c r="Y7" s="300"/>
+      <c r="Z7" s="300"/>
       <c r="AA7" s="231" t="s">
         <v>280</v>
       </c>
@@ -29507,9 +29494,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29730,27 +29720,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29775,9 +29753,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v5.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v5.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyilla\Documents\Git\Fiscal-Impact-Measure\documentation\COVID-19 Changes\September\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711425B1-D348-4CF3-9C0F-3FCA51083CF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23759D7-6943-4CAA-85EB-03F56A9FCF82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="15840" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="Haver NA" sheetId="14" r:id="rId2"/>
-    <sheet name="add-ons calculations" sheetId="5" r:id="rId3"/>
-    <sheet name="FIM Add Factors" sheetId="9" r:id="rId4"/>
-    <sheet name="main_nipas" sheetId="10" r:id="rId5"/>
-    <sheet name="add-ons calculations nipas" sheetId="11" r:id="rId6"/>
-    <sheet name="NIPA Add Factors" sheetId="12" r:id="rId7"/>
+    <sheet name="add-ons calculations" sheetId="5" r:id="rId2"/>
+    <sheet name="FIM Add Factors" sheetId="9" r:id="rId3"/>
+    <sheet name="main_nipas" sheetId="10" r:id="rId4"/>
+    <sheet name="add-ons calculations nipas" sheetId="11" r:id="rId5"/>
+    <sheet name="NIPA Add Factors" sheetId="12" r:id="rId6"/>
+    <sheet name="Haver NA" sheetId="14" r:id="rId7"/>
     <sheet name="ui" sheetId="13" r:id="rId8"/>
     <sheet name="MPC" sheetId="8" r:id="rId9"/>
     <sheet name="figuring out Medicaid" sheetId="7" r:id="rId10"/>
@@ -2686,7 +2686,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="330">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3310,6 +3310,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="17" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3799,10 +3800,10 @@
   <dimension ref="A1:AP95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6925,11 +6926,11 @@
       <c r="K46" s="204">
         <v>1086548</v>
       </c>
-      <c r="L46" s="199">
+      <c r="L46" s="204">
         <f>VLOOKUP(C46,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>1213308</v>
       </c>
-      <c r="M46" s="283">
+      <c r="M46" s="329">
         <v>1212346</v>
       </c>
       <c r="N46" s="144">
@@ -18684,845 +18685,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CCD553-49A9-442A-A3CE-215FCFDE89C7}">
-  <dimension ref="A1:I34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:9" s="280" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="280" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" s="280" t="s">
-        <v>326</v>
-      </c>
-      <c r="C1" s="280" t="s">
-        <v>327</v>
-      </c>
-      <c r="D1" s="280" t="s">
-        <v>328</v>
-      </c>
-      <c r="E1" s="280" t="s">
-        <v>329</v>
-      </c>
-      <c r="F1" s="280" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1" s="280" t="s">
-        <v>331</v>
-      </c>
-      <c r="H1" s="280" t="s">
-        <v>332</v>
-      </c>
-      <c r="I1" s="280" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" s="287">
-        <v>20909.900000000001</v>
-      </c>
-      <c r="C2" s="287">
-        <v>21115.3</v>
-      </c>
-      <c r="D2" s="287">
-        <v>21329.9</v>
-      </c>
-      <c r="E2" s="287">
-        <v>21540.3</v>
-      </c>
-      <c r="F2" s="287">
-        <v>21747.4</v>
-      </c>
-      <c r="G2" s="287">
-        <v>21561.1</v>
-      </c>
-      <c r="H2" s="287">
-        <v>19520.099999999999</v>
-      </c>
-      <c r="I2" s="287">
-        <v>21157.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="287">
-        <v>18813.900000000001</v>
-      </c>
-      <c r="C3" s="287">
-        <v>18950.3</v>
-      </c>
-      <c r="D3" s="287">
-        <v>19020.599999999999</v>
-      </c>
-      <c r="E3" s="287">
-        <v>19141.7</v>
-      </c>
-      <c r="F3" s="287">
-        <v>19254</v>
-      </c>
-      <c r="G3" s="287">
-        <v>19010.8</v>
-      </c>
-      <c r="H3" s="287">
-        <v>17302.5</v>
-      </c>
-      <c r="I3" s="287">
-        <v>18583.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" s="287">
-        <v>1634.2</v>
-      </c>
-      <c r="C4" s="287">
-        <v>1695.5</v>
-      </c>
-      <c r="D4" s="287">
-        <v>1703.1</v>
-      </c>
-      <c r="E4" s="287">
-        <v>1713.2</v>
-      </c>
-      <c r="F4" s="287">
-        <v>1740.2</v>
-      </c>
-      <c r="G4" s="287">
-        <v>1756.6</v>
-      </c>
-      <c r="H4" s="287">
-        <v>1600.1</v>
-      </c>
-      <c r="I4" s="287">
-        <v>1687.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B5" s="287">
-        <v>183.5</v>
-      </c>
-      <c r="C5" s="287">
-        <v>172.1</v>
-      </c>
-      <c r="D5" s="287">
-        <v>168.3</v>
-      </c>
-      <c r="E5" s="287">
-        <v>175.1</v>
-      </c>
-      <c r="F5" s="287">
-        <v>179.2</v>
-      </c>
-      <c r="G5" s="287">
-        <v>183.8</v>
-      </c>
-      <c r="H5" s="287">
-        <v>131.4</v>
-      </c>
-      <c r="I5" s="287">
-        <v>144.69999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B6" s="287">
-        <v>1355.2</v>
-      </c>
-      <c r="C6" s="287">
-        <v>1386.7</v>
-      </c>
-      <c r="D6" s="287">
-        <v>1392.6</v>
-      </c>
-      <c r="E6" s="287">
-        <v>1397.2</v>
-      </c>
-      <c r="F6" s="287">
-        <v>1411.7</v>
-      </c>
-      <c r="G6" s="287">
-        <v>1431.2</v>
-      </c>
-      <c r="H6" s="287">
-        <v>1369.2</v>
-      </c>
-      <c r="I6" s="287">
-        <v>1429.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>300</v>
-      </c>
-      <c r="B7" s="287">
-        <v>234.7</v>
-      </c>
-      <c r="C7" s="287">
-        <v>213.8</v>
-      </c>
-      <c r="D7" s="287">
-        <v>224.2</v>
-      </c>
-      <c r="E7" s="287">
-        <v>201.6</v>
-      </c>
-      <c r="F7" s="287">
-        <v>229.7</v>
-      </c>
-      <c r="G7" s="287">
-        <v>180.5</v>
-      </c>
-      <c r="H7" s="287">
-        <v>171.5</v>
-      </c>
-      <c r="I7" s="287">
-        <v>205.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>301</v>
-      </c>
-      <c r="B8" s="287">
-        <v>456.5</v>
-      </c>
-      <c r="C8" s="287">
-        <v>475.2</v>
-      </c>
-      <c r="D8" s="287">
-        <v>519.4</v>
-      </c>
-      <c r="E8" s="287">
-        <v>483.9</v>
-      </c>
-      <c r="F8" s="287">
-        <v>480.9</v>
-      </c>
-      <c r="G8" s="287">
-        <v>495.8</v>
-      </c>
-      <c r="H8" s="287">
-        <v>496.4</v>
-      </c>
-      <c r="I8" s="287">
-        <v>499.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>302</v>
-      </c>
-      <c r="B9" s="287">
-        <v>1295.5</v>
-      </c>
-      <c r="C9" s="287">
-        <v>1301.5999999999999</v>
-      </c>
-      <c r="D9" s="287">
-        <v>1312.4</v>
-      </c>
-      <c r="E9" s="287">
-        <v>1326.5</v>
-      </c>
-      <c r="F9" s="287">
-        <v>1330.4</v>
-      </c>
-      <c r="G9" s="287">
-        <v>1346.2</v>
-      </c>
-      <c r="H9" s="287">
-        <v>1264.3</v>
-      </c>
-      <c r="I9" s="287">
-        <v>1317.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>334</v>
-      </c>
-      <c r="B10" s="287">
-        <v>8600</v>
-      </c>
-      <c r="C10" s="287">
-        <v>8932</v>
-      </c>
-      <c r="D10" s="287">
-        <v>8944</v>
-      </c>
-      <c r="E10" s="287">
-        <v>8604</v>
-      </c>
-      <c r="F10" s="287">
-        <v>7908</v>
-      </c>
-      <c r="G10" s="287">
-        <v>7020</v>
-      </c>
-      <c r="H10" s="287">
-        <v>6744</v>
-      </c>
-      <c r="I10" s="287">
-        <v>7248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>335</v>
-      </c>
-      <c r="B11" s="287">
-        <v>12969</v>
-      </c>
-      <c r="C11" s="287">
-        <v>13054</v>
-      </c>
-      <c r="D11" s="287">
-        <v>13132</v>
-      </c>
-      <c r="E11" s="287">
-        <v>13183</v>
-      </c>
-      <c r="F11" s="287">
-        <v>13235</v>
-      </c>
-      <c r="G11" s="287">
-        <v>13345</v>
-      </c>
-      <c r="H11" s="287">
-        <v>12362</v>
-      </c>
-      <c r="I11" s="287">
-        <v>12998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>304</v>
-      </c>
-      <c r="B12" s="287">
-        <v>63.5</v>
-      </c>
-      <c r="C12" s="287">
-        <v>68.5</v>
-      </c>
-      <c r="D12" s="287">
-        <v>68.7</v>
-      </c>
-      <c r="E12" s="287">
-        <v>69.8</v>
-      </c>
-      <c r="F12" s="287">
-        <v>71</v>
-      </c>
-      <c r="G12" s="287">
-        <v>62.7</v>
-      </c>
-      <c r="H12" s="287">
-        <v>54.2</v>
-      </c>
-      <c r="I12" s="287">
-        <v>79.099999999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>305</v>
-      </c>
-      <c r="B13" s="287">
-        <v>2220523</v>
-      </c>
-      <c r="C13" s="287">
-        <v>2298792</v>
-      </c>
-      <c r="D13" s="287">
-        <v>2315842</v>
-      </c>
-      <c r="E13" s="287">
-        <v>2331428</v>
-      </c>
-      <c r="F13" s="287">
-        <v>2347737</v>
-      </c>
-      <c r="G13" s="287">
-        <v>2422546</v>
-      </c>
-      <c r="H13" s="287">
-        <v>4815254</v>
-      </c>
-      <c r="I13" s="287">
-        <v>3488125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>306</v>
-      </c>
-      <c r="B14" s="287">
-        <v>753311</v>
-      </c>
-      <c r="C14" s="287">
-        <v>767353</v>
-      </c>
-      <c r="D14" s="287">
-        <v>779707</v>
-      </c>
-      <c r="E14" s="287">
-        <v>789893</v>
-      </c>
-      <c r="F14" s="287">
-        <v>797912</v>
-      </c>
-      <c r="G14" s="287">
-        <v>804655</v>
-      </c>
-      <c r="H14" s="287">
-        <v>824058</v>
-      </c>
-      <c r="I14" s="287">
-        <v>842733</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>307</v>
-      </c>
-      <c r="H15" s="287">
-        <v>1078100</v>
-      </c>
-      <c r="I15" s="287">
-        <v>15600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>308</v>
-      </c>
-      <c r="B16" s="287">
-        <v>27025</v>
-      </c>
-      <c r="C16" s="287">
-        <v>28029</v>
-      </c>
-      <c r="D16" s="287">
-        <v>27483</v>
-      </c>
-      <c r="E16" s="287">
-        <v>27578</v>
-      </c>
-      <c r="F16" s="287">
-        <v>27884</v>
-      </c>
-      <c r="G16" s="287">
-        <v>43429</v>
-      </c>
-      <c r="H16" s="287">
-        <v>1084572</v>
-      </c>
-      <c r="I16" s="287">
-        <v>768678</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>309</v>
-      </c>
-      <c r="H17" s="287">
-        <v>19100</v>
-      </c>
-      <c r="I17" s="287">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>310</v>
-      </c>
-      <c r="H18" s="287">
-        <v>160900</v>
-      </c>
-      <c r="I18" s="287">
-        <v>58400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>311</v>
-      </c>
-      <c r="B19" s="287">
-        <v>79458</v>
-      </c>
-      <c r="C19" s="287">
-        <v>71318</v>
-      </c>
-      <c r="D19" s="287">
-        <v>61083</v>
-      </c>
-      <c r="E19" s="287">
-        <v>81998</v>
-      </c>
-      <c r="F19" s="287">
-        <v>81147</v>
-      </c>
-      <c r="G19" s="287">
-        <v>75093</v>
-      </c>
-      <c r="H19" s="287">
-        <v>1086548</v>
-      </c>
-      <c r="I19" s="287">
-        <v>1213308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>312</v>
-      </c>
-      <c r="H20" s="287">
-        <v>609300</v>
-      </c>
-      <c r="I20" s="287">
-        <v>865600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>313</v>
-      </c>
-      <c r="H21" s="287">
-        <v>63800</v>
-      </c>
-      <c r="I21" s="287">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>314</v>
-      </c>
-      <c r="H22" s="287">
-        <v>73300</v>
-      </c>
-      <c r="I22" s="287">
-        <v>73300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>315</v>
-      </c>
-      <c r="H23" s="287">
-        <v>140000</v>
-      </c>
-      <c r="I23" s="287">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>316</v>
-      </c>
-      <c r="B24" s="287">
-        <v>586475</v>
-      </c>
-      <c r="C24" s="287">
-        <v>594213</v>
-      </c>
-      <c r="D24" s="287">
-        <v>612547</v>
-      </c>
-      <c r="E24" s="287">
-        <v>610331</v>
-      </c>
-      <c r="F24" s="287">
-        <v>615406</v>
-      </c>
-      <c r="G24" s="287">
-        <v>627805</v>
-      </c>
-      <c r="H24" s="287">
-        <v>1396890</v>
-      </c>
-      <c r="I24" s="287">
-        <v>728172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>319</v>
-      </c>
-      <c r="B25" s="287">
-        <v>1368395</v>
-      </c>
-      <c r="C25" s="287">
-        <v>1388750</v>
-      </c>
-      <c r="D25" s="287">
-        <v>1410626</v>
-      </c>
-      <c r="E25" s="287">
-        <v>1429281</v>
-      </c>
-      <c r="F25" s="287">
-        <v>1447946</v>
-      </c>
-      <c r="G25" s="287">
-        <v>1452551</v>
-      </c>
-      <c r="H25" s="287">
-        <v>1504782</v>
-      </c>
-      <c r="I25" s="287">
-        <v>1486802</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>318</v>
-      </c>
-      <c r="B26" s="287">
-        <v>1241599</v>
-      </c>
-      <c r="C26" s="287">
-        <v>1245767</v>
-      </c>
-      <c r="D26" s="287">
-        <v>1273567</v>
-      </c>
-      <c r="E26" s="287">
-        <v>1288518</v>
-      </c>
-      <c r="F26" s="287">
-        <v>1301120</v>
-      </c>
-      <c r="G26" s="287">
-        <v>1306142</v>
-      </c>
-      <c r="H26" s="287">
-        <v>1356816</v>
-      </c>
-      <c r="I26" s="287">
-        <v>1335322</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>320</v>
-      </c>
-      <c r="B27" s="287">
-        <v>389624</v>
-      </c>
-      <c r="C27" s="287">
-        <v>404529</v>
-      </c>
-      <c r="D27" s="287">
-        <v>419672</v>
-      </c>
-      <c r="E27" s="287">
-        <v>418824</v>
-      </c>
-      <c r="F27" s="287">
-        <v>411409</v>
-      </c>
-      <c r="G27" s="287">
-        <v>423429</v>
-      </c>
-      <c r="H27" s="287">
-        <v>512640</v>
-      </c>
-      <c r="I27" s="287">
-        <v>486072</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>321</v>
-      </c>
-      <c r="B28" s="287">
-        <v>728844</v>
-      </c>
-      <c r="C28" s="287">
-        <v>738714</v>
-      </c>
-      <c r="D28" s="287">
-        <v>755204</v>
-      </c>
-      <c r="E28" s="287">
-        <v>763370</v>
-      </c>
-      <c r="F28" s="287">
-        <v>760967</v>
-      </c>
-      <c r="G28" s="287">
-        <v>767087</v>
-      </c>
-      <c r="H28" s="287">
-        <v>812158</v>
-      </c>
-      <c r="I28" s="287">
-        <v>835999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>322</v>
-      </c>
-      <c r="B29" s="287">
-        <v>589819</v>
-      </c>
-      <c r="C29" s="287">
-        <v>599372</v>
-      </c>
-      <c r="D29" s="287">
-        <v>614976</v>
-      </c>
-      <c r="E29" s="287">
-        <v>622265</v>
-      </c>
-      <c r="F29" s="287">
-        <v>619362</v>
-      </c>
-      <c r="G29" s="287">
-        <v>624096</v>
-      </c>
-      <c r="H29" s="287">
-        <v>668823</v>
-      </c>
-      <c r="I29" s="287">
-        <v>691267</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>323</v>
-      </c>
-      <c r="B30" s="287">
-        <v>1997129</v>
-      </c>
-      <c r="C30" s="287">
-        <v>2012720</v>
-      </c>
-      <c r="D30" s="287">
-        <v>2025477</v>
-      </c>
-      <c r="E30" s="287">
-        <v>2028275</v>
-      </c>
-      <c r="F30" s="287">
-        <v>2035602</v>
-      </c>
-      <c r="G30" s="287">
-        <v>2041017</v>
-      </c>
-      <c r="H30" s="287">
-        <v>2013139</v>
-      </c>
-      <c r="I30" s="287">
-        <v>1992677</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>324</v>
-      </c>
-      <c r="B31" s="287">
-        <v>2279638</v>
-      </c>
-      <c r="C31" s="287">
-        <v>2292717</v>
-      </c>
-      <c r="D31" s="287">
-        <v>2327018</v>
-      </c>
-      <c r="E31" s="287">
-        <v>2337774</v>
-      </c>
-      <c r="F31" s="287">
-        <v>2357385</v>
-      </c>
-      <c r="G31" s="287">
-        <v>2381563</v>
-      </c>
-      <c r="H31" s="287">
-        <v>2334544</v>
-      </c>
-      <c r="I31" s="287">
-        <v>2329677</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>303</v>
-      </c>
-      <c r="B32" s="287">
-        <v>21.568999999999999</v>
-      </c>
-      <c r="C32" s="287">
-        <v>21.986000000000001</v>
-      </c>
-      <c r="D32" s="287">
-        <v>22.076000000000001</v>
-      </c>
-      <c r="E32" s="287">
-        <v>21.786999999999999</v>
-      </c>
-      <c r="F32" s="287">
-        <v>21.143000000000001</v>
-      </c>
-      <c r="G32" s="287">
-        <v>20.364999999999998</v>
-      </c>
-      <c r="H32" s="287">
-        <v>19.106000000000002</v>
-      </c>
-      <c r="I32" s="287">
-        <v>20.245999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>337</v>
-      </c>
-      <c r="H33" s="287">
-        <v>277100</v>
-      </c>
-      <c r="I33" s="287">
-        <v>228300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>317</v>
-      </c>
-      <c r="H34" s="287">
-        <v>690700</v>
-      </c>
-      <c r="I34" s="287">
-        <v>39200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AF76"/>
   <sheetViews>
@@ -19530,7 +18692,7 @@
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23801,7 +22963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:M23"/>
   <sheetViews>
@@ -24599,7 +23761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C37CCB5-9AFD-AA42-ADF6-76E6C38F7458}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
@@ -25033,7 +24195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E925F6-0F0F-EB4D-B82F-595726581F1A}">
   <dimension ref="A1:AB50"/>
   <sheetViews>
@@ -27955,7 +27117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF91FBF1-BB27-2541-88CA-5AE1F2ACBE56}">
   <dimension ref="A1:I23"/>
   <sheetViews>
@@ -28649,6 +27811,845 @@
       </c>
       <c r="I23" s="271">
         <v>-2.4208822536091361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CCD553-49A9-442A-A3CE-215FCFDE89C7}">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" s="280" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="280" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="280" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" s="280" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="280" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="280" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="280" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1" s="280" t="s">
+        <v>331</v>
+      </c>
+      <c r="H1" s="280" t="s">
+        <v>332</v>
+      </c>
+      <c r="I1" s="280" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="287">
+        <v>20909.900000000001</v>
+      </c>
+      <c r="C2" s="287">
+        <v>21115.3</v>
+      </c>
+      <c r="D2" s="287">
+        <v>21329.9</v>
+      </c>
+      <c r="E2" s="287">
+        <v>21540.3</v>
+      </c>
+      <c r="F2" s="287">
+        <v>21747.4</v>
+      </c>
+      <c r="G2" s="287">
+        <v>21561.1</v>
+      </c>
+      <c r="H2" s="287">
+        <v>19520.099999999999</v>
+      </c>
+      <c r="I2" s="287">
+        <v>21157.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="287">
+        <v>18813.900000000001</v>
+      </c>
+      <c r="C3" s="287">
+        <v>18950.3</v>
+      </c>
+      <c r="D3" s="287">
+        <v>19020.599999999999</v>
+      </c>
+      <c r="E3" s="287">
+        <v>19141.7</v>
+      </c>
+      <c r="F3" s="287">
+        <v>19254</v>
+      </c>
+      <c r="G3" s="287">
+        <v>19010.8</v>
+      </c>
+      <c r="H3" s="287">
+        <v>17302.5</v>
+      </c>
+      <c r="I3" s="287">
+        <v>18583.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="287">
+        <v>1634.2</v>
+      </c>
+      <c r="C4" s="287">
+        <v>1695.5</v>
+      </c>
+      <c r="D4" s="287">
+        <v>1703.1</v>
+      </c>
+      <c r="E4" s="287">
+        <v>1713.2</v>
+      </c>
+      <c r="F4" s="287">
+        <v>1740.2</v>
+      </c>
+      <c r="G4" s="287">
+        <v>1756.6</v>
+      </c>
+      <c r="H4" s="287">
+        <v>1600.1</v>
+      </c>
+      <c r="I4" s="287">
+        <v>1687.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" s="287">
+        <v>183.5</v>
+      </c>
+      <c r="C5" s="287">
+        <v>172.1</v>
+      </c>
+      <c r="D5" s="287">
+        <v>168.3</v>
+      </c>
+      <c r="E5" s="287">
+        <v>175.1</v>
+      </c>
+      <c r="F5" s="287">
+        <v>179.2</v>
+      </c>
+      <c r="G5" s="287">
+        <v>183.8</v>
+      </c>
+      <c r="H5" s="287">
+        <v>131.4</v>
+      </c>
+      <c r="I5" s="287">
+        <v>144.69999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="287">
+        <v>1355.2</v>
+      </c>
+      <c r="C6" s="287">
+        <v>1386.7</v>
+      </c>
+      <c r="D6" s="287">
+        <v>1392.6</v>
+      </c>
+      <c r="E6" s="287">
+        <v>1397.2</v>
+      </c>
+      <c r="F6" s="287">
+        <v>1411.7</v>
+      </c>
+      <c r="G6" s="287">
+        <v>1431.2</v>
+      </c>
+      <c r="H6" s="287">
+        <v>1369.2</v>
+      </c>
+      <c r="I6" s="287">
+        <v>1429.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="287">
+        <v>234.7</v>
+      </c>
+      <c r="C7" s="287">
+        <v>213.8</v>
+      </c>
+      <c r="D7" s="287">
+        <v>224.2</v>
+      </c>
+      <c r="E7" s="287">
+        <v>201.6</v>
+      </c>
+      <c r="F7" s="287">
+        <v>229.7</v>
+      </c>
+      <c r="G7" s="287">
+        <v>180.5</v>
+      </c>
+      <c r="H7" s="287">
+        <v>171.5</v>
+      </c>
+      <c r="I7" s="287">
+        <v>205.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="287">
+        <v>456.5</v>
+      </c>
+      <c r="C8" s="287">
+        <v>475.2</v>
+      </c>
+      <c r="D8" s="287">
+        <v>519.4</v>
+      </c>
+      <c r="E8" s="287">
+        <v>483.9</v>
+      </c>
+      <c r="F8" s="287">
+        <v>480.9</v>
+      </c>
+      <c r="G8" s="287">
+        <v>495.8</v>
+      </c>
+      <c r="H8" s="287">
+        <v>496.4</v>
+      </c>
+      <c r="I8" s="287">
+        <v>499.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9" s="287">
+        <v>1295.5</v>
+      </c>
+      <c r="C9" s="287">
+        <v>1301.5999999999999</v>
+      </c>
+      <c r="D9" s="287">
+        <v>1312.4</v>
+      </c>
+      <c r="E9" s="287">
+        <v>1326.5</v>
+      </c>
+      <c r="F9" s="287">
+        <v>1330.4</v>
+      </c>
+      <c r="G9" s="287">
+        <v>1346.2</v>
+      </c>
+      <c r="H9" s="287">
+        <v>1264.3</v>
+      </c>
+      <c r="I9" s="287">
+        <v>1317.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B10" s="287">
+        <v>8600</v>
+      </c>
+      <c r="C10" s="287">
+        <v>8932</v>
+      </c>
+      <c r="D10" s="287">
+        <v>8944</v>
+      </c>
+      <c r="E10" s="287">
+        <v>8604</v>
+      </c>
+      <c r="F10" s="287">
+        <v>7908</v>
+      </c>
+      <c r="G10" s="287">
+        <v>7020</v>
+      </c>
+      <c r="H10" s="287">
+        <v>6744</v>
+      </c>
+      <c r="I10" s="287">
+        <v>7248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" s="287">
+        <v>12969</v>
+      </c>
+      <c r="C11" s="287">
+        <v>13054</v>
+      </c>
+      <c r="D11" s="287">
+        <v>13132</v>
+      </c>
+      <c r="E11" s="287">
+        <v>13183</v>
+      </c>
+      <c r="F11" s="287">
+        <v>13235</v>
+      </c>
+      <c r="G11" s="287">
+        <v>13345</v>
+      </c>
+      <c r="H11" s="287">
+        <v>12362</v>
+      </c>
+      <c r="I11" s="287">
+        <v>12998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="287">
+        <v>63.5</v>
+      </c>
+      <c r="C12" s="287">
+        <v>68.5</v>
+      </c>
+      <c r="D12" s="287">
+        <v>68.7</v>
+      </c>
+      <c r="E12" s="287">
+        <v>69.8</v>
+      </c>
+      <c r="F12" s="287">
+        <v>71</v>
+      </c>
+      <c r="G12" s="287">
+        <v>62.7</v>
+      </c>
+      <c r="H12" s="287">
+        <v>54.2</v>
+      </c>
+      <c r="I12" s="287">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" s="287">
+        <v>2220523</v>
+      </c>
+      <c r="C13" s="287">
+        <v>2298792</v>
+      </c>
+      <c r="D13" s="287">
+        <v>2315842</v>
+      </c>
+      <c r="E13" s="287">
+        <v>2331428</v>
+      </c>
+      <c r="F13" s="287">
+        <v>2347737</v>
+      </c>
+      <c r="G13" s="287">
+        <v>2422546</v>
+      </c>
+      <c r="H13" s="287">
+        <v>4815254</v>
+      </c>
+      <c r="I13" s="287">
+        <v>3488125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" s="287">
+        <v>753311</v>
+      </c>
+      <c r="C14" s="287">
+        <v>767353</v>
+      </c>
+      <c r="D14" s="287">
+        <v>779707</v>
+      </c>
+      <c r="E14" s="287">
+        <v>789893</v>
+      </c>
+      <c r="F14" s="287">
+        <v>797912</v>
+      </c>
+      <c r="G14" s="287">
+        <v>804655</v>
+      </c>
+      <c r="H14" s="287">
+        <v>824058</v>
+      </c>
+      <c r="I14" s="287">
+        <v>842733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>307</v>
+      </c>
+      <c r="H15" s="287">
+        <v>1078100</v>
+      </c>
+      <c r="I15" s="287">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" s="287">
+        <v>27025</v>
+      </c>
+      <c r="C16" s="287">
+        <v>28029</v>
+      </c>
+      <c r="D16" s="287">
+        <v>27483</v>
+      </c>
+      <c r="E16" s="287">
+        <v>27578</v>
+      </c>
+      <c r="F16" s="287">
+        <v>27884</v>
+      </c>
+      <c r="G16" s="287">
+        <v>43429</v>
+      </c>
+      <c r="H16" s="287">
+        <v>1084572</v>
+      </c>
+      <c r="I16" s="287">
+        <v>768678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>309</v>
+      </c>
+      <c r="H17" s="287">
+        <v>19100</v>
+      </c>
+      <c r="I17" s="287">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>310</v>
+      </c>
+      <c r="H18" s="287">
+        <v>160900</v>
+      </c>
+      <c r="I18" s="287">
+        <v>58400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" s="287">
+        <v>79458</v>
+      </c>
+      <c r="C19" s="287">
+        <v>71318</v>
+      </c>
+      <c r="D19" s="287">
+        <v>61083</v>
+      </c>
+      <c r="E19" s="287">
+        <v>81998</v>
+      </c>
+      <c r="F19" s="287">
+        <v>81147</v>
+      </c>
+      <c r="G19" s="287">
+        <v>75093</v>
+      </c>
+      <c r="H19" s="287">
+        <v>1086548</v>
+      </c>
+      <c r="I19" s="287">
+        <v>1213308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>312</v>
+      </c>
+      <c r="H20" s="287">
+        <v>609300</v>
+      </c>
+      <c r="I20" s="287">
+        <v>865600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>313</v>
+      </c>
+      <c r="H21" s="287">
+        <v>63800</v>
+      </c>
+      <c r="I21" s="287">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>314</v>
+      </c>
+      <c r="H22" s="287">
+        <v>73300</v>
+      </c>
+      <c r="I22" s="287">
+        <v>73300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H23" s="287">
+        <v>140000</v>
+      </c>
+      <c r="I23" s="287">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" s="287">
+        <v>586475</v>
+      </c>
+      <c r="C24" s="287">
+        <v>594213</v>
+      </c>
+      <c r="D24" s="287">
+        <v>612547</v>
+      </c>
+      <c r="E24" s="287">
+        <v>610331</v>
+      </c>
+      <c r="F24" s="287">
+        <v>615406</v>
+      </c>
+      <c r="G24" s="287">
+        <v>627805</v>
+      </c>
+      <c r="H24" s="287">
+        <v>1396890</v>
+      </c>
+      <c r="I24" s="287">
+        <v>728172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B25" s="287">
+        <v>1368395</v>
+      </c>
+      <c r="C25" s="287">
+        <v>1388750</v>
+      </c>
+      <c r="D25" s="287">
+        <v>1410626</v>
+      </c>
+      <c r="E25" s="287">
+        <v>1429281</v>
+      </c>
+      <c r="F25" s="287">
+        <v>1447946</v>
+      </c>
+      <c r="G25" s="287">
+        <v>1452551</v>
+      </c>
+      <c r="H25" s="287">
+        <v>1504782</v>
+      </c>
+      <c r="I25" s="287">
+        <v>1486802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>318</v>
+      </c>
+      <c r="B26" s="287">
+        <v>1241599</v>
+      </c>
+      <c r="C26" s="287">
+        <v>1245767</v>
+      </c>
+      <c r="D26" s="287">
+        <v>1273567</v>
+      </c>
+      <c r="E26" s="287">
+        <v>1288518</v>
+      </c>
+      <c r="F26" s="287">
+        <v>1301120</v>
+      </c>
+      <c r="G26" s="287">
+        <v>1306142</v>
+      </c>
+      <c r="H26" s="287">
+        <v>1356816</v>
+      </c>
+      <c r="I26" s="287">
+        <v>1335322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>320</v>
+      </c>
+      <c r="B27" s="287">
+        <v>389624</v>
+      </c>
+      <c r="C27" s="287">
+        <v>404529</v>
+      </c>
+      <c r="D27" s="287">
+        <v>419672</v>
+      </c>
+      <c r="E27" s="287">
+        <v>418824</v>
+      </c>
+      <c r="F27" s="287">
+        <v>411409</v>
+      </c>
+      <c r="G27" s="287">
+        <v>423429</v>
+      </c>
+      <c r="H27" s="287">
+        <v>512640</v>
+      </c>
+      <c r="I27" s="287">
+        <v>486072</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>321</v>
+      </c>
+      <c r="B28" s="287">
+        <v>728844</v>
+      </c>
+      <c r="C28" s="287">
+        <v>738714</v>
+      </c>
+      <c r="D28" s="287">
+        <v>755204</v>
+      </c>
+      <c r="E28" s="287">
+        <v>763370</v>
+      </c>
+      <c r="F28" s="287">
+        <v>760967</v>
+      </c>
+      <c r="G28" s="287">
+        <v>767087</v>
+      </c>
+      <c r="H28" s="287">
+        <v>812158</v>
+      </c>
+      <c r="I28" s="287">
+        <v>835999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>322</v>
+      </c>
+      <c r="B29" s="287">
+        <v>589819</v>
+      </c>
+      <c r="C29" s="287">
+        <v>599372</v>
+      </c>
+      <c r="D29" s="287">
+        <v>614976</v>
+      </c>
+      <c r="E29" s="287">
+        <v>622265</v>
+      </c>
+      <c r="F29" s="287">
+        <v>619362</v>
+      </c>
+      <c r="G29" s="287">
+        <v>624096</v>
+      </c>
+      <c r="H29" s="287">
+        <v>668823</v>
+      </c>
+      <c r="I29" s="287">
+        <v>691267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>323</v>
+      </c>
+      <c r="B30" s="287">
+        <v>1997129</v>
+      </c>
+      <c r="C30" s="287">
+        <v>2012720</v>
+      </c>
+      <c r="D30" s="287">
+        <v>2025477</v>
+      </c>
+      <c r="E30" s="287">
+        <v>2028275</v>
+      </c>
+      <c r="F30" s="287">
+        <v>2035602</v>
+      </c>
+      <c r="G30" s="287">
+        <v>2041017</v>
+      </c>
+      <c r="H30" s="287">
+        <v>2013139</v>
+      </c>
+      <c r="I30" s="287">
+        <v>1992677</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>324</v>
+      </c>
+      <c r="B31" s="287">
+        <v>2279638</v>
+      </c>
+      <c r="C31" s="287">
+        <v>2292717</v>
+      </c>
+      <c r="D31" s="287">
+        <v>2327018</v>
+      </c>
+      <c r="E31" s="287">
+        <v>2337774</v>
+      </c>
+      <c r="F31" s="287">
+        <v>2357385</v>
+      </c>
+      <c r="G31" s="287">
+        <v>2381563</v>
+      </c>
+      <c r="H31" s="287">
+        <v>2334544</v>
+      </c>
+      <c r="I31" s="287">
+        <v>2329677</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>303</v>
+      </c>
+      <c r="B32" s="287">
+        <v>21.568999999999999</v>
+      </c>
+      <c r="C32" s="287">
+        <v>21.986000000000001</v>
+      </c>
+      <c r="D32" s="287">
+        <v>22.076000000000001</v>
+      </c>
+      <c r="E32" s="287">
+        <v>21.786999999999999</v>
+      </c>
+      <c r="F32" s="287">
+        <v>21.143000000000001</v>
+      </c>
+      <c r="G32" s="287">
+        <v>20.364999999999998</v>
+      </c>
+      <c r="H32" s="287">
+        <v>19.106000000000002</v>
+      </c>
+      <c r="I32" s="287">
+        <v>20.245999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>337</v>
+      </c>
+      <c r="H33" s="287">
+        <v>277100</v>
+      </c>
+      <c r="I33" s="287">
+        <v>228300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>317</v>
+      </c>
+      <c r="H34" s="287">
+        <v>690700</v>
+      </c>
+      <c r="I34" s="287">
+        <v>39200</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v5.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyilla\Documents\Git\Fiscal-Impact-Measure\documentation\COVID-19 Changes\September\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23759D7-6943-4CAA-85EB-03F56A9FCF82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C56ED0-48C2-456C-BB69-2A00DC02774F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="15840" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -3799,7 +3799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AP95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -18688,11 +18688,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18908,76 +18908,76 @@
         <v>171</v>
       </c>
       <c r="D10">
-        <v>200.67099999999999</v>
+        <v>200.67100000000011</v>
       </c>
       <c r="E10">
         <v>156.16</v>
       </c>
       <c r="F10">
-        <v>212.928</v>
-      </c>
-      <c r="G10" s="146">
-        <v>221.05373389040901</v>
+        <v>205.22800000000001</v>
+      </c>
+      <c r="G10">
+        <v>213.05988737442189</v>
       </c>
       <c r="H10">
-        <v>229.17946778081901</v>
+        <v>220.89177474884389</v>
       </c>
       <c r="I10">
-        <v>237.30520167122799</v>
+        <v>228.723662123266</v>
       </c>
       <c r="J10">
-        <v>245.430935561637</v>
-      </c>
-      <c r="K10" s="146">
-        <v>242.987997735091</v>
+        <v>236.55554949768791</v>
+      </c>
+      <c r="K10">
+        <v>234.20095430933171</v>
       </c>
       <c r="L10">
-        <v>240.54505990854599</v>
+        <v>231.84635912097539</v>
       </c>
       <c r="M10">
-        <v>238.10212208199999</v>
+        <v>229.49176393261911</v>
       </c>
       <c r="N10">
-        <v>235.65918425545399</v>
-      </c>
-      <c r="O10" s="146">
-        <v>233.240222544419</v>
+        <v>227.13716874426279</v>
+      </c>
+      <c r="O10">
+        <v>224.80568263613071</v>
       </c>
       <c r="P10">
-        <v>230.82126083338301</v>
+        <v>222.4741965279984</v>
       </c>
       <c r="Q10">
-        <v>228.40229912234801</v>
+        <v>220.14271041986621</v>
       </c>
       <c r="R10">
-        <v>225.98333741131299</v>
-      </c>
-      <c r="S10" s="146">
-        <v>228.52982922246699</v>
+        <v>217.81122431173389</v>
+      </c>
+      <c r="S10">
+        <v>220.26562871801039</v>
       </c>
       <c r="T10">
-        <v>231.07632103362201</v>
+        <v>222.7200331242868</v>
       </c>
       <c r="U10">
-        <v>233.622812844777</v>
+        <v>225.17443753056341</v>
       </c>
       <c r="V10">
-        <v>236.169304655931</v>
-      </c>
-      <c r="W10" s="146">
-        <v>239.39511973987899</v>
+        <v>227.62884193683999</v>
+      </c>
+      <c r="W10">
+        <v>230.7380036161324</v>
       </c>
       <c r="X10">
-        <v>242.62093482382599</v>
+        <v>233.8471652954247</v>
       </c>
       <c r="Y10">
-        <v>245.84674990777401</v>
+        <v>236.9563269747172</v>
       </c>
       <c r="Z10">
-        <v>249.07256499172101</v>
-      </c>
-      <c r="AA10" s="146">
-        <v>252.42933533514699</v>
+        <v>240.0654886540095</v>
+      </c>
+      <c r="AA10">
+        <v>243.3008699286211</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
@@ -18988,37 +18988,37 @@
         <v>186.02099999999999</v>
       </c>
       <c r="E11">
-        <v>436.94400000000002</v>
+        <v>436.94400000000019</v>
       </c>
       <c r="F11">
-        <v>878.91700000000003</v>
-      </c>
-      <c r="G11" s="146">
-        <v>915.35852224998098</v>
+        <v>875.8370000000001</v>
+      </c>
+      <c r="G11">
+        <v>853.37353126596815</v>
       </c>
       <c r="H11">
-        <v>914.68514436821897</v>
+        <v>830.91985713818588</v>
       </c>
       <c r="I11">
-        <v>915.98381158882398</v>
+        <v>808.47600210316944</v>
       </c>
       <c r="J11">
-        <v>910.92811125735602</v>
-      </c>
-      <c r="K11" s="146">
-        <v>936.84227045007503</v>
+        <v>789.98929054816381</v>
+      </c>
+      <c r="K11">
+        <v>809.82173278252503</v>
       </c>
       <c r="L11">
-        <v>964.58239733017194</v>
+        <v>833.74022244575849</v>
       </c>
       <c r="M11">
-        <v>991.08086618285097</v>
+        <v>858.68045768077434</v>
       </c>
       <c r="N11">
-        <v>1015.7533673481501</v>
-      </c>
-      <c r="O11" s="146">
-        <v>1038.3751146234099</v>
+        <v>881.93997137262988</v>
+      </c>
+      <c r="O11">
+        <v>903.30646404548429</v>
       </c>
       <c r="P11">
         <v>1060.4855909462101</v>
@@ -19068,70 +19068,70 @@
         <v>1779.8</v>
       </c>
       <c r="F12">
-        <v>1840.7</v>
-      </c>
-      <c r="G12" s="146">
-        <v>1877.9220586184899</v>
+        <v>1836.9</v>
+      </c>
+      <c r="G12">
+        <v>1874.0452162092181</v>
       </c>
       <c r="H12">
-        <v>1909.0672334979899</v>
+        <v>1905.1260939927499</v>
       </c>
       <c r="I12">
-        <v>1939.4241549814799</v>
+        <v>1935.420345675816</v>
       </c>
       <c r="J12">
-        <v>1971.8708645381</v>
-      </c>
-      <c r="K12" s="146">
-        <v>1993.60282735131</v>
+        <v>1967.800071206628</v>
+      </c>
+      <c r="K12">
+        <v>1989.487169860176</v>
       </c>
       <c r="L12">
-        <v>2013.49247699478</v>
+        <v>2009.335758674262</v>
       </c>
       <c r="M12">
-        <v>2033.1804804206699</v>
+        <v>2028.983117555671</v>
       </c>
       <c r="N12">
-        <v>2053.76672608852</v>
-      </c>
-      <c r="O12" s="146">
-        <v>2074.6554410827398</v>
+        <v>2049.5268643190061</v>
+      </c>
+      <c r="O12">
+        <v>2070.3724559813568</v>
       </c>
       <c r="P12">
-        <v>2095.6541449229198</v>
+        <v>2091.3278094251682</v>
       </c>
       <c r="Q12">
-        <v>2115.7821037326198</v>
+        <v>2111.4142154324181</v>
       </c>
       <c r="R12">
-        <v>2137.3490832768998</v>
-      </c>
-      <c r="S12" s="146">
-        <v>2160.1442716010001</v>
+        <v>2132.9366714137759</v>
+      </c>
+      <c r="S12">
+        <v>2155.68480062144</v>
       </c>
       <c r="T12">
-        <v>2184.1035085448002</v>
+        <v>2179.5945753495598</v>
       </c>
       <c r="U12">
-        <v>2207.6411215790899</v>
+        <v>2203.083596582082</v>
       </c>
       <c r="V12">
-        <v>2230.9770883958099</v>
-      </c>
-      <c r="W12" s="146">
-        <v>2254.7438448591802</v>
+        <v>2226.3713878819258</v>
+      </c>
+      <c r="W12">
+        <v>2250.0890794924908</v>
       </c>
       <c r="X12">
-        <v>2279.6563184679098</v>
+        <v>2274.950122993268</v>
       </c>
       <c r="Y12">
-        <v>2304.8620956658601</v>
+        <v>2300.103864577939</v>
       </c>
       <c r="Z12">
-        <v>2330.3153477671999</v>
-      </c>
-      <c r="AA12" s="146">
-        <v>2355.9885775604498</v>
+        <v>2325.5045701708959</v>
+      </c>
+      <c r="AA12">
+        <v>2351.124799326773</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
@@ -19145,70 +19145,70 @@
         <v>54.2</v>
       </c>
       <c r="F13">
-        <v>62.633333333333297</v>
-      </c>
-      <c r="G13" s="146">
-        <v>63.899884973907497</v>
+        <v>79.099999999999994</v>
+      </c>
+      <c r="G13">
+        <v>80.69953541409393</v>
       </c>
       <c r="H13">
-        <v>64.959659038096405</v>
+        <v>82.037930227462851</v>
       </c>
       <c r="I13">
-        <v>65.992611274880801</v>
+        <v>83.342451599410424</v>
       </c>
       <c r="J13">
-        <v>67.096672542458407</v>
-      </c>
-      <c r="K13" s="146">
-        <v>67.8361440863642</v>
+        <v>84.736776978847132</v>
+      </c>
+      <c r="K13">
+        <v>85.670659881289055</v>
       </c>
       <c r="L13">
-        <v>68.512927405754894</v>
+        <v>86.525373461339257</v>
       </c>
       <c r="M13">
-        <v>69.182849327437594</v>
+        <v>87.371421742421205</v>
       </c>
       <c r="N13">
-        <v>69.883335657092701</v>
-      </c>
-      <c r="O13" s="146">
-        <v>70.594114083310103</v>
+        <v>88.256069991634433</v>
+      </c>
+      <c r="O13">
+        <v>89.15371618930007</v>
       </c>
       <c r="P13">
-        <v>71.308635090095393</v>
+        <v>90.056088913675637</v>
       </c>
       <c r="Q13">
-        <v>71.993527334050398</v>
+        <v>90.921043301597379</v>
       </c>
       <c r="R13">
-        <v>72.727385007104004</v>
-      </c>
-      <c r="S13" s="146">
-        <v>73.503034829834405</v>
+        <v>91.847836413974392</v>
+      </c>
+      <c r="S13">
+        <v>92.827409074612547</v>
       </c>
       <c r="T13">
-        <v>74.318293630243403</v>
+        <v>93.857004142931061</v>
       </c>
       <c r="U13">
-        <v>75.119205871808106</v>
+        <v>94.868480858861446</v>
       </c>
       <c r="V13">
-        <v>75.913256715664801</v>
-      </c>
-      <c r="W13" s="146">
-        <v>76.721966000079604</v>
+        <v>95.871292275823549</v>
+      </c>
+      <c r="W13">
+        <v>96.892615922399656</v>
       </c>
       <c r="X13">
-        <v>77.569660498745094</v>
+        <v>97.963174222204472</v>
       </c>
       <c r="Y13">
-        <v>78.427335212258797</v>
+        <v>99.046336593235807</v>
       </c>
       <c r="Z13">
-        <v>79.293430732050595</v>
-      </c>
-      <c r="AA13" s="146">
-        <v>80.167011412978496</v>
+        <v>100.1401336493646</v>
+      </c>
+      <c r="AA13">
+        <v>101.2433837589132</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
@@ -19224,68 +19224,68 @@
       <c r="F14">
         <v>0.6</v>
       </c>
-      <c r="G14" s="146">
-        <v>0.60196494651670895</v>
+      <c r="G14">
+        <v>0.60196494651670918</v>
       </c>
       <c r="H14">
-        <v>0.60400462950948997</v>
+        <v>0.60400462950948985</v>
       </c>
       <c r="I14">
-        <v>0.60618755741474095</v>
+        <v>0.60618755741474062</v>
       </c>
       <c r="J14">
-        <v>0.60854487043082495</v>
-      </c>
-      <c r="K14" s="146">
-        <v>0.61108591061725004</v>
+        <v>0.6085448704308245</v>
+      </c>
+      <c r="K14">
+        <v>0.61108591061725048</v>
       </c>
       <c r="L14">
         <v>0.613723485418602</v>
       </c>
       <c r="M14">
-        <v>0.61640465649766196</v>
+        <v>0.61640465649766174</v>
       </c>
       <c r="N14">
         <v>0.61912008179492095</v>
       </c>
-      <c r="O14" s="146">
-        <v>0.62186976131037996</v>
+      <c r="O14">
+        <v>0.62186976131037952</v>
       </c>
       <c r="P14">
-        <v>0.62465992308370999</v>
+        <v>0.62465992308370988</v>
       </c>
       <c r="Q14">
-        <v>0.62746254093638598</v>
+        <v>0.62746254093638565</v>
       </c>
       <c r="R14">
-        <v>0.63030564104693299</v>
-      </c>
-      <c r="S14" s="146">
-        <v>0.633189223415353</v>
+        <v>0.63030564104693343</v>
+      </c>
+      <c r="S14">
+        <v>0.63318922341535311</v>
       </c>
       <c r="T14">
-        <v>0.63610394598213604</v>
+        <v>0.63610394598213582</v>
       </c>
       <c r="U14">
-        <v>0.63902489658859096</v>
+        <v>0.6390248965885913</v>
       </c>
       <c r="V14">
-        <v>0.64196141729422795</v>
-      </c>
-      <c r="W14" s="146">
-        <v>0.64491350809904702</v>
+        <v>0.64196141729422818</v>
+      </c>
+      <c r="W14">
+        <v>0.64491350809904657</v>
       </c>
       <c r="X14">
-        <v>0.64787182694353795</v>
+        <v>0.64787182694353762</v>
       </c>
       <c r="Y14">
-        <v>0.65081457568884704</v>
+        <v>0.65081457568884715</v>
       </c>
       <c r="Z14">
-        <v>0.65376043845399301</v>
-      </c>
-      <c r="AA14" s="146">
-        <v>0.65670630121913898</v>
+        <v>0.6537604384539929</v>
+      </c>
+      <c r="AA14">
+        <v>0.65670630121913887</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
@@ -19301,68 +19301,68 @@
       <c r="F15">
         <v>1328.7719999999999</v>
       </c>
-      <c r="G15" s="146">
-        <v>1334.5316252300399</v>
+      <c r="G15">
+        <v>1334.5316252300349</v>
       </c>
       <c r="H15">
-        <v>1340.2912504600699</v>
+        <v>1340.2912504600711</v>
       </c>
       <c r="I15">
-        <v>1346.0508756901099</v>
+        <v>1346.050875690107</v>
       </c>
       <c r="J15">
-        <v>1351.8105009201399</v>
-      </c>
-      <c r="K15" s="146">
-        <v>1386.19995908941</v>
+        <v>1351.810500920142</v>
+      </c>
+      <c r="K15">
+        <v>1386.199959089409</v>
       </c>
       <c r="L15">
-        <v>1420.58941725868</v>
+        <v>1420.5894172586759</v>
       </c>
       <c r="M15">
-        <v>1454.97887542794</v>
+        <v>1454.978875427943</v>
       </c>
       <c r="N15">
         <v>1489.36833359721</v>
       </c>
-      <c r="O15" s="146">
-        <v>1493.5796252647899</v>
+      <c r="O15">
+        <v>1493.5796252647931</v>
       </c>
       <c r="P15">
-        <v>1497.79091693238</v>
+        <v>1497.7909169323759</v>
       </c>
       <c r="Q15">
-        <v>1502.0022085999601</v>
+        <v>1502.002208599959</v>
       </c>
       <c r="R15">
-        <v>1506.21350026754</v>
-      </c>
-      <c r="S15" s="146">
-        <v>1517.6836153346301</v>
+        <v>1506.213500267542</v>
+      </c>
+      <c r="S15">
+        <v>1517.6836153346269</v>
       </c>
       <c r="T15">
-        <v>1529.1537304017099</v>
+        <v>1529.153730401712</v>
       </c>
       <c r="U15">
-        <v>1540.6238454688</v>
+        <v>1540.6238454687959</v>
       </c>
       <c r="V15">
-        <v>1552.0939605358799</v>
-      </c>
-      <c r="W15" s="146">
-        <v>1589.1619043973101</v>
+        <v>1552.0939605358819</v>
+      </c>
+      <c r="W15">
+        <v>1589.1619043973051</v>
       </c>
       <c r="X15">
-        <v>1626.22984825873</v>
+        <v>1626.2298482587289</v>
       </c>
       <c r="Y15">
-        <v>1663.29779212015</v>
+        <v>1663.2977921201521</v>
       </c>
       <c r="Z15">
-        <v>1700.36573598158</v>
-      </c>
-      <c r="AA15" s="146">
-        <v>1728.05186986427</v>
+        <v>1700.365735981575</v>
+      </c>
+      <c r="AA15">
+        <v>1728.0518698642729</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
@@ -19373,73 +19373,73 @@
         <v>1574.779</v>
       </c>
       <c r="E16">
-        <v>3697.6559999999999</v>
+        <v>3697.6560000000009</v>
       </c>
       <c r="F16">
-        <v>1936.7829999999999</v>
-      </c>
-      <c r="G16" s="146">
-        <v>1672.7966214901101</v>
+        <v>1914.2629999999999</v>
+      </c>
+      <c r="G16">
+        <v>1652.519124685555</v>
       </c>
       <c r="H16">
-        <v>1465.5104337387199</v>
+        <v>1447.016042358189</v>
       </c>
       <c r="I16">
-        <v>1299.0451766609799</v>
+        <v>1282.003150290248</v>
       </c>
       <c r="J16">
-        <v>1183.6501317488301</v>
-      </c>
-      <c r="K16" s="146">
-        <v>1212.0640991453099</v>
+        <v>1167.646687976573</v>
+      </c>
+      <c r="K16">
+        <v>1195.5066238196489</v>
       </c>
       <c r="L16">
-        <v>1217.7439353608499</v>
+        <v>1200.816625555186</v>
       </c>
       <c r="M16">
-        <v>1208.96473324825</v>
+        <v>1191.784739361826</v>
       </c>
       <c r="N16">
-        <v>1180.1644010795901</v>
-      </c>
-      <c r="O16" s="146">
-        <v>1179.6784558214599</v>
+        <v>1162.893938837019</v>
+      </c>
+      <c r="O16">
+        <v>1162.3330694430681</v>
       </c>
       <c r="P16">
-        <v>1180.02832580887</v>
+        <v>1162.3330694430681</v>
       </c>
       <c r="Q16">
-        <v>1180.9498091133601</v>
+        <v>1162.3330694430681</v>
       </c>
       <c r="R16">
-        <v>1183.5090805705399</v>
-      </c>
-      <c r="S16" s="146">
-        <v>1196.38174617907</v>
+        <v>1162.3330694430681</v>
+      </c>
+      <c r="S16">
+        <v>1162.3330694430681</v>
       </c>
       <c r="T16">
-        <v>1208.7045594096801</v>
+        <v>1162.3330694430681</v>
       </c>
       <c r="U16">
-        <v>1218.4636238005401</v>
+        <v>1162.3330694430681</v>
       </c>
       <c r="V16">
-        <v>1226.65118879031</v>
-      </c>
-      <c r="W16" s="146">
-        <v>1253.6401896636601</v>
+        <v>1162.3330694430681</v>
+      </c>
+      <c r="W16">
+        <v>1162.3330694430681</v>
       </c>
       <c r="X16">
-        <v>1275.4564470571599</v>
+        <v>1162.3330694430681</v>
       </c>
       <c r="Y16">
-        <v>1292.69035143207</v>
+        <v>1162.3330694430681</v>
       </c>
       <c r="Z16">
-        <v>1304.8487753285599</v>
-      </c>
-      <c r="AA16" s="146">
-        <v>1310.5588758504</v>
+        <v>1162.3330694430681</v>
+      </c>
+      <c r="AA16">
+        <v>1162.3330694430681</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.35">
@@ -19450,73 +19450,73 @@
         <v>3376.8</v>
       </c>
       <c r="E17">
-        <v>3096.4</v>
+        <v>3105.7</v>
       </c>
       <c r="F17">
-        <v>3250.4</v>
-      </c>
-      <c r="G17" s="146">
-        <v>3279.4707042488999</v>
+        <v>3266.7</v>
+      </c>
+      <c r="G17">
+        <v>3295.9886094398548</v>
       </c>
       <c r="H17">
-        <v>3308.5414084977901</v>
+        <v>3325.2772188797112</v>
       </c>
       <c r="I17">
-        <v>3337.6121127466899</v>
+        <v>3354.5658283195671</v>
       </c>
       <c r="J17">
-        <v>3366.6828169955802</v>
-      </c>
-      <c r="K17" s="146">
-        <v>3414.97665743072</v>
+        <v>3383.854437759423</v>
+      </c>
+      <c r="K17">
+        <v>3432.4099094471171</v>
       </c>
       <c r="L17">
-        <v>3463.2704978658498</v>
+        <v>3480.965381134813</v>
       </c>
       <c r="M17">
-        <v>3511.5643383009901</v>
+        <v>3529.5208528225089</v>
       </c>
       <c r="N17">
-        <v>3559.85817873612</v>
-      </c>
-      <c r="O17" s="146">
-        <v>3606.5959670229799</v>
+        <v>3578.076324510203</v>
+      </c>
+      <c r="O17">
+        <v>3625.0763484493041</v>
       </c>
       <c r="P17">
-        <v>3653.3337553098399</v>
+        <v>3672.0763723884052</v>
       </c>
       <c r="Q17">
-        <v>3700.0715435966999</v>
+        <v>3719.0763963275049</v>
       </c>
       <c r="R17">
-        <v>3746.8093318835599</v>
-      </c>
-      <c r="S17" s="146">
-        <v>3782.1656535796701</v>
+        <v>3766.0764202666069</v>
+      </c>
+      <c r="S17">
+        <v>3801.6062968575611</v>
       </c>
       <c r="T17">
-        <v>3817.5219752757798</v>
+        <v>3837.1361734485149</v>
       </c>
       <c r="U17">
-        <v>3852.87829697189</v>
+        <v>3872.6660500394692</v>
       </c>
       <c r="V17">
-        <v>3888.2346186680102</v>
-      </c>
-      <c r="W17" s="146">
-        <v>3927.6869124648601</v>
+        <v>3908.1959266304229</v>
+      </c>
+      <c r="W17">
+        <v>3947.8055767507321</v>
       </c>
       <c r="X17">
-        <v>3967.1392062617201</v>
+        <v>3987.4152268710432</v>
       </c>
       <c r="Y17">
-        <v>4006.5915000585701</v>
+        <v>4027.0248769913519</v>
       </c>
       <c r="Z17">
-        <v>4046.0437938554301</v>
-      </c>
-      <c r="AA17" s="146">
-        <v>4091.8476387732799</v>
+        <v>4066.6345271116629</v>
+      </c>
+      <c r="AA17">
+        <v>4112.6452877858992</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.35">
@@ -19530,70 +19530,70 @@
         <v>171.5</v>
       </c>
       <c r="F18">
-        <v>193.9</v>
-      </c>
-      <c r="G18" s="146">
-        <v>203.46905965472101</v>
+        <v>205.3</v>
+      </c>
+      <c r="G18">
+        <v>215.4316552197742</v>
       </c>
       <c r="H18">
-        <v>213.03811930944201</v>
+        <v>225.5633104395485</v>
       </c>
       <c r="I18">
-        <v>222.60717896416301</v>
+        <v>235.69496565932261</v>
       </c>
       <c r="J18">
-        <v>232.17623861888401</v>
-      </c>
-      <c r="K18" s="146">
-        <v>272.74113487866401</v>
+        <v>245.82662087909691</v>
+      </c>
+      <c r="K18">
+        <v>288.77645688803358</v>
       </c>
       <c r="L18">
-        <v>313.30603113844398</v>
+        <v>331.72629289697022</v>
       </c>
       <c r="M18">
-        <v>353.87092739822401</v>
+        <v>374.67612890590692</v>
       </c>
       <c r="N18">
-        <v>394.43582365800398</v>
-      </c>
-      <c r="O18" s="146">
-        <v>417.68987091583199</v>
+        <v>417.62596491484362</v>
+      </c>
+      <c r="O18">
+        <v>442.24719184641708</v>
       </c>
       <c r="P18">
-        <v>440.94391817365999</v>
+        <v>466.86841877799071</v>
       </c>
       <c r="Q18">
-        <v>464.197965431488</v>
+        <v>491.48964570956429</v>
       </c>
       <c r="R18">
-        <v>487.45201268931601</v>
-      </c>
-      <c r="S18" s="146">
-        <v>499.931263438028</v>
+        <v>516.1108726411378</v>
+      </c>
+      <c r="S18">
+        <v>529.32381837971764</v>
       </c>
       <c r="T18">
-        <v>512.41051418674101</v>
+        <v>542.53676411829747</v>
       </c>
       <c r="U18">
-        <v>524.88976493545294</v>
+        <v>555.7497098568773</v>
       </c>
       <c r="V18">
-        <v>537.36901568416499</v>
-      </c>
-      <c r="W18" s="146">
-        <v>549.34569255866097</v>
+        <v>568.96265559545702</v>
+      </c>
+      <c r="W18">
+        <v>581.64347953735432</v>
       </c>
       <c r="X18">
-        <v>561.32236943315604</v>
+        <v>594.32430347925151</v>
       </c>
       <c r="Y18">
-        <v>573.299046307651</v>
+        <v>607.0051274211487</v>
       </c>
       <c r="Z18">
-        <v>585.27572318214595</v>
-      </c>
-      <c r="AA18" s="146">
-        <v>587.36016206119598</v>
+        <v>619.68595136304589</v>
+      </c>
+      <c r="AA18">
+        <v>621.89294105808938</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.35">
@@ -19607,70 +19607,70 @@
         <v>1085.9000000000001</v>
       </c>
       <c r="F19">
-        <v>1211.7</v>
-      </c>
-      <c r="G19" s="146">
-        <v>1215.66820949049</v>
+        <v>1212.7</v>
+      </c>
+      <c r="G19">
+        <v>1216.671484401355</v>
       </c>
       <c r="H19">
-        <v>1219.78734929441</v>
+        <v>1220.7940236769309</v>
       </c>
       <c r="I19">
-        <v>1224.19577219907</v>
+        <v>1225.20608479476</v>
       </c>
       <c r="J19">
-        <v>1228.9563658350501</v>
-      </c>
-      <c r="K19" s="146">
-        <v>1234.08799649154</v>
+        <v>1229.970607285768</v>
+      </c>
+      <c r="K19">
+        <v>1235.106473009233</v>
       </c>
       <c r="L19">
-        <v>1239.41457880287</v>
+        <v>1240.437451278565</v>
       </c>
       <c r="M19">
-        <v>1244.82920379703</v>
+        <v>1245.8565448911911</v>
       </c>
       <c r="N19">
-        <v>1250.31300518484</v>
-      </c>
-      <c r="O19" s="146">
-        <v>1255.86598296631</v>
+        <v>1251.3448719878349</v>
+      </c>
+      <c r="O19">
+        <v>1256.902432568495</v>
       </c>
       <c r="P19">
-        <v>1261.50071466755</v>
+        <v>1262.5418145393589</v>
       </c>
       <c r="Q19">
-        <v>1267.1606014210299</v>
+        <v>1268.206372322592</v>
       </c>
       <c r="R19">
-        <v>1272.9022420942799</v>
-      </c>
-      <c r="S19" s="146">
-        <v>1278.72563668731</v>
+        <v>1273.9527514960271</v>
+      </c>
+      <c r="S19">
+        <v>1279.7809520596641</v>
       </c>
       <c r="T19">
-        <v>1284.6119189109199</v>
+        <v>1285.6720921542269</v>
       </c>
       <c r="U19">
-        <v>1290.51077866066</v>
+        <v>1291.5758201549741</v>
       </c>
       <c r="V19">
-        <v>1296.44108222569</v>
-      </c>
-      <c r="W19" s="146">
-        <v>1302.4028296060301</v>
+        <v>1297.511017921184</v>
+      </c>
+      <c r="W19">
+        <v>1303.4776854528559</v>
       </c>
       <c r="X19">
-        <v>1308.37715451247</v>
+        <v>1309.456940890713</v>
       </c>
       <c r="Y19">
-        <v>1314.32003560363</v>
+        <v>1315.4047265631079</v>
       </c>
       <c r="Z19">
-        <v>1320.2692054578399</v>
-      </c>
-      <c r="AA19" s="146">
-        <v>1326.2183753120501</v>
+        <v>1321.3588061885951</v>
+      </c>
+      <c r="AA19">
+        <v>1327.3128858140831</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.35">
@@ -19681,73 +19681,73 @@
         <v>204.37100000000001</v>
       </c>
       <c r="E20">
-        <v>884.26</v>
+        <v>884.2600000000001</v>
       </c>
       <c r="F20">
-        <v>241.428</v>
-      </c>
-      <c r="G20" s="146">
-        <v>228.42538380464799</v>
+        <v>242.12799999999999</v>
+      </c>
+      <c r="G20">
+        <v>229.13072093917029</v>
       </c>
       <c r="H20">
-        <v>212.81817966260101</v>
+        <v>213.52634779891321</v>
       </c>
       <c r="I20">
-        <v>197.64507351167001</v>
+        <v>198.35649033856069</v>
       </c>
       <c r="J20">
-        <v>183.050764682226</v>
-      </c>
-      <c r="K20" s="146">
-        <v>194.33260834913199</v>
+        <v>183.7659871180808</v>
+      </c>
+      <c r="K20">
+        <v>195.0533202337098</v>
       </c>
       <c r="L20">
-        <v>206.40744830671201</v>
+        <v>207.1344126604987</v>
       </c>
       <c r="M20">
-        <v>218.56402183082099</v>
+        <v>219.29731729779769</v>
       </c>
       <c r="N20">
-        <v>231.450162767232</v>
-      </c>
-      <c r="O20" s="146">
-        <v>243.697218746837</v>
+        <v>232.19049133666189</v>
+      </c>
+      <c r="O20">
+        <v>244.4440181553536</v>
       </c>
       <c r="P20">
-        <v>256.68855568447401</v>
+        <v>257.44254207870313</v>
       </c>
       <c r="Q20">
-        <v>269.06365627500099</v>
+        <v>269.82423671275291</v>
       </c>
       <c r="R20">
-        <v>282.19002161326898</v>
-      </c>
-      <c r="S20" s="146">
-        <v>284.06878742236199</v>
+        <v>282.9579189609679</v>
+      </c>
+      <c r="S20">
+        <v>284.8440859079293</v>
       </c>
       <c r="T20">
-        <v>286.02397575074502</v>
+        <v>286.80674890787742</v>
       </c>
       <c r="U20">
-        <v>288.02432115421698</v>
+        <v>288.81461243301999</v>
       </c>
       <c r="V20">
-        <v>290.08195001278602</v>
-      </c>
-      <c r="W20" s="146">
-        <v>290.64640085953198</v>
+        <v>290.87981453136018</v>
+      </c>
+      <c r="W20">
+        <v>291.45189402230841</v>
       </c>
       <c r="X20">
-        <v>291.94560582935901</v>
+        <v>292.75943461625042</v>
       </c>
       <c r="Y20">
-        <v>292.57635948132702</v>
+        <v>293.39788070893411</v>
       </c>
       <c r="Z20">
-        <v>293.248747038462</v>
-      </c>
-      <c r="AA20" s="146">
-        <v>293.65977826243102</v>
+        <v>294.07800076689921</v>
+      </c>
+      <c r="AA20">
+        <v>294.49680065914453</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.35">
@@ -19834,51 +19834,51 @@
       </c>
       <c r="N24" s="104">
         <f>M24*(1+N26)</f>
-        <v>229.16775203348286</v>
+        <v>229.16775203348308</v>
       </c>
       <c r="O24" s="149">
         <f t="shared" ref="O24:AA24" si="0">N24*(1+O26)</f>
-        <v>226.81542267562492</v>
+        <v>226.81542267562489</v>
       </c>
       <c r="P24" s="104">
         <f t="shared" si="0"/>
-        <v>224.46309331776601</v>
+        <v>224.46309331776644</v>
       </c>
       <c r="Q24" s="104">
         <f t="shared" si="0"/>
-        <v>222.11076395990807</v>
+        <v>222.1107639599081</v>
       </c>
       <c r="R24" s="104">
         <f t="shared" si="0"/>
-        <v>219.7584346020501</v>
+        <v>219.75843460204968</v>
       </c>
       <c r="S24" s="149">
         <f t="shared" si="0"/>
-        <v>222.23478113519113</v>
+        <v>222.2347811351913</v>
       </c>
       <c r="T24" s="104">
         <f t="shared" si="0"/>
-        <v>224.71112766833312</v>
+        <v>224.71112766833286</v>
       </c>
       <c r="U24" s="104">
         <f t="shared" si="0"/>
-        <v>227.18747420147511</v>
+        <v>227.1874742014746</v>
       </c>
       <c r="V24" s="104">
         <f t="shared" si="0"/>
-        <v>229.66382073461614</v>
+        <v>229.66382073461634</v>
       </c>
       <c r="W24" s="149">
         <f t="shared" si="0"/>
-        <v>232.80077800449581</v>
+        <v>232.80077800449556</v>
       </c>
       <c r="X24" s="104">
         <f t="shared" si="0"/>
-        <v>235.93773527437455</v>
+        <v>235.93773527437466</v>
       </c>
       <c r="Y24" s="104">
         <f t="shared" si="0"/>
-        <v>239.07469254425428</v>
+        <v>239.07469254425391</v>
       </c>
       <c r="Z24" s="104">
         <f t="shared" si="0"/>
@@ -19886,7 +19886,7 @@
       </c>
       <c r="AA24" s="149">
         <f t="shared" si="0"/>
-        <v>245.47595506973346</v>
+        <v>245.47595506973281</v>
       </c>
       <c r="AB24" s="95"/>
     </row>
@@ -19896,99 +19896,99 @@
       </c>
       <c r="D25" s="102">
         <f>D10</f>
-        <v>200.67099999999999</v>
+        <v>200.67100000000011</v>
       </c>
       <c r="E25" s="104">
-        <f t="shared" ref="E25:K25" si="1">E10</f>
+        <f>E10</f>
         <v>156.16</v>
       </c>
       <c r="F25" s="104">
-        <f t="shared" si="1"/>
-        <v>212.928</v>
+        <f>F10</f>
+        <v>205.22800000000001</v>
       </c>
       <c r="G25" s="149">
-        <f t="shared" si="1"/>
-        <v>221.05373389040901</v>
+        <f>G10</f>
+        <v>213.05988737442189</v>
       </c>
       <c r="H25" s="104">
-        <f t="shared" si="1"/>
-        <v>229.17946778081901</v>
+        <f>H10</f>
+        <v>220.89177474884389</v>
       </c>
       <c r="I25" s="104">
-        <f t="shared" si="1"/>
-        <v>237.30520167122799</v>
+        <f>I10</f>
+        <v>228.723662123266</v>
       </c>
       <c r="J25" s="104">
-        <f t="shared" si="1"/>
-        <v>245.430935561637</v>
+        <f>J10</f>
+        <v>236.55554949768791</v>
       </c>
       <c r="K25" s="149">
-        <f t="shared" si="1"/>
-        <v>242.987997735091</v>
+        <f>K10</f>
+        <v>234.20095430933171</v>
       </c>
       <c r="L25" s="104">
-        <f t="shared" ref="L25:AA25" si="2">L10</f>
-        <v>240.54505990854599</v>
+        <f>L10</f>
+        <v>231.84635912097539</v>
       </c>
       <c r="M25" s="232">
-        <f t="shared" si="2"/>
-        <v>238.10212208199999</v>
+        <f>M10</f>
+        <v>229.49176393261911</v>
       </c>
       <c r="N25" s="104">
-        <f t="shared" si="2"/>
-        <v>235.65918425545399</v>
+        <f>N10</f>
+        <v>227.13716874426279</v>
       </c>
       <c r="O25" s="149">
-        <f t="shared" si="2"/>
-        <v>233.240222544419</v>
+        <f>O10</f>
+        <v>224.80568263613071</v>
       </c>
       <c r="P25" s="104">
-        <f t="shared" si="2"/>
-        <v>230.82126083338301</v>
+        <f>P10</f>
+        <v>222.4741965279984</v>
       </c>
       <c r="Q25" s="104">
-        <f t="shared" si="2"/>
-        <v>228.40229912234801</v>
+        <f>Q10</f>
+        <v>220.14271041986621</v>
       </c>
       <c r="R25" s="104">
-        <f t="shared" si="2"/>
-        <v>225.98333741131299</v>
+        <f>R10</f>
+        <v>217.81122431173389</v>
       </c>
       <c r="S25" s="149">
-        <f t="shared" si="2"/>
-        <v>228.52982922246699</v>
+        <f>S10</f>
+        <v>220.26562871801039</v>
       </c>
       <c r="T25" s="104">
-        <f t="shared" si="2"/>
-        <v>231.07632103362201</v>
+        <f>T10</f>
+        <v>222.7200331242868</v>
       </c>
       <c r="U25" s="104">
-        <f t="shared" si="2"/>
-        <v>233.622812844777</v>
+        <f>U10</f>
+        <v>225.17443753056341</v>
       </c>
       <c r="V25" s="104">
-        <f t="shared" si="2"/>
-        <v>236.169304655931</v>
+        <f>V10</f>
+        <v>227.62884193683999</v>
       </c>
       <c r="W25" s="149">
-        <f t="shared" si="2"/>
-        <v>239.39511973987899</v>
+        <f>W10</f>
+        <v>230.7380036161324</v>
       </c>
       <c r="X25" s="104">
-        <f t="shared" si="2"/>
-        <v>242.62093482382599</v>
+        <f>X10</f>
+        <v>233.8471652954247</v>
       </c>
       <c r="Y25" s="104">
-        <f t="shared" si="2"/>
-        <v>245.84674990777401</v>
+        <f>Y10</f>
+        <v>236.9563269747172</v>
       </c>
       <c r="Z25" s="104">
-        <f t="shared" si="2"/>
-        <v>249.07256499172101</v>
+        <f>Z10</f>
+        <v>240.0654886540095</v>
       </c>
       <c r="AA25" s="149">
-        <f t="shared" si="2"/>
-        <v>252.42933533514699</v>
+        <f>AA10</f>
+        <v>243.3008699286211</v>
       </c>
       <c r="AB25" s="95"/>
     </row>
@@ -20007,60 +20007,60 @@
       <c r="L26" s="239"/>
       <c r="M26" s="239"/>
       <c r="N26" s="239">
-        <f t="shared" ref="N26" si="3">(N25/M25)-1</f>
-        <v>-1.0260042225514798E-2</v>
+        <f t="shared" ref="N26" si="1">(N25/M25)-1</f>
+        <v>-1.0260042225513799E-2</v>
       </c>
       <c r="O26" s="256">
-        <f t="shared" ref="O26" si="4">(O25/N25)-1</f>
-        <v>-1.0264661310262602E-2</v>
+        <f t="shared" ref="O26" si="2">(O25/N25)-1</f>
+        <v>-1.0264661310263712E-2</v>
       </c>
       <c r="P26" s="239">
-        <f t="shared" ref="P26" si="5">(P25/O25)-1</f>
-        <v>-1.0371117316934075E-2</v>
+        <f t="shared" ref="P26" si="3">(P25/O25)-1</f>
+        <v>-1.0371117316932077E-2</v>
       </c>
       <c r="Q26" s="239">
-        <f t="shared" ref="Q26" si="6">(Q25/P25)-1</f>
-        <v>-1.0479804599893949E-2</v>
+        <f t="shared" ref="Q26" si="4">(Q25/P25)-1</f>
+        <v>-1.0479804599895615E-2</v>
       </c>
       <c r="R26" s="239">
-        <f t="shared" ref="R26" si="7">(R25/Q25)-1</f>
-        <v>-1.0590794052117936E-2</v>
+        <f t="shared" ref="R26" si="5">(R25/Q25)-1</f>
+        <v>-1.0590794052120045E-2</v>
       </c>
       <c r="S26" s="256">
-        <f t="shared" ref="S26" si="8">(S25/R25)-1</f>
-        <v>1.1268493687740966E-2</v>
+        <f t="shared" ref="S26" si="6">(S25/R25)-1</f>
+        <v>1.126849368774363E-2</v>
       </c>
       <c r="T26" s="239">
-        <f t="shared" ref="T26" si="9">(T25/S25)-1</f>
-        <v>1.114292965526209E-2</v>
+        <f t="shared" ref="T26" si="7">(T25/S25)-1</f>
+        <v>1.1142929655260092E-2</v>
       </c>
       <c r="U26" s="239">
-        <f t="shared" ref="U26" si="10">(U25/T25)-1</f>
-        <v>1.1020133087476625E-2</v>
+        <f t="shared" ref="U26" si="8">(U25/T25)-1</f>
+        <v>1.1020133087475514E-2</v>
       </c>
       <c r="V26" s="239">
-        <f t="shared" ref="V26" si="11">(V25/U25)-1</f>
-        <v>1.0900013488177374E-2</v>
+        <f t="shared" ref="V26" si="9">(V25/U25)-1</f>
+        <v>1.0900013488180482E-2</v>
       </c>
       <c r="W26" s="256">
-        <f t="shared" ref="W26" si="12">(W25/V25)-1</f>
-        <v>1.3658909182324042E-2</v>
+        <f t="shared" ref="W26" si="10">(W25/V25)-1</f>
+        <v>1.3658909182322043E-2</v>
       </c>
       <c r="X26" s="239">
-        <f t="shared" ref="X26" si="13">(X25/W25)-1</f>
-        <v>1.3474857329807355E-2</v>
+        <f t="shared" ref="X26" si="11">(X25/W25)-1</f>
+        <v>1.3474857329808909E-2</v>
       </c>
       <c r="Y26" s="239">
-        <f t="shared" ref="Y26" si="14">(Y25/X25)-1</f>
-        <v>1.3295699673609773E-2</v>
+        <f t="shared" ref="Y26" si="12">(Y25/X25)-1</f>
+        <v>1.3295699673607775E-2</v>
       </c>
       <c r="Z26" s="239">
-        <f t="shared" ref="Z26" si="15">(Z25/Y25)-1</f>
-        <v>1.3121243559888862E-2</v>
+        <f t="shared" ref="Z26" si="13">(Z25/Y25)-1</f>
+        <v>1.3121243559890416E-2</v>
       </c>
       <c r="AA26" s="256">
-        <f t="shared" ref="AA26" si="16">(AA25/Z25)-1</f>
-        <v>1.34770778288551E-2</v>
+        <f t="shared" ref="AA26" si="14">(AA25/Z25)-1</f>
+        <v>1.3477077828852435E-2</v>
       </c>
       <c r="AB26" s="253"/>
     </row>
@@ -20071,92 +20071,92 @@
       <c r="D27" s="103"/>
       <c r="E27" s="225"/>
       <c r="F27" s="225">
-        <f t="shared" ref="F27" si="17">F24-F25</f>
-        <v>-29.957396859939735</v>
+        <f t="shared" ref="F27" si="15">F24-F25</f>
+        <v>-22.257396859939746</v>
       </c>
       <c r="G27" s="150">
-        <f t="shared" ref="G27" si="18">G24-G25</f>
-        <v>-34.783497145431824</v>
+        <f t="shared" ref="G27" si="16">G24-G25</f>
+        <v>-26.789650629444708</v>
       </c>
       <c r="H27" s="225">
-        <f t="shared" ref="H27" si="19">H24-H25</f>
-        <v>-41.050457665991701</v>
+        <f t="shared" ref="H27" si="17">H24-H25</f>
+        <v>-32.762764634016577</v>
       </c>
       <c r="I27" s="225">
-        <f t="shared" ref="I27" si="20">I24-I25</f>
-        <v>-49.176191556400681</v>
+        <f t="shared" ref="I27" si="18">I24-I25</f>
+        <v>-40.594652008438686</v>
       </c>
       <c r="J27" s="225">
-        <f t="shared" ref="J27" si="21">J24-J25</f>
-        <v>-57.30192544680969</v>
+        <f t="shared" ref="J27" si="19">J24-J25</f>
+        <v>-48.426539382860597</v>
       </c>
       <c r="K27" s="150">
-        <f t="shared" ref="K27:AA27" si="22">K24-K25</f>
-        <v>-54.85898762026369</v>
+        <f t="shared" ref="K27:AA27" si="20">K24-K25</f>
+        <v>-46.071944194504397</v>
       </c>
       <c r="L27" s="225">
-        <f t="shared" si="22"/>
-        <v>-9.001662844143226</v>
+        <f t="shared" si="20"/>
+        <v>-0.30296205657262476</v>
       </c>
       <c r="M27" s="249">
-        <f t="shared" si="22"/>
-        <v>-6.5587250175972258</v>
+        <f t="shared" si="20"/>
+        <v>2.0516331317836602</v>
       </c>
       <c r="N27" s="225">
-        <f t="shared" si="22"/>
-        <v>-6.491432221971138</v>
+        <f t="shared" si="20"/>
+        <v>2.0305832892202886</v>
       </c>
       <c r="O27" s="150">
-        <f t="shared" si="22"/>
-        <v>-6.4247998687940822</v>
+        <f t="shared" si="20"/>
+        <v>2.0097400394941758</v>
       </c>
       <c r="P27" s="225">
-        <f t="shared" si="22"/>
-        <v>-6.3581675156169979</v>
+        <f t="shared" si="20"/>
+        <v>1.9888967897680345</v>
       </c>
       <c r="Q27" s="225">
-        <f t="shared" si="22"/>
-        <v>-6.291535162439942</v>
+        <f t="shared" si="20"/>
+        <v>1.9680535400418933</v>
       </c>
       <c r="R27" s="225">
-        <f t="shared" si="22"/>
-        <v>-6.2249028092628862</v>
+        <f t="shared" si="20"/>
+        <v>1.9472102903157804</v>
       </c>
       <c r="S27" s="150">
-        <f t="shared" si="22"/>
-        <v>-6.295048087275859</v>
+        <f t="shared" si="20"/>
+        <v>1.9691524171809078</v>
       </c>
       <c r="T27" s="225">
-        <f t="shared" si="22"/>
-        <v>-6.3651933652888886</v>
+        <f t="shared" si="20"/>
+        <v>1.9910945440460637</v>
       </c>
       <c r="U27" s="225">
-        <f t="shared" si="22"/>
-        <v>-6.4353386433018898</v>
+        <f t="shared" si="20"/>
+        <v>2.0130366709111911</v>
       </c>
       <c r="V27" s="225">
-        <f t="shared" si="22"/>
-        <v>-6.5054839213148625</v>
+        <f t="shared" si="20"/>
+        <v>2.0349787977763469</v>
       </c>
       <c r="W27" s="150">
-        <f t="shared" si="22"/>
-        <v>-6.5943417353831819</v>
+        <f t="shared" si="20"/>
+        <v>2.0627743883631524</v>
       </c>
       <c r="X27" s="225">
-        <f t="shared" si="22"/>
-        <v>-6.6831995494514445</v>
+        <f t="shared" si="20"/>
+        <v>2.0905699789499579</v>
       </c>
       <c r="Y27" s="225">
-        <f t="shared" si="22"/>
-        <v>-6.7720573635197354</v>
+        <f t="shared" si="20"/>
+        <v>2.1183655695367065</v>
       </c>
       <c r="Z27" s="225">
-        <f t="shared" si="22"/>
-        <v>-6.8609151775880264</v>
+        <f t="shared" si="20"/>
+        <v>2.1461611601234836</v>
       </c>
       <c r="AA27" s="150">
-        <f t="shared" si="22"/>
-        <v>-6.9533802654135286</v>
+        <f t="shared" si="20"/>
+        <v>2.1750851411117083</v>
       </c>
       <c r="AB27" s="254"/>
     </row>
@@ -20272,63 +20272,63 @@
       </c>
       <c r="M31" s="104">
         <f>L31*(1 + M33)</f>
-        <v>196.1377384453541</v>
+        <v>196.6039455094818</v>
       </c>
       <c r="N31" s="104">
-        <f t="shared" ref="N31:AA31" si="23">M31*(1 + N33)</f>
-        <v>201.02049700267582</v>
+        <f t="shared" ref="N31:AA31" si="21">M31*(1 + N33)</f>
+        <v>201.92945643912574</v>
       </c>
       <c r="O31" s="104">
-        <f t="shared" si="23"/>
-        <v>205.49740549889256</v>
+        <f t="shared" si="21"/>
+        <v>206.82154024469929</v>
       </c>
       <c r="P31" s="104">
-        <f t="shared" si="23"/>
-        <v>209.87313201110581</v>
+        <f t="shared" si="21"/>
+        <v>242.80935879117246</v>
       </c>
       <c r="Q31" s="104">
-        <f t="shared" si="23"/>
-        <v>214.56685904447599</v>
+        <f t="shared" si="21"/>
+        <v>248.2396911085703</v>
       </c>
       <c r="R31" s="104">
-        <f t="shared" si="23"/>
-        <v>219.23167693955926</v>
+        <f t="shared" si="21"/>
+        <v>253.63657746143045</v>
       </c>
       <c r="S31" s="104">
-        <f t="shared" si="23"/>
-        <v>220.69947059783161</v>
+        <f t="shared" si="21"/>
+        <v>255.33471782645819</v>
       </c>
       <c r="T31" s="104">
-        <f t="shared" si="23"/>
-        <v>222.34071908582786</v>
+        <f t="shared" si="21"/>
+        <v>257.23353397871472</v>
       </c>
       <c r="U31" s="104">
-        <f t="shared" si="23"/>
-        <v>224.14096783440166</v>
+        <f t="shared" si="21"/>
+        <v>259.31630293592781</v>
       </c>
       <c r="V31" s="104">
-        <f t="shared" si="23"/>
-        <v>226.17248968927152</v>
+        <f t="shared" si="21"/>
+        <v>261.666639609443</v>
       </c>
       <c r="W31" s="104">
-        <f t="shared" si="23"/>
-        <v>227.80603558171478</v>
+        <f t="shared" si="21"/>
+        <v>263.5565443671378</v>
       </c>
       <c r="X31" s="104">
-        <f t="shared" si="23"/>
-        <v>229.41067233587103</v>
+        <f t="shared" si="21"/>
+        <v>265.41300316029486</v>
       </c>
       <c r="Y31" s="104">
-        <f t="shared" si="23"/>
-        <v>231.13094564317328</v>
+        <f t="shared" si="21"/>
+        <v>267.40324581160064</v>
       </c>
       <c r="Z31" s="104">
-        <f t="shared" si="23"/>
-        <v>232.98131007276805</v>
+        <f t="shared" si="21"/>
+        <v>269.54399530332751</v>
       </c>
       <c r="AA31" s="104">
-        <f t="shared" si="23"/>
-        <v>234.86223263512105</v>
+        <f t="shared" si="21"/>
+        <v>271.72009853733562</v>
       </c>
       <c r="AB31" s="95"/>
     </row>
@@ -20341,95 +20341,95 @@
         <v>186.02099999999999</v>
       </c>
       <c r="E32" s="104">
-        <f t="shared" ref="E32:K32" si="24">E11</f>
-        <v>436.94400000000002</v>
+        <f>E11</f>
+        <v>436.94400000000019</v>
       </c>
       <c r="F32" s="104">
-        <f t="shared" si="24"/>
-        <v>878.91700000000003</v>
+        <f>F11</f>
+        <v>875.8370000000001</v>
       </c>
       <c r="G32" s="149">
-        <f t="shared" si="24"/>
-        <v>915.35852224998098</v>
+        <f>G11</f>
+        <v>853.37353126596815</v>
       </c>
       <c r="H32" s="104">
-        <f t="shared" si="24"/>
-        <v>914.68514436821897</v>
+        <f>H11</f>
+        <v>830.91985713818588</v>
       </c>
       <c r="I32" s="104">
-        <f t="shared" si="24"/>
-        <v>915.98381158882398</v>
+        <f>I11</f>
+        <v>808.47600210316944</v>
       </c>
       <c r="J32" s="104">
-        <f t="shared" si="24"/>
-        <v>910.92811125735602</v>
+        <f>J11</f>
+        <v>789.98929054816381</v>
       </c>
       <c r="K32" s="149">
-        <f t="shared" si="24"/>
-        <v>936.84227045007503</v>
+        <f>K11</f>
+        <v>809.82173278252503</v>
       </c>
       <c r="L32" s="232">
-        <f t="shared" ref="L32:AA32" si="25">L11</f>
-        <v>964.58239733017194</v>
+        <f>L11</f>
+        <v>833.74022244575849</v>
       </c>
       <c r="M32" s="104">
-        <f t="shared" si="25"/>
-        <v>991.08086618285097</v>
+        <f>M11</f>
+        <v>858.68045768077434</v>
       </c>
       <c r="N32" s="104">
-        <f t="shared" si="25"/>
-        <v>1015.7533673481501</v>
+        <f>N11</f>
+        <v>881.93997137262988</v>
       </c>
       <c r="O32" s="149">
-        <f t="shared" si="25"/>
-        <v>1038.3751146234099</v>
+        <f>O11</f>
+        <v>903.30646404548429</v>
       </c>
       <c r="P32" s="104">
-        <f t="shared" si="25"/>
+        <f>P11</f>
         <v>1060.4855909462101</v>
       </c>
       <c r="Q32" s="104">
-        <f t="shared" si="25"/>
+        <f>Q11</f>
         <v>1084.2029188339</v>
       </c>
       <c r="R32" s="104">
-        <f t="shared" si="25"/>
+        <f>R11</f>
         <v>1107.7741693066</v>
       </c>
       <c r="S32" s="149">
-        <f t="shared" si="25"/>
+        <f>S11</f>
         <v>1115.1909072671201</v>
       </c>
       <c r="T32" s="104">
-        <f t="shared" si="25"/>
+        <f>T11</f>
         <v>1123.4841097175899</v>
       </c>
       <c r="U32" s="104">
-        <f t="shared" si="25"/>
+        <f>U11</f>
         <v>1132.5807379505</v>
       </c>
       <c r="V32" s="104">
-        <f t="shared" si="25"/>
+        <f>V11</f>
         <v>1142.84598550333</v>
       </c>
       <c r="W32" s="149">
-        <f t="shared" si="25"/>
+        <f>W11</f>
         <v>1151.10026686124</v>
       </c>
       <c r="X32" s="104">
-        <f t="shared" si="25"/>
+        <f>X11</f>
         <v>1159.20847080416</v>
       </c>
       <c r="Y32" s="104">
-        <f t="shared" si="25"/>
+        <f>Y11</f>
         <v>1167.9009844070299</v>
       </c>
       <c r="Z32" s="104">
-        <f t="shared" si="25"/>
+        <f>Z11</f>
         <v>1177.2508463773599</v>
       </c>
       <c r="AA32" s="149">
-        <f t="shared" si="25"/>
+        <f>AA11</f>
         <v>1186.75511810546</v>
       </c>
       <c r="AB32" s="95"/>
@@ -20448,63 +20448,63 @@
       <c r="K33" s="256"/>
       <c r="L33" s="239"/>
       <c r="M33" s="239">
-        <f t="shared" ref="M33" si="26">(M32/L32)-1</f>
-        <v>2.747144145074909E-2</v>
+        <f t="shared" ref="M33" si="22">(M32/L32)-1</f>
+        <v>2.9913676422920199E-2</v>
       </c>
       <c r="N33" s="239">
-        <f t="shared" ref="N33" si="27">(N32/M32)-1</f>
-        <v>2.4894538888966089E-2</v>
+        <f t="shared" ref="N33" si="23">(N32/M32)-1</f>
+        <v>2.7087507912638031E-2</v>
       </c>
       <c r="O33" s="256">
-        <f t="shared" ref="O33" si="28">(O32/N32)-1</f>
-        <v>2.2270905519436335E-2</v>
+        <f t="shared" ref="O33" si="24">(O32/N32)-1</f>
+        <v>2.4226697242897499E-2</v>
       </c>
       <c r="P33" s="239">
-        <f t="shared" ref="P33" si="29">(P32/O32)-1</f>
-        <v>2.1293341887164807E-2</v>
+        <f t="shared" ref="P33" si="25">(P32/O32)-1</f>
+        <v>0.17400420915488035</v>
       </c>
       <c r="Q33" s="239">
-        <f t="shared" ref="Q33" si="30">(Q32/P32)-1</f>
+        <f t="shared" ref="Q33" si="26">(Q32/P32)-1</f>
         <v>2.2364592305802233E-2</v>
       </c>
       <c r="R33" s="239">
-        <f t="shared" ref="R33" si="31">(R32/Q32)-1</f>
+        <f t="shared" ref="R33" si="27">(R32/Q32)-1</f>
         <v>2.1740626282441555E-2</v>
       </c>
       <c r="S33" s="256">
-        <f t="shared" ref="S33" si="32">(S32/R32)-1</f>
+        <f t="shared" ref="S33" si="28">(S32/R32)-1</f>
         <v>6.6951714221343828E-3</v>
       </c>
       <c r="T33" s="239">
-        <f t="shared" ref="T33" si="33">(T32/S32)-1</f>
+        <f t="shared" ref="T33" si="29">(T32/S32)-1</f>
         <v>7.4365764609694018E-3</v>
       </c>
       <c r="U33" s="239">
-        <f t="shared" ref="U33" si="34">(U32/T32)-1</f>
+        <f t="shared" ref="U33" si="30">(U32/T32)-1</f>
         <v>8.0968018632650018E-3</v>
       </c>
       <c r="V33" s="239">
-        <f t="shared" ref="V33" si="35">(V32/U32)-1</f>
+        <f t="shared" ref="V33" si="31">(V32/U32)-1</f>
         <v>9.0635900901916422E-3</v>
       </c>
       <c r="W33" s="256">
-        <f t="shared" ref="W33" si="36">(W32/V32)-1</f>
+        <f t="shared" ref="W33" si="32">(W32/V32)-1</f>
         <v>7.2225666998118054E-3</v>
       </c>
       <c r="X33" s="239">
-        <f t="shared" ref="X33" si="37">(X32/W32)-1</f>
+        <f t="shared" ref="X33" si="33">(X32/W32)-1</f>
         <v>7.0438728721946564E-3</v>
       </c>
       <c r="Y33" s="239">
-        <f t="shared" ref="Y33" si="38">(Y32/X32)-1</f>
+        <f t="shared" ref="Y33" si="34">(Y32/X32)-1</f>
         <v>7.4986629426885276E-3</v>
       </c>
       <c r="Z33" s="239">
-        <f t="shared" ref="Z33" si="39">(Z32/Y32)-1</f>
+        <f t="shared" ref="Z33" si="35">(Z32/Y32)-1</f>
         <v>8.0056974822031446E-3</v>
       </c>
       <c r="AA33" s="256">
-        <f t="shared" ref="AA33" si="40">(AA32/Z32)-1</f>
+        <f t="shared" ref="AA33" si="36">(AA32/Z32)-1</f>
         <v>8.0732766150448665E-3</v>
       </c>
       <c r="AB33" s="253"/>
@@ -20516,92 +20516,92 @@
       <c r="D34" s="103"/>
       <c r="E34" s="225"/>
       <c r="F34" s="225">
-        <f t="shared" ref="F34" si="41">F31-F32</f>
-        <v>-594.18499999999995</v>
+        <f t="shared" ref="F34" si="37">F31-F32</f>
+        <v>-591.10500000000002</v>
       </c>
       <c r="G34" s="150">
-        <f t="shared" ref="G34" si="42">G31-G32</f>
-        <v>-692.43567224998105</v>
+        <f t="shared" ref="G34" si="38">G31-G32</f>
+        <v>-630.45068126596811</v>
       </c>
       <c r="H34" s="225">
-        <f t="shared" ref="H34" si="43">H31-H32</f>
-        <v>-711.40498724321901</v>
+        <f t="shared" ref="H34" si="39">H31-H32</f>
+        <v>-627.6397000131858</v>
       </c>
       <c r="I34" s="225">
-        <f t="shared" ref="I34" si="44">I31-I32</f>
-        <v>-728.34545407101155</v>
+        <f t="shared" ref="I34" si="40">I31-I32</f>
+        <v>-620.837644585357</v>
       </c>
       <c r="J34" s="225">
-        <f t="shared" ref="J34" si="45">J31-J32</f>
-        <v>-722.57156195195455</v>
+        <f t="shared" ref="J34" si="41">J31-J32</f>
+        <v>-601.63274124276234</v>
       </c>
       <c r="K34" s="150">
-        <f t="shared" ref="K34:N34" si="46">K31-K32</f>
-        <v>-747.40304702488299</v>
+        <f t="shared" ref="K34:N34" si="42">K31-K32</f>
+        <v>-620.38250935733299</v>
       </c>
       <c r="L34" s="249">
-        <f t="shared" si="46"/>
-        <v>-773.68878167072808</v>
+        <f t="shared" si="42"/>
+        <v>-642.84660678631462</v>
       </c>
       <c r="M34" s="225">
-        <f t="shared" si="46"/>
-        <v>-794.94312773749687</v>
+        <f t="shared" si="42"/>
+        <v>-662.07651217129251</v>
       </c>
       <c r="N34" s="225">
-        <f t="shared" si="46"/>
-        <v>-814.73287034547423</v>
+        <f t="shared" si="42"/>
+        <v>-680.01051493350417</v>
       </c>
       <c r="O34" s="150">
-        <f t="shared" ref="O34:AA34" si="47">O31-O32</f>
-        <v>-832.87770912451731</v>
+        <f t="shared" ref="O34:AA34" si="43">O31-O32</f>
+        <v>-696.48492380078505</v>
       </c>
       <c r="P34" s="150">
-        <f t="shared" si="47"/>
-        <v>-850.61245893510431</v>
+        <f t="shared" si="43"/>
+        <v>-817.67623215503761</v>
       </c>
       <c r="Q34" s="150">
-        <f t="shared" si="47"/>
-        <v>-869.63605978942394</v>
+        <f t="shared" si="43"/>
+        <v>-835.96322772532972</v>
       </c>
       <c r="R34" s="150">
-        <f t="shared" si="47"/>
-        <v>-888.54249236704072</v>
+        <f t="shared" si="43"/>
+        <v>-854.1375918451696</v>
       </c>
       <c r="S34" s="150">
-        <f t="shared" si="47"/>
-        <v>-894.49143666928853</v>
+        <f t="shared" si="43"/>
+        <v>-859.85618944066186</v>
       </c>
       <c r="T34" s="150">
-        <f t="shared" si="47"/>
-        <v>-901.14339063176203</v>
+        <f t="shared" si="43"/>
+        <v>-866.25057573887523</v>
       </c>
       <c r="U34" s="150">
-        <f t="shared" si="47"/>
-        <v>-908.43977011609832</v>
+        <f t="shared" si="43"/>
+        <v>-873.2644350145722</v>
       </c>
       <c r="V34" s="150">
-        <f t="shared" si="47"/>
-        <v>-916.67349581405847</v>
+        <f t="shared" si="43"/>
+        <v>-881.17934589388699</v>
       </c>
       <c r="W34" s="150">
-        <f t="shared" si="47"/>
-        <v>-923.29423127952521</v>
+        <f t="shared" si="43"/>
+        <v>-887.54372249410221</v>
       </c>
       <c r="X34" s="150">
-        <f t="shared" si="47"/>
-        <v>-929.79779846828899</v>
+        <f t="shared" si="43"/>
+        <v>-893.79546764386509</v>
       </c>
       <c r="Y34" s="150">
-        <f t="shared" si="47"/>
-        <v>-936.77003876385663</v>
+        <f t="shared" si="43"/>
+        <v>-900.49773859542927</v>
       </c>
       <c r="Z34" s="150">
-        <f t="shared" si="47"/>
-        <v>-944.26953630459184</v>
+        <f t="shared" si="43"/>
+        <v>-907.70685107403244</v>
       </c>
       <c r="AA34" s="150">
-        <f t="shared" si="47"/>
-        <v>-951.89288547033902</v>
+        <f t="shared" si="43"/>
+        <v>-915.03501956812443</v>
       </c>
       <c r="AB34" s="254"/>
     </row>
@@ -20740,36 +20740,36 @@
         <v>178</v>
       </c>
       <c r="D39" s="102">
-        <f t="shared" ref="D39:K39" si="48">D12</f>
+        <f>D12</f>
         <v>1862.4</v>
       </c>
       <c r="E39" s="104">
-        <f t="shared" si="48"/>
+        <f>E12</f>
         <v>1779.8</v>
       </c>
       <c r="F39" s="104">
-        <f t="shared" si="48"/>
-        <v>1840.7</v>
+        <f>F12</f>
+        <v>1836.9</v>
       </c>
       <c r="G39" s="149">
-        <f t="shared" si="48"/>
-        <v>1877.9220586184899</v>
+        <f>G12</f>
+        <v>1874.0452162092181</v>
       </c>
       <c r="H39" s="104">
-        <f t="shared" si="48"/>
-        <v>1909.0672334979899</v>
+        <f>H12</f>
+        <v>1905.1260939927499</v>
       </c>
       <c r="I39" s="104">
-        <f t="shared" si="48"/>
-        <v>1939.4241549814799</v>
+        <f>I12</f>
+        <v>1935.420345675816</v>
       </c>
       <c r="J39" s="104">
-        <f t="shared" si="48"/>
-        <v>1971.8708645381</v>
+        <f>J12</f>
+        <v>1967.800071206628</v>
       </c>
       <c r="K39" s="149">
-        <f t="shared" si="48"/>
-        <v>1993.60282735131</v>
+        <f>K12</f>
+        <v>1989.487169860176</v>
       </c>
       <c r="L39" s="104"/>
       <c r="M39" s="104"/>
@@ -20793,27 +20793,27 @@
       <c r="E40" s="225"/>
       <c r="F40" s="225">
         <f>F38-F39</f>
-        <v>-3.7540000000001328</v>
+        <v>4.5999999999821739E-2</v>
       </c>
       <c r="G40" s="150">
-        <f t="shared" ref="G40:K40" si="49">G38-G39</f>
-        <v>-3.7856223008150209</v>
+        <f t="shared" ref="G40:K40" si="44">G38-G39</f>
+        <v>9.1220108456809612E-2</v>
       </c>
       <c r="H40" s="225">
-        <f t="shared" si="49"/>
-        <v>-3.8484065191764785</v>
+        <f t="shared" si="44"/>
+        <v>9.2732986063538192E-2</v>
       </c>
       <c r="I40" s="225">
-        <f t="shared" si="49"/>
-        <v>-3.909601731425937</v>
+        <f t="shared" si="44"/>
+        <v>9.4207574237998415E-2</v>
       </c>
       <c r="J40" s="225">
-        <f t="shared" si="49"/>
-        <v>-3.9750096575496627</v>
+        <f t="shared" si="44"/>
+        <v>9.5783673922369417E-2</v>
       </c>
       <c r="K40" s="150">
-        <f t="shared" si="49"/>
-        <v>-4.0188181865989918</v>
+        <f t="shared" si="44"/>
+        <v>9.6839304535023984E-2</v>
       </c>
       <c r="L40" s="225">
         <v>0</v>
@@ -20990,36 +20990,36 @@
         <v>178</v>
       </c>
       <c r="D45" s="102">
-        <f t="shared" ref="D45:K45" si="50">D13</f>
+        <f>D13</f>
         <v>62.7</v>
       </c>
       <c r="E45" s="104">
-        <f t="shared" si="50"/>
+        <f>E13</f>
         <v>54.2</v>
       </c>
       <c r="F45" s="104">
-        <f t="shared" si="50"/>
-        <v>62.633333333333297</v>
+        <f>F13</f>
+        <v>79.099999999999994</v>
       </c>
       <c r="G45" s="149">
-        <f t="shared" si="50"/>
-        <v>63.899884973907497</v>
+        <f>G13</f>
+        <v>80.69953541409393</v>
       </c>
       <c r="H45" s="104">
-        <f t="shared" si="50"/>
-        <v>64.959659038096405</v>
+        <f>H13</f>
+        <v>82.037930227462851</v>
       </c>
       <c r="I45" s="104">
-        <f t="shared" si="50"/>
-        <v>65.992611274880801</v>
+        <f>I13</f>
+        <v>83.342451599410424</v>
       </c>
       <c r="J45" s="104">
-        <f t="shared" si="50"/>
-        <v>67.096672542458407</v>
+        <f>J13</f>
+        <v>84.736776978847132</v>
       </c>
       <c r="K45" s="149">
-        <f t="shared" si="50"/>
-        <v>67.8361440863642</v>
+        <f>K13</f>
+        <v>85.670659881289055</v>
       </c>
       <c r="L45" s="104"/>
       <c r="M45" s="104"/>
@@ -21045,27 +21045,27 @@
       <c r="E46" s="225"/>
       <c r="F46" s="225">
         <f>F44-F45</f>
-        <v>16.466666666666697</v>
+        <v>0</v>
       </c>
       <c r="G46" s="150">
-        <f t="shared" ref="G46:K46" si="51">G44-G45</f>
-        <v>16.801557590396577</v>
+        <f t="shared" ref="G46:K46" si="45">G44-G45</f>
+        <v>1.9071502101439819E-3</v>
       </c>
       <c r="H46" s="225">
-        <f t="shared" si="51"/>
-        <v>17.080209969497801</v>
+        <f t="shared" si="45"/>
+        <v>1.9387801313541786E-3</v>
       </c>
       <c r="I46" s="225">
-        <f t="shared" si="51"/>
-        <v>17.351809934060185</v>
+        <f t="shared" si="45"/>
+        <v>1.969609530561911E-3</v>
       </c>
       <c r="J46" s="225">
-        <f t="shared" si="51"/>
-        <v>17.642106997632354</v>
+        <f t="shared" si="45"/>
+        <v>2.0025612436285201E-3</v>
       </c>
       <c r="K46" s="150">
-        <f t="shared" si="51"/>
-        <v>17.836540426369808</v>
+        <f t="shared" si="45"/>
+        <v>2.024631444953684E-3</v>
       </c>
       <c r="L46" s="225">
         <v>0</v>
@@ -21221,71 +21221,71 @@
       </c>
       <c r="K50" s="149">
         <f>J50*(1+K52)</f>
-        <v>1456.3521805721509</v>
+        <v>1456.3521805721477</v>
       </c>
       <c r="L50" s="104">
-        <f t="shared" ref="L50:AA50" si="52">K50*(1+L52)</f>
-        <v>1492.4820059015433</v>
+        <f t="shared" ref="L50:AA50" si="46">K50*(1+L52)</f>
+        <v>1492.4820059015367</v>
       </c>
       <c r="M50" s="104">
-        <f t="shared" si="52"/>
-        <v>1528.6118312309252</v>
+        <f t="shared" si="46"/>
+        <v>1528.6118312309259</v>
       </c>
       <c r="N50" s="104">
-        <f t="shared" si="52"/>
-        <v>1564.7416565603173</v>
+        <f t="shared" si="46"/>
+        <v>1564.7416565603151</v>
       </c>
       <c r="O50" s="149">
-        <f t="shared" si="52"/>
-        <v>1569.1660714961929</v>
+        <f t="shared" si="46"/>
+        <v>1569.166071496194</v>
       </c>
       <c r="P50" s="104">
-        <f t="shared" si="52"/>
-        <v>1573.5904864320792</v>
+        <f t="shared" si="46"/>
+        <v>1573.5904864320726</v>
       </c>
       <c r="Q50" s="104">
-        <f t="shared" si="52"/>
-        <v>1578.014901367955</v>
+        <f t="shared" si="46"/>
+        <v>1578.0149013679513</v>
       </c>
       <c r="R50" s="104">
-        <f t="shared" si="52"/>
-        <v>1582.4393163038305</v>
+        <f t="shared" si="46"/>
+        <v>1582.4393163038303</v>
       </c>
       <c r="S50" s="149">
-        <f t="shared" si="52"/>
-        <v>1594.4899061049896</v>
+        <f t="shared" si="46"/>
+        <v>1594.4899061049841</v>
       </c>
       <c r="T50" s="104">
-        <f t="shared" si="52"/>
-        <v>1606.5404959061382</v>
+        <f t="shared" si="46"/>
+        <v>1606.5404959061379</v>
       </c>
       <c r="U50" s="104">
-        <f t="shared" si="52"/>
-        <v>1618.5910857072975</v>
+        <f t="shared" si="46"/>
+        <v>1618.5910857072909</v>
       </c>
       <c r="V50" s="104">
-        <f t="shared" si="52"/>
-        <v>1630.641675508446</v>
+        <f t="shared" si="46"/>
+        <v>1630.6416755084458</v>
       </c>
       <c r="W50" s="149">
-        <f t="shared" si="52"/>
-        <v>1669.5855382015181</v>
+        <f t="shared" si="46"/>
+        <v>1669.5855382015102</v>
       </c>
       <c r="X50" s="104">
-        <f t="shared" si="52"/>
-        <v>1708.5294008945793</v>
+        <f t="shared" si="46"/>
+        <v>1708.5294008945755</v>
       </c>
       <c r="Y50" s="104">
-        <f t="shared" si="52"/>
-        <v>1747.4732635876408</v>
+        <f t="shared" si="46"/>
+        <v>1747.4732635876398</v>
       </c>
       <c r="Z50" s="104">
-        <f t="shared" si="52"/>
-        <v>1786.4171262807126</v>
+        <f t="shared" si="46"/>
+        <v>1786.4171262807042</v>
       </c>
       <c r="AA50" s="149">
-        <f t="shared" si="52"/>
-        <v>1815.5043883220092</v>
+        <f t="shared" si="46"/>
+        <v>1815.5043883220089</v>
       </c>
       <c r="AB50" s="95"/>
     </row>
@@ -21294,100 +21294,100 @@
         <v>178</v>
       </c>
       <c r="D51" s="102">
-        <f t="shared" ref="D51:K51" si="53">D15</f>
+        <f>D15</f>
         <v>1228.1289999999999</v>
       </c>
       <c r="E51" s="104">
-        <f t="shared" si="53"/>
+        <f>E15</f>
         <v>1336.74</v>
       </c>
       <c r="F51" s="104">
-        <f t="shared" si="53"/>
+        <f>F15</f>
         <v>1328.7719999999999</v>
       </c>
       <c r="G51" s="149">
-        <f t="shared" si="53"/>
-        <v>1334.5316252300399</v>
+        <f>G15</f>
+        <v>1334.5316252300349</v>
       </c>
       <c r="H51" s="104">
-        <f t="shared" si="53"/>
-        <v>1340.2912504600699</v>
+        <f>H15</f>
+        <v>1340.2912504600711</v>
       </c>
       <c r="I51" s="104">
-        <f t="shared" si="53"/>
-        <v>1346.0508756901099</v>
+        <f>I15</f>
+        <v>1346.050875690107</v>
       </c>
       <c r="J51" s="232">
-        <f t="shared" si="53"/>
-        <v>1351.8105009201399</v>
+        <f>J15</f>
+        <v>1351.810500920142</v>
       </c>
       <c r="K51" s="149">
-        <f t="shared" si="53"/>
-        <v>1386.19995908941</v>
+        <f>K15</f>
+        <v>1386.199959089409</v>
       </c>
       <c r="L51" s="104">
-        <f t="shared" ref="L51:AA51" si="54">L15</f>
-        <v>1420.58941725868</v>
+        <f>L15</f>
+        <v>1420.5894172586759</v>
       </c>
       <c r="M51" s="104">
-        <f t="shared" si="54"/>
-        <v>1454.97887542794</v>
+        <f>M15</f>
+        <v>1454.978875427943</v>
       </c>
       <c r="N51" s="104">
-        <f t="shared" si="54"/>
+        <f>N15</f>
         <v>1489.36833359721</v>
       </c>
       <c r="O51" s="149">
-        <f t="shared" si="54"/>
-        <v>1493.5796252647899</v>
+        <f>O15</f>
+        <v>1493.5796252647931</v>
       </c>
       <c r="P51" s="104">
-        <f t="shared" si="54"/>
-        <v>1497.79091693238</v>
+        <f>P15</f>
+        <v>1497.7909169323759</v>
       </c>
       <c r="Q51" s="104">
-        <f t="shared" si="54"/>
-        <v>1502.0022085999601</v>
+        <f>Q15</f>
+        <v>1502.002208599959</v>
       </c>
       <c r="R51" s="104">
-        <f t="shared" si="54"/>
-        <v>1506.21350026754</v>
+        <f>R15</f>
+        <v>1506.213500267542</v>
       </c>
       <c r="S51" s="149">
-        <f t="shared" si="54"/>
-        <v>1517.6836153346301</v>
+        <f>S15</f>
+        <v>1517.6836153346269</v>
       </c>
       <c r="T51" s="104">
-        <f t="shared" si="54"/>
-        <v>1529.1537304017099</v>
+        <f>T15</f>
+        <v>1529.153730401712</v>
       </c>
       <c r="U51" s="104">
-        <f t="shared" si="54"/>
-        <v>1540.6238454688</v>
+        <f>U15</f>
+        <v>1540.6238454687959</v>
       </c>
       <c r="V51" s="104">
-        <f t="shared" si="54"/>
-        <v>1552.0939605358799</v>
+        <f>V15</f>
+        <v>1552.0939605358819</v>
       </c>
       <c r="W51" s="149">
-        <f t="shared" si="54"/>
-        <v>1589.1619043973101</v>
+        <f>W15</f>
+        <v>1589.1619043973051</v>
       </c>
       <c r="X51" s="104">
-        <f t="shared" si="54"/>
-        <v>1626.22984825873</v>
+        <f>X15</f>
+        <v>1626.2298482587289</v>
       </c>
       <c r="Y51" s="104">
-        <f t="shared" si="54"/>
-        <v>1663.29779212015</v>
+        <f>Y15</f>
+        <v>1663.2977921201521</v>
       </c>
       <c r="Z51" s="104">
-        <f t="shared" si="54"/>
-        <v>1700.36573598158</v>
+        <f>Z15</f>
+        <v>1700.365735981575</v>
       </c>
       <c r="AA51" s="149">
-        <f t="shared" si="54"/>
-        <v>1728.05186986427</v>
+        <f>AA15</f>
+        <v>1728.0518698642729</v>
       </c>
       <c r="AB51" s="95"/>
     </row>
@@ -21403,72 +21403,72 @@
       <c r="I52" s="252"/>
       <c r="J52" s="252"/>
       <c r="K52" s="256">
-        <f t="shared" ref="K52" si="55">(K51/J51)-1</f>
-        <v>2.5439555430189387E-2</v>
+        <f t="shared" ref="K52" si="47">(K51/J51)-1</f>
+        <v>2.5439555430187166E-2</v>
       </c>
       <c r="L52" s="239">
-        <f t="shared" ref="L52" si="56">(L51/K51)-1</f>
-        <v>2.4808439751982325E-2</v>
+        <f t="shared" ref="L52" si="48">(L51/K51)-1</f>
+        <v>2.4808439751980105E-2</v>
       </c>
       <c r="M52" s="239">
-        <f t="shared" ref="M52" si="57">(M51/L51)-1</f>
-        <v>2.4207880019000649E-2</v>
+        <f t="shared" ref="M52" si="49">(M51/L51)-1</f>
+        <v>2.4207880019005534E-2</v>
       </c>
       <c r="N52" s="239">
-        <f t="shared" ref="N52" si="58">(N51/M51)-1</f>
-        <v>2.3635709596921295E-2</v>
+        <f t="shared" ref="N52" si="50">(N51/M51)-1</f>
+        <v>2.3635709596919297E-2</v>
       </c>
       <c r="O52" s="256">
-        <f t="shared" ref="O52" si="59">(O51/N51)-1</f>
-        <v>2.8275689583170394E-3</v>
+        <f t="shared" ref="O52" si="51">(O51/N51)-1</f>
+        <v>2.8275689583192598E-3</v>
       </c>
       <c r="P52" s="239">
-        <f t="shared" ref="P52" si="60">(P51/O51)-1</f>
-        <v>2.8195963551949088E-3</v>
+        <f t="shared" ref="P52" si="52">(P51/O51)-1</f>
+        <v>2.8195963551900238E-3</v>
       </c>
       <c r="Q52" s="239">
-        <f t="shared" ref="Q52" si="61">(Q51/P51)-1</f>
-        <v>2.8116685846948375E-3</v>
+        <f t="shared" ref="Q52" si="53">(Q51/P51)-1</f>
+        <v>2.8116685846968359E-3</v>
       </c>
       <c r="R52" s="239">
-        <f t="shared" ref="R52" si="62">(R51/Q51)-1</f>
-        <v>2.8037852697335719E-3</v>
+        <f t="shared" ref="R52" si="54">(R51/Q51)-1</f>
+        <v>2.8037852697357923E-3</v>
       </c>
       <c r="S52" s="256">
-        <f t="shared" ref="S52" si="63">(S51/R51)-1</f>
-        <v>7.6151986853474352E-3</v>
+        <f t="shared" ref="S52" si="55">(S51/R51)-1</f>
+        <v>7.6151986853441045E-3</v>
       </c>
       <c r="T52" s="239">
-        <f t="shared" ref="T52" si="64">(T51/S51)-1</f>
-        <v>7.5576457116530715E-3</v>
+        <f t="shared" ref="T52" si="56">(T51/S51)-1</f>
+        <v>7.5576457116564022E-3</v>
       </c>
       <c r="U52" s="239">
-        <f t="shared" ref="U52" si="65">(U51/T51)-1</f>
-        <v>7.500956142635129E-3</v>
+        <f t="shared" ref="U52" si="57">(U51/T51)-1</f>
+        <v>7.5009561426311322E-3</v>
       </c>
       <c r="V52" s="239">
-        <f t="shared" ref="V52" si="66">(V51/U51)-1</f>
-        <v>7.4451106938369094E-3</v>
+        <f t="shared" ref="V52" si="58">(V51/U51)-1</f>
+        <v>7.4451106938409062E-3</v>
       </c>
       <c r="W52" s="256">
-        <f t="shared" ref="W52" si="67">(W51/V51)-1</f>
-        <v>2.3882538560121791E-2</v>
+        <f t="shared" ref="W52" si="59">(W51/V51)-1</f>
+        <v>2.3882538560117128E-2</v>
       </c>
       <c r="X52" s="239">
-        <f t="shared" ref="X52" si="68">(X51/W51)-1</f>
-        <v>2.3325467190504989E-2</v>
+        <f t="shared" ref="X52" si="60">(X51/W51)-1</f>
+        <v>2.3325467190507654E-2</v>
       </c>
       <c r="Y52" s="239">
-        <f t="shared" ref="Y52" si="69">(Y51/X51)-1</f>
-        <v>2.2793791358036053E-2</v>
+        <f t="shared" ref="Y52" si="61">(Y51/X51)-1</f>
+        <v>2.2793791358037829E-2</v>
       </c>
       <c r="Z52" s="239">
-        <f t="shared" ref="Z52" si="70">(Z51/Y51)-1</f>
-        <v>2.2285813182124636E-2</v>
+        <f t="shared" ref="Z52" si="62">(Z51/Y51)-1</f>
+        <v>2.2285813182120418E-2</v>
       </c>
       <c r="AA52" s="256">
-        <f t="shared" ref="AA52" si="71">(AA51/Z51)-1</f>
-        <v>1.6282458118757281E-2</v>
+        <f t="shared" ref="AA52" si="63">(AA51/Z51)-1</f>
+        <v>1.6282458118761944E-2</v>
       </c>
       <c r="AB52" s="253"/>
     </row>
@@ -21479,92 +21479,92 @@
       <c r="D53" s="103"/>
       <c r="E53" s="225"/>
       <c r="F53" s="225">
-        <f t="shared" ref="F53" si="72">F50-F51</f>
+        <f t="shared" ref="F53" si="64">F50-F51</f>
         <v>3.3000000000129148E-2</v>
       </c>
       <c r="G53" s="150">
-        <f t="shared" ref="G53" si="73">G50-G51</f>
-        <v>39.284047628960252</v>
+        <f t="shared" ref="G53" si="65">G50-G51</f>
+        <v>39.284047628965254</v>
       </c>
       <c r="H53" s="225">
-        <f t="shared" ref="H53" si="74">H50-H51</f>
-        <v>53.362256246812422</v>
+        <f t="shared" ref="H53" si="66">H50-H51</f>
+        <v>53.362256246811285</v>
       </c>
       <c r="I53" s="225">
-        <f t="shared" ref="I53" si="75">I50-I51</f>
-        <v>63.467484623816517</v>
+        <f t="shared" ref="I53" si="67">I50-I51</f>
+        <v>63.467484623819473</v>
       </c>
       <c r="J53" s="249">
-        <f t="shared" ref="J53" si="76">J50-J51</f>
-        <v>68.411854322618638</v>
+        <f t="shared" ref="J53" si="68">J50-J51</f>
+        <v>68.411854322616591</v>
       </c>
       <c r="K53" s="150">
-        <f t="shared" ref="K53:AA53" si="77">K50-K51</f>
-        <v>70.15222148274097</v>
+        <f t="shared" ref="K53:AA53" si="69">K50-K51</f>
+        <v>70.152221482738696</v>
       </c>
       <c r="L53" s="225">
-        <f t="shared" si="77"/>
-        <v>71.892588642863302</v>
+        <f t="shared" si="69"/>
+        <v>71.892588642860801</v>
       </c>
       <c r="M53" s="225">
-        <f t="shared" si="77"/>
-        <v>73.63295580298518</v>
+        <f t="shared" si="69"/>
+        <v>73.632955802982906</v>
       </c>
       <c r="N53" s="225">
-        <f t="shared" si="77"/>
-        <v>75.373322963107285</v>
+        <f t="shared" si="69"/>
+        <v>75.373322963105011</v>
       </c>
       <c r="O53" s="150">
-        <f t="shared" si="77"/>
-        <v>75.586446231402988</v>
+        <f t="shared" si="69"/>
+        <v>75.586446231400942</v>
       </c>
       <c r="P53" s="225">
-        <f t="shared" si="77"/>
-        <v>75.799569499699146</v>
+        <f t="shared" si="69"/>
+        <v>75.799569499696645</v>
       </c>
       <c r="Q53" s="225">
-        <f t="shared" si="77"/>
-        <v>76.012692767994849</v>
+        <f t="shared" si="69"/>
+        <v>76.012692767992348</v>
       </c>
       <c r="R53" s="225">
-        <f t="shared" si="77"/>
-        <v>76.225816036290553</v>
+        <f t="shared" si="69"/>
+        <v>76.225816036288279</v>
       </c>
       <c r="S53" s="150">
-        <f t="shared" si="77"/>
-        <v>76.80629077035951</v>
+        <f t="shared" si="69"/>
+        <v>76.806290770357236</v>
       </c>
       <c r="T53" s="225">
-        <f t="shared" si="77"/>
-        <v>77.38676550442824</v>
+        <f t="shared" si="69"/>
+        <v>77.386765504425966</v>
       </c>
       <c r="U53" s="225">
-        <f t="shared" si="77"/>
-        <v>77.967240238497425</v>
+        <f t="shared" si="69"/>
+        <v>77.967240238494924</v>
       </c>
       <c r="V53" s="225">
-        <f t="shared" si="77"/>
-        <v>78.547714972566155</v>
+        <f t="shared" si="69"/>
+        <v>78.547714972563881</v>
       </c>
       <c r="W53" s="150">
-        <f t="shared" si="77"/>
-        <v>80.423633804208066</v>
+        <f t="shared" si="69"/>
+        <v>80.42363380420511</v>
       </c>
       <c r="X53" s="225">
-        <f t="shared" si="77"/>
-        <v>82.299552635849295</v>
+        <f t="shared" si="69"/>
+        <v>82.299552635846567</v>
       </c>
       <c r="Y53" s="225">
-        <f t="shared" si="77"/>
-        <v>84.175471467490752</v>
+        <f t="shared" si="69"/>
+        <v>84.175471467487796</v>
       </c>
       <c r="Z53" s="225">
-        <f t="shared" si="77"/>
-        <v>86.051390299132663</v>
+        <f t="shared" si="69"/>
+        <v>86.051390299129253</v>
       </c>
       <c r="AA53" s="150">
-        <f t="shared" si="77"/>
-        <v>87.452518457739188</v>
+        <f t="shared" si="69"/>
+        <v>87.452518457736005</v>
       </c>
       <c r="AB53" s="254"/>
     </row>
@@ -21679,67 +21679,67 @@
       </c>
       <c r="L57" s="104">
         <f>K57*(1+L59)</f>
-        <v>1667.0646381208169</v>
+        <v>1666.6590205531852</v>
       </c>
       <c r="M57" s="104">
-        <f t="shared" ref="M57:AA57" si="78">L57*(1+M59)</f>
-        <v>1655.0461037082484</v>
+        <f t="shared" ref="M57:AA57" si="70">L57*(1+M59)</f>
+        <v>1654.1233225320043</v>
       </c>
       <c r="N57" s="104">
-        <f t="shared" si="78"/>
-        <v>1615.6190830265325</v>
+        <f t="shared" si="70"/>
+        <v>1614.0246827555854</v>
       </c>
       <c r="O57" s="104">
-        <f t="shared" si="78"/>
-        <v>1614.9538346665386</v>
+        <f t="shared" si="70"/>
+        <v>1613.2462308130598</v>
       </c>
       <c r="P57" s="104">
-        <f t="shared" si="78"/>
-        <v>1615.432798976698</v>
+        <f t="shared" si="70"/>
+        <v>1613.2462308130598</v>
       </c>
       <c r="Q57" s="104">
-        <f t="shared" si="78"/>
-        <v>1616.6942893335181</v>
+        <f t="shared" si="70"/>
+        <v>1613.2462308130598</v>
       </c>
       <c r="R57" s="104">
-        <f t="shared" si="78"/>
-        <v>1620.1978756144483</v>
+        <f t="shared" si="70"/>
+        <v>1613.2462308130598</v>
       </c>
       <c r="S57" s="104">
-        <f t="shared" si="78"/>
-        <v>1637.8202714328067</v>
+        <f t="shared" si="70"/>
+        <v>1613.2462308130598</v>
       </c>
       <c r="T57" s="104">
-        <f t="shared" si="78"/>
-        <v>1654.689931451134</v>
+        <f t="shared" si="70"/>
+        <v>1613.2462308130598</v>
       </c>
       <c r="U57" s="104">
-        <f t="shared" si="78"/>
-        <v>1668.0498757503647</v>
+        <f t="shared" si="70"/>
+        <v>1613.2462308130598</v>
       </c>
       <c r="V57" s="104">
-        <f t="shared" si="78"/>
-        <v>1679.2584719670369</v>
+        <f t="shared" si="70"/>
+        <v>1613.2462308130598</v>
       </c>
       <c r="W57" s="104">
-        <f t="shared" si="78"/>
-        <v>1716.2058199830558</v>
+        <f t="shared" si="70"/>
+        <v>1613.2462308130598</v>
       </c>
       <c r="X57" s="104">
-        <f t="shared" si="78"/>
-        <v>1746.0717960563163</v>
+        <f t="shared" si="70"/>
+        <v>1613.2462308130598</v>
       </c>
       <c r="Y57" s="104">
-        <f t="shared" si="78"/>
-        <v>1769.6646317304717</v>
+        <f t="shared" si="70"/>
+        <v>1613.2462308130598</v>
       </c>
       <c r="Z57" s="104">
-        <f t="shared" si="78"/>
-        <v>1786.3092463695214</v>
+        <f t="shared" si="70"/>
+        <v>1613.2462308130598</v>
       </c>
       <c r="AA57" s="104">
-        <f t="shared" si="78"/>
-        <v>1794.1262482725151</v>
+        <f t="shared" si="70"/>
+        <v>1613.2462308130598</v>
       </c>
       <c r="AB57" s="95"/>
     </row>
@@ -21748,100 +21748,100 @@
         <v>178</v>
       </c>
       <c r="D58" s="102">
-        <f t="shared" ref="D58:K58" si="79">D16</f>
+        <f>D16</f>
         <v>1574.779</v>
       </c>
       <c r="E58" s="104">
-        <f t="shared" si="79"/>
-        <v>3697.6559999999999</v>
+        <f>E16</f>
+        <v>3697.6560000000009</v>
       </c>
       <c r="F58" s="104">
-        <f t="shared" si="79"/>
-        <v>1936.7829999999999</v>
+        <f>F16</f>
+        <v>1914.2629999999999</v>
       </c>
       <c r="G58" s="149">
-        <f t="shared" si="79"/>
-        <v>1672.7966214901101</v>
+        <f>G16</f>
+        <v>1652.519124685555</v>
       </c>
       <c r="H58" s="104">
-        <f t="shared" si="79"/>
-        <v>1465.5104337387199</v>
+        <f>H16</f>
+        <v>1447.016042358189</v>
       </c>
       <c r="I58" s="104">
-        <f t="shared" si="79"/>
-        <v>1299.0451766609799</v>
+        <f>I16</f>
+        <v>1282.003150290248</v>
       </c>
       <c r="J58" s="104">
-        <f t="shared" si="79"/>
-        <v>1183.6501317488301</v>
+        <f>J16</f>
+        <v>1167.646687976573</v>
       </c>
       <c r="K58" s="275">
-        <f t="shared" si="79"/>
-        <v>1212.0640991453099</v>
+        <f>K16</f>
+        <v>1195.5066238196489</v>
       </c>
       <c r="L58" s="104">
-        <f t="shared" ref="L58:AA58" si="80">L16</f>
-        <v>1217.7439353608499</v>
+        <f>L16</f>
+        <v>1200.816625555186</v>
       </c>
       <c r="M58" s="104">
-        <f t="shared" si="80"/>
-        <v>1208.96473324825</v>
+        <f>M16</f>
+        <v>1191.784739361826</v>
       </c>
       <c r="N58" s="104">
-        <f t="shared" si="80"/>
-        <v>1180.1644010795901</v>
+        <f>N16</f>
+        <v>1162.893938837019</v>
       </c>
       <c r="O58" s="149">
-        <f t="shared" si="80"/>
-        <v>1179.6784558214599</v>
+        <f>O16</f>
+        <v>1162.3330694430681</v>
       </c>
       <c r="P58" s="104">
-        <f t="shared" si="80"/>
-        <v>1180.02832580887</v>
+        <f>P16</f>
+        <v>1162.3330694430681</v>
       </c>
       <c r="Q58" s="104">
-        <f t="shared" si="80"/>
-        <v>1180.9498091133601</v>
+        <f>Q16</f>
+        <v>1162.3330694430681</v>
       </c>
       <c r="R58" s="104">
-        <f t="shared" si="80"/>
-        <v>1183.5090805705399</v>
+        <f>R16</f>
+        <v>1162.3330694430681</v>
       </c>
       <c r="S58" s="149">
-        <f t="shared" si="80"/>
-        <v>1196.38174617907</v>
+        <f>S16</f>
+        <v>1162.3330694430681</v>
       </c>
       <c r="T58" s="104">
-        <f t="shared" si="80"/>
-        <v>1208.7045594096801</v>
+        <f>T16</f>
+        <v>1162.3330694430681</v>
       </c>
       <c r="U58" s="104">
-        <f t="shared" si="80"/>
-        <v>1218.4636238005401</v>
+        <f>U16</f>
+        <v>1162.3330694430681</v>
       </c>
       <c r="V58" s="104">
-        <f t="shared" si="80"/>
-        <v>1226.65118879031</v>
+        <f>V16</f>
+        <v>1162.3330694430681</v>
       </c>
       <c r="W58" s="149">
-        <f t="shared" si="80"/>
-        <v>1253.6401896636601</v>
+        <f>W16</f>
+        <v>1162.3330694430681</v>
       </c>
       <c r="X58" s="104">
-        <f t="shared" si="80"/>
-        <v>1275.4564470571599</v>
+        <f>X16</f>
+        <v>1162.3330694430681</v>
       </c>
       <c r="Y58" s="104">
-        <f t="shared" si="80"/>
-        <v>1292.69035143207</v>
+        <f>Y16</f>
+        <v>1162.3330694430681</v>
       </c>
       <c r="Z58" s="104">
-        <f t="shared" si="80"/>
-        <v>1304.8487753285599</v>
+        <f>Z16</f>
+        <v>1162.3330694430681</v>
       </c>
       <c r="AA58" s="149">
-        <f t="shared" si="80"/>
-        <v>1310.5588758504</v>
+        <f>AA16</f>
+        <v>1162.3330694430681</v>
       </c>
       <c r="AB58" s="95"/>
     </row>
@@ -21858,68 +21858,68 @@
       <c r="J59" s="252"/>
       <c r="K59" s="256"/>
       <c r="L59" s="239">
-        <f t="shared" ref="L59" si="81">(L58/K58)-1</f>
-        <v>4.6860856777666271E-3</v>
+        <f t="shared" ref="L59" si="71">(L58/K58)-1</f>
+        <v>4.4416330530829828E-3</v>
       </c>
       <c r="M59" s="239">
-        <f t="shared" ref="M59" si="82">(M58/L58)-1</f>
-        <v>-7.2093991664992085E-3</v>
+        <f t="shared" ref="M59" si="72">(M58/L58)-1</f>
+        <v>-7.521453318639848E-3</v>
       </c>
       <c r="N59" s="239">
-        <f t="shared" ref="N59" si="83">(N58/M58)-1</f>
-        <v>-2.3822309598129587E-2</v>
+        <f t="shared" ref="N59" si="73">(N58/M58)-1</f>
+        <v>-2.4241626504025726E-2</v>
       </c>
       <c r="O59" s="256">
-        <f t="shared" ref="O59" si="84">(O58/N58)-1</f>
-        <v>-4.1176064765691134E-4</v>
+        <f t="shared" ref="O59" si="74">(O58/N58)-1</f>
+        <v>-4.82304856203708E-4</v>
       </c>
       <c r="P59" s="239">
-        <f t="shared" ref="P59" si="85">(P58/O58)-1</f>
-        <v>2.9658080613703675E-4</v>
+        <f t="shared" ref="P59" si="75">(P58/O58)-1</f>
+        <v>0</v>
       </c>
       <c r="Q59" s="239">
-        <f t="shared" ref="Q59" si="86">(Q58/P58)-1</f>
-        <v>7.808993092248695E-4</v>
+        <f t="shared" ref="Q59" si="76">(Q58/P58)-1</f>
+        <v>0</v>
       </c>
       <c r="R59" s="239">
-        <f t="shared" ref="R59" si="87">(R58/Q58)-1</f>
-        <v>2.1671297437282355E-3</v>
+        <f t="shared" ref="R59" si="77">(R58/Q58)-1</f>
+        <v>0</v>
       </c>
       <c r="S59" s="256">
-        <f t="shared" ref="S59" si="88">(S58/R58)-1</f>
-        <v>1.0876693571564733E-2</v>
+        <f t="shared" ref="S59" si="78">(S58/R58)-1</f>
+        <v>0</v>
       </c>
       <c r="T59" s="239">
-        <f t="shared" ref="T59" si="89">(T58/S58)-1</f>
-        <v>1.0300067908897814E-2</v>
+        <f t="shared" ref="T59" si="79">(T58/S58)-1</f>
+        <v>0</v>
       </c>
       <c r="U59" s="239">
-        <f t="shared" ref="U59" si="90">(U58/T58)-1</f>
-        <v>8.0739865791739085E-3</v>
+        <f t="shared" ref="U59" si="80">(U58/T58)-1</f>
+        <v>0</v>
       </c>
       <c r="V59" s="239">
-        <f t="shared" ref="V59" si="91">(V58/U58)-1</f>
-        <v>6.7195809787343741E-3</v>
+        <f t="shared" ref="V59" si="81">(V58/U58)-1</f>
+        <v>0</v>
       </c>
       <c r="W59" s="256">
-        <f t="shared" ref="W59" si="92">(W58/V58)-1</f>
-        <v>2.2002180505744207E-2</v>
+        <f t="shared" ref="W59" si="82">(W58/V58)-1</f>
+        <v>0</v>
       </c>
       <c r="X59" s="239">
-        <f t="shared" ref="X59" si="93">(X58/W58)-1</f>
-        <v>1.7402327696077524E-2</v>
+        <f t="shared" ref="X59" si="83">(X58/W58)-1</f>
+        <v>0</v>
       </c>
       <c r="Y59" s="239">
-        <f t="shared" ref="Y59" si="94">(Y58/X58)-1</f>
-        <v>1.3511950497936187E-2</v>
+        <f t="shared" ref="Y59" si="84">(Y58/X58)-1</f>
+        <v>0</v>
       </c>
       <c r="Z59" s="239">
-        <f t="shared" ref="Z59" si="95">(Z58/Y58)-1</f>
-        <v>9.4055191817750128E-3</v>
+        <f t="shared" ref="Z59" si="85">(Z58/Y58)-1</f>
+        <v>0</v>
       </c>
       <c r="AA59" s="256">
-        <f t="shared" ref="AA59" si="96">(AA58/Z58)-1</f>
-        <v>4.3760630578837389E-3</v>
+        <f t="shared" ref="AA59" si="86">(AA58/Z58)-1</f>
+        <v>0</v>
       </c>
       <c r="AB59" s="253"/>
     </row>
@@ -21930,92 +21930,92 @@
       <c r="D60" s="103"/>
       <c r="E60" s="225"/>
       <c r="F60" s="225">
-        <f t="shared" ref="F60" si="97">F57-F58</f>
-        <v>571.93100000000004</v>
+        <f t="shared" ref="F60" si="87">F57-F58</f>
+        <v>594.45100000000002</v>
       </c>
       <c r="G60" s="150">
-        <f t="shared" ref="G60" si="98">G57-G58</f>
-        <v>293.80086516330789</v>
+        <f t="shared" ref="G60" si="88">G57-G58</f>
+        <v>314.07836196786297</v>
       </c>
       <c r="H60" s="225">
-        <f t="shared" ref="H60" si="99">H57-H58</f>
-        <v>422.43236197226975</v>
+        <f t="shared" ref="H60" si="89">H57-H58</f>
+        <v>440.92675335280069</v>
       </c>
       <c r="I60" s="225">
-        <f t="shared" ref="I60" si="100">I57-I58</f>
-        <v>500.18578450030145</v>
+        <f t="shared" ref="I60" si="90">I57-I58</f>
+        <v>517.2278108710334</v>
       </c>
       <c r="J60" s="225">
-        <f t="shared" ref="J60" si="101">J57-J58</f>
-        <v>479.33909720374186</v>
+        <f t="shared" ref="J60" si="91">J57-J58</f>
+        <v>495.34254097599887</v>
       </c>
       <c r="K60" s="276">
-        <f t="shared" ref="K60" si="102">K57-K58</f>
-        <v>447.22496824155064</v>
+        <f t="shared" ref="K60" si="92">K57-K58</f>
+        <v>463.78244356721166</v>
       </c>
       <c r="L60" s="225">
-        <f t="shared" ref="L60:AA60" si="103">L57-L58</f>
-        <v>449.32070275996693</v>
+        <f t="shared" ref="L60:AA60" si="93">L57-L58</f>
+        <v>465.84239499799924</v>
       </c>
       <c r="M60" s="225">
-        <f t="shared" si="103"/>
-        <v>446.08137045999842</v>
+        <f t="shared" si="93"/>
+        <v>462.33858317017825</v>
       </c>
       <c r="N60" s="225">
-        <f t="shared" si="103"/>
-        <v>435.4546819469424</v>
+        <f t="shared" si="93"/>
+        <v>451.1307439185664</v>
       </c>
       <c r="O60" s="150">
-        <f t="shared" si="103"/>
-        <v>435.27537884507865</v>
+        <f t="shared" si="93"/>
+        <v>450.91316136999171</v>
       </c>
       <c r="P60" s="225">
-        <f t="shared" si="103"/>
-        <v>435.40447316782797</v>
+        <f t="shared" si="93"/>
+        <v>450.91316136999171</v>
       </c>
       <c r="Q60" s="225">
-        <f t="shared" si="103"/>
-        <v>435.74448022015804</v>
+        <f t="shared" si="93"/>
+        <v>450.91316136999171</v>
       </c>
       <c r="R60" s="225">
-        <f t="shared" si="103"/>
-        <v>436.68879504390839</v>
+        <f t="shared" si="93"/>
+        <v>450.91316136999171</v>
       </c>
       <c r="S60" s="150">
-        <f t="shared" si="103"/>
-        <v>441.43852525373677</v>
+        <f t="shared" si="93"/>
+        <v>450.91316136999171</v>
       </c>
       <c r="T60" s="225">
-        <f t="shared" si="103"/>
-        <v>445.98537204145396</v>
+        <f t="shared" si="93"/>
+        <v>450.91316136999171</v>
       </c>
       <c r="U60" s="225">
-        <f t="shared" si="103"/>
-        <v>449.5862519498246</v>
+        <f t="shared" si="93"/>
+        <v>450.91316136999171</v>
       </c>
       <c r="V60" s="225">
-        <f t="shared" si="103"/>
-        <v>452.60728317672692</v>
+        <f t="shared" si="93"/>
+        <v>450.91316136999171</v>
       </c>
       <c r="W60" s="150">
-        <f t="shared" si="103"/>
-        <v>462.56563031939572</v>
+        <f t="shared" si="93"/>
+        <v>450.91316136999171</v>
       </c>
       <c r="X60" s="225">
-        <f t="shared" si="103"/>
-        <v>470.61534899915637</v>
+        <f t="shared" si="93"/>
+        <v>450.91316136999171</v>
       </c>
       <c r="Y60" s="225">
-        <f t="shared" si="103"/>
-        <v>476.97428029840171</v>
+        <f t="shared" si="93"/>
+        <v>450.91316136999171</v>
       </c>
       <c r="Z60" s="225">
-        <f t="shared" si="103"/>
-        <v>481.46047104096147</v>
+        <f t="shared" si="93"/>
+        <v>450.91316136999171</v>
       </c>
       <c r="AA60" s="150">
-        <f t="shared" si="103"/>
-        <v>483.56737242211511</v>
+        <f t="shared" si="93"/>
+        <v>450.91316136999171</v>
       </c>
       <c r="AB60" s="254"/>
     </row>
@@ -22141,63 +22141,63 @@
       </c>
       <c r="M64" s="240">
         <f>L64*(1+M66)</f>
-        <v>75.157160582543426</v>
+        <v>75.157160582543469</v>
       </c>
       <c r="N64" s="240">
         <f>M64*(1+N66)</f>
-        <v>75.488247723051742</v>
+        <v>75.488247723052112</v>
       </c>
       <c r="O64" s="257">
         <f>N64*(1+O66)</f>
-        <v>75.823511421525581</v>
+        <v>75.823511421525808</v>
       </c>
       <c r="P64" s="240">
         <f>O64*(1+P66)</f>
-        <v>76.163711052139888</v>
+        <v>76.163711052140215</v>
       </c>
       <c r="Q64" s="240">
-        <f t="shared" ref="Q64:AA64" si="104">P64*(1+Q66)</f>
-        <v>76.50542943110527</v>
+        <f t="shared" ref="Q64:AA64" si="94">P64*(1+Q66)</f>
+        <v>76.505429431105526</v>
       </c>
       <c r="R64" s="240">
-        <f t="shared" si="104"/>
-        <v>76.852083742211136</v>
+        <f t="shared" si="94"/>
+        <v>76.852083742211434</v>
       </c>
       <c r="S64" s="257">
-        <f t="shared" si="104"/>
-        <v>77.203673985458053</v>
+        <f t="shared" si="94"/>
+        <v>77.203673985457925</v>
       </c>
       <c r="T64" s="240">
-        <f t="shared" si="104"/>
-        <v>77.559061099581498</v>
+        <f t="shared" si="94"/>
+        <v>77.559061099581882</v>
       </c>
       <c r="U64" s="240">
-        <f t="shared" si="104"/>
-        <v>77.915207587881099</v>
+        <f t="shared" si="94"/>
+        <v>77.91520758788127</v>
       </c>
       <c r="V64" s="240">
-        <f t="shared" si="104"/>
-        <v>78.273252511618978</v>
+        <f t="shared" si="94"/>
+        <v>78.27325251161939</v>
       </c>
       <c r="W64" s="257">
-        <f t="shared" si="104"/>
-        <v>78.633195870796328</v>
+        <f t="shared" si="94"/>
+        <v>78.633195870796172</v>
       </c>
       <c r="X64" s="240">
-        <f t="shared" si="104"/>
-        <v>78.993898604148015</v>
+        <f t="shared" si="94"/>
+        <v>78.993898604148441</v>
       </c>
       <c r="Y64" s="240">
-        <f t="shared" si="104"/>
-        <v>79.352702902062035</v>
+        <f t="shared" si="94"/>
+        <v>79.35270290206202</v>
       </c>
       <c r="Z64" s="240">
-        <f t="shared" si="104"/>
-        <v>79.71188688706323</v>
+        <f t="shared" si="94"/>
+        <v>79.711886887063343</v>
       </c>
       <c r="AA64" s="257">
-        <f t="shared" si="104"/>
-        <v>80.071070872064439</v>
+        <f t="shared" si="94"/>
+        <v>80.071070872064709</v>
       </c>
       <c r="AB64" s="95"/>
     </row>
@@ -22206,100 +22206,100 @@
         <v>178</v>
       </c>
       <c r="D65" s="102">
-        <f t="shared" ref="D65:AA65" si="105">D19</f>
+        <f t="shared" ref="D65:AA65" si="95">D19</f>
         <v>74.5</v>
       </c>
       <c r="E65" s="104">
-        <f t="shared" si="105"/>
+        <f t="shared" si="95"/>
         <v>1085.9000000000001</v>
       </c>
       <c r="F65" s="104">
-        <f t="shared" si="105"/>
-        <v>1211.7</v>
+        <f t="shared" si="95"/>
+        <v>1212.7</v>
       </c>
       <c r="G65" s="149">
-        <f t="shared" si="105"/>
-        <v>1215.66820949049</v>
+        <f t="shared" si="95"/>
+        <v>1216.671484401355</v>
       </c>
       <c r="H65" s="104">
-        <f t="shared" si="105"/>
-        <v>1219.78734929441</v>
+        <f t="shared" si="95"/>
+        <v>1220.7940236769309</v>
       </c>
       <c r="I65" s="104">
-        <f t="shared" si="105"/>
-        <v>1224.19577219907</v>
+        <f t="shared" si="95"/>
+        <v>1225.20608479476</v>
       </c>
       <c r="J65" s="104">
-        <f t="shared" si="105"/>
-        <v>1228.9563658350501</v>
+        <f t="shared" si="95"/>
+        <v>1229.970607285768</v>
       </c>
       <c r="K65" s="149">
-        <f t="shared" si="105"/>
-        <v>1234.08799649154</v>
+        <f t="shared" si="95"/>
+        <v>1235.106473009233</v>
       </c>
       <c r="L65" s="232">
-        <f t="shared" si="105"/>
-        <v>1239.41457880287</v>
+        <f t="shared" si="95"/>
+        <v>1240.437451278565</v>
       </c>
       <c r="M65" s="104">
-        <f t="shared" si="105"/>
-        <v>1244.82920379703</v>
+        <f t="shared" si="95"/>
+        <v>1245.8565448911911</v>
       </c>
       <c r="N65" s="104">
-        <f t="shared" si="105"/>
-        <v>1250.31300518484</v>
+        <f t="shared" si="95"/>
+        <v>1251.3448719878349</v>
       </c>
       <c r="O65" s="149">
-        <f t="shared" si="105"/>
-        <v>1255.86598296631</v>
+        <f t="shared" si="95"/>
+        <v>1256.902432568495</v>
       </c>
       <c r="P65" s="104">
-        <f t="shared" si="105"/>
-        <v>1261.50071466755</v>
+        <f t="shared" si="95"/>
+        <v>1262.5418145393589</v>
       </c>
       <c r="Q65" s="104">
-        <f t="shared" si="105"/>
-        <v>1267.1606014210299</v>
+        <f t="shared" si="95"/>
+        <v>1268.206372322592</v>
       </c>
       <c r="R65" s="104">
-        <f t="shared" si="105"/>
-        <v>1272.9022420942799</v>
+        <f t="shared" si="95"/>
+        <v>1273.9527514960271</v>
       </c>
       <c r="S65" s="149">
-        <f t="shared" si="105"/>
-        <v>1278.72563668731</v>
+        <f t="shared" si="95"/>
+        <v>1279.7809520596641</v>
       </c>
       <c r="T65" s="104">
-        <f t="shared" si="105"/>
-        <v>1284.6119189109199</v>
+        <f t="shared" si="95"/>
+        <v>1285.6720921542269</v>
       </c>
       <c r="U65" s="104">
-        <f t="shared" si="105"/>
-        <v>1290.51077866066</v>
+        <f t="shared" si="95"/>
+        <v>1291.5758201549741</v>
       </c>
       <c r="V65" s="104">
-        <f t="shared" si="105"/>
-        <v>1296.44108222569</v>
+        <f t="shared" si="95"/>
+        <v>1297.511017921184</v>
       </c>
       <c r="W65" s="149">
-        <f t="shared" si="105"/>
-        <v>1302.4028296060301</v>
+        <f t="shared" si="95"/>
+        <v>1303.4776854528559</v>
       </c>
       <c r="X65" s="104">
-        <f t="shared" si="105"/>
-        <v>1308.37715451247</v>
+        <f t="shared" si="95"/>
+        <v>1309.456940890713</v>
       </c>
       <c r="Y65" s="104">
-        <f t="shared" si="105"/>
-        <v>1314.32003560363</v>
+        <f t="shared" si="95"/>
+        <v>1315.4047265631079</v>
       </c>
       <c r="Z65" s="104">
-        <f t="shared" si="105"/>
-        <v>1320.2692054578399</v>
+        <f t="shared" si="95"/>
+        <v>1321.3588061885951</v>
       </c>
       <c r="AA65" s="149">
-        <f t="shared" si="105"/>
-        <v>1326.2183753120501</v>
+        <f t="shared" si="95"/>
+        <v>1327.3128858140831</v>
       </c>
       <c r="AB65" s="95"/>
     </row>
@@ -22317,64 +22317,64 @@
       <c r="K66" s="238"/>
       <c r="L66" s="239"/>
       <c r="M66" s="239">
-        <f t="shared" ref="M66:AA66" si="106">(M65/L65)-1</f>
-        <v>4.3686955815784856E-3</v>
+        <f t="shared" ref="M66:AA66" si="96">(M65/L65)-1</f>
+        <v>4.3686955815791517E-3</v>
       </c>
       <c r="N66" s="239">
-        <f t="shared" si="106"/>
-        <v>4.4052640885055006E-3</v>
+        <f t="shared" si="96"/>
+        <v>4.4052640885097194E-3</v>
       </c>
       <c r="O66" s="256">
-        <f t="shared" si="106"/>
-        <v>4.4412701127178877E-3</v>
+        <f t="shared" si="96"/>
+        <v>4.4412701127161114E-3</v>
       </c>
       <c r="P66" s="239">
-        <f t="shared" si="106"/>
-        <v>4.4867300951421107E-3</v>
+        <f t="shared" si="96"/>
+        <v>4.486730095143443E-3</v>
       </c>
       <c r="Q66" s="239">
-        <f t="shared" si="106"/>
-        <v>4.4866298430685791E-3</v>
+        <f t="shared" si="96"/>
+        <v>4.486629843067691E-3</v>
       </c>
       <c r="R66" s="239">
-        <f t="shared" si="106"/>
-        <v>4.5311073172660254E-3</v>
+        <f t="shared" si="96"/>
+        <v>4.5311073172666916E-3</v>
       </c>
       <c r="S66" s="256">
-        <f t="shared" si="106"/>
-        <v>4.574895385091704E-3</v>
+        <f t="shared" si="96"/>
+        <v>4.5748953850861529E-3</v>
       </c>
       <c r="T66" s="239">
-        <f t="shared" si="106"/>
-        <v>4.6032409570351263E-3</v>
+        <f t="shared" si="96"/>
+        <v>4.6032409570417876E-3</v>
       </c>
       <c r="U66" s="239">
-        <f t="shared" si="106"/>
-        <v>4.5919391396749276E-3</v>
+        <f t="shared" si="96"/>
+        <v>4.591939139672041E-3</v>
       </c>
       <c r="V66" s="239">
-        <f t="shared" si="106"/>
-        <v>4.5953150202935333E-3</v>
+        <f t="shared" si="96"/>
+        <v>4.595315020296642E-3</v>
       </c>
       <c r="W66" s="256">
-        <f t="shared" si="106"/>
-        <v>4.5985486437263301E-3</v>
+        <f t="shared" si="96"/>
+        <v>4.5985486437190026E-3</v>
       </c>
       <c r="X66" s="239">
-        <f t="shared" si="106"/>
-        <v>4.5871559632952863E-3</v>
+        <f t="shared" si="96"/>
+        <v>4.5871559633026138E-3</v>
       </c>
       <c r="Y66" s="239">
-        <f t="shared" si="106"/>
-        <v>4.5421773612168703E-3</v>
+        <f t="shared" si="96"/>
+        <v>4.5421773612113192E-3</v>
       </c>
       <c r="Z66" s="239">
-        <f t="shared" si="106"/>
-        <v>4.5264240771294428E-3</v>
+        <f t="shared" si="96"/>
+        <v>4.5264240771309971E-3</v>
       </c>
       <c r="AA66" s="256">
-        <f t="shared" si="106"/>
-        <v>4.5060278840232115E-3</v>
+        <f t="shared" si="96"/>
+        <v>4.5060278840252099E-3</v>
       </c>
       <c r="AB66" s="253"/>
     </row>
@@ -22386,91 +22386,91 @@
       <c r="E67" s="225"/>
       <c r="F67" s="225">
         <f>F64-F65</f>
-        <v>1.6079999999999472</v>
+        <v>0.60799999999994725</v>
       </c>
       <c r="G67" s="150">
-        <f t="shared" ref="G67:AA67" si="107">G64-G65</f>
-        <v>-832.73620114390815</v>
+        <f t="shared" ref="G67:AA67" si="97">G64-G65</f>
+        <v>-833.73947605477315</v>
       </c>
       <c r="H67" s="225">
-        <f t="shared" si="107"/>
-        <v>-1119.5370992944099</v>
+        <f t="shared" si="97"/>
+        <v>-1120.5437736769309</v>
       </c>
       <c r="I67" s="225">
-        <f t="shared" si="107"/>
-        <v>-1123.94552219907</v>
+        <f t="shared" si="97"/>
+        <v>-1124.95583479476</v>
       </c>
       <c r="J67" s="225">
-        <f t="shared" si="107"/>
-        <v>-1128.70611583505</v>
+        <f t="shared" si="97"/>
+        <v>-1129.7203572857679</v>
       </c>
       <c r="K67" s="150">
-        <f t="shared" si="107"/>
-        <v>-1133.83774649154</v>
+        <f t="shared" si="97"/>
+        <v>-1134.856223009233</v>
       </c>
       <c r="L67" s="225">
-        <f t="shared" si="107"/>
-        <v>-1164.58432880287</v>
+        <f t="shared" si="97"/>
+        <v>-1165.6072012785651</v>
       </c>
       <c r="M67" s="225">
-        <f t="shared" si="107"/>
-        <v>-1169.6720432144866</v>
+        <f t="shared" si="97"/>
+        <v>-1170.6993843086477</v>
       </c>
       <c r="N67" s="225">
-        <f t="shared" si="107"/>
-        <v>-1174.8247574617883</v>
+        <f t="shared" si="97"/>
+        <v>-1175.8566242647828</v>
       </c>
       <c r="O67" s="150">
-        <f t="shared" si="107"/>
-        <v>-1180.0424715447843</v>
+        <f t="shared" si="97"/>
+        <v>-1181.0789211469692</v>
       </c>
       <c r="P67" s="225">
-        <f t="shared" si="107"/>
-        <v>-1185.3370036154101</v>
+        <f t="shared" si="97"/>
+        <v>-1186.3781034872188</v>
       </c>
       <c r="Q67" s="225">
-        <f t="shared" si="107"/>
-        <v>-1190.6551719899246</v>
+        <f t="shared" si="97"/>
+        <v>-1191.7009428914864</v>
       </c>
       <c r="R67" s="225">
-        <f t="shared" si="107"/>
-        <v>-1196.0501583520688</v>
+        <f t="shared" si="97"/>
+        <v>-1197.1006677538157</v>
       </c>
       <c r="S67" s="150">
-        <f t="shared" si="107"/>
-        <v>-1201.5219627018521</v>
+        <f t="shared" si="97"/>
+        <v>-1202.5772780742061</v>
       </c>
       <c r="T67" s="225">
-        <f t="shared" si="107"/>
-        <v>-1207.0528578113385</v>
+        <f t="shared" si="97"/>
+        <v>-1208.113031054645</v>
       </c>
       <c r="U67" s="225">
-        <f t="shared" si="107"/>
-        <v>-1212.595571072779</v>
+        <f t="shared" si="97"/>
+        <v>-1213.6606125670928</v>
       </c>
       <c r="V67" s="225">
-        <f t="shared" si="107"/>
-        <v>-1218.1678297140711</v>
+        <f t="shared" si="97"/>
+        <v>-1219.2377654095646</v>
       </c>
       <c r="W67" s="150">
-        <f t="shared" si="107"/>
-        <v>-1223.7696337352338</v>
+        <f t="shared" si="97"/>
+        <v>-1224.8444895820596</v>
       </c>
       <c r="X67" s="225">
-        <f t="shared" si="107"/>
-        <v>-1229.3832559083221</v>
+        <f t="shared" si="97"/>
+        <v>-1230.4630422865646</v>
       </c>
       <c r="Y67" s="225">
-        <f t="shared" si="107"/>
-        <v>-1234.967332701568</v>
+        <f t="shared" si="97"/>
+        <v>-1236.052023661046</v>
       </c>
       <c r="Z67" s="225">
-        <f t="shared" si="107"/>
-        <v>-1240.5573185707767</v>
+        <f t="shared" si="97"/>
+        <v>-1241.6469193015316</v>
       </c>
       <c r="AA67" s="150">
-        <f t="shared" si="107"/>
-        <v>-1246.1473044399856</v>
+        <f t="shared" si="97"/>
+        <v>-1247.2418149420184</v>
       </c>
       <c r="AB67" s="225"/>
       <c r="AC67" s="225"/>
@@ -22606,47 +22606,47 @@
       </c>
       <c r="Q71" s="258">
         <f>P71*(1+Q73)</f>
-        <v>266.84554035043868</v>
+        <v>266.81611601692032</v>
       </c>
       <c r="R71" s="258">
-        <f t="shared" ref="R71:AA71" si="108">Q71*(1+R73)</f>
-        <v>279.86369412126004</v>
+        <f t="shared" ref="R71:AA71" si="98">Q71*(1+R73)</f>
+        <v>279.80337812932891</v>
       </c>
       <c r="S71" s="259">
-        <f t="shared" si="108"/>
-        <v>281.7269716982471</v>
+        <f t="shared" si="98"/>
+        <v>281.66851724758942</v>
       </c>
       <c r="T71" s="258">
-        <f t="shared" si="108"/>
-        <v>283.66604178001614</v>
+        <f t="shared" si="98"/>
+        <v>283.60929960678783</v>
       </c>
       <c r="U71" s="258">
-        <f t="shared" si="108"/>
-        <v>285.64989666947559</v>
+        <f t="shared" si="98"/>
+        <v>285.59477857560597</v>
       </c>
       <c r="V71" s="258">
-        <f t="shared" si="108"/>
-        <v>287.69056277877843</v>
+        <f t="shared" si="98"/>
+        <v>287.63695688168502</v>
       </c>
       <c r="W71" s="259">
-        <f t="shared" si="108"/>
-        <v>288.25036038684794</v>
+        <f t="shared" si="98"/>
+        <v>288.20265857582245</v>
       </c>
       <c r="X71" s="258">
-        <f t="shared" si="108"/>
-        <v>289.5388549275047</v>
+        <f t="shared" si="98"/>
+        <v>289.49562212520686</v>
       </c>
       <c r="Y71" s="258">
-        <f t="shared" si="108"/>
-        <v>290.16440875152392</v>
+        <f t="shared" si="98"/>
+        <v>290.12695053666232</v>
       </c>
       <c r="Z71" s="258">
-        <f t="shared" si="108"/>
-        <v>290.83125325773699</v>
+        <f t="shared" si="98"/>
+        <v>290.79948831348418</v>
       </c>
       <c r="AA71" s="259">
-        <f t="shared" si="108"/>
-        <v>291.23889600882188</v>
+        <f t="shared" si="98"/>
+        <v>291.21361923811332</v>
       </c>
       <c r="AB71" s="95"/>
     </row>
@@ -22655,100 +22655,100 @@
         <v>178</v>
       </c>
       <c r="D72" s="102">
-        <f t="shared" ref="D72:O72" si="109">D20</f>
+        <f t="shared" ref="D72:O72" si="99">D20</f>
         <v>204.37100000000001</v>
       </c>
       <c r="E72" s="104">
-        <f t="shared" si="109"/>
-        <v>884.26</v>
+        <f t="shared" si="99"/>
+        <v>884.2600000000001</v>
       </c>
       <c r="F72" s="104">
-        <f t="shared" si="109"/>
-        <v>241.428</v>
+        <f t="shared" si="99"/>
+        <v>242.12799999999999</v>
       </c>
       <c r="G72" s="149">
-        <f t="shared" si="109"/>
-        <v>228.42538380464799</v>
+        <f t="shared" si="99"/>
+        <v>229.13072093917029</v>
       </c>
       <c r="H72" s="104">
-        <f t="shared" si="109"/>
-        <v>212.81817966260101</v>
+        <f t="shared" si="99"/>
+        <v>213.52634779891321</v>
       </c>
       <c r="I72" s="104">
-        <f t="shared" si="109"/>
-        <v>197.64507351167001</v>
+        <f t="shared" si="99"/>
+        <v>198.35649033856069</v>
       </c>
       <c r="J72" s="104">
-        <f t="shared" si="109"/>
-        <v>183.050764682226</v>
+        <f t="shared" si="99"/>
+        <v>183.7659871180808</v>
       </c>
       <c r="K72" s="149">
-        <f t="shared" si="109"/>
-        <v>194.33260834913199</v>
+        <f t="shared" si="99"/>
+        <v>195.0533202337098</v>
       </c>
       <c r="L72" s="104">
-        <f t="shared" si="109"/>
-        <v>206.40744830671201</v>
+        <f t="shared" si="99"/>
+        <v>207.1344126604987</v>
       </c>
       <c r="M72" s="104">
-        <f t="shared" si="109"/>
-        <v>218.56402183082099</v>
+        <f t="shared" si="99"/>
+        <v>219.29731729779769</v>
       </c>
       <c r="N72" s="104">
-        <f t="shared" si="109"/>
-        <v>231.450162767232</v>
+        <f t="shared" si="99"/>
+        <v>232.19049133666189</v>
       </c>
       <c r="O72" s="149">
-        <f t="shared" si="109"/>
-        <v>243.697218746837</v>
+        <f t="shared" si="99"/>
+        <v>244.4440181553536</v>
       </c>
       <c r="P72" s="232">
-        <f t="shared" ref="P72:AA72" si="110">P20</f>
-        <v>256.68855568447401</v>
+        <f t="shared" ref="P72:AA72" si="100">P20</f>
+        <v>257.44254207870313</v>
       </c>
       <c r="Q72" s="240">
-        <f t="shared" si="110"/>
-        <v>269.06365627500099</v>
+        <f t="shared" si="100"/>
+        <v>269.82423671275291</v>
       </c>
       <c r="R72" s="240">
-        <f t="shared" si="110"/>
-        <v>282.19002161326898</v>
+        <f t="shared" si="100"/>
+        <v>282.9579189609679</v>
       </c>
       <c r="S72" s="257">
-        <f t="shared" si="110"/>
-        <v>284.06878742236199</v>
+        <f t="shared" si="100"/>
+        <v>284.8440859079293</v>
       </c>
       <c r="T72" s="240">
-        <f t="shared" si="110"/>
-        <v>286.02397575074502</v>
+        <f t="shared" si="100"/>
+        <v>286.80674890787742</v>
       </c>
       <c r="U72" s="240">
-        <f t="shared" si="110"/>
-        <v>288.02432115421698</v>
+        <f t="shared" si="100"/>
+        <v>288.81461243301999</v>
       </c>
       <c r="V72" s="240">
-        <f t="shared" si="110"/>
-        <v>290.08195001278602</v>
+        <f t="shared" si="100"/>
+        <v>290.87981453136018</v>
       </c>
       <c r="W72" s="257">
-        <f t="shared" si="110"/>
-        <v>290.64640085953198</v>
+        <f t="shared" si="100"/>
+        <v>291.45189402230841</v>
       </c>
       <c r="X72" s="240">
-        <f t="shared" si="110"/>
-        <v>291.94560582935901</v>
+        <f t="shared" si="100"/>
+        <v>292.75943461625042</v>
       </c>
       <c r="Y72" s="240">
-        <f t="shared" si="110"/>
-        <v>292.57635948132702</v>
+        <f t="shared" si="100"/>
+        <v>293.39788070893411</v>
       </c>
       <c r="Z72" s="240">
-        <f t="shared" si="110"/>
-        <v>293.248747038462</v>
+        <f t="shared" si="100"/>
+        <v>294.07800076689921</v>
       </c>
       <c r="AA72" s="257">
-        <f t="shared" si="110"/>
-        <v>293.65977826243102</v>
+        <f t="shared" si="100"/>
+        <v>294.49680065914453</v>
       </c>
       <c r="AB72" s="95"/>
     </row>
@@ -22770,48 +22770,48 @@
       <c r="O73" s="256"/>
       <c r="P73" s="239"/>
       <c r="Q73" s="239">
-        <f t="shared" ref="Q73" si="111">(Q72/P72)-1</f>
-        <v>4.8210566137349309E-2</v>
+        <f t="shared" ref="Q73" si="101">(Q72/P72)-1</f>
+        <v>4.8094982803054132E-2</v>
       </c>
       <c r="R73" s="239">
-        <f t="shared" ref="R73" si="112">(R72/Q72)-1</f>
-        <v>4.8785352581591113E-2</v>
+        <f t="shared" ref="R73" si="102">(R72/Q72)-1</f>
+        <v>4.867495377072717E-2</v>
       </c>
       <c r="S73" s="256">
-        <f t="shared" ref="S73" si="113">(S72/R72)-1</f>
-        <v>6.6578038385347593E-3</v>
+        <f t="shared" ref="S73" si="103">(S72/R72)-1</f>
+        <v>6.6658920658149157E-3</v>
       </c>
       <c r="T73" s="239">
-        <f t="shared" ref="T73" si="114">(T72/S72)-1</f>
-        <v>6.8827988675714824E-3</v>
+        <f t="shared" ref="T73" si="104">(T72/S72)-1</f>
+        <v>6.8903063010496979E-3</v>
       </c>
       <c r="U73" s="239">
-        <f t="shared" ref="U73" si="115">(U72/T72)-1</f>
-        <v>6.9936284125187154E-3</v>
+        <f t="shared" ref="U73" si="105">(U72/T72)-1</f>
+        <v>7.0007541063390466E-3</v>
       </c>
       <c r="V73" s="239">
-        <f t="shared" ref="V73" si="116">(V72/U72)-1</f>
-        <v>7.143941353019656E-3</v>
+        <f t="shared" ref="V73" si="106">(V72/U72)-1</f>
+        <v>7.1506149946589659E-3</v>
       </c>
       <c r="W73" s="256">
-        <f t="shared" ref="W73" si="117">(W72/V72)-1</f>
-        <v>1.9458323646854847E-3</v>
+        <f t="shared" ref="W73" si="107">(W72/V72)-1</f>
+        <v>1.96672117613228E-3</v>
       </c>
       <c r="X73" s="239">
-        <f t="shared" ref="X73" si="118">(X72/W72)-1</f>
-        <v>4.4700535289097232E-3</v>
+        <f t="shared" ref="X73" si="108">(X72/W72)-1</f>
+        <v>4.4862998688968148E-3</v>
       </c>
       <c r="Y73" s="239">
-        <f t="shared" ref="Y73" si="119">(Y72/X72)-1</f>
-        <v>2.160517710743326E-3</v>
+        <f t="shared" ref="Y73" si="109">(Y72/X72)-1</f>
+        <v>2.1807874220025614E-3</v>
       </c>
       <c r="Z73" s="239">
-        <f t="shared" ref="Z73" si="120">(Z72/Y72)-1</f>
-        <v>2.2981609256707003E-3</v>
+        <f t="shared" ref="Z73" si="110">(Z72/Y72)-1</f>
+        <v>2.3180810179055378E-3</v>
       </c>
       <c r="AA73" s="256">
-        <f t="shared" ref="AA73" si="121">(AA72/Z72)-1</f>
-        <v>1.4016469912319085E-3</v>
+        <f t="shared" ref="AA73" si="111">(AA72/Z72)-1</f>
+        <v>1.4241116001645349E-3</v>
       </c>
       <c r="AB73" s="253"/>
     </row>
@@ -22823,91 +22823,91 @@
       <c r="E74" s="225"/>
       <c r="F74" s="225">
         <f>F71-F72</f>
-        <v>45.522614367357789</v>
+        <v>44.822614367357801</v>
       </c>
       <c r="G74" s="150">
-        <f t="shared" ref="G74:K74" si="122">G71-G72</f>
-        <v>69.947500972419334</v>
+        <f t="shared" ref="G74:K74" si="112">G71-G72</f>
+        <v>69.242163837897039</v>
       </c>
       <c r="H74" s="225">
-        <f t="shared" si="122"/>
-        <v>69.322815785041854</v>
+        <f t="shared" si="112"/>
+        <v>68.614647648729658</v>
       </c>
       <c r="I74" s="225">
-        <f t="shared" si="122"/>
-        <v>57.377360410402446</v>
+        <f t="shared" si="112"/>
+        <v>56.665943583511762</v>
       </c>
       <c r="J74" s="225">
-        <f t="shared" si="122"/>
-        <v>73.004211452751491</v>
+        <f t="shared" si="112"/>
+        <v>72.288989016896693</v>
       </c>
       <c r="K74" s="150">
-        <f t="shared" si="122"/>
-        <v>57.211771344119029</v>
+        <f t="shared" si="112"/>
+        <v>56.491059459541219</v>
       </c>
       <c r="L74" s="225">
-        <f t="shared" ref="L74:N74" si="123">L71-L72</f>
-        <v>40.833358543003186</v>
+        <f t="shared" ref="L74:N74" si="113">L71-L72</f>
+        <v>40.106394189216502</v>
       </c>
       <c r="M74" s="225">
-        <f t="shared" si="123"/>
-        <v>30.394549951126692</v>
+        <f t="shared" si="113"/>
+        <v>29.661254484149993</v>
       </c>
       <c r="N74" s="225">
-        <f t="shared" si="123"/>
-        <v>19.416638483280934</v>
+        <f t="shared" si="113"/>
+        <v>18.676309913851043</v>
       </c>
       <c r="O74" s="150">
-        <f t="shared" ref="O74:AA74" si="124">O71-O72</f>
-        <v>8.9252580271594582</v>
+        <f t="shared" ref="O74:AA74" si="114">O71-O72</f>
+        <v>8.1784586186428498</v>
       </c>
       <c r="P74" s="249">
-        <f t="shared" si="124"/>
-        <v>-2.1160976584467051</v>
+        <f t="shared" si="114"/>
+        <v>-2.8700840526758213</v>
       </c>
       <c r="Q74" s="260">
-        <f t="shared" si="124"/>
-        <v>-2.2181159245623121</v>
+        <f t="shared" si="114"/>
+        <v>-3.0081206958325879</v>
       </c>
       <c r="R74" s="260">
-        <f t="shared" si="124"/>
-        <v>-2.326327492008943</v>
+        <f t="shared" si="114"/>
+        <v>-3.1545408316389967</v>
       </c>
       <c r="S74" s="261">
-        <f t="shared" si="124"/>
-        <v>-2.3418157241148947</v>
+        <f t="shared" si="114"/>
+        <v>-3.1755686603398772</v>
       </c>
       <c r="T74" s="260">
-        <f t="shared" si="124"/>
-        <v>-2.3579339707288796</v>
+        <f t="shared" si="114"/>
+        <v>-3.1974493010895912</v>
       </c>
       <c r="U74" s="260">
-        <f t="shared" si="124"/>
-        <v>-2.3744244847413825</v>
+        <f t="shared" si="114"/>
+        <v>-3.2198338574140166</v>
       </c>
       <c r="V74" s="260">
-        <f t="shared" si="124"/>
-        <v>-2.3913872340075955</v>
+        <f t="shared" si="114"/>
+        <v>-3.2428576496751589</v>
       </c>
       <c r="W74" s="261">
-        <f t="shared" si="124"/>
-        <v>-2.3960404726840352</v>
+        <f t="shared" si="114"/>
+        <v>-3.2492354464859545</v>
       </c>
       <c r="X74" s="260">
-        <f t="shared" si="124"/>
-        <v>-2.4067509018543092</v>
+        <f t="shared" si="114"/>
+        <v>-3.2638124910435522</v>
       </c>
       <c r="Y74" s="260">
-        <f t="shared" si="124"/>
-        <v>-2.4119507298030953</v>
+        <f t="shared" si="114"/>
+        <v>-3.2709301722717896</v>
       </c>
       <c r="Z74" s="260">
-        <f t="shared" si="124"/>
-        <v>-2.4174937807250103</v>
+        <f t="shared" si="114"/>
+        <v>-3.2785124534150327</v>
       </c>
       <c r="AA74" s="261">
-        <f t="shared" si="124"/>
-        <v>-2.4208822536091361</v>
+        <f t="shared" si="114"/>
+        <v>-3.2831814210312018</v>
       </c>
       <c r="AB74" s="254"/>
     </row>
@@ -23024,19 +23024,19 @@
       </c>
       <c r="B2" s="102">
         <f t="array" ref="B2:B23">TRANSPOSE('add-ons calculations'!F27:AA27)</f>
-        <v>-29.957396859939735</v>
+        <v>-22.257396859939746</v>
       </c>
       <c r="C2">
         <f t="array" ref="C2:C23">TRANSPOSE('add-ons calculations'!F34:AA34)</f>
-        <v>-594.18499999999995</v>
+        <v>-591.10500000000002</v>
       </c>
       <c r="D2">
         <f t="array" ref="D2:D23">TRANSPOSE('add-ons calculations'!F40:AA40)</f>
-        <v>-3.7540000000001328</v>
+        <v>4.5999999999821739E-2</v>
       </c>
       <c r="E2">
         <f t="array" ref="E2:E23">TRANSPOSE('add-ons calculations'!F46:AA46)</f>
-        <v>16.466666666666697</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f t="array" ref="F2:F23">TRANSPOSE('add-ons calculations'!F53:AA53)</f>
@@ -23044,15 +23044,15 @@
       </c>
       <c r="G2">
         <f t="array" ref="G2:G23">TRANSPOSE('add-ons calculations'!F60:AA60)</f>
-        <v>571.93100000000004</v>
+        <v>594.45100000000002</v>
       </c>
       <c r="H2">
         <f t="array" ref="H2:H23">TRANSPOSE('add-ons calculations'!F67:AA67)</f>
-        <v>1.6079999999999472</v>
+        <v>0.60799999999994725</v>
       </c>
       <c r="I2">
         <f t="array" ref="I2:I23">TRANSPOSE('add-ons calculations'!F74:AA74)</f>
-        <v>45.522614367357789</v>
+        <v>44.822614367357801</v>
       </c>
       <c r="J2" s="102">
         <f>'add-ons calculations'!E71</f>
@@ -23064,28 +23064,28 @@
         <v>44196</v>
       </c>
       <c r="B3">
-        <v>-34.783497145431824</v>
+        <v>-26.789650629444708</v>
       </c>
       <c r="C3">
-        <v>-692.43567224998105</v>
+        <v>-630.45068126596811</v>
       </c>
       <c r="D3">
-        <v>-3.7856223008150209</v>
+        <v>9.1220108456809612E-2</v>
       </c>
       <c r="E3">
-        <v>16.801557590396577</v>
+        <v>1.9071502101439819E-3</v>
       </c>
       <c r="F3">
-        <v>39.284047628960252</v>
+        <v>39.284047628965254</v>
       </c>
       <c r="G3">
-        <v>293.80086516330789</v>
+        <v>314.07836196786297</v>
       </c>
       <c r="H3">
-        <v>-832.73620114390815</v>
+        <v>-833.73947605477315</v>
       </c>
       <c r="I3">
-        <v>69.947500972419334</v>
+        <v>69.242163837897039</v>
       </c>
       <c r="J3" s="102">
         <f>'add-ons calculations'!F71</f>
@@ -23109,28 +23109,28 @@
         <v>44286</v>
       </c>
       <c r="B4">
-        <v>-41.050457665991701</v>
+        <v>-32.762764634016577</v>
       </c>
       <c r="C4">
-        <v>-711.40498724321901</v>
+        <v>-627.6397000131858</v>
       </c>
       <c r="D4">
-        <v>-3.8484065191764785</v>
+        <v>9.2732986063538192E-2</v>
       </c>
       <c r="E4">
-        <v>17.080209969497801</v>
+        <v>1.9387801313541786E-3</v>
       </c>
       <c r="F4">
-        <v>53.362256246812422</v>
+        <v>53.362256246811285</v>
       </c>
       <c r="G4">
-        <v>422.43236197226975</v>
+        <v>440.92675335280069</v>
       </c>
       <c r="H4">
-        <v>-1119.5370992944099</v>
+        <v>-1120.5437736769309</v>
       </c>
       <c r="I4">
-        <v>69.322815785041854</v>
+        <v>68.614647648729658</v>
       </c>
       <c r="K4">
         <v>244</v>
@@ -23147,28 +23147,28 @@
         <v>44377</v>
       </c>
       <c r="B5">
-        <v>-49.176191556400681</v>
+        <v>-40.594652008438686</v>
       </c>
       <c r="C5">
-        <v>-728.34545407101155</v>
+        <v>-620.837644585357</v>
       </c>
       <c r="D5">
-        <v>-3.909601731425937</v>
+        <v>9.4207574237998415E-2</v>
       </c>
       <c r="E5">
-        <v>17.351809934060185</v>
+        <v>1.969609530561911E-3</v>
       </c>
       <c r="F5">
-        <v>63.467484623816517</v>
+        <v>63.467484623819473</v>
       </c>
       <c r="G5">
-        <v>500.18578450030145</v>
+        <v>517.2278108710334</v>
       </c>
       <c r="H5">
-        <v>-1123.94552219907</v>
+        <v>-1124.95583479476</v>
       </c>
       <c r="I5">
-        <v>57.377360410402446</v>
+        <v>56.665943583511762</v>
       </c>
       <c r="K5">
         <v>152</v>
@@ -23185,28 +23185,28 @@
         <v>44469</v>
       </c>
       <c r="B6">
-        <v>-57.30192544680969</v>
+        <v>-48.426539382860597</v>
       </c>
       <c r="C6">
-        <v>-722.57156195195455</v>
+        <v>-601.63274124276234</v>
       </c>
       <c r="D6">
-        <v>-3.9750096575496627</v>
+        <v>9.5783673922369417E-2</v>
       </c>
       <c r="E6">
-        <v>17.642106997632354</v>
+        <v>2.0025612436285201E-3</v>
       </c>
       <c r="F6">
-        <v>68.411854322618638</v>
+        <v>68.411854322616591</v>
       </c>
       <c r="G6">
-        <v>479.33909720374186</v>
+        <v>495.34254097599887</v>
       </c>
       <c r="H6">
-        <v>-1128.70611583505</v>
+        <v>-1129.7203572857679</v>
       </c>
       <c r="I6">
-        <v>73.004211452751491</v>
+        <v>72.288989016896693</v>
       </c>
       <c r="K6">
         <v>44</v>
@@ -23223,28 +23223,28 @@
         <v>44561</v>
       </c>
       <c r="B7">
-        <v>-54.85898762026369</v>
+        <v>-46.071944194504397</v>
       </c>
       <c r="C7">
-        <v>-747.40304702488299</v>
+        <v>-620.38250935733299</v>
       </c>
       <c r="D7">
-        <v>-4.0188181865989918</v>
+        <v>9.6839304535023984E-2</v>
       </c>
       <c r="E7">
-        <v>17.836540426369808</v>
+        <v>2.024631444953684E-3</v>
       </c>
       <c r="F7">
-        <v>70.15222148274097</v>
+        <v>70.152221482738696</v>
       </c>
       <c r="G7">
-        <v>447.22496824155064</v>
+        <v>463.78244356721166</v>
       </c>
       <c r="H7">
-        <v>-1133.83774649154</v>
+        <v>-1134.856223009233</v>
       </c>
       <c r="I7">
-        <v>57.211771344119029</v>
+        <v>56.491059459541219</v>
       </c>
       <c r="K7">
         <v>44</v>
@@ -23261,10 +23261,10 @@
         <v>44651</v>
       </c>
       <c r="B8">
-        <v>-9.001662844143226</v>
+        <v>-0.30296205657262476</v>
       </c>
       <c r="C8">
-        <v>-773.68878167072808</v>
+        <v>-642.84660678631462</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -23273,16 +23273,16 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>71.892588642863302</v>
+        <v>71.892588642860801</v>
       </c>
       <c r="G8">
-        <v>449.32070275996693</v>
+        <v>465.84239499799924</v>
       </c>
       <c r="H8">
-        <v>-1164.58432880287</v>
+        <v>-1165.6072012785651</v>
       </c>
       <c r="I8">
-        <v>40.833358543003186</v>
+        <v>40.106394189216502</v>
       </c>
       <c r="K8">
         <v>44</v>
@@ -23299,10 +23299,10 @@
         <v>44742</v>
       </c>
       <c r="B9">
-        <v>-6.5587250175972258</v>
+        <v>2.0516331317836602</v>
       </c>
       <c r="C9">
-        <v>-794.94312773749687</v>
+        <v>-662.07651217129251</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>73.63295580298518</v>
+        <v>73.632955802982906</v>
       </c>
       <c r="G9">
-        <v>446.08137045999842</v>
+        <v>462.33858317017825</v>
       </c>
       <c r="H9">
-        <v>-1169.6720432144866</v>
+        <v>-1170.6993843086477</v>
       </c>
       <c r="I9">
-        <v>30.394549951126692</v>
+        <v>29.661254484149993</v>
       </c>
       <c r="K9">
         <v>44</v>
@@ -23337,10 +23337,10 @@
         <v>44834</v>
       </c>
       <c r="B10">
-        <v>-6.491432221971138</v>
+        <v>2.0305832892202886</v>
       </c>
       <c r="C10">
-        <v>-814.73287034547423</v>
+        <v>-680.01051493350417</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -23349,16 +23349,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>75.373322963107285</v>
+        <v>75.373322963105011</v>
       </c>
       <c r="G10">
-        <v>435.4546819469424</v>
+        <v>451.1307439185664</v>
       </c>
       <c r="H10">
-        <v>-1174.8247574617883</v>
+        <v>-1175.8566242647828</v>
       </c>
       <c r="I10">
-        <v>19.416638483280934</v>
+        <v>18.676309913851043</v>
       </c>
       <c r="K10">
         <v>44</v>
@@ -23375,10 +23375,10 @@
         <v>44926</v>
       </c>
       <c r="B11">
-        <v>-6.4247998687940822</v>
+        <v>2.0097400394941758</v>
       </c>
       <c r="C11">
-        <v>-832.87770912451731</v>
+        <v>-696.48492380078505</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -23387,16 +23387,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>75.586446231402988</v>
+        <v>75.586446231400942</v>
       </c>
       <c r="G11">
-        <v>435.27537884507865</v>
+        <v>450.91316136999171</v>
       </c>
       <c r="H11">
-        <v>-1180.0424715447843</v>
+        <v>-1181.0789211469692</v>
       </c>
       <c r="I11">
-        <v>8.9252580271594582</v>
+        <v>8.1784586186428498</v>
       </c>
       <c r="K11">
         <v>44</v>
@@ -23413,10 +23413,10 @@
         <v>45016</v>
       </c>
       <c r="B12">
-        <v>-6.3581675156169979</v>
+        <v>1.9888967897680345</v>
       </c>
       <c r="C12">
-        <v>-850.61245893510431</v>
+        <v>-817.67623215503761</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>75.799569499699146</v>
+        <v>75.799569499696645</v>
       </c>
       <c r="G12">
-        <v>435.40447316782797</v>
+        <v>450.91316136999171</v>
       </c>
       <c r="H12">
-        <v>-1185.3370036154101</v>
+        <v>-1186.3781034872188</v>
       </c>
       <c r="I12">
-        <v>-2.1160976584467051</v>
+        <v>-2.8700840526758213</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -23442,10 +23442,10 @@
         <v>45107</v>
       </c>
       <c r="B13">
-        <v>-6.291535162439942</v>
+        <v>1.9680535400418933</v>
       </c>
       <c r="C13">
-        <v>-869.63605978942394</v>
+        <v>-835.96322772532972</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -23454,16 +23454,16 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>76.012692767994849</v>
+        <v>76.012692767992348</v>
       </c>
       <c r="G13">
-        <v>435.74448022015804</v>
+        <v>450.91316136999171</v>
       </c>
       <c r="H13">
-        <v>-1190.6551719899246</v>
+        <v>-1191.7009428914864</v>
       </c>
       <c r="I13">
-        <v>-2.2181159245623121</v>
+        <v>-3.0081206958325879</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -23471,10 +23471,10 @@
         <v>45199</v>
       </c>
       <c r="B14">
-        <v>-6.2249028092628862</v>
+        <v>1.9472102903157804</v>
       </c>
       <c r="C14">
-        <v>-888.54249236704072</v>
+        <v>-854.1375918451696</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -23483,16 +23483,16 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>76.225816036290553</v>
+        <v>76.225816036288279</v>
       </c>
       <c r="G14">
-        <v>436.68879504390839</v>
+        <v>450.91316136999171</v>
       </c>
       <c r="H14">
-        <v>-1196.0501583520688</v>
+        <v>-1197.1006677538157</v>
       </c>
       <c r="I14">
-        <v>-2.326327492008943</v>
+        <v>-3.1545408316389967</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -23500,10 +23500,10 @@
         <v>45291</v>
       </c>
       <c r="B15">
-        <v>-6.295048087275859</v>
+        <v>1.9691524171809078</v>
       </c>
       <c r="C15">
-        <v>-894.49143666928853</v>
+        <v>-859.85618944066186</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -23512,16 +23512,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>76.80629077035951</v>
+        <v>76.806290770357236</v>
       </c>
       <c r="G15">
-        <v>441.43852525373677</v>
+        <v>450.91316136999171</v>
       </c>
       <c r="H15">
-        <v>-1201.5219627018521</v>
+        <v>-1202.5772780742061</v>
       </c>
       <c r="I15">
-        <v>-2.3418157241148947</v>
+        <v>-3.1755686603398772</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -23529,10 +23529,10 @@
         <v>45382</v>
       </c>
       <c r="B16">
-        <v>-6.3651933652888886</v>
+        <v>1.9910945440460637</v>
       </c>
       <c r="C16">
-        <v>-901.14339063176203</v>
+        <v>-866.25057573887523</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -23541,16 +23541,16 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.38676550442824</v>
+        <v>77.386765504425966</v>
       </c>
       <c r="G16">
-        <v>445.98537204145396</v>
+        <v>450.91316136999171</v>
       </c>
       <c r="H16">
-        <v>-1207.0528578113385</v>
+        <v>-1208.113031054645</v>
       </c>
       <c r="I16">
-        <v>-2.3579339707288796</v>
+        <v>-3.1974493010895912</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -23558,10 +23558,10 @@
         <v>45473</v>
       </c>
       <c r="B17">
-        <v>-6.4353386433018898</v>
+        <v>2.0130366709111911</v>
       </c>
       <c r="C17">
-        <v>-908.43977011609832</v>
+        <v>-873.2644350145722</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -23570,16 +23570,16 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>77.967240238497425</v>
+        <v>77.967240238494924</v>
       </c>
       <c r="G17">
-        <v>449.5862519498246</v>
+        <v>450.91316136999171</v>
       </c>
       <c r="H17">
-        <v>-1212.595571072779</v>
+        <v>-1213.6606125670928</v>
       </c>
       <c r="I17">
-        <v>-2.3744244847413825</v>
+        <v>-3.2198338574140166</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -23587,10 +23587,10 @@
         <v>45565</v>
       </c>
       <c r="B18">
-        <v>-6.5054839213148625</v>
+        <v>2.0349787977763469</v>
       </c>
       <c r="C18">
-        <v>-916.67349581405847</v>
+        <v>-881.17934589388699</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -23599,16 +23599,16 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>78.547714972566155</v>
+        <v>78.547714972563881</v>
       </c>
       <c r="G18">
-        <v>452.60728317672692</v>
+        <v>450.91316136999171</v>
       </c>
       <c r="H18">
-        <v>-1218.1678297140711</v>
+        <v>-1219.2377654095646</v>
       </c>
       <c r="I18">
-        <v>-2.3913872340075955</v>
+        <v>-3.2428576496751589</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -23616,10 +23616,10 @@
         <v>45657</v>
       </c>
       <c r="B19">
-        <v>-6.5943417353831819</v>
+        <v>2.0627743883631524</v>
       </c>
       <c r="C19">
-        <v>-923.29423127952521</v>
+        <v>-887.54372249410221</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -23628,16 +23628,16 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>80.423633804208066</v>
+        <v>80.42363380420511</v>
       </c>
       <c r="G19">
-        <v>462.56563031939572</v>
+        <v>450.91316136999171</v>
       </c>
       <c r="H19">
-        <v>-1223.7696337352338</v>
+        <v>-1224.8444895820596</v>
       </c>
       <c r="I19">
-        <v>-2.3960404726840352</v>
+        <v>-3.2492354464859545</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -23645,10 +23645,10 @@
         <v>45747</v>
       </c>
       <c r="B20">
-        <v>-6.6831995494514445</v>
+        <v>2.0905699789499579</v>
       </c>
       <c r="C20">
-        <v>-929.79779846828899</v>
+        <v>-893.79546764386509</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -23657,16 +23657,16 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>82.299552635849295</v>
+        <v>82.299552635846567</v>
       </c>
       <c r="G20">
-        <v>470.61534899915637</v>
+        <v>450.91316136999171</v>
       </c>
       <c r="H20">
-        <v>-1229.3832559083221</v>
+        <v>-1230.4630422865646</v>
       </c>
       <c r="I20">
-        <v>-2.4067509018543092</v>
+        <v>-3.2638124910435522</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -23674,10 +23674,10 @@
         <v>45838</v>
       </c>
       <c r="B21">
-        <v>-6.7720573635197354</v>
+        <v>2.1183655695367065</v>
       </c>
       <c r="C21">
-        <v>-936.77003876385663</v>
+        <v>-900.49773859542927</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -23686,16 +23686,16 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>84.175471467490752</v>
+        <v>84.175471467487796</v>
       </c>
       <c r="G21">
-        <v>476.97428029840171</v>
+        <v>450.91316136999171</v>
       </c>
       <c r="H21">
-        <v>-1234.967332701568</v>
+        <v>-1236.052023661046</v>
       </c>
       <c r="I21">
-        <v>-2.4119507298030953</v>
+        <v>-3.2709301722717896</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -23703,10 +23703,10 @@
         <v>45930</v>
       </c>
       <c r="B22">
-        <v>-6.8609151775880264</v>
+        <v>2.1461611601234836</v>
       </c>
       <c r="C22">
-        <v>-944.26953630459184</v>
+        <v>-907.70685107403244</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -23715,16 +23715,16 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>86.051390299132663</v>
+        <v>86.051390299129253</v>
       </c>
       <c r="G22">
-        <v>481.46047104096147</v>
+        <v>450.91316136999171</v>
       </c>
       <c r="H22">
-        <v>-1240.5573185707767</v>
+        <v>-1241.6469193015316</v>
       </c>
       <c r="I22">
-        <v>-2.4174937807250103</v>
+        <v>-3.2785124534150327</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -23732,10 +23732,10 @@
         <v>46022</v>
       </c>
       <c r="B23">
-        <v>-6.9533802654135286</v>
+        <v>2.1750851411117083</v>
       </c>
       <c r="C23">
-        <v>-951.89288547033902</v>
+        <v>-915.03501956812443</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -23744,16 +23744,16 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>87.452518457739188</v>
+        <v>87.452518457736005</v>
       </c>
       <c r="G23">
-        <v>483.56737242211511</v>
+        <v>450.91316136999171</v>
       </c>
       <c r="H23">
-        <v>-1246.1473044399856</v>
+        <v>-1247.2418149420184</v>
       </c>
       <c r="I23">
-        <v>-2.4208822536091361</v>
+        <v>-3.2831814210312018</v>
       </c>
     </row>
   </sheetData>
@@ -27181,11 +27181,11 @@
       </c>
       <c r="D2" s="271">
         <f t="array" ref="D2:D23">TRANSPOSE('add-ons calculations'!F40:AA40)</f>
-        <v>-3.7540000000001328</v>
+        <v>4.5999999999821739E-2</v>
       </c>
       <c r="E2" s="271">
         <f t="array" ref="E2:E23">TRANSPOSE('add-ons calculations'!F46:AA46)</f>
-        <v>16.466666666666697</v>
+        <v>0</v>
       </c>
       <c r="F2" s="271">
         <f t="array" ref="F2:F23">TRANSPOSE('add-ons calculations nipas'!F41:AA41)</f>
@@ -27197,11 +27197,11 @@
       </c>
       <c r="H2" s="271">
         <f t="array" ref="H2:H23">TRANSPOSE('add-ons calculations'!F67:AA67)</f>
-        <v>1.6079999999999472</v>
+        <v>0.60799999999994725</v>
       </c>
       <c r="I2" s="271">
         <f t="array" ref="I2:I23">TRANSPOSE('add-ons calculations'!F74:AA74)</f>
-        <v>45.522614367357789</v>
+        <v>44.822614367357801</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -27215,10 +27215,10 @@
         <v>726.6220967502511</v>
       </c>
       <c r="D3" s="271">
-        <v>-3.7856223008150209</v>
+        <v>9.1220108456809612E-2</v>
       </c>
       <c r="E3" s="271">
-        <v>16.801557590396577</v>
+        <v>1.9071502101439819E-3</v>
       </c>
       <c r="F3" s="271">
         <v>23.142985628403267</v>
@@ -27227,10 +27227,10 @@
         <v>513.85424509879022</v>
       </c>
       <c r="H3" s="271">
-        <v>-832.73620114390815</v>
+        <v>-833.73947605477315</v>
       </c>
       <c r="I3" s="271">
-        <v>69.947500972419334</v>
+        <v>69.242163837897039</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -27244,10 +27244,10 @@
         <v>764.23118760572027</v>
       </c>
       <c r="D4" s="271">
-        <v>-3.8484065191764785</v>
+        <v>9.2732986063538192E-2</v>
       </c>
       <c r="E4" s="271">
-        <v>17.080209969497801</v>
+        <v>1.9387801313541786E-3</v>
       </c>
       <c r="F4" s="271">
         <v>46.379353230327069</v>
@@ -27256,10 +27256,10 @@
         <v>683.50185830197597</v>
       </c>
       <c r="H4" s="271">
-        <v>-1119.5370992944099</v>
+        <v>-1120.5437736769309</v>
       </c>
       <c r="I4" s="271">
-        <v>69.322815785041854</v>
+        <v>68.614647648729658</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -27273,10 +27273,10 @@
         <v>796.29411591287919</v>
       </c>
       <c r="D5" s="271">
-        <v>-3.909601731425937</v>
+        <v>9.4207574237998415E-2</v>
       </c>
       <c r="E5" s="271">
-        <v>17.351809934060185</v>
+        <v>1.969609530561911E-3</v>
       </c>
       <c r="F5" s="271">
         <v>69.743650491218432</v>
@@ -27285,10 +27285,10 @@
         <v>803.5651155471096</v>
       </c>
       <c r="H5" s="271">
-        <v>-1123.94552219907</v>
+        <v>-1124.95583479476</v>
       </c>
       <c r="I5" s="271">
-        <v>57.377360410402446</v>
+        <v>56.665943583511762</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -27302,10 +27302,10 @@
         <v>819.43775129708126</v>
       </c>
       <c r="D6" s="271">
-        <v>-3.9750096575496627</v>
+        <v>9.5783673922369417E-2</v>
       </c>
       <c r="E6" s="271">
-        <v>17.642106997632354</v>
+        <v>2.0025612436285201E-3</v>
       </c>
       <c r="F6" s="271">
         <v>93.23744404962531</v>
@@ -27314,10 +27314,10 @@
         <v>843.28782539808162</v>
       </c>
       <c r="H6" s="271">
-        <v>-1128.70611583505</v>
+        <v>-1129.7203572857679</v>
       </c>
       <c r="I6" s="271">
-        <v>73.004211452751491</v>
+        <v>72.288989016896693</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -27331,10 +27331,10 @@
         <v>806.09430547419333</v>
       </c>
       <c r="D7" s="271">
-        <v>-4.0188181865989918</v>
+        <v>9.6839304535023984E-2</v>
       </c>
       <c r="E7" s="271">
-        <v>17.836540426369808</v>
+        <v>2.024631444953684E-3</v>
       </c>
       <c r="F7" s="271">
         <v>97.945155839323775</v>
@@ -27343,10 +27343,10 @@
         <v>850.04005809445835</v>
       </c>
       <c r="H7" s="271">
-        <v>-1133.83774649154</v>
+        <v>-1134.856223009233</v>
       </c>
       <c r="I7" s="271">
-        <v>57.211771344119029</v>
+        <v>56.491059459541219</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -27372,10 +27372,10 @@
         <v>858.64698733295586</v>
       </c>
       <c r="H8" s="271">
-        <v>-1164.58432880287</v>
+        <v>-1165.6072012785651</v>
       </c>
       <c r="I8" s="271">
-        <v>40.833358543003186</v>
+        <v>40.106394189216502</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -27401,10 +27401,10 @@
         <v>858.38505548999569</v>
       </c>
       <c r="H9" s="271">
-        <v>-1169.6720432144866</v>
+        <v>-1170.6993843086477</v>
       </c>
       <c r="I9" s="271">
-        <v>30.394549951126692</v>
+        <v>29.661254484149993</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -27430,10 +27430,10 @@
         <v>845.84259591544492</v>
       </c>
       <c r="H10" s="271">
-        <v>-1174.8247574617883</v>
+        <v>-1175.8566242647828</v>
       </c>
       <c r="I10" s="271">
-        <v>19.416638483280934</v>
+        <v>18.676309913851043</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -27459,10 +27459,10 @@
         <v>846.79218391518066</v>
       </c>
       <c r="H11" s="271">
-        <v>-1180.0424715447843</v>
+        <v>-1181.0789211469692</v>
       </c>
       <c r="I11" s="271">
-        <v>8.9252580271594582</v>
+        <v>8.1784586186428498</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -27488,10 +27488,10 @@
         <v>848.25444289166103</v>
       </c>
       <c r="H12" s="271">
-        <v>-1185.3370036154101</v>
+        <v>-1186.3781034872188</v>
       </c>
       <c r="I12" s="271">
-        <v>-2.1160976584467051</v>
+        <v>-2.8700840526758213</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -27517,10 +27517,10 @@
         <v>850.06731710176859</v>
       </c>
       <c r="H13" s="271">
-        <v>-1190.6551719899246</v>
+        <v>-1191.7009428914864</v>
       </c>
       <c r="I13" s="271">
-        <v>-2.2181159245623121</v>
+        <v>-3.0081206958325879</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -27546,10 +27546,10 @@
         <v>852.88477510766552</v>
       </c>
       <c r="H14" s="271">
-        <v>-1196.0501583520688</v>
+        <v>-1197.1006677538157</v>
       </c>
       <c r="I14" s="271">
-        <v>-2.326327492008943</v>
+        <v>-3.1545408316389967</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -27575,10 +27575,10 @@
         <v>861.50572629627095</v>
       </c>
       <c r="H15" s="271">
-        <v>-1201.5219627018521</v>
+        <v>-1202.5772780742061</v>
       </c>
       <c r="I15" s="271">
-        <v>-2.3418157241148947</v>
+        <v>-3.1755686603398772</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -27604,10 +27604,10 @@
         <v>869.78940994020809</v>
       </c>
       <c r="H16" s="271">
-        <v>-1207.0528578113385</v>
+        <v>-1208.113031054645</v>
       </c>
       <c r="I16" s="271">
-        <v>-2.3579339707288796</v>
+        <v>-3.1974493010895912</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -27633,10 +27633,10 @@
         <v>876.50054554939038</v>
       </c>
       <c r="H17" s="271">
-        <v>-1212.595571072779</v>
+        <v>-1213.6606125670928</v>
       </c>
       <c r="I17" s="271">
-        <v>-2.3744244847413825</v>
+        <v>-3.2198338574140166</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -27662,10 +27662,10 @@
         <v>882.24775744790236</v>
       </c>
       <c r="H18" s="271">
-        <v>-1218.1678297140711</v>
+        <v>-1219.2377654095646</v>
       </c>
       <c r="I18" s="271">
-        <v>-2.3913872340075955</v>
+        <v>-3.2428576496751589</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -27691,10 +27691,10 @@
         <v>902.60982095533109</v>
       </c>
       <c r="H19" s="271">
-        <v>-1223.7696337352338</v>
+        <v>-1224.8444895820596</v>
       </c>
       <c r="I19" s="271">
-        <v>-2.3960404726840352</v>
+        <v>-3.2492354464859545</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -27720,10 +27720,10 @@
         <v>919.79903559883928</v>
       </c>
       <c r="H20" s="271">
-        <v>-1229.3832559083221</v>
+        <v>-1230.4630422865646</v>
       </c>
       <c r="I20" s="271">
-        <v>-2.4067509018543092</v>
+        <v>-3.2638124910435522</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -27749,10 +27749,10 @@
         <v>934.17753410578689</v>
       </c>
       <c r="H21" s="271">
-        <v>-1234.967332701568</v>
+        <v>-1236.052023661046</v>
       </c>
       <c r="I21" s="271">
-        <v>-2.4119507298030953</v>
+        <v>-3.2709301722717896</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -27778,10 +27778,10 @@
         <v>945.44284276820849</v>
       </c>
       <c r="H22" s="271">
-        <v>-1240.5573185707767</v>
+        <v>-1241.6469193015316</v>
       </c>
       <c r="I22" s="271">
-        <v>-2.4174937807250103</v>
+        <v>-3.2785124534150327</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -27807,10 +27807,10 @@
         <v>951.51196828767593</v>
       </c>
       <c r="H23" s="271">
-        <v>-1246.1473044399856</v>
+        <v>-1247.2418149420184</v>
       </c>
       <c r="I23" s="271">
-        <v>-2.4208822536091361</v>
+        <v>-3.2831814210312018</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v5.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyilla\Documents\Git\Fiscal-Impact-Measure\documentation\COVID-19 Changes\September\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C56ED0-48C2-456C-BB69-2A00DC02774F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707FB7C5-8754-42B9-A5F3-FCA1D5F8CE35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="15840" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,6 @@
   <authors>
     <author>Kadija Yilla</author>
     <author>tc={7314685E-335E-47AA-B478-1BA6ABF2BDA3}</author>
-    <author>tc={E09211C7-D54A-419D-82CE-C4BD25648B45}</author>
     <author>tc={2D81BDF9-A0D8-4A1A-915B-91D32E8E61FF}</author>
     <author>tc={33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}</author>
     <author>tc={11731043-8530-4DAC-9476-3C98D0D836BB}</author>
@@ -360,15 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L33" authorId="1" shapeId="0" xr:uid="{7314685E-335E-47AA-B478-1BA6ABF2BDA3}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    BEA has 771k for total UI but not including Trump UI. Add trump UI for the real total</t>
-      </text>
-    </comment>
-    <comment ref="M33" authorId="2" shapeId="0" xr:uid="{E09211C7-D54A-419D-82CE-C4BD25648B45}">
+    <comment ref="M33" authorId="1" shapeId="0" xr:uid="{7314685E-335E-47AA-B478-1BA6ABF2BDA3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -401,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K56" authorId="3" shapeId="0" xr:uid="{2D81BDF9-A0D8-4A1A-915B-91D32E8E61FF}">
+    <comment ref="L56" authorId="2" shapeId="0" xr:uid="{2D81BDF9-A0D8-4A1A-915B-91D32E8E61FF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -409,7 +400,7 @@
     grow with nom purchases</t>
       </text>
     </comment>
-    <comment ref="K61" authorId="4" shapeId="0" xr:uid="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
+    <comment ref="L61" authorId="3" shapeId="0" xr:uid="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -444,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N72" authorId="5" shapeId="0" xr:uid="{11731043-8530-4DAC-9476-3C98D0D836BB}">
+    <comment ref="N72" authorId="4" shapeId="0" xr:uid="{11731043-8530-4DAC-9476-3C98D0D836BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -485,7 +476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N79" authorId="6" shapeId="0" xr:uid="{DF0EC25E-9AE4-45F2-BCE9-95D46AA2D480}">
+    <comment ref="N79" authorId="5" shapeId="0" xr:uid="{DF0EC25E-9AE4-45F2-BCE9-95D46AA2D480}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -493,7 +484,7 @@
     CBO projected is 1.96%</t>
       </text>
     </comment>
-    <comment ref="L83" authorId="7" shapeId="0" xr:uid="{55BAE892-7CB3-4E1D-8C31-C7FA6DC5B9F4}">
+    <comment ref="M83" authorId="6" shapeId="0" xr:uid="{55BAE892-7CB3-4E1D-8C31-C7FA6DC5B9F4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -501,7 +492,7 @@
     OVERRIDE IN THE FIM WITH -5%</t>
       </text>
     </comment>
-    <comment ref="N83" authorId="8" shapeId="0" xr:uid="{5A5A9177-799E-4FBA-A407-831B591270CB}">
+    <comment ref="N83" authorId="7" shapeId="0" xr:uid="{5A5A9177-799E-4FBA-A407-831B591270CB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -511,7 +502,7 @@
     cbo proected it will be 2.3%. should we still ovverride with 4%?</t>
       </text>
     </comment>
-    <comment ref="O83" authorId="9" shapeId="0" xr:uid="{6E4225DC-7AF1-4149-8AFD-DF5FEAFAE0CE}">
+    <comment ref="O83" authorId="8" shapeId="0" xr:uid="{6E4225DC-7AF1-4149-8AFD-DF5FEAFAE0CE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -521,7 +512,7 @@
     cbo proected it will be 2.3%. should we still ovverride with 4%?</t>
       </text>
     </comment>
-    <comment ref="P83" authorId="10" shapeId="0" xr:uid="{E0AA59A4-D972-4354-844E-3B08443F6713}">
+    <comment ref="P83" authorId="9" shapeId="0" xr:uid="{E0AA59A4-D972-4354-844E-3B08443F6713}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -649,7 +640,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="339">
   <si>
     <t>Corporate Taxes</t>
   </si>
@@ -1918,9 +1909,6 @@
   </si>
   <si>
     <t>gsubl</t>
-  </si>
-  <si>
-    <t>first estimate</t>
   </si>
   <si>
     <t>second estimate</t>
@@ -2175,7 +2163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2269,12 +2257,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2686,7 +2668,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3186,14 +3168,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="17" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3261,6 +3238,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3282,35 +3274,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="17" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3713,19 +3688,16 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="L33" dT="2020-10-29T15:30:32.00" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{7314685E-335E-47AA-B478-1BA6ABF2BDA3}">
+  <threadedComment ref="M33" dT="2020-10-29T15:30:32.00" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{7314685E-335E-47AA-B478-1BA6ABF2BDA3}">
     <text>BEA has 771k for total UI but not including Trump UI. Add trump UI for the real total</text>
   </threadedComment>
-  <threadedComment ref="M33" dT="2020-10-29T15:30:32.00" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{E09211C7-D54A-419D-82CE-C4BD25648B45}">
-    <text>BEA has 771k for total UI but not including Trump UI. Add trump UI for the real total</text>
-  </threadedComment>
-  <threadedComment ref="K56" dT="2020-09-10T19:09:05.64" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{2D81BDF9-A0D8-4A1A-915B-91D32E8E61FF}">
+  <threadedComment ref="L56" dT="2020-09-10T19:09:05.64" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{2D81BDF9-A0D8-4A1A-915B-91D32E8E61FF}">
     <text>grow with nom purchases</text>
   </threadedComment>
-  <threadedComment ref="K61" dT="2020-10-27T15:26:37.39" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
+  <threadedComment ref="L61" dT="2020-10-27T15:26:37.39" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
     <text>CBO indicated 17 for q2? why do we split the quarter 3 payments into q2?</text>
   </threadedComment>
-  <threadedComment ref="K61" dT="2020-10-28T16:31:53.35" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{1079BF34-6E2F-4888-8715-72B28B28D9AA}" parentId="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
+  <threadedComment ref="L61" dT="2020-10-28T16:31:53.35" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{1079BF34-6E2F-4888-8715-72B28B28D9AA}" parentId="{33EF6DF5-9556-47EC-86E1-A12FDBDC0AA8}">
     <text>we're comfortable leaving this as is</text>
   </threadedComment>
   <threadedComment ref="N72" dT="2020-09-11T20:43:00.49" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{11731043-8530-4DAC-9476-3C98D0D836BB}">
@@ -3734,7 +3706,7 @@
   <threadedComment ref="N79" dT="2020-10-29T17:11:18.12" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{DF0EC25E-9AE4-45F2-BCE9-95D46AA2D480}">
     <text>CBO projected is 1.96%</text>
   </threadedComment>
-  <threadedComment ref="L83" dT="2020-09-30T15:34:05.87" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{55BAE892-7CB3-4E1D-8C31-C7FA6DC5B9F4}">
+  <threadedComment ref="M83" dT="2020-09-30T15:34:05.87" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{55BAE892-7CB3-4E1D-8C31-C7FA6DC5B9F4}">
     <text>OVERRIDE IN THE FIM WITH -5%</text>
   </threadedComment>
   <threadedComment ref="N83" dT="2020-09-30T15:34:25.90" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{5A5A9177-799E-4FBA-A407-831B591270CB}">
@@ -3799,21 +3771,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AP95"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.453125" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="35" customWidth="1"/>
-    <col min="5" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1796875" style="35" customWidth="1"/>
-    <col min="14" max="14" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.81640625" style="35" customWidth="1"/>
+    <col min="6" max="14" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.36328125" customWidth="1"/>
     <col min="16" max="22" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.1796875" style="35" customWidth="1"/>
@@ -3825,119 +3795,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="287" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="290"/>
+      <c r="B1" s="287"/>
       <c r="C1" s="281"/>
-      <c r="D1" s="35"/>
-      <c r="L1" t="s">
-        <v>339</v>
-      </c>
-      <c r="M1" s="35" t="s">
+      <c r="D1" s="281"/>
+      <c r="E1" s="35"/>
+      <c r="M1" t="s">
         <v>338</v>
       </c>
       <c r="AB1" s="179" t="s">
         <v>249</v>
       </c>
-      <c r="AC1" s="292" t="s">
+      <c r="AC1" s="289" t="s">
         <v>247</v>
       </c>
-      <c r="AD1" s="292"/>
-      <c r="AE1" s="292"/>
+      <c r="AD1" s="289"/>
+      <c r="AE1" s="289"/>
       <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="293" t="s">
+      <c r="AH1" s="290" t="s">
         <v>282</v>
       </c>
-      <c r="AI1" s="293"/>
-      <c r="AJ1" s="293"/>
-      <c r="AK1" s="293"/>
-      <c r="AL1" s="291" t="s">
+      <c r="AI1" s="290"/>
+      <c r="AJ1" s="290"/>
+      <c r="AK1" s="290"/>
+      <c r="AL1" s="288" t="s">
         <v>280</v>
       </c>
-      <c r="AM1" s="291"/>
-      <c r="AN1" s="291"/>
-      <c r="AO1" s="291"/>
+      <c r="AM1" s="288"/>
+      <c r="AN1" s="288"/>
+      <c r="AO1" s="288"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="E2" s="289" t="s">
+      <c r="F2" s="286" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="289"/>
-      <c r="G2" s="289"/>
-      <c r="H2" s="289"/>
-      <c r="I2" s="289" t="s">
+      <c r="G2" s="286"/>
+      <c r="H2" s="286"/>
+      <c r="I2" s="286"/>
+      <c r="J2" s="286" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="289"/>
-      <c r="K2" s="289"/>
-      <c r="L2" s="289"/>
-      <c r="M2" s="284"/>
-      <c r="N2" s="289" t="s">
+      <c r="K2" s="286"/>
+      <c r="L2" s="286"/>
+      <c r="M2" s="286"/>
+      <c r="N2" s="286" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="289"/>
-      <c r="P2" s="289"/>
-      <c r="Q2" s="289"/>
-      <c r="R2" s="289" t="s">
+      <c r="O2" s="286"/>
+      <c r="P2" s="286"/>
+      <c r="Q2" s="286"/>
+      <c r="R2" s="286" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="289"/>
-      <c r="T2" s="289"/>
-      <c r="U2" s="289"/>
-      <c r="V2" s="289" t="s">
+      <c r="S2" s="286"/>
+      <c r="T2" s="286"/>
+      <c r="U2" s="286"/>
+      <c r="V2" s="286" t="s">
         <v>268</v>
       </c>
-      <c r="W2" s="289"/>
-      <c r="X2" s="289"/>
-      <c r="Y2" s="289"/>
+      <c r="W2" s="286"/>
+      <c r="X2" s="286"/>
+      <c r="Y2" s="286"/>
       <c r="Z2" s="229"/>
       <c r="AA2" s="229"/>
       <c r="AB2" s="156"/>
-      <c r="AC2" s="289" t="s">
+      <c r="AC2" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="AD2" s="289"/>
-      <c r="AE2" s="289"/>
+      <c r="AD2" s="286"/>
+      <c r="AE2" s="286"/>
       <c r="AF2" s="156"/>
       <c r="AG2" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="AH2" s="289" t="s">
+      <c r="AH2" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="AI2" s="289"/>
-      <c r="AJ2" s="289"/>
+      <c r="AI2" s="286"/>
+      <c r="AJ2" s="286"/>
       <c r="AK2" s="230"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="E3" s="199" t="s">
+      <c r="F3" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="199" t="s">
+      <c r="G3" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="199" t="s">
+      <c r="H3" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="199" t="s">
+      <c r="I3" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="199" t="s">
+      <c r="J3" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="199" t="s">
+      <c r="K3" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="199" t="s">
+      <c r="L3" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="199" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="283" t="s">
+      <c r="M3" s="199" t="s">
         <v>8</v>
       </c>
       <c r="N3" t="s">
@@ -4017,12 +3981,12 @@
       </c>
     </row>
     <row r="4" spans="1:42" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="288" t="s">
+      <c r="A4" s="285" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="288"/>
+      <c r="B4" s="285"/>
       <c r="C4" s="281"/>
-      <c r="E4" s="199"/>
+      <c r="D4" s="281"/>
       <c r="F4" s="199"/>
       <c r="G4" s="199"/>
       <c r="H4" s="199"/>
@@ -4030,7 +3994,7 @@
       <c r="J4" s="199"/>
       <c r="K4" s="199"/>
       <c r="L4" s="199"/>
-      <c r="M4" s="283"/>
+      <c r="M4" s="199"/>
       <c r="AB4" s="192"/>
       <c r="AC4" s="180"/>
       <c r="AD4" s="192"/>
@@ -4052,33 +4016,30 @@
       <c r="C5" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="E5" s="200">
+      <c r="F5" s="200">
         <v>20909.900000000001</v>
       </c>
-      <c r="F5" s="200">
+      <c r="G5" s="200">
         <v>21115.3</v>
       </c>
-      <c r="G5" s="200">
+      <c r="H5" s="200">
         <v>21329.9</v>
       </c>
-      <c r="H5" s="200">
+      <c r="I5" s="200">
         <v>21540.3</v>
       </c>
-      <c r="I5" s="200">
+      <c r="J5" s="200">
         <v>21747.4</v>
       </c>
-      <c r="J5" s="200">
+      <c r="K5" s="200">
         <v>21561.1</v>
       </c>
-      <c r="K5" s="200">
+      <c r="L5" s="200">
         <v>19520.099999999999</v>
       </c>
-      <c r="L5" s="199">
+      <c r="M5" s="199">
         <f>VLOOKUP(C5,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>21157.1</v>
-      </c>
-      <c r="M5" s="283">
-        <v>21157.599999999999</v>
       </c>
       <c r="N5">
         <v>21585.442357487202</v>
@@ -4127,45 +4088,43 @@
       <c r="AJ5" s="97"/>
       <c r="AK5" s="97"/>
     </row>
-    <row r="6" spans="1:42" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A6" s="170" t="s">
         <v>216</v>
       </c>
       <c r="C6" s="282"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="202">
-        <f>F5/E5-1</f>
+      <c r="D6" s="282"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="202">
+        <f>G5/F5-1</f>
         <v>9.8230981496802983E-3</v>
       </c>
-      <c r="G6" s="202">
-        <f t="shared" ref="G6:V6" si="0">G5/F5-1</f>
+      <c r="H6" s="202">
+        <f t="shared" ref="H6:V6" si="0">H5/G5-1</f>
         <v>1.016324655581502E-2</v>
       </c>
-      <c r="H6" s="202">
+      <c r="I6" s="202">
         <f t="shared" si="0"/>
         <v>9.864087501582075E-3</v>
       </c>
-      <c r="I6" s="202">
+      <c r="J6" s="202">
         <f t="shared" si="0"/>
         <v>9.6145364734938621E-3</v>
       </c>
-      <c r="J6" s="202">
+      <c r="K6" s="202">
         <f t="shared" si="0"/>
         <v>-8.5665412876942959E-3</v>
       </c>
-      <c r="K6" s="202">
+      <c r="L6" s="202">
         <f t="shared" si="0"/>
         <v>-9.4661218583467432E-2</v>
       </c>
-      <c r="L6" s="202">
+      <c r="M6" s="202">
         <f t="shared" si="0"/>
         <v>8.3862275295720767E-2</v>
       </c>
-      <c r="M6" s="328">
-        <v>8.3887889918596636E-2</v>
-      </c>
       <c r="N6" s="198">
-        <f>N5/L5-1</f>
+        <f>N5/M5-1</f>
         <v>2.0245797273123589E-2</v>
       </c>
       <c r="O6" s="198">
@@ -4226,33 +4185,30 @@
       <c r="C7" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="E7" s="200">
+      <c r="F7" s="200">
         <v>18813.900000000001</v>
       </c>
-      <c r="F7" s="200">
+      <c r="G7" s="200">
         <v>18950.3</v>
       </c>
-      <c r="G7" s="200">
+      <c r="H7" s="200">
         <v>19020.599999999999</v>
       </c>
-      <c r="H7" s="200">
+      <c r="I7" s="200">
         <v>19141.7</v>
       </c>
-      <c r="I7" s="200">
+      <c r="J7" s="200">
         <v>19254</v>
       </c>
-      <c r="J7" s="200">
+      <c r="K7" s="200">
         <v>19010.8</v>
       </c>
-      <c r="K7" s="200">
+      <c r="L7" s="200">
         <v>17302.5</v>
       </c>
-      <c r="L7" s="199">
+      <c r="M7" s="199">
         <f>VLOOKUP(C7,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>18583.5</v>
-      </c>
-      <c r="M7" s="283">
-        <v>18584</v>
       </c>
       <c r="N7">
         <v>18942.381551882499</v>
@@ -4306,15 +4262,15 @@
         <v>263</v>
       </c>
       <c r="C8" s="170"/>
-      <c r="E8" s="217"/>
+      <c r="D8" s="170"/>
       <c r="F8" s="217"/>
       <c r="G8" s="217"/>
       <c r="H8" s="217"/>
       <c r="I8" s="217"/>
       <c r="J8" s="217"/>
       <c r="K8" s="217"/>
-      <c r="L8" s="199"/>
-      <c r="M8" s="283"/>
+      <c r="L8" s="217"/>
+      <c r="M8" s="199"/>
       <c r="N8" s="216"/>
       <c r="O8" s="216"/>
       <c r="P8" s="216"/>
@@ -4336,7 +4292,6 @@
       <c r="AL8" s="242"/>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="E9" s="199"/>
       <c r="F9" s="199"/>
       <c r="G9" s="199"/>
       <c r="H9" s="199"/>
@@ -4344,7 +4299,7 @@
       <c r="J9" s="199"/>
       <c r="K9" s="199"/>
       <c r="L9" s="199"/>
-      <c r="M9" s="283"/>
+      <c r="M9" s="199"/>
       <c r="AB9" s="192"/>
       <c r="AC9" s="180"/>
       <c r="AD9" s="192"/>
@@ -4360,7 +4315,6 @@
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="199"/>
       <c r="F10" s="199"/>
       <c r="G10" s="199"/>
       <c r="H10" s="199"/>
@@ -4368,7 +4322,7 @@
       <c r="J10" s="199"/>
       <c r="K10" s="199"/>
       <c r="L10" s="199"/>
-      <c r="M10" s="283"/>
+      <c r="M10" s="199"/>
       <c r="AC10" s="146"/>
       <c r="AH10" s="146"/>
     </row>
@@ -4376,40 +4330,37 @@
       <c r="A11" s="177" t="s">
         <v>258</v>
       </c>
-      <c r="E11" s="200">
-        <f>E12+E14+E16</f>
+      <c r="F11" s="200">
+        <f>F12+F14+F16</f>
         <v>3178</v>
       </c>
-      <c r="F11" s="200">
-        <f t="shared" ref="F11:V11" si="1">F12+F14+F16</f>
+      <c r="G11" s="200">
+        <f t="shared" ref="G11:V11" si="1">G12+G14+G16</f>
         <v>3259.5</v>
       </c>
-      <c r="G11" s="200">
+      <c r="H11" s="200">
         <f t="shared" si="1"/>
         <v>3269.2</v>
       </c>
-      <c r="H11" s="200">
+      <c r="I11" s="200">
         <f t="shared" si="1"/>
         <v>3290.6</v>
       </c>
-      <c r="I11" s="200">
+      <c r="J11" s="200">
         <f t="shared" si="1"/>
         <v>3336.3</v>
       </c>
-      <c r="J11" s="200">
+      <c r="K11" s="200">
         <f t="shared" si="1"/>
         <v>3376.8</v>
       </c>
-      <c r="K11" s="200">
+      <c r="L11" s="200">
         <f t="shared" si="1"/>
         <v>3091.4840000000004</v>
       </c>
-      <c r="L11" s="199">
+      <c r="M11" s="199">
         <f t="shared" si="1"/>
         <v>3261.5</v>
-      </c>
-      <c r="M11" s="283">
-        <v>3245.1670000000004</v>
       </c>
       <c r="N11" s="168">
         <f t="shared" si="1"/>
@@ -4461,36 +4412,34 @@
       <c r="C12" t="s">
         <v>297</v>
       </c>
-      <c r="E12" s="200">
+      <c r="D12"/>
+      <c r="F12" s="200">
         <v>1634.2</v>
       </c>
-      <c r="F12" s="200">
+      <c r="G12" s="200">
         <v>1695.5</v>
       </c>
-      <c r="G12" s="200">
+      <c r="H12" s="200">
         <v>1703.1</v>
       </c>
-      <c r="H12" s="200">
+      <c r="I12" s="200">
         <v>1713.2</v>
       </c>
-      <c r="I12" s="200">
+      <c r="J12" s="200">
         <v>1740.2</v>
       </c>
-      <c r="J12" s="200">
+      <c r="K12" s="200">
         <v>1756.6</v>
       </c>
-      <c r="K12" s="200">
+      <c r="L12" s="200">
         <v>1599.3</v>
       </c>
-      <c r="L12" s="199">
+      <c r="M12" s="199">
         <f>VLOOKUP(C12,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>1687.2</v>
       </c>
-      <c r="M12" s="283">
-        <v>1686.3530000000001</v>
-      </c>
       <c r="N12" s="169">
-        <f>L12*(1+N13)</f>
+        <f>M12*(1+N13)</f>
         <v>1788.4320000000002</v>
       </c>
       <c r="O12" s="169">
@@ -4531,11 +4480,11 @@
       <c r="Z12" s="44"/>
       <c r="AA12" s="44"/>
       <c r="AB12" s="44">
-        <f>AVERAGE(E12:H12)</f>
+        <f>AVERAGE(F12:I12)</f>
         <v>1686.4999999999998</v>
       </c>
       <c r="AC12" s="181">
-        <f>AVERAGE(I12,J12,K12,L12)</f>
+        <f>AVERAGE(J12,K12,L12,M12)</f>
         <v>1695.825</v>
       </c>
       <c r="AD12" s="45">
@@ -4547,7 +4496,7 @@
         <v>1978.5558845578876</v>
       </c>
       <c r="AF12" s="3">
-        <f>AVERAGE(E12:H12)</f>
+        <f>AVERAGE(F12:I12)</f>
         <v>1686.4999999999998</v>
       </c>
       <c r="AG12">
@@ -4572,15 +4521,15 @@
         <v>216</v>
       </c>
       <c r="C13" s="282"/>
-      <c r="E13" s="201"/>
+      <c r="D13" s="282"/>
       <c r="F13" s="201"/>
       <c r="G13" s="201"/>
       <c r="H13" s="201"/>
       <c r="I13" s="201"/>
       <c r="J13" s="201"/>
       <c r="K13" s="201"/>
-      <c r="L13" s="199"/>
-      <c r="M13" s="283"/>
+      <c r="L13" s="201"/>
+      <c r="M13" s="199"/>
       <c r="N13" s="176">
         <v>0.06</v>
       </c>
@@ -4634,36 +4583,34 @@
       <c r="C14" t="s">
         <v>298</v>
       </c>
-      <c r="E14" s="200">
+      <c r="D14"/>
+      <c r="F14" s="200">
         <v>183.5</v>
       </c>
-      <c r="F14" s="200">
+      <c r="G14" s="200">
         <v>172.1</v>
       </c>
-      <c r="G14" s="200">
+      <c r="H14" s="200">
         <v>168.3</v>
       </c>
-      <c r="H14" s="200">
+      <c r="I14" s="200">
         <v>175.1</v>
       </c>
-      <c r="I14" s="200">
+      <c r="J14" s="200">
         <v>179.2</v>
       </c>
-      <c r="J14" s="200">
+      <c r="K14" s="200">
         <v>183.8</v>
       </c>
-      <c r="K14" s="200">
+      <c r="L14" s="200">
         <v>131.4</v>
       </c>
-      <c r="L14" s="199">
+      <c r="M14" s="199">
         <f>VLOOKUP(C14,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>144.69999999999999</v>
       </c>
-      <c r="M14" s="283">
-        <v>144.66200000000001</v>
-      </c>
       <c r="N14" s="169">
-        <f>L14*(1+N15)</f>
+        <f>M14*(1+N15)</f>
         <v>150.488</v>
       </c>
       <c r="O14" s="169">
@@ -4704,11 +4651,11 @@
       <c r="Z14" s="44"/>
       <c r="AA14" s="44"/>
       <c r="AB14" s="44">
-        <f>AVERAGE(E14:H14)</f>
+        <f>AVERAGE(F14:I14)</f>
         <v>174.75000000000003</v>
       </c>
       <c r="AC14" s="181">
-        <f>AVERAGE(I14,J14,K14,L14)</f>
+        <f>AVERAGE(J14,K14,L14,M14)</f>
         <v>159.77499999999998</v>
       </c>
       <c r="AD14" s="45">
@@ -4720,7 +4667,7 @@
         <v>193.99564934121071</v>
       </c>
       <c r="AF14" s="3">
-        <f>AVERAGE(E14:H14)</f>
+        <f>AVERAGE(F14:I14)</f>
         <v>174.75000000000003</v>
       </c>
       <c r="AG14">
@@ -4741,15 +4688,15 @@
         <v>216</v>
       </c>
       <c r="C15" s="282"/>
-      <c r="E15" s="201"/>
+      <c r="D15" s="282"/>
       <c r="F15" s="201"/>
       <c r="G15" s="201"/>
       <c r="H15" s="201"/>
       <c r="I15" s="201"/>
       <c r="J15" s="201"/>
       <c r="K15" s="201"/>
-      <c r="L15" s="199"/>
-      <c r="M15" s="283"/>
+      <c r="L15" s="201"/>
+      <c r="M15" s="199"/>
       <c r="N15" s="176">
         <v>0.04</v>
       </c>
@@ -4803,36 +4750,34 @@
       <c r="C16" t="s">
         <v>299</v>
       </c>
-      <c r="E16" s="200">
+      <c r="D16"/>
+      <c r="F16" s="200">
         <v>1360.3</v>
       </c>
-      <c r="F16" s="200">
+      <c r="G16" s="200">
         <v>1391.9</v>
       </c>
-      <c r="G16" s="200">
+      <c r="H16" s="200">
         <v>1397.8</v>
       </c>
-      <c r="H16" s="200">
+      <c r="I16" s="200">
         <v>1402.3</v>
       </c>
-      <c r="I16" s="200">
+      <c r="J16" s="200">
         <v>1416.9</v>
       </c>
-      <c r="J16" s="200">
+      <c r="K16" s="200">
         <v>1436.4</v>
       </c>
-      <c r="K16" s="200">
+      <c r="L16" s="200">
         <v>1360.7840000000001</v>
       </c>
-      <c r="L16" s="199">
+      <c r="M16" s="199">
         <f>VLOOKUP(C16,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>1429.6</v>
       </c>
-      <c r="M16" s="283">
-        <v>1414.152</v>
-      </c>
       <c r="N16" s="169">
-        <f>L16*(1+N17)</f>
+        <f>M16*(1+N17)</f>
         <v>1448.1847999999998</v>
       </c>
       <c r="O16" s="169">
@@ -4873,11 +4818,11 @@
       <c r="Z16" s="44"/>
       <c r="AA16" s="44"/>
       <c r="AB16" s="44">
-        <f>AVERAGE(E16:H16)</f>
+        <f>AVERAGE(F16:I16)</f>
         <v>1388.075</v>
       </c>
       <c r="AC16" s="181">
-        <f>AVERAGE(I16,J16,K16,L16)</f>
+        <f>AVERAGE(J16,K16,L16,M16)</f>
         <v>1410.9210000000003</v>
       </c>
       <c r="AD16" s="45">
@@ -4889,7 +4834,7 @@
         <v>1543.257446916881</v>
       </c>
       <c r="AF16" s="3">
-        <f>AVERAGE(E16:H16)</f>
+        <f>AVERAGE(F16:I16)</f>
         <v>1388.075</v>
       </c>
       <c r="AG16">
@@ -4914,15 +4859,15 @@
         <v>216</v>
       </c>
       <c r="C17" s="282"/>
-      <c r="E17" s="201"/>
+      <c r="D17" s="282"/>
       <c r="F17" s="201"/>
       <c r="G17" s="201"/>
       <c r="H17" s="201"/>
       <c r="I17" s="201"/>
       <c r="J17" s="201"/>
       <c r="K17" s="201"/>
-      <c r="L17" s="199"/>
-      <c r="M17" s="283"/>
+      <c r="L17" s="201"/>
+      <c r="M17" s="199"/>
       <c r="N17" s="176">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -4976,36 +4921,34 @@
       <c r="C18" t="s">
         <v>300</v>
       </c>
-      <c r="E18" s="200">
+      <c r="D18"/>
+      <c r="F18" s="200">
         <v>234.7</v>
       </c>
-      <c r="F18" s="200">
+      <c r="G18" s="200">
         <v>213.8</v>
       </c>
-      <c r="G18" s="200">
+      <c r="H18" s="200">
         <v>224.2</v>
       </c>
-      <c r="H18" s="200">
+      <c r="I18" s="200">
         <v>201.6</v>
       </c>
-      <c r="I18" s="200">
+      <c r="J18" s="200">
         <v>229.7</v>
       </c>
-      <c r="J18" s="200">
+      <c r="K18" s="200">
         <v>180.5</v>
       </c>
-      <c r="K18" s="200">
+      <c r="L18" s="200">
         <v>171.5</v>
       </c>
-      <c r="L18" s="199">
+      <c r="M18" s="199">
         <f>VLOOKUP(C18,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>205.3</v>
       </c>
-      <c r="M18" s="283">
-        <v>191.99161110990462</v>
-      </c>
       <c r="N18" s="169">
-        <f>L18*(1+N19)</f>
+        <f>M18*(1+N19)</f>
         <v>210.4325</v>
       </c>
       <c r="O18" s="169">
@@ -5046,11 +4989,11 @@
       <c r="Z18" s="44"/>
       <c r="AA18" s="44"/>
       <c r="AB18" s="44">
-        <f>AVERAGE(E18:H18)</f>
+        <f>AVERAGE(F18:I18)</f>
         <v>218.57500000000002</v>
       </c>
       <c r="AC18" s="181">
-        <f>AVERAGE(I18,J18,K18,L18)</f>
+        <f>AVERAGE(J18,K18,L18,M18)</f>
         <v>196.75</v>
       </c>
       <c r="AD18" s="45">
@@ -5062,7 +5005,7 @@
         <v>255.09194929392049</v>
       </c>
       <c r="AF18" s="33">
-        <f>AVERAGE(E18:H18)</f>
+        <f>AVERAGE(F18:I18)</f>
         <v>218.57500000000002</v>
       </c>
       <c r="AG18" s="34">
@@ -5086,15 +5029,15 @@
         <v>216</v>
       </c>
       <c r="C19" s="282"/>
-      <c r="E19" s="201"/>
+      <c r="D19" s="282"/>
       <c r="F19" s="201"/>
       <c r="G19" s="201"/>
       <c r="H19" s="201"/>
       <c r="I19" s="201"/>
       <c r="J19" s="201"/>
       <c r="K19" s="201"/>
-      <c r="L19" s="199"/>
-      <c r="M19" s="283"/>
+      <c r="L19" s="201"/>
+      <c r="M19" s="199"/>
       <c r="N19" s="176">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -5141,15 +5084,15 @@
     <row r="20" spans="1:38" s="171" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="170"/>
       <c r="C20" s="282"/>
-      <c r="E20" s="201"/>
+      <c r="D20" s="282"/>
       <c r="F20" s="201"/>
       <c r="G20" s="201"/>
       <c r="H20" s="201"/>
       <c r="I20" s="201"/>
       <c r="J20" s="201"/>
       <c r="K20" s="201"/>
-      <c r="L20" s="199"/>
-      <c r="M20" s="283"/>
+      <c r="L20" s="201"/>
+      <c r="M20" s="199"/>
       <c r="N20" s="176"/>
       <c r="O20" s="176"/>
       <c r="P20" s="176"/>
@@ -5180,15 +5123,15 @@
         <v>265</v>
       </c>
       <c r="C21" s="282"/>
-      <c r="E21" s="201"/>
+      <c r="D21" s="282"/>
       <c r="F21" s="201"/>
       <c r="G21" s="201"/>
       <c r="H21" s="201"/>
       <c r="I21" s="201"/>
       <c r="J21" s="201"/>
       <c r="K21" s="201"/>
-      <c r="L21" s="199"/>
-      <c r="M21" s="283"/>
+      <c r="L21" s="201"/>
+      <c r="M21" s="199"/>
       <c r="N21" s="176"/>
       <c r="O21" s="176"/>
       <c r="P21" s="176"/>
@@ -5218,40 +5161,37 @@
       <c r="A22" s="177" t="s">
         <v>266</v>
       </c>
-      <c r="E22" s="205">
-        <f>SUM(E23:E25)</f>
+      <c r="F22" s="205">
+        <f>SUM(F23:F25)</f>
         <v>1773.6</v>
       </c>
-      <c r="F22" s="205">
-        <f t="shared" ref="F22:U22" si="12">SUM(F23:F25)</f>
+      <c r="G22" s="205">
+        <f t="shared" ref="G22:U22" si="12">SUM(G23:G25)</f>
         <v>1798.8</v>
       </c>
-      <c r="G22" s="205">
+      <c r="H22" s="205">
         <f t="shared" si="12"/>
         <v>1853.9</v>
       </c>
-      <c r="H22" s="205">
+      <c r="I22" s="205">
         <f t="shared" si="12"/>
         <v>1832.2</v>
       </c>
-      <c r="I22" s="205">
+      <c r="J22" s="205">
         <f t="shared" si="12"/>
         <v>1832.4</v>
       </c>
-      <c r="J22" s="205">
+      <c r="K22" s="205">
         <f t="shared" si="12"/>
         <v>1862.4</v>
       </c>
-      <c r="K22" s="205">
+      <c r="L22" s="205">
         <f t="shared" si="12"/>
         <v>1779.8019999999999</v>
       </c>
-      <c r="L22" s="199">
+      <c r="M22" s="199">
         <f t="shared" si="12"/>
         <v>1836.9459999999999</v>
-      </c>
-      <c r="M22" s="283">
-        <v>1840.777</v>
       </c>
       <c r="N22" s="102">
         <f t="shared" si="12"/>
@@ -5297,36 +5237,34 @@
       <c r="C23" t="s">
         <v>301</v>
       </c>
-      <c r="E23" s="199">
+      <c r="D23"/>
+      <c r="F23" s="199">
         <v>456.5</v>
       </c>
-      <c r="F23" s="199">
+      <c r="G23" s="199">
         <v>475.2</v>
       </c>
-      <c r="G23" s="199">
+      <c r="H23" s="199">
         <v>519.4</v>
       </c>
-      <c r="H23" s="199">
+      <c r="I23" s="199">
         <v>483.9</v>
       </c>
-      <c r="I23" s="199">
+      <c r="J23" s="199">
         <v>480.9</v>
       </c>
-      <c r="J23" s="199">
+      <c r="K23" s="199">
         <v>495.8</v>
       </c>
-      <c r="K23" s="200">
+      <c r="L23" s="200">
         <v>496.37400000000002</v>
       </c>
-      <c r="L23" s="199">
+      <c r="M23" s="199">
         <f>VLOOKUP(C23,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>499.4</v>
       </c>
-      <c r="M23" s="283">
-        <v>505.42700000000002</v>
-      </c>
       <c r="N23" s="102">
-        <f>L23*(1+N$6)</f>
+        <f>M23*(1+N$6)</f>
         <v>509.51075115819788</v>
       </c>
       <c r="O23" s="102">
@@ -5369,36 +5307,34 @@
       <c r="C24" t="s">
         <v>302</v>
       </c>
-      <c r="E24" s="199">
+      <c r="D24"/>
+      <c r="F24" s="199">
         <v>1295.5</v>
       </c>
-      <c r="F24" s="199">
+      <c r="G24" s="199">
         <v>1301.5999999999999</v>
       </c>
-      <c r="G24" s="199">
+      <c r="H24" s="199">
         <v>1312.4</v>
       </c>
-      <c r="H24" s="199">
+      <c r="I24" s="199">
         <v>1326.5</v>
       </c>
-      <c r="I24" s="199">
+      <c r="J24" s="199">
         <v>1330.4</v>
       </c>
-      <c r="J24" s="199">
+      <c r="K24" s="199">
         <v>1346.2</v>
       </c>
-      <c r="K24" s="200">
+      <c r="L24" s="200">
         <v>1264.3219999999999</v>
       </c>
-      <c r="L24" s="199">
+      <c r="M24" s="199">
         <f>VLOOKUP(C24,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>1317.3</v>
       </c>
-      <c r="M24" s="283">
-        <v>1315.133</v>
-      </c>
       <c r="N24" s="102">
-        <f>L24*(1+N$6)</f>
+        <f>M24*(1+N$6)</f>
         <v>1343.9697887478856</v>
       </c>
       <c r="O24" s="102">
@@ -5441,36 +5377,34 @@
       <c r="C25" t="s">
         <v>303</v>
       </c>
-      <c r="E25" s="199">
+      <c r="D25"/>
+      <c r="F25" s="199">
         <v>21.6</v>
       </c>
-      <c r="F25" s="199">
+      <c r="G25" s="199">
         <v>22</v>
       </c>
-      <c r="G25" s="199">
+      <c r="H25" s="199">
         <v>22.1</v>
       </c>
-      <c r="H25" s="199">
+      <c r="I25" s="199">
         <v>21.8</v>
       </c>
-      <c r="I25" s="199">
+      <c r="J25" s="199">
         <v>21.1</v>
       </c>
-      <c r="J25" s="199">
+      <c r="K25" s="199">
         <v>20.399999999999999</v>
       </c>
-      <c r="K25" s="200">
+      <c r="L25" s="200">
         <v>19.106000000000002</v>
       </c>
-      <c r="L25" s="199">
+      <c r="M25" s="199">
         <f>VLOOKUP(C25,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>20.245999999999999</v>
       </c>
-      <c r="M25" s="283">
-        <v>20.216999999999999</v>
-      </c>
       <c r="N25" s="102">
-        <f>L25*(1+N$6)</f>
+        <f>M25*(1+N$6)</f>
         <v>20.655896411591659</v>
       </c>
       <c r="O25" s="102">
@@ -5513,36 +5447,34 @@
       <c r="C26" t="s">
         <v>304</v>
       </c>
-      <c r="E26" s="199">
+      <c r="D26"/>
+      <c r="F26" s="199">
         <v>63.5</v>
       </c>
-      <c r="F26" s="199">
+      <c r="G26" s="199">
         <v>68.5</v>
       </c>
-      <c r="G26" s="199">
+      <c r="H26" s="199">
         <v>68.7</v>
       </c>
-      <c r="H26" s="199">
+      <c r="I26" s="199">
         <v>69.8</v>
       </c>
-      <c r="I26" s="199">
+      <c r="J26" s="199">
         <v>71</v>
       </c>
-      <c r="J26" s="199">
+      <c r="K26" s="199">
         <v>62.7</v>
       </c>
-      <c r="K26" s="199">
+      <c r="L26" s="199">
         <v>54.2</v>
       </c>
-      <c r="L26" s="199">
+      <c r="M26" s="199">
         <f>VLOOKUP(C26,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>79.099999999999994</v>
       </c>
-      <c r="M26" s="283">
-        <v>58.746723633587941</v>
-      </c>
       <c r="N26" s="102">
-        <f>L26*(1+N6)</f>
+        <f>M26*(1+N6)</f>
         <v>80.701442564304074</v>
       </c>
       <c r="O26" s="102">
@@ -5582,36 +5514,35 @@
       <c r="A27" s="178" t="s">
         <v>267</v>
       </c>
-      <c r="E27" s="212">
-        <f t="shared" ref="E27:K27" si="18">E26/E18</f>
+      <c r="F27" s="212">
+        <f t="shared" ref="F27:L27" si="18">F26/F18</f>
         <v>0.27055815935236471</v>
       </c>
-      <c r="F27" s="212">
+      <c r="G27" s="212">
         <f t="shared" si="18"/>
         <v>0.32039289055191766</v>
       </c>
-      <c r="G27" s="212">
+      <c r="H27" s="212">
         <f t="shared" si="18"/>
         <v>0.30642283675289922</v>
       </c>
-      <c r="H27" s="212">
+      <c r="I27" s="212">
         <f t="shared" si="18"/>
         <v>0.34623015873015872</v>
       </c>
-      <c r="I27" s="212">
+      <c r="J27" s="212">
         <f t="shared" si="18"/>
         <v>0.30909882455376581</v>
       </c>
-      <c r="J27" s="212">
+      <c r="K27" s="212">
         <f t="shared" si="18"/>
         <v>0.3473684210526316</v>
       </c>
-      <c r="K27" s="212">
+      <c r="L27" s="212">
         <f t="shared" si="18"/>
         <v>0.31603498542274056</v>
       </c>
-      <c r="L27" s="199"/>
-      <c r="M27" s="283"/>
+      <c r="M27" s="199"/>
       <c r="N27" s="195"/>
       <c r="O27" s="195"/>
       <c r="P27" s="195"/>
@@ -5626,15 +5557,15 @@
       <c r="A28" s="196"/>
       <c r="B28" s="197"/>
       <c r="C28" s="282"/>
-      <c r="E28" s="201"/>
+      <c r="D28" s="282"/>
       <c r="F28" s="201"/>
       <c r="G28" s="201"/>
       <c r="H28" s="201"/>
       <c r="I28" s="201"/>
       <c r="J28" s="201"/>
       <c r="K28" s="201"/>
-      <c r="L28" s="199"/>
-      <c r="M28" s="283"/>
+      <c r="L28" s="201"/>
+      <c r="M28" s="199"/>
       <c r="N28" s="176"/>
       <c r="O28" s="176"/>
       <c r="P28" s="176"/>
@@ -5670,15 +5601,14 @@
       <c r="AL28" s="241"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="E29" s="199"/>
       <c r="F29" s="199"/>
       <c r="G29" s="199"/>
       <c r="H29" s="199"/>
       <c r="I29" s="199"/>
       <c r="J29" s="199"/>
-      <c r="K29" s="203"/>
-      <c r="L29" s="199"/>
-      <c r="M29" s="283"/>
+      <c r="K29" s="199"/>
+      <c r="L29" s="203"/>
+      <c r="M29" s="199"/>
       <c r="N29" s="88"/>
       <c r="O29" s="88"/>
       <c r="P29" s="88"/>
@@ -5703,33 +5633,31 @@
       <c r="C30" t="s">
         <v>305</v>
       </c>
-      <c r="E30" s="204">
+      <c r="D30"/>
+      <c r="F30" s="204">
         <v>2220523</v>
       </c>
-      <c r="F30" s="204">
+      <c r="G30" s="204">
         <v>2298792</v>
       </c>
-      <c r="G30" s="204">
+      <c r="H30" s="204">
         <v>2315842</v>
       </c>
-      <c r="H30" s="204">
+      <c r="I30" s="204">
         <v>2331428</v>
       </c>
-      <c r="I30" s="204">
+      <c r="J30" s="204">
         <v>2347737</v>
       </c>
-      <c r="J30" s="204">
+      <c r="K30" s="204">
         <v>2422546</v>
       </c>
-      <c r="K30" s="204">
+      <c r="L30" s="204">
         <v>4815254</v>
       </c>
-      <c r="L30" s="199">
+      <c r="M30" s="199">
         <f>VLOOKUP(C30,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>3488125</v>
-      </c>
-      <c r="M30" s="283">
-        <v>3513776</v>
       </c>
       <c r="N30" s="44">
         <f>N31+N33+N42</f>
@@ -5770,7 +5698,7 @@
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3">
-        <f>AVERAGE(E30:H30)/1000</f>
+        <f>AVERAGE(F30:I30)/1000</f>
         <v>2291.6462499999998</v>
       </c>
       <c r="AC30" s="45"/>
@@ -5806,36 +5734,34 @@
       <c r="C31" t="s">
         <v>306</v>
       </c>
-      <c r="E31" s="204">
+      <c r="D31"/>
+      <c r="F31" s="204">
         <v>753311</v>
       </c>
-      <c r="F31" s="204">
+      <c r="G31" s="204">
         <v>767353</v>
       </c>
-      <c r="G31" s="204">
+      <c r="H31" s="204">
         <v>779707</v>
       </c>
-      <c r="H31" s="204">
+      <c r="I31" s="204">
         <v>789893</v>
       </c>
-      <c r="I31" s="204">
+      <c r="J31" s="204">
         <v>797912</v>
       </c>
-      <c r="J31" s="204">
+      <c r="K31" s="204">
         <v>804655</v>
       </c>
-      <c r="K31" s="204">
+      <c r="L31" s="204">
         <v>824058</v>
       </c>
-      <c r="L31" s="199">
+      <c r="M31" s="199">
         <f>VLOOKUP(C31,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>842733</v>
       </c>
-      <c r="M31" s="283">
-        <v>842733</v>
-      </c>
       <c r="N31" s="87">
-        <f>L31*((($AI$31/$AH$31)^0.25))</f>
+        <f>M31*((($AI$31/$AH$31)^0.25))</f>
         <v>853053.18699882878</v>
       </c>
       <c r="O31" s="87">
@@ -5885,11 +5811,11 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3">
-        <f>AVERAGE(E31:H31)/1000</f>
+        <f>AVERAGE(F31:I31)/1000</f>
         <v>772.56600000000003</v>
       </c>
       <c r="AC31" s="45">
-        <f>AVERAGE(I31:L31)/1000</f>
+        <f>AVERAGE(J31:M31)/1000</f>
         <v>817.33950000000004</v>
       </c>
       <c r="AD31" s="45">
@@ -5933,24 +5859,22 @@
       <c r="C32" t="s">
         <v>307</v>
       </c>
-      <c r="E32" s="204"/>
+      <c r="D32"/>
       <c r="F32" s="204"/>
       <c r="G32" s="204"/>
       <c r="H32" s="204"/>
-      <c r="I32" s="204">
-        <v>0</v>
-      </c>
+      <c r="I32" s="204"/>
       <c r="J32" s="204">
         <v>0</v>
       </c>
       <c r="K32" s="204">
+        <v>0</v>
+      </c>
+      <c r="L32" s="204">
         <v>1078000</v>
       </c>
-      <c r="L32" s="199">
+      <c r="M32" s="199">
         <f>VLOOKUP(C32,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>15600</v>
-      </c>
-      <c r="M32" s="283">
         <v>15600</v>
       </c>
       <c r="N32" s="87">
@@ -5974,7 +5898,7 @@
       <c r="T32" s="87"/>
       <c r="U32" s="87"/>
       <c r="AC32" s="45">
-        <f>AVERAGE(I32:L32)/1000</f>
+        <f>AVERAGE(J32:M32)/1000</f>
         <v>273.39999999999998</v>
       </c>
       <c r="AD32" s="45">
@@ -6000,33 +5924,30 @@
       <c r="A33" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="204">
+      <c r="F33" s="204">
         <v>27025</v>
       </c>
-      <c r="F33" s="204">
+      <c r="G33" s="204">
         <v>28029</v>
       </c>
-      <c r="G33" s="204">
+      <c r="H33" s="204">
         <v>27483</v>
       </c>
-      <c r="H33" s="204">
+      <c r="I33" s="204">
         <v>27578</v>
       </c>
-      <c r="I33" s="204">
+      <c r="J33" s="204">
         <v>27884</v>
       </c>
-      <c r="J33" s="204">
+      <c r="K33" s="204">
         <v>43429</v>
       </c>
-      <c r="K33" s="204">
+      <c r="L33" s="204">
         <v>1112564</v>
       </c>
-      <c r="L33" s="199">
-        <f>L34+L37</f>
+      <c r="M33" s="199">
+        <f>M34+M37</f>
         <v>874878</v>
-      </c>
-      <c r="M33" s="283">
-        <v>877703</v>
       </c>
       <c r="N33" s="87">
         <f>N35+N38</f>
@@ -6070,11 +5991,11 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3">
-        <f>AVERAGE(E33:H33)/1000</f>
+        <f>AVERAGE(F33:I33)/1000</f>
         <v>27.528749999999999</v>
       </c>
       <c r="AC33" s="45">
-        <f>AVERAGE(I33:L33)/1000</f>
+        <f>AVERAGE(J33:M33)/1000</f>
         <v>514.68875000000003</v>
       </c>
       <c r="AD33" s="45">
@@ -6110,19 +6031,17 @@
       <c r="C34" t="s">
         <v>308</v>
       </c>
-      <c r="E34" s="204"/>
+      <c r="D34"/>
       <c r="F34" s="204"/>
       <c r="G34" s="204"/>
       <c r="H34" s="204"/>
       <c r="I34" s="204"/>
       <c r="J34" s="204"/>
       <c r="K34" s="204"/>
-      <c r="L34" s="199">
+      <c r="L34" s="204"/>
+      <c r="M34" s="199">
         <f>VLOOKUP(C34,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>768678</v>
-      </c>
-      <c r="M34" s="283">
-        <v>771503</v>
       </c>
       <c r="N34" s="87"/>
       <c r="O34" s="87"/>
@@ -6152,21 +6071,18 @@
       <c r="A35" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="E35" s="204"/>
       <c r="F35" s="204"/>
       <c r="G35" s="204"/>
       <c r="H35" s="204"/>
       <c r="I35" s="204"/>
       <c r="J35" s="204"/>
-      <c r="K35" s="204">
-        <f>K36+K37</f>
+      <c r="K35" s="204"/>
+      <c r="L35" s="204">
+        <f>L36+L37</f>
         <v>834933.33333333326</v>
       </c>
-      <c r="L35" s="199">
-        <f t="shared" ref="L35:R35" si="26">L36+L37</f>
-        <v>738200</v>
-      </c>
-      <c r="M35" s="283">
+      <c r="M35" s="199">
+        <f t="shared" ref="M35:R35" si="26">M36+M37</f>
         <v>738200</v>
       </c>
       <c r="N35" s="87">
@@ -6210,28 +6126,25 @@
       <c r="AL35" s="184"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A36" s="285" t="s">
+      <c r="A36" s="283" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="204"/>
       <c r="F36" s="204"/>
       <c r="G36" s="204"/>
       <c r="H36" s="204"/>
-      <c r="I36" s="204">
-        <v>0</v>
-      </c>
+      <c r="I36" s="204"/>
       <c r="J36" s="204">
         <v>0</v>
       </c>
       <c r="K36" s="204">
+        <v>0</v>
+      </c>
+      <c r="L36" s="204">
         <f>'figuring out UI'!M17*1000</f>
         <v>834933.33333333326</v>
       </c>
-      <c r="L36" s="199">
+      <c r="M36" s="199">
         <f>1000*'figuring out UI'!N17</f>
-        <v>632000</v>
-      </c>
-      <c r="M36" s="283">
         <v>632000</v>
       </c>
       <c r="N36" s="87">
@@ -6274,7 +6187,7 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="45">
-        <f>AVERAGE(I36:L36)/1000</f>
+        <f>AVERAGE(J36:M36)/1000</f>
         <v>366.73333333333329</v>
       </c>
       <c r="AD36" s="45">
@@ -6293,24 +6206,21 @@
       <c r="AL36" s="184"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A37" s="285" t="s">
+      <c r="A37" s="283" t="s">
         <v>162</v>
       </c>
-      <c r="E37" s="204"/>
       <c r="F37" s="204"/>
       <c r="G37" s="204"/>
       <c r="H37" s="204"/>
       <c r="I37" s="204"/>
       <c r="J37" s="204"/>
       <c r="K37" s="204"/>
-      <c r="L37" s="199">
+      <c r="L37" s="204"/>
+      <c r="M37" s="199">
         <v>106200</v>
       </c>
-      <c r="M37" s="283">
-        <v>106200</v>
-      </c>
       <c r="N37" s="87">
-        <f>(44000*4)-L37</f>
+        <f>(44000*4)-M37</f>
         <v>69800</v>
       </c>
       <c r="O37" s="87"/>
@@ -6341,25 +6251,22 @@
       <c r="A38" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="E38" s="204"/>
       <c r="F38" s="204"/>
       <c r="G38" s="204"/>
       <c r="H38" s="204"/>
-      <c r="I38" s="204">
-        <v>0</v>
-      </c>
+      <c r="I38" s="204"/>
       <c r="J38" s="204">
         <v>0</v>
       </c>
       <c r="K38" s="204">
+        <v>0</v>
+      </c>
+      <c r="L38" s="204">
         <f>'figuring out UI'!M18*1000</f>
         <v>277600</v>
       </c>
-      <c r="L38" s="199">
+      <c r="M38" s="199">
         <f>1000*'figuring out UI'!N18</f>
-        <v>140000</v>
-      </c>
-      <c r="M38" s="283">
         <v>140000</v>
       </c>
       <c r="N38" s="87">
@@ -6405,7 +6312,7 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="45">
-        <f>AVERAGE(I38:L38)/1000</f>
+        <f>AVERAGE(J38:M38)/1000</f>
         <v>104.4</v>
       </c>
       <c r="AD38" s="45">
@@ -6427,26 +6334,23 @@
       <c r="A39" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="E39" s="204"/>
       <c r="F39" s="204"/>
       <c r="G39" s="204"/>
       <c r="H39" s="204"/>
-      <c r="I39" s="204">
-        <v>0</v>
-      </c>
+      <c r="I39" s="204"/>
       <c r="J39" s="204">
         <v>0</v>
       </c>
       <c r="K39" s="204">
-        <f>SUM(K40:K41)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="204">
+        <f>SUM(L40:L41)</f>
         <v>179900</v>
       </c>
-      <c r="L39" s="199">
-        <f>SUM(L40:L41)</f>
+      <c r="M39" s="199">
+        <f>SUM(M40:M41)</f>
         <v>85400</v>
-      </c>
-      <c r="M39" s="283">
-        <v>83700</v>
       </c>
       <c r="N39" s="87">
         <f>SUM(N40:N41)</f>
@@ -6479,7 +6383,7 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="45">
-        <f>AVERAGE(I39:L39)/1000</f>
+        <f>AVERAGE(J39:M39)/1000</f>
         <v>66.325000000000003</v>
       </c>
       <c r="AD39" s="45">
@@ -6510,20 +6414,18 @@
       <c r="C40" t="s">
         <v>309</v>
       </c>
-      <c r="E40" s="204"/>
+      <c r="D40"/>
       <c r="F40" s="204"/>
       <c r="G40" s="204"/>
       <c r="H40" s="204"/>
       <c r="I40" s="204"/>
       <c r="J40" s="204"/>
-      <c r="K40" s="204">
+      <c r="K40" s="204"/>
+      <c r="L40" s="204">
         <v>19000</v>
       </c>
-      <c r="L40" s="199">
+      <c r="M40" s="199">
         <f>VLOOKUP(C40,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>27000</v>
-      </c>
-      <c r="M40" s="283">
         <v>27000</v>
       </c>
       <c r="N40" s="87">
@@ -6571,21 +6473,19 @@
       <c r="C41" t="s">
         <v>310</v>
       </c>
-      <c r="E41" s="204"/>
+      <c r="D41"/>
       <c r="F41" s="204"/>
       <c r="G41" s="204"/>
       <c r="H41" s="204"/>
       <c r="I41" s="204"/>
       <c r="J41" s="204"/>
-      <c r="K41" s="204">
+      <c r="K41" s="204"/>
+      <c r="L41" s="204">
         <v>160900</v>
       </c>
-      <c r="L41" s="199">
+      <c r="M41" s="199">
         <f>VLOOKUP(C41,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>58400</v>
-      </c>
-      <c r="M41" s="283">
-        <v>56700</v>
       </c>
       <c r="N41" s="87">
         <v>43000</v>
@@ -6626,43 +6526,40 @@
       <c r="A42" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="199">
-        <f>E30-E32-E33-E31</f>
-        <v>1440187</v>
-      </c>
       <c r="F42" s="199">
         <f>F30-F32-F33-F31</f>
+        <v>1440187</v>
+      </c>
+      <c r="G42" s="199">
+        <f>G30-G32-G33-G31</f>
         <v>1503410</v>
       </c>
-      <c r="G42" s="203">
-        <f>G30-G32-G33-G31</f>
+      <c r="H42" s="203">
+        <f>H30-H32-H33-H31</f>
         <v>1508652</v>
       </c>
-      <c r="H42" s="199">
-        <f>H30-H32-H33-H31</f>
+      <c r="I42" s="199">
+        <f>I30-I32-I33-I31</f>
         <v>1513957</v>
-      </c>
-      <c r="I42" s="203">
-        <f>I30-I32-I33-I31-I39</f>
-        <v>1521941</v>
       </c>
       <c r="J42" s="203">
         <f>J30-J32-J33-J31-J39</f>
-        <v>1574462</v>
+        <v>1521941</v>
       </c>
       <c r="K42" s="203">
         <f>K30-K32-K33-K31-K39</f>
+        <v>1574462</v>
+      </c>
+      <c r="L42" s="203">
+        <f>L30-L32-L33-L31-L39</f>
         <v>1620732</v>
       </c>
-      <c r="L42" s="204">
-        <f>L30-L32-L33-L31-L39</f>
+      <c r="M42" s="204">
+        <f>M30-M32-M33-M31-M39</f>
         <v>1669514</v>
       </c>
-      <c r="M42" s="286">
-        <v>1694040</v>
-      </c>
       <c r="N42" s="88">
-        <f>L42*(1+N44)</f>
+        <f>M42*(1+N44)</f>
         <v>1656992.645</v>
       </c>
       <c r="O42" s="88">
@@ -6707,7 +6604,7 @@
         <v>-1671.75325</v>
       </c>
       <c r="AC42" s="45">
-        <f>AVERAGE(I42:L42)/1000</f>
+        <f>AVERAGE(J42:M42)/1000</f>
         <v>1596.6622500000001</v>
       </c>
       <c r="AD42" s="45">
@@ -6747,33 +6644,33 @@
         <v>216</v>
       </c>
       <c r="C43" s="282"/>
-      <c r="E43" s="234"/>
-      <c r="F43" s="236">
-        <f>F42/E42-1</f>
+      <c r="D43" s="282"/>
+      <c r="F43" s="234"/>
+      <c r="G43" s="236">
+        <f>G42/F42-1</f>
         <v>4.3899160317375507E-2</v>
       </c>
-      <c r="G43" s="236">
-        <f t="shared" ref="G43:K43" si="31">G42/F42-1</f>
+      <c r="H43" s="236">
+        <f t="shared" ref="H43:L43" si="31">H42/G42-1</f>
         <v>3.4867401440725754E-3</v>
       </c>
-      <c r="H43" s="236">
+      <c r="I43" s="236">
         <f t="shared" si="31"/>
         <v>3.5163841628156334E-3</v>
       </c>
-      <c r="I43" s="236">
+      <c r="J43" s="236">
         <f t="shared" si="31"/>
         <v>5.2735975988749129E-3</v>
       </c>
-      <c r="J43" s="236">
+      <c r="K43" s="236">
         <f t="shared" si="31"/>
         <v>3.4509222105193249E-2</v>
       </c>
-      <c r="K43" s="236">
+      <c r="L43" s="236">
         <f t="shared" si="31"/>
         <v>2.938781628264131E-2</v>
       </c>
-      <c r="L43" s="199"/>
-      <c r="M43" s="283"/>
+      <c r="M43" s="199"/>
       <c r="N43" s="235"/>
       <c r="O43" s="235"/>
       <c r="P43" s="235"/>
@@ -6803,15 +6700,14 @@
       <c r="A44" s="170" t="s">
         <v>271</v>
       </c>
-      <c r="E44" s="209"/>
       <c r="F44" s="209"/>
       <c r="G44" s="209"/>
       <c r="H44" s="209"/>
-      <c r="I44" s="202"/>
+      <c r="I44" s="209"/>
       <c r="J44" s="202"/>
       <c r="K44" s="202"/>
-      <c r="L44" s="199"/>
-      <c r="M44" s="283"/>
+      <c r="L44" s="202"/>
+      <c r="M44" s="199"/>
       <c r="N44" s="176">
         <v>-7.4999999999999997E-3</v>
       </c>
@@ -6859,8 +6755,7 @@
     <row r="45" spans="1:40" s="35" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45"/>
       <c r="B45"/>
-      <c r="D45"/>
-      <c r="E45" s="199"/>
+      <c r="E45"/>
       <c r="F45" s="199"/>
       <c r="G45" s="199"/>
       <c r="H45" s="199"/>
@@ -6868,7 +6763,7 @@
       <c r="J45" s="199"/>
       <c r="K45" s="199"/>
       <c r="L45" s="199"/>
-      <c r="M45" s="283"/>
+      <c r="M45" s="199"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
@@ -6904,37 +6799,35 @@
       <c r="C46" t="s">
         <v>311</v>
       </c>
-      <c r="D46" s="141"/>
-      <c r="E46" s="199">
+      <c r="D46"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="199">
         <v>79458</v>
       </c>
-      <c r="F46" s="199">
+      <c r="G46" s="199">
         <v>71318</v>
       </c>
-      <c r="G46" s="199">
+      <c r="H46" s="199">
         <v>61083</v>
       </c>
-      <c r="H46" s="204">
+      <c r="I46" s="204">
         <v>81998</v>
       </c>
-      <c r="I46" s="204">
+      <c r="J46" s="204">
         <v>81147</v>
       </c>
-      <c r="J46" s="204">
+      <c r="K46" s="204">
         <v>75093</v>
       </c>
-      <c r="K46" s="204">
+      <c r="L46" s="204">
         <v>1086548</v>
       </c>
-      <c r="L46" s="204">
+      <c r="M46" s="204">
         <f>VLOOKUP(C46,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>1213308</v>
       </c>
-      <c r="M46" s="329">
-        <v>1212346</v>
-      </c>
       <c r="N46" s="144">
-        <f t="shared" ref="N46:V46" si="32">N47+AVERAGE($G$46:$J$46)</f>
+        <f t="shared" ref="N46:V46" si="32">N47+AVERAGE($H$46:$K$46)</f>
         <v>382932.00834658189</v>
       </c>
       <c r="O46" s="144">
@@ -6975,7 +6868,7 @@
       <c r="Z46" s="44"/>
       <c r="AA46" s="44"/>
       <c r="AB46" s="44">
-        <f>AVERAGE(E46:H46)/1000</f>
+        <f>AVERAGE(F46:I46)/1000</f>
         <v>73.464250000000007</v>
       </c>
       <c r="AC46" s="44"/>
@@ -6987,18 +6880,15 @@
       <c r="A47" s="134" t="s">
         <v>201</v>
       </c>
-      <c r="E47" s="199"/>
       <c r="F47" s="199"/>
       <c r="G47" s="199"/>
-      <c r="H47" s="204"/>
+      <c r="H47" s="199"/>
       <c r="I47" s="204"/>
       <c r="J47" s="204"/>
       <c r="K47" s="204"/>
-      <c r="L47" s="204">
-        <f>L48+L49</f>
-        <v>1093900</v>
-      </c>
-      <c r="M47" s="283">
+      <c r="L47" s="204"/>
+      <c r="M47" s="204">
+        <f>M48+M49</f>
         <v>1093900</v>
       </c>
       <c r="N47" s="116">
@@ -7056,20 +6946,18 @@
       <c r="C48" t="s">
         <v>312</v>
       </c>
-      <c r="E48" s="199"/>
+      <c r="D48"/>
       <c r="F48" s="199"/>
       <c r="G48" s="199"/>
-      <c r="H48" s="204"/>
+      <c r="H48" s="199"/>
       <c r="I48" s="204"/>
       <c r="J48" s="204"/>
-      <c r="K48" s="204">
+      <c r="K48" s="204"/>
+      <c r="L48" s="204">
         <v>609300</v>
       </c>
-      <c r="L48" s="199">
+      <c r="M48" s="199">
         <f>VLOOKUP(C48,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>865600</v>
-      </c>
-      <c r="M48" s="283">
         <v>865600</v>
       </c>
       <c r="N48" s="116">
@@ -7121,21 +7009,19 @@
       <c r="C49" t="s">
         <v>337</v>
       </c>
-      <c r="E49" s="199"/>
+      <c r="D49"/>
       <c r="F49" s="199"/>
       <c r="G49" s="199"/>
-      <c r="H49" s="204"/>
+      <c r="H49" s="199"/>
       <c r="I49" s="204"/>
       <c r="J49" s="204"/>
-      <c r="K49" s="204">
-        <f>SUM(K50:K52)</f>
+      <c r="K49" s="204"/>
+      <c r="L49" s="204">
+        <f>SUM(L50:L52)</f>
         <v>277100</v>
       </c>
-      <c r="L49" s="199">
-        <f>SUM(L50:L52)</f>
-        <v>228300</v>
-      </c>
-      <c r="M49" s="283">
+      <c r="M49" s="199">
+        <f>SUM(M50:M52)</f>
         <v>228300</v>
       </c>
       <c r="N49" s="116">
@@ -7188,20 +7074,18 @@
       <c r="C50" t="s">
         <v>313</v>
       </c>
-      <c r="E50" s="209"/>
+      <c r="D50"/>
       <c r="F50" s="209"/>
       <c r="G50" s="209"/>
-      <c r="H50" s="264"/>
+      <c r="H50" s="209"/>
       <c r="I50" s="264"/>
       <c r="J50" s="264"/>
-      <c r="K50" s="264">
+      <c r="K50" s="264"/>
+      <c r="L50" s="264">
         <v>63800</v>
       </c>
-      <c r="L50" s="199">
+      <c r="M50" s="199">
         <f>VLOOKUP(C50,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>15000</v>
-      </c>
-      <c r="M50" s="283">
         <v>15000</v>
       </c>
       <c r="N50" s="265"/>
@@ -7235,20 +7119,18 @@
       <c r="C51" t="s">
         <v>314</v>
       </c>
-      <c r="E51" s="209"/>
+      <c r="D51"/>
       <c r="F51" s="209"/>
       <c r="G51" s="209"/>
-      <c r="H51" s="264"/>
+      <c r="H51" s="209"/>
       <c r="I51" s="264"/>
       <c r="J51" s="264"/>
-      <c r="K51" s="264">
+      <c r="K51" s="264"/>
+      <c r="L51" s="264">
         <v>73300</v>
       </c>
-      <c r="L51" s="199">
+      <c r="M51" s="199">
         <f>VLOOKUP(C51,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>73300</v>
-      </c>
-      <c r="M51" s="283">
         <v>73300</v>
       </c>
       <c r="N51" s="265"/>
@@ -7282,20 +7164,18 @@
       <c r="C52" t="s">
         <v>315</v>
       </c>
-      <c r="E52" s="209"/>
+      <c r="D52"/>
       <c r="F52" s="209"/>
       <c r="G52" s="209"/>
-      <c r="H52" s="264"/>
+      <c r="H52" s="209"/>
       <c r="I52" s="264"/>
       <c r="J52" s="264"/>
-      <c r="K52" s="264">
+      <c r="K52" s="264"/>
+      <c r="L52" s="264">
         <v>140000</v>
       </c>
-      <c r="L52" s="199">
+      <c r="M52" s="199">
         <f>VLOOKUP(C52,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>140000</v>
-      </c>
-      <c r="M52" s="283">
         <v>140000</v>
       </c>
       <c r="N52" s="265"/>
@@ -7321,15 +7201,14 @@
     </row>
     <row r="53" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="134"/>
-      <c r="E53" s="199"/>
       <c r="F53" s="199"/>
       <c r="G53" s="199"/>
-      <c r="H53" s="204"/>
+      <c r="H53" s="199"/>
       <c r="I53" s="204"/>
       <c r="J53" s="204"/>
       <c r="K53" s="204"/>
-      <c r="L53" s="199"/>
-      <c r="M53" s="283"/>
+      <c r="L53" s="204"/>
+      <c r="M53" s="199"/>
       <c r="N53" s="116"/>
       <c r="O53" s="116"/>
       <c r="P53" s="116"/>
@@ -7361,53 +7240,51 @@
       <c r="C54" t="s">
         <v>316</v>
       </c>
-      <c r="E54" s="199">
+      <c r="D54"/>
+      <c r="F54" s="199">
         <v>586475</v>
       </c>
-      <c r="F54" s="199">
+      <c r="G54" s="199">
         <v>594213</v>
       </c>
-      <c r="G54" s="199">
+      <c r="H54" s="199">
         <v>612547</v>
       </c>
-      <c r="H54" s="204">
+      <c r="I54" s="204">
         <v>610331</v>
       </c>
-      <c r="I54" s="204">
+      <c r="J54" s="204">
         <v>615406</v>
       </c>
-      <c r="J54" s="204">
+      <c r="K54" s="204">
         <v>627805</v>
       </c>
-      <c r="K54" s="204">
+      <c r="L54" s="204">
         <v>1396890</v>
       </c>
-      <c r="L54" s="199">
+      <c r="M54" s="199">
         <f>VLOOKUP(C54,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>728172</v>
       </c>
-      <c r="M54" s="283">
-        <v>727479</v>
-      </c>
       <c r="N54" s="116">
-        <f>N56+(SUM($L$58:$R$58))/4/6*4</f>
-        <v>286539.55144373403</v>
+        <f>N56+(SUM($M$58:$R$58))/4/6*4</f>
+        <v>270372.88477706735</v>
       </c>
       <c r="O54" s="116">
-        <f>O56+(SUM($L$58:$R$58))/4/6*4</f>
-        <v>287307.66211430955</v>
+        <f>O56+(SUM($M$58:$R$58))/4/6*4</f>
+        <v>271140.99544764287</v>
       </c>
       <c r="P54" s="116">
-        <f>P56+(SUM($L$58:$R$58))/4/6*4</f>
-        <v>288189.10058873915</v>
+        <f>P56+(SUM($M$58:$R$58))/4/6*4</f>
+        <v>272022.43392207247</v>
       </c>
       <c r="Q54" s="116">
-        <f>Q56+(SUM($L$58:$R$58))/4/6*4</f>
-        <v>289221.64280164416</v>
+        <f>Q56+(SUM($M$58:$R$58))/4/6*4</f>
+        <v>273054.97613497748</v>
       </c>
       <c r="R54" s="116">
-        <f>R56+(SUM($L$58:$R$58))/4/6*4</f>
-        <v>290711.04635991767</v>
+        <f>R56+(SUM($M$58:$R$58))/4/6*4</f>
+        <v>274544.37969325099</v>
       </c>
       <c r="S54" s="44"/>
       <c r="T54" s="44"/>
@@ -7419,7 +7296,7 @@
       <c r="Z54" s="44"/>
       <c r="AA54" s="44"/>
       <c r="AB54" s="44">
-        <f>AVERAGE(E54:H54)/1000</f>
+        <f>AVERAGE(F54:I54)/1000</f>
         <v>600.89149999999995</v>
       </c>
       <c r="AC54" s="44"/>
@@ -7431,40 +7308,37 @@
       <c r="A55" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="E55" s="205">
-        <f>E54-E67</f>
+      <c r="F55" s="205">
+        <f>F54-F67</f>
         <v>196851</v>
       </c>
-      <c r="F55" s="205">
-        <f t="shared" ref="F55:L55" si="34">F54-F67</f>
+      <c r="G55" s="205">
+        <f t="shared" ref="G55:M55" si="34">G54-G67</f>
         <v>189684</v>
       </c>
-      <c r="G55" s="205">
+      <c r="H55" s="205">
         <f t="shared" si="34"/>
         <v>192875</v>
       </c>
-      <c r="H55" s="205">
+      <c r="I55" s="205">
         <f t="shared" si="34"/>
         <v>191507</v>
       </c>
-      <c r="I55" s="205">
+      <c r="J55" s="205">
         <f t="shared" si="34"/>
         <v>203997</v>
       </c>
-      <c r="J55" s="205">
+      <c r="K55" s="205">
         <f t="shared" si="34"/>
         <v>204376</v>
       </c>
-      <c r="K55" s="205">
+      <c r="L55" s="205">
         <f t="shared" si="34"/>
         <v>884250</v>
       </c>
-      <c r="L55" s="199">
+      <c r="M55" s="199">
         <f t="shared" si="34"/>
         <v>242100</v>
-      </c>
-      <c r="M55" s="283">
-        <v>241407</v>
       </c>
       <c r="N55" s="116"/>
       <c r="O55" s="116"/>
@@ -7491,25 +7365,22 @@
       <c r="A56" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="E56" s="199"/>
       <c r="F56" s="199"/>
       <c r="G56" s="199"/>
-      <c r="H56" s="204"/>
+      <c r="H56" s="199"/>
       <c r="I56" s="204"/>
       <c r="J56" s="204"/>
-      <c r="K56" s="204">
-        <f>K55-K57</f>
+      <c r="K56" s="204"/>
+      <c r="L56" s="204">
+        <f>L55-L57</f>
         <v>192250</v>
       </c>
-      <c r="L56" s="199">
-        <f>K56*(1+L66)</f>
+      <c r="M56" s="199">
+        <f>L56*(1+M66)</f>
         <v>189950.61436735778</v>
       </c>
-      <c r="M56" s="283">
-        <v>189924.8072833599</v>
-      </c>
       <c r="N56" s="116">
-        <f>L56*(1+N66)</f>
+        <f>M56*(1+N66)</f>
         <v>191372.88477706735</v>
       </c>
       <c r="O56" s="116">
@@ -7566,19 +7437,17 @@
       <c r="C57" t="s">
         <v>317</v>
       </c>
-      <c r="E57" s="206"/>
+      <c r="D57"/>
       <c r="F57" s="206"/>
       <c r="G57" s="206"/>
-      <c r="H57" s="207"/>
+      <c r="H57" s="206"/>
       <c r="I57" s="207"/>
       <c r="J57" s="207"/>
-      <c r="K57" s="207">
+      <c r="K57" s="207"/>
+      <c r="L57" s="207">
         <v>692000</v>
       </c>
-      <c r="L57" s="199">
-        <v>38500</v>
-      </c>
-      <c r="M57" s="283">
+      <c r="M57" s="199">
         <v>38500</v>
       </c>
       <c r="N57" s="139"/>
@@ -7606,21 +7475,18 @@
       <c r="A58" s="134" t="s">
         <v>211</v>
       </c>
-      <c r="E58" s="199"/>
       <c r="F58" s="199"/>
       <c r="G58" s="199"/>
-      <c r="H58" s="204"/>
+      <c r="H58" s="199"/>
       <c r="I58" s="204"/>
       <c r="J58" s="204"/>
-      <c r="K58" s="208">
-        <f>SUM(K59:K61)</f>
+      <c r="K58" s="204"/>
+      <c r="L58" s="208">
+        <f>SUM(L59:L61)</f>
         <v>87000</v>
       </c>
-      <c r="L58" s="199">
-        <f>SUM(L59:L61)</f>
-        <v>97000</v>
-      </c>
-      <c r="M58" s="283">
+      <c r="M58" s="199">
+        <f>SUM(M59:M61)</f>
         <v>97000</v>
       </c>
       <c r="N58" s="116">
@@ -7678,19 +7544,16 @@
       <c r="A59" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="E59" s="199"/>
       <c r="F59" s="199"/>
       <c r="G59" s="199"/>
-      <c r="H59" s="204"/>
+      <c r="H59" s="199"/>
       <c r="I59" s="204"/>
       <c r="J59" s="204"/>
-      <c r="K59" s="208">
+      <c r="K59" s="204"/>
+      <c r="L59" s="208">
         <v>35000</v>
       </c>
-      <c r="L59" s="199">
-        <v>45000</v>
-      </c>
-      <c r="M59" s="283">
+      <c r="M59" s="199">
         <v>45000</v>
       </c>
       <c r="N59" s="116">
@@ -7738,19 +7601,16 @@
       <c r="A60" s="113" t="s">
         <v>202</v>
       </c>
-      <c r="E60" s="199"/>
       <c r="F60" s="199"/>
       <c r="G60" s="199"/>
-      <c r="H60" s="204"/>
+      <c r="H60" s="199"/>
       <c r="I60" s="204"/>
       <c r="J60" s="204"/>
-      <c r="K60" s="204">
+      <c r="K60" s="204"/>
+      <c r="L60" s="204">
         <v>27000</v>
       </c>
-      <c r="L60" s="199">
-        <v>27000</v>
-      </c>
-      <c r="M60" s="283">
+      <c r="M60" s="199">
         <v>27000</v>
       </c>
       <c r="N60" s="116">
@@ -7788,19 +7648,16 @@
       <c r="A61" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="E61" s="199"/>
       <c r="F61" s="199"/>
       <c r="G61" s="199"/>
-      <c r="H61" s="204"/>
+      <c r="H61" s="199"/>
       <c r="I61" s="204"/>
       <c r="J61" s="204"/>
-      <c r="K61" s="204">
+      <c r="K61" s="204"/>
+      <c r="L61" s="204">
         <v>25000</v>
       </c>
-      <c r="L61" s="199">
-        <v>25000</v>
-      </c>
-      <c r="M61" s="283">
+      <c r="M61" s="199">
         <v>25000</v>
       </c>
       <c r="N61" s="116">
@@ -7839,26 +7696,23 @@
         <v>218</v>
       </c>
       <c r="B62" s="141"/>
-      <c r="D62" s="141"/>
-      <c r="E62" s="199"/>
+      <c r="E62" s="141"/>
       <c r="F62" s="199"/>
       <c r="G62" s="199"/>
-      <c r="H62" s="204"/>
+      <c r="H62" s="199"/>
       <c r="I62" s="204"/>
-      <c r="J62" s="204">
-        <f>J54-J67</f>
+      <c r="J62" s="204"/>
+      <c r="K62" s="204">
+        <f>K54-K67</f>
         <v>204376</v>
       </c>
-      <c r="K62" s="208">
-        <f>K56+K58</f>
+      <c r="L62" s="208">
+        <f>L56+L58</f>
         <v>279250</v>
       </c>
-      <c r="L62" s="199">
-        <f t="shared" ref="L62:W62" si="41">L56+L58</f>
+      <c r="M62" s="199">
+        <f t="shared" ref="M62:W62" si="41">M56+M58</f>
         <v>286950.6143673578</v>
-      </c>
-      <c r="M62" s="283">
-        <v>286924.80728335993</v>
       </c>
       <c r="N62" s="144">
         <f t="shared" si="41"/>
@@ -7912,15 +7766,14 @@
       <c r="AL62" s="243"/>
     </row>
     <row r="63" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E63" s="199"/>
       <c r="F63" s="199"/>
       <c r="G63" s="199"/>
       <c r="H63" s="199"/>
       <c r="I63" s="199"/>
       <c r="J63" s="199"/>
-      <c r="K63" s="205"/>
-      <c r="L63" s="199"/>
-      <c r="M63" s="283"/>
+      <c r="K63" s="199"/>
+      <c r="L63" s="205"/>
+      <c r="M63" s="199"/>
       <c r="N63" s="135"/>
       <c r="O63" s="135"/>
       <c r="P63" s="135"/>
@@ -7952,33 +7805,31 @@
       <c r="C64" t="s">
         <v>318</v>
       </c>
-      <c r="E64" s="208">
+      <c r="D64"/>
+      <c r="F64" s="208">
         <v>1241.5999999999999</v>
       </c>
-      <c r="F64" s="208">
+      <c r="G64" s="208">
         <v>1245.8</v>
       </c>
-      <c r="G64" s="208">
+      <c r="H64" s="208">
         <v>1473.6</v>
       </c>
-      <c r="H64" s="208">
+      <c r="I64" s="208">
         <v>1288.5</v>
       </c>
-      <c r="I64" s="208">
+      <c r="J64" s="208">
         <v>1301.0999999999999</v>
       </c>
-      <c r="J64" s="208">
+      <c r="K64" s="208">
         <v>1306.0999999999999</v>
       </c>
-      <c r="K64" s="208">
+      <c r="L64" s="208">
         <v>1360.1</v>
       </c>
-      <c r="L64" s="199">
+      <c r="M64" s="199">
         <f>VLOOKUP(C64,'Haver NA'!$A$1:$I$34,9,0)/1000</f>
         <v>1335.3219999999999</v>
-      </c>
-      <c r="M64" s="283">
-        <v>1335.2</v>
       </c>
       <c r="N64" s="116"/>
       <c r="O64" s="116"/>
@@ -8015,25 +7866,23 @@
       <c r="C65" t="s">
         <v>319</v>
       </c>
-      <c r="E65" s="199"/>
+      <c r="D65"/>
       <c r="F65" s="199"/>
       <c r="G65" s="199"/>
       <c r="H65" s="199"/>
-      <c r="I65" s="199">
+      <c r="I65" s="199"/>
+      <c r="J65" s="199">
         <v>1447.9</v>
       </c>
-      <c r="J65" s="199">
+      <c r="K65" s="199">
         <v>1452.6</v>
       </c>
-      <c r="K65" s="199">
+      <c r="L65" s="199">
         <v>1504.8</v>
       </c>
-      <c r="L65" s="199">
+      <c r="M65" s="199">
         <f>VLOOKUP(C65,'Haver NA'!$A$1:$I$34,9,0)/1000</f>
         <v>1486.8019999999999</v>
-      </c>
-      <c r="M65" s="283">
-        <v>1486.6</v>
       </c>
       <c r="N65">
         <v>1497.93454882981</v>
@@ -8084,26 +7933,23 @@
       <c r="AK65" s="44"/>
       <c r="AL65" s="245"/>
     </row>
-    <row r="66" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:38" s="187" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A66" s="170" t="s">
         <v>203</v>
       </c>
-      <c r="E66" s="209"/>
       <c r="F66" s="209"/>
       <c r="G66" s="209"/>
       <c r="H66" s="209"/>
       <c r="I66" s="209"/>
       <c r="J66" s="209"/>
       <c r="K66" s="209"/>
-      <c r="L66" s="202">
-        <f>L65/K65-1</f>
+      <c r="L66" s="209"/>
+      <c r="M66" s="202">
+        <f>M65/L65-1</f>
         <v>-1.1960393407761893E-2</v>
       </c>
-      <c r="M66" s="283">
-        <v>-1.2094630515683158E-2</v>
-      </c>
       <c r="N66" s="188">
-        <f>N65/L65-1</f>
+        <f>N65/M65-1</f>
         <v>7.4875799399045651E-3</v>
       </c>
       <c r="O66" s="188">
@@ -8174,32 +8020,30 @@
       <c r="C67" t="s">
         <v>320</v>
       </c>
-      <c r="E67" s="208">
+      <c r="D67"/>
+      <c r="F67" s="208">
         <v>389624</v>
       </c>
-      <c r="F67" s="208">
+      <c r="G67" s="208">
         <v>404529</v>
       </c>
-      <c r="G67" s="208">
+      <c r="H67" s="208">
         <v>419672</v>
       </c>
-      <c r="H67" s="208">
+      <c r="I67" s="208">
         <v>418824</v>
       </c>
-      <c r="I67" s="208">
+      <c r="J67" s="208">
         <v>411409</v>
       </c>
-      <c r="J67" s="208">
+      <c r="K67" s="208">
         <v>423429</v>
       </c>
-      <c r="K67" s="208">
+      <c r="L67" s="208">
         <v>512640</v>
       </c>
-      <c r="L67" s="199">
+      <c r="M67" s="199">
         <f>VLOOKUP(C67,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>486072</v>
-      </c>
-      <c r="M67" s="283">
         <v>486072</v>
       </c>
       <c r="N67" s="116">
@@ -8244,11 +8088,11 @@
       <c r="Z67" s="116"/>
       <c r="AA67" s="116"/>
       <c r="AB67" s="44">
-        <f>AVERAGE(E67:H67)/1000</f>
+        <f>AVERAGE(F67:I67)/1000</f>
         <v>408.16224999999997</v>
       </c>
       <c r="AC67" s="45">
-        <f>AVERAGE(I67:L67)</f>
+        <f>AVERAGE(J67:M67)</f>
         <v>458387.5</v>
       </c>
       <c r="AD67" s="45">
@@ -8282,76 +8126,73 @@
         <v>161</v>
       </c>
       <c r="B68" s="141"/>
-      <c r="D68" s="141"/>
-      <c r="E68" s="203">
-        <f>E42+E39+E32+E35</f>
+      <c r="E68" s="141"/>
+      <c r="F68" s="203">
+        <f t="shared" ref="F68:M68" si="47">F42+F39+F32+F35</f>
         <v>1440187</v>
       </c>
-      <c r="F68" s="203">
-        <f>F42+F39+F32+F35</f>
+      <c r="G68" s="203">
+        <f t="shared" si="47"/>
         <v>1503410</v>
       </c>
-      <c r="G68" s="203">
-        <f>G42+G39+G32+G35</f>
+      <c r="H68" s="203">
+        <f t="shared" si="47"/>
         <v>1508652</v>
       </c>
-      <c r="H68" s="203">
-        <f>H42+H39+H32+H35</f>
+      <c r="I68" s="203">
+        <f t="shared" si="47"/>
         <v>1513957</v>
       </c>
-      <c r="I68" s="203">
-        <f>I42+I39+I32+I35</f>
+      <c r="J68" s="203">
+        <f t="shared" si="47"/>
         <v>1521941</v>
       </c>
-      <c r="J68" s="203">
-        <f>J42+J39+J32+J35</f>
+      <c r="K68" s="203">
+        <f t="shared" si="47"/>
         <v>1574462</v>
       </c>
-      <c r="K68" s="203">
-        <f>K42+K39+K32+K35</f>
+      <c r="L68" s="203">
+        <f t="shared" si="47"/>
         <v>3713565.333333333</v>
       </c>
-      <c r="L68" s="199">
-        <f>L42+L39+L32+L35</f>
+      <c r="M68" s="199">
+        <f t="shared" si="47"/>
         <v>2508714</v>
       </c>
-      <c r="M68" s="283">
-        <v>2531540</v>
-      </c>
       <c r="N68" s="142">
-        <f>N42+N39+N32+N35</f>
+        <f t="shared" ref="N68:V68" si="48">N42+N39+N32+N35</f>
         <v>1966597.486653418</v>
       </c>
       <c r="O68" s="142">
-        <f>O42+O39+O32+O35</f>
+        <f t="shared" si="48"/>
         <v>1887942.7957109897</v>
       </c>
       <c r="P68" s="142">
-        <f>P42+P39+P32+P35</f>
+        <f t="shared" si="48"/>
         <v>1799230.9611612814</v>
       </c>
       <c r="Q68" s="142">
-        <f>Q42+Q39+Q32+Q35</f>
+        <f t="shared" si="48"/>
         <v>1662989.228952572</v>
       </c>
       <c r="R68" s="142">
-        <f>R42+R39+R32+R35</f>
+        <f t="shared" si="48"/>
         <v>1659289.0673868605</v>
       </c>
       <c r="S68" s="142">
-        <f>S42+S39+S32+S35</f>
+        <f t="shared" si="48"/>
         <v>1668953.4033976633</v>
       </c>
       <c r="T68" s="142">
-        <f>T42+T39+T32+T35</f>
+        <f t="shared" si="48"/>
         <v>1693987.704448628</v>
       </c>
       <c r="U68" s="142">
-        <f>U42+U39+U32+U35</f>
+        <f t="shared" si="48"/>
         <v>1719397.5200153573</v>
       </c>
       <c r="V68" s="142">
-        <f>V42+V39+V32+V35</f>
+        <f t="shared" si="48"/>
         <v>1736591.4952155109</v>
       </c>
       <c r="AL68" s="243"/>
@@ -8361,64 +8202,60 @@
         <v>215</v>
       </c>
       <c r="B69" s="141"/>
-      <c r="D69" s="141"/>
-      <c r="E69" s="199"/>
+      <c r="E69" s="141"/>
       <c r="F69" s="199"/>
       <c r="G69" s="199"/>
       <c r="H69" s="199"/>
       <c r="I69" s="199"/>
       <c r="J69" s="199"/>
-      <c r="K69" s="205">
-        <f>K67+K31</f>
+      <c r="K69" s="199"/>
+      <c r="L69" s="205">
+        <f>L67+L31</f>
         <v>1336698</v>
       </c>
-      <c r="L69" s="199">
-        <f>L67+L31</f>
+      <c r="M69" s="199">
+        <f>M67+M31</f>
         <v>1328805</v>
       </c>
-      <c r="M69" s="283">
-        <v>1328805</v>
-      </c>
       <c r="N69" s="143">
-        <f>N67+N31</f>
+        <f t="shared" ref="N69:V69" si="49">N67+N31</f>
         <v>1373815.6728590003</v>
       </c>
       <c r="O69" s="143">
-        <f>O67+O31</f>
+        <f t="shared" si="49"/>
         <v>1393653.5067068823</v>
       </c>
       <c r="P69" s="143">
-        <f>P67+P31</f>
+        <f t="shared" si="49"/>
         <v>1409518.3603139264</v>
       </c>
       <c r="Q69" s="143">
-        <f>Q67+Q31</f>
+        <f t="shared" si="49"/>
         <v>1420222.3552427585</v>
       </c>
       <c r="R69" s="143">
-        <f>R67+R31</f>
+        <f t="shared" si="49"/>
         <v>1449154.204832383</v>
       </c>
       <c r="S69" s="143">
-        <f>S67+S31</f>
+        <f t="shared" si="49"/>
         <v>1479032.1128509077</v>
       </c>
       <c r="T69" s="143">
-        <f>T67+T31</f>
+        <f t="shared" si="49"/>
         <v>1466472.6280325653</v>
       </c>
       <c r="U69" s="143">
-        <f>U67+U31</f>
+        <f t="shared" si="49"/>
         <v>1498336.4715432189</v>
       </c>
       <c r="V69" s="143">
-        <f>V67+V31</f>
+        <f t="shared" si="49"/>
         <v>1508477.1168994233</v>
       </c>
       <c r="AL69" s="243"/>
     </row>
     <row r="70" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E70" s="199"/>
       <c r="F70" s="199"/>
       <c r="G70" s="199"/>
       <c r="H70" s="199"/>
@@ -8426,7 +8263,7 @@
       <c r="J70" s="199"/>
       <c r="K70" s="199"/>
       <c r="L70" s="199"/>
-      <c r="M70" s="283"/>
+      <c r="M70" s="199"/>
       <c r="AL70" s="243"/>
     </row>
     <row r="71" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
@@ -8439,68 +8276,66 @@
       <c r="C71" t="s">
         <v>321</v>
       </c>
-      <c r="E71" s="199">
+      <c r="D71"/>
+      <c r="F71" s="199">
         <v>728844</v>
       </c>
-      <c r="F71" s="199">
+      <c r="G71" s="199">
         <v>738714</v>
       </c>
-      <c r="G71" s="199">
+      <c r="H71" s="199">
         <v>755204</v>
       </c>
-      <c r="H71" s="199">
+      <c r="I71" s="199">
         <v>763370</v>
       </c>
-      <c r="I71" s="199">
+      <c r="J71" s="199">
         <v>760967</v>
       </c>
-      <c r="J71" s="199">
+      <c r="K71" s="199">
         <v>767087</v>
       </c>
-      <c r="K71" s="199">
+      <c r="L71" s="199">
         <v>812158</v>
       </c>
-      <c r="L71" s="199">
+      <c r="M71" s="199">
         <f>VLOOKUP(C71,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>835999</v>
       </c>
-      <c r="M71" s="283">
-        <v>843592</v>
-      </c>
       <c r="N71" s="133">
-        <f t="shared" ref="N71:U71" si="47">N72+N74</f>
+        <f t="shared" ref="N71:U71" si="50">N72+N74</f>
         <v>846655.9390002318</v>
       </c>
       <c r="O71" s="133">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>859704.14460568153</v>
       </c>
       <c r="P71" s="133">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>867211.47334407107</v>
       </c>
       <c r="Q71" s="133">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>867929.66513166018</v>
       </c>
       <c r="R71" s="133">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>869012.33925145073</v>
       </c>
       <c r="S71" s="133">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>870466.73148570256</v>
       </c>
       <c r="T71" s="133">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>872014.07451017783</v>
       </c>
       <c r="U71" s="133">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>873408.51802630571</v>
       </c>
       <c r="V71" s="133">
-        <f t="shared" ref="V71" si="48">V72+V74</f>
+        <f t="shared" ref="V71" si="51">V72+V74</f>
         <v>874637.8300734181</v>
       </c>
       <c r="AL71" s="243"/>
@@ -8509,89 +8344,85 @@
       <c r="A72" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="E72" s="205">
-        <f t="shared" ref="E72:J72" si="49">E71-E74</f>
+      <c r="F72" s="205">
+        <f t="shared" ref="F72:K72" si="52">F71-F74</f>
         <v>139025</v>
       </c>
-      <c r="F72" s="205">
-        <f t="shared" si="49"/>
+      <c r="G72" s="205">
+        <f t="shared" si="52"/>
         <v>139342</v>
       </c>
-      <c r="G72" s="205">
-        <f t="shared" si="49"/>
+      <c r="H72" s="205">
+        <f t="shared" si="52"/>
         <v>140228</v>
       </c>
-      <c r="H72" s="205">
-        <f t="shared" si="49"/>
+      <c r="I72" s="205">
+        <f t="shared" si="52"/>
         <v>141105</v>
       </c>
-      <c r="I72" s="205">
-        <f t="shared" si="49"/>
+      <c r="J72" s="205">
+        <f t="shared" si="52"/>
         <v>141335</v>
       </c>
-      <c r="J72" s="205">
-        <f t="shared" si="49"/>
+      <c r="K72" s="205">
+        <f t="shared" si="52"/>
         <v>142991</v>
       </c>
-      <c r="K72" s="205">
-        <f>K71-K74</f>
+      <c r="L72" s="205">
+        <f>L71-L74</f>
         <v>143335</v>
       </c>
-      <c r="L72" s="199">
-        <f>L71-L74</f>
+      <c r="M72" s="199">
+        <f>M71-M74</f>
         <v>144732</v>
       </c>
-      <c r="M72" s="283">
-        <v>144609</v>
-      </c>
       <c r="N72" s="133">
-        <f>L72*(1+N83-0.015)</f>
+        <f>M72*(1+N83-0.015)</f>
         <v>142922.84999999998</v>
       </c>
       <c r="O72" s="133">
-        <f t="shared" ref="O72:V72" si="50">N72*(1+O83)</f>
+        <f t="shared" ref="O72:V72" si="53">N72*(1+O83)</f>
         <v>143280.15712499997</v>
       </c>
       <c r="P72" s="133">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>143638.35751781246</v>
       </c>
       <c r="Q72" s="133">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>144356.54930540151</v>
       </c>
       <c r="R72" s="133">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>145439.22342519203</v>
       </c>
       <c r="S72" s="133">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>146893.61565944395</v>
       </c>
       <c r="T72" s="133">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>148440.9586839191</v>
       </c>
       <c r="U72" s="133">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>149835.40220004701</v>
       </c>
       <c r="V72" s="133">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>151064.71424715937</v>
       </c>
       <c r="AL72" s="243"/>
     </row>
     <row r="73" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E73" s="205"/>
-      <c r="F73" s="199"/>
+      <c r="F73" s="205"/>
       <c r="G73" s="199"/>
       <c r="H73" s="199"/>
       <c r="I73" s="199"/>
       <c r="J73" s="199"/>
       <c r="K73" s="199"/>
       <c r="L73" s="199"/>
-      <c r="M73" s="283"/>
+      <c r="M73" s="199"/>
       <c r="AL73" s="243"/>
     </row>
     <row r="74" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
@@ -8604,36 +8435,34 @@
       <c r="C74" t="s">
         <v>322</v>
       </c>
-      <c r="E74" s="199">
+      <c r="D74"/>
+      <c r="F74" s="199">
         <v>589819</v>
       </c>
-      <c r="F74" s="199">
+      <c r="G74" s="199">
         <v>599372</v>
       </c>
-      <c r="G74" s="199">
+      <c r="H74" s="199">
         <v>614976</v>
       </c>
-      <c r="H74" s="199">
+      <c r="I74" s="199">
         <v>622265</v>
       </c>
-      <c r="I74" s="199">
+      <c r="J74" s="199">
         <v>619632</v>
       </c>
-      <c r="J74" s="199">
+      <c r="K74" s="199">
         <v>624096</v>
       </c>
-      <c r="K74" s="199">
+      <c r="L74" s="199">
         <v>668823</v>
       </c>
-      <c r="L74" s="199">
+      <c r="M74" s="199">
         <f>VLOOKUP(C74,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>691267</v>
       </c>
-      <c r="M74" s="283">
-        <v>698983</v>
-      </c>
       <c r="N74" s="135">
-        <f>L74*(($AI$74/$AH$74)^0.18)</f>
+        <f>M74*(($AI$74/$AH$74)^0.18)</f>
         <v>703733.08900023182</v>
       </c>
       <c r="O74" s="135">
@@ -8649,27 +8478,27 @@
         <v>723573.11582625867</v>
       </c>
       <c r="R74" s="135">
-        <f t="shared" ref="R74:V74" si="51">Q74*(1+R75)</f>
+        <f t="shared" ref="R74:V74" si="54">Q74*(1+R75)</f>
         <v>723573.11582625867</v>
       </c>
       <c r="S74" s="135">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>723573.11582625867</v>
       </c>
       <c r="T74" s="135">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>723573.11582625867</v>
       </c>
       <c r="U74" s="135">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>723573.11582625867</v>
       </c>
       <c r="V74" s="135">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>723573.11582625867</v>
       </c>
       <c r="AC74" s="45">
-        <f>AVERAGE(I74:L74)/1000</f>
+        <f>AVERAGE(J74:M74)/1000</f>
         <v>650.95450000000005</v>
       </c>
       <c r="AD74" s="45">
@@ -8700,15 +8529,14 @@
       <c r="A75" s="170" t="s">
         <v>271</v>
       </c>
-      <c r="E75" s="209"/>
       <c r="F75" s="209"/>
       <c r="G75" s="209"/>
       <c r="H75" s="209"/>
-      <c r="I75" s="202"/>
+      <c r="I75" s="209"/>
       <c r="J75" s="202"/>
       <c r="K75" s="202"/>
-      <c r="L75" s="199"/>
-      <c r="M75" s="283"/>
+      <c r="L75" s="202"/>
+      <c r="M75" s="199"/>
       <c r="N75" s="176"/>
       <c r="O75" s="176"/>
       <c r="P75" s="176"/>
@@ -8737,33 +8565,32 @@
       <c r="A76" s="153" t="s">
         <v>223</v>
       </c>
-      <c r="E76" s="210">
-        <f>E67/E74</f>
+      <c r="F76" s="210">
+        <f>F67/F74</f>
         <v>0.66058231423538405</v>
       </c>
-      <c r="F76" s="210">
-        <f t="shared" ref="F76:H76" si="52">F67/F74</f>
+      <c r="G76" s="210">
+        <f t="shared" ref="G76:I76" si="55">G67/G74</f>
         <v>0.6749214177505789</v>
       </c>
-      <c r="G76" s="210">
-        <f t="shared" si="52"/>
+      <c r="H76" s="210">
+        <f t="shared" si="55"/>
         <v>0.68242012696430432</v>
       </c>
-      <c r="H76" s="210">
-        <f t="shared" si="52"/>
+      <c r="I76" s="210">
+        <f t="shared" si="55"/>
         <v>0.6730637268687778</v>
       </c>
-      <c r="I76" s="210">
-        <f t="shared" ref="I76" si="53">I67/I74</f>
+      <c r="J76" s="210">
+        <f t="shared" ref="J76" si="56">J67/J74</f>
         <v>0.66395699382859508</v>
       </c>
-      <c r="J76" s="210">
-        <f t="shared" ref="J76" si="54">J67/J74</f>
+      <c r="K76" s="210">
+        <f t="shared" ref="K76" si="57">K67/K74</f>
         <v>0.67846773573296415</v>
       </c>
-      <c r="K76" s="211"/>
-      <c r="L76" s="199"/>
-      <c r="M76" s="283"/>
+      <c r="L76" s="211"/>
+      <c r="M76" s="199"/>
       <c r="AC76" s="154"/>
       <c r="AD76" s="154"/>
       <c r="AE76" s="154"/>
@@ -8782,68 +8609,66 @@
       <c r="C77" t="s">
         <v>323</v>
       </c>
-      <c r="E77" s="199">
+      <c r="D77"/>
+      <c r="F77" s="199">
         <v>1997.1</v>
       </c>
-      <c r="F77" s="199">
+      <c r="G77" s="199">
         <v>2012.7</v>
       </c>
-      <c r="G77" s="199">
+      <c r="H77" s="199">
         <v>2025.5</v>
       </c>
-      <c r="H77" s="199">
+      <c r="I77" s="199">
         <v>2028.3</v>
       </c>
-      <c r="I77" s="199">
+      <c r="J77" s="199">
         <v>2035.6</v>
       </c>
-      <c r="J77" s="199">
+      <c r="K77" s="199">
         <v>2041</v>
       </c>
-      <c r="K77" s="199">
+      <c r="L77" s="199">
         <v>2013.1</v>
       </c>
-      <c r="L77" s="199">
+      <c r="M77" s="199">
         <f>VLOOKUP(C77,'Haver NA'!$A$1:$I$34,9,0)/1000</f>
         <v>1992.6769999999999</v>
       </c>
-      <c r="M77" s="283">
-        <v>1996.2</v>
-      </c>
       <c r="N77" s="35">
-        <f>L77*(1+N79)</f>
+        <f>M77*(1+N79)</f>
         <v>2031.6535672371635</v>
       </c>
       <c r="O77" s="35">
-        <f t="shared" ref="O77:V77" si="55">N77*(1+O79)</f>
+        <f t="shared" ref="O77:V77" si="58">N77*(1+O79)</f>
         <v>2057.2848967789942</v>
       </c>
       <c r="P77" s="35">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2079.7387887743166</v>
       </c>
       <c r="Q77" s="35">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2094.5668306580201</v>
       </c>
       <c r="R77" s="35">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2104.8405453917289</v>
       </c>
       <c r="S77" s="35">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2115.0083455405543</v>
       </c>
       <c r="T77" s="35">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2122.4223664824062</v>
       </c>
       <c r="U77" s="35">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2126.9766936324008</v>
       </c>
       <c r="V77" s="35">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>2128.6713269905381</v>
       </c>
       <c r="AL77" s="243"/>
@@ -8854,37 +8679,35 @@
       </c>
       <c r="B78" s="35"/>
       <c r="C78" s="35"/>
-      <c r="E78" s="202"/>
-      <c r="F78" s="202">
-        <f t="shared" ref="F78:K78" si="56">(F77/E77)-1</f>
+      <c r="D78" s="35"/>
+      <c r="F78" s="202"/>
+      <c r="G78" s="202">
+        <f t="shared" ref="G78:L78" si="59">(G77/F77)-1</f>
         <v>7.8113264233139468E-3</v>
       </c>
-      <c r="G78" s="202">
-        <f t="shared" si="56"/>
+      <c r="H78" s="202">
+        <f t="shared" si="59"/>
         <v>6.3596164356336526E-3</v>
       </c>
-      <c r="H78" s="202">
-        <f t="shared" si="56"/>
+      <c r="I78" s="202">
+        <f t="shared" si="59"/>
         <v>1.3823747222907468E-3</v>
       </c>
-      <c r="I78" s="202">
-        <f t="shared" si="56"/>
+      <c r="J78" s="202">
+        <f t="shared" si="59"/>
         <v>3.5990731154167399E-3</v>
       </c>
-      <c r="J78" s="202">
-        <f t="shared" si="56"/>
+      <c r="K78" s="202">
+        <f t="shared" si="59"/>
         <v>2.6527805069758159E-3</v>
       </c>
-      <c r="K78" s="202">
-        <f t="shared" si="56"/>
+      <c r="L78" s="202">
+        <f t="shared" si="59"/>
         <v>-1.36697697207252E-2</v>
       </c>
-      <c r="L78" s="199">
-        <f>(L77/K77)-1</f>
+      <c r="M78" s="199">
+        <f>(M77/L77)-1</f>
         <v>-1.0145049923004357E-2</v>
-      </c>
-      <c r="M78" s="283">
-        <v>-8.39501266703091E-3</v>
       </c>
       <c r="N78" s="262"/>
       <c r="O78" s="262"/>
@@ -8908,15 +8731,15 @@
         <v>284</v>
       </c>
       <c r="C79" s="35"/>
-      <c r="E79" s="209"/>
+      <c r="D79" s="35"/>
       <c r="F79" s="209"/>
       <c r="G79" s="209"/>
       <c r="H79" s="209"/>
-      <c r="I79" s="202"/>
+      <c r="I79" s="209"/>
       <c r="J79" s="202"/>
       <c r="K79" s="202"/>
-      <c r="L79" s="199"/>
-      <c r="M79" s="283"/>
+      <c r="L79" s="202"/>
+      <c r="M79" s="199"/>
       <c r="N79" s="198">
         <v>1.95599022004889E-2</v>
       </c>
@@ -8965,26 +8788,24 @@
       <c r="C80" t="s">
         <v>324</v>
       </c>
-      <c r="E80" s="199"/>
+      <c r="D80"/>
       <c r="F80" s="199"/>
       <c r="G80" s="199"/>
       <c r="H80" s="199"/>
-      <c r="I80" s="199">
+      <c r="I80" s="199"/>
+      <c r="J80" s="199">
         <v>2357.4</v>
       </c>
-      <c r="J80" s="199">
+      <c r="K80" s="199">
         <v>2381.6</v>
       </c>
-      <c r="K80" s="199">
+      <c r="L80" s="199">
         <v>2334.5</v>
       </c>
-      <c r="L80" s="199">
+      <c r="M80" s="199">
         <f>VLOOKUP(C80,'Haver NA'!$A$1:$I$34,9,0)/1000</f>
         <v>2329.6770000000001</v>
       </c>
-      <c r="M80" s="283">
-        <v>2337.9</v>
-      </c>
       <c r="N80">
         <v>2431.4160000000002</v>
       </c>
@@ -9024,7 +8845,6 @@
       <c r="AL80" s="243"/>
     </row>
     <row r="81" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E81" s="199"/>
       <c r="F81" s="199"/>
       <c r="G81" s="199"/>
       <c r="H81" s="199"/>
@@ -9032,9 +8852,9 @@
       <c r="J81" s="199"/>
       <c r="K81" s="199"/>
       <c r="L81" s="199"/>
-      <c r="M81" s="283"/>
+      <c r="M81" s="199"/>
       <c r="N81">
-        <f>L80*(1+N83)</f>
+        <f>M80*(1+N83)</f>
         <v>2335.5011924999999</v>
       </c>
       <c r="O81">
@@ -9042,31 +8862,31 @@
         <v>2341.3399454812497</v>
       </c>
       <c r="P81">
-        <f t="shared" ref="P81:V81" si="57">O81*(1+P83)</f>
+        <f t="shared" ref="P81:V81" si="60">O81*(1+P83)</f>
         <v>2347.1932953449527</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>2358.9292618216773</v>
       </c>
       <c r="R81">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>2376.6212312853399</v>
       </c>
       <c r="S81">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>2400.3874435981934</v>
       </c>
       <c r="T81">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>2425.6725640591153</v>
       </c>
       <c r="U81">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>2448.4591548302242</v>
       </c>
       <c r="V81">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>2468.5473335363272</v>
       </c>
       <c r="W81"/>
@@ -9080,25 +8900,23 @@
       </c>
       <c r="B82" s="35"/>
       <c r="C82" s="35"/>
-      <c r="E82" s="202"/>
+      <c r="D82" s="35"/>
       <c r="F82" s="202"/>
       <c r="G82" s="202"/>
       <c r="H82" s="202"/>
       <c r="I82" s="202"/>
-      <c r="J82" s="202">
-        <f t="shared" ref="J82" si="58">(J80/I80)-1</f>
+      <c r="J82" s="202"/>
+      <c r="K82" s="202">
+        <f t="shared" ref="K82" si="61">(K80/J80)-1</f>
         <v>1.0265546788835067E-2</v>
       </c>
-      <c r="K82" s="202">
-        <f t="shared" ref="K82" si="59">(K80/J80)-1</f>
+      <c r="L82" s="202">
+        <f t="shared" ref="L82" si="62">(L80/K80)-1</f>
         <v>-1.9776620759153429E-2</v>
       </c>
-      <c r="L82" s="202">
-        <f>(((L80/K80))^4)-1</f>
+      <c r="M82" s="202">
+        <f>(((M80/L80))^4)-1</f>
         <v>-8.2382940014741335E-3</v>
-      </c>
-      <c r="M82" s="328">
-        <v>5.8383978226230759E-3</v>
       </c>
       <c r="N82" s="262"/>
       <c r="O82" s="262"/>
@@ -9118,15 +8936,14 @@
       <c r="A83" s="170" t="s">
         <v>289</v>
       </c>
-      <c r="E83" s="209"/>
       <c r="F83" s="209"/>
       <c r="G83" s="209"/>
       <c r="H83" s="209"/>
       <c r="I83" s="209"/>
-      <c r="J83" s="202"/>
+      <c r="J83" s="209"/>
       <c r="K83" s="202"/>
-      <c r="L83" s="199"/>
-      <c r="M83" s="283"/>
+      <c r="L83" s="202"/>
+      <c r="M83" s="199"/>
       <c r="N83" s="176">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -9163,15 +8980,14 @@
       <c r="A84" s="266" t="s">
         <v>263</v>
       </c>
-      <c r="E84" s="209"/>
       <c r="F84" s="209"/>
       <c r="G84" s="209"/>
       <c r="H84" s="209"/>
       <c r="I84" s="209"/>
-      <c r="J84" s="202"/>
+      <c r="J84" s="209"/>
       <c r="K84" s="202"/>
-      <c r="L84" s="199"/>
-      <c r="M84" s="283"/>
+      <c r="L84" s="202"/>
+      <c r="M84" s="199"/>
       <c r="N84" s="176"/>
       <c r="O84" s="176"/>
       <c r="P84" s="176"/>
@@ -9187,87 +9003,84 @@
       <c r="A85" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="E85" s="203">
-        <f>E71+E38-E67</f>
+      <c r="F85" s="203">
+        <f t="shared" ref="F85:M85" si="63">F71+F38-F67</f>
         <v>339220</v>
       </c>
-      <c r="F85" s="203">
-        <f>F71+F38-F67</f>
+      <c r="G85" s="203">
+        <f t="shared" si="63"/>
         <v>334185</v>
       </c>
-      <c r="G85" s="203">
-        <f>G71+G38-G67</f>
+      <c r="H85" s="203">
+        <f t="shared" si="63"/>
         <v>335532</v>
       </c>
-      <c r="H85" s="203">
-        <f>H71+H38-H67</f>
+      <c r="I85" s="203">
+        <f t="shared" si="63"/>
         <v>344546</v>
       </c>
-      <c r="I85" s="203">
-        <f>I71+I38-I67</f>
+      <c r="J85" s="203">
+        <f t="shared" si="63"/>
         <v>349558</v>
       </c>
-      <c r="J85" s="203">
-        <f>J71+J38-J67</f>
+      <c r="K85" s="203">
+        <f t="shared" si="63"/>
         <v>343658</v>
       </c>
-      <c r="K85" s="203">
-        <f>K71+K38-K67</f>
+      <c r="L85" s="203">
+        <f t="shared" si="63"/>
         <v>577118</v>
       </c>
-      <c r="L85" s="199">
-        <f>L71+L38-L67</f>
+      <c r="M85" s="199">
+        <f t="shared" si="63"/>
         <v>489927</v>
       </c>
-      <c r="M85" s="283">
-        <v>497520</v>
-      </c>
       <c r="N85" s="223">
-        <f>N71+N38-N67</f>
+        <f t="shared" ref="N85:Y85" si="64">N71+N38-N67</f>
         <v>405893.45314006024</v>
       </c>
       <c r="O85" s="223">
-        <f>O71+O38-O67</f>
+        <f t="shared" si="64"/>
         <v>389550.39386997721</v>
       </c>
       <c r="P85" s="223">
-        <f>P71+P38-P67</f>
+        <f t="shared" si="64"/>
         <v>375767.36763263971</v>
       </c>
       <c r="Q85" s="223">
-        <f>Q71+Q38-Q67</f>
+        <f t="shared" si="64"/>
         <v>376485.55942022882</v>
       </c>
       <c r="R85" s="223">
-        <f>R71+R38-R67</f>
+        <f t="shared" si="64"/>
         <v>377568.23354001937</v>
       </c>
       <c r="S85" s="223">
-        <f>S71+S38-S67</f>
+        <f t="shared" si="64"/>
         <v>379022.6257742712</v>
       </c>
       <c r="T85" s="223">
-        <f>T71+T38-T67</f>
+        <f t="shared" si="64"/>
         <v>423984.35574832192</v>
       </c>
       <c r="U85" s="223">
-        <f>U71+U38-U67</f>
+        <f t="shared" si="64"/>
         <v>425378.7992644498</v>
       </c>
       <c r="V85" s="223">
-        <f>V71+V38-V67</f>
+        <f t="shared" si="64"/>
         <v>426608.11131156218</v>
       </c>
       <c r="W85" s="223">
-        <f>W71+W38-W67</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="X85" s="223">
-        <f>X71+X38-X67</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="Y85" s="223">
-        <f>Y71+Y38-Y67</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AL85" s="243"/>
@@ -9277,70 +9090,67 @@
         <v>214</v>
       </c>
       <c r="B86" s="141"/>
-      <c r="D86" s="141"/>
-      <c r="E86" s="203"/>
+      <c r="E86" s="141"/>
       <c r="F86" s="203"/>
       <c r="G86" s="203"/>
       <c r="H86" s="203"/>
       <c r="I86" s="203"/>
       <c r="J86" s="203"/>
-      <c r="K86" s="203">
-        <f>K74-K67</f>
+      <c r="K86" s="203"/>
+      <c r="L86" s="203">
+        <f>L74-L67</f>
         <v>156183</v>
       </c>
-      <c r="L86" s="199">
-        <f t="shared" ref="L86:U86" si="60">L74-L67</f>
+      <c r="M86" s="199">
+        <f t="shared" ref="M86:U86" si="65">M74-M67</f>
         <v>205195</v>
       </c>
-      <c r="M86" s="283">
-        <v>212911</v>
-      </c>
       <c r="N86" s="142">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>182970.60314006027</v>
       </c>
       <c r="O86" s="142">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>186270.23674497718</v>
       </c>
       <c r="P86" s="142">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>188129.01011482731</v>
       </c>
       <c r="Q86" s="142">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>188129.01011482731</v>
       </c>
       <c r="R86" s="142">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>188129.01011482731</v>
       </c>
       <c r="S86" s="142">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>188129.01011482731</v>
       </c>
       <c r="T86" s="142">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>231543.39706440276</v>
       </c>
       <c r="U86" s="142">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>231543.39706440276</v>
       </c>
       <c r="V86" s="142">
-        <f t="shared" ref="V86:Y86" si="61">V74-V67</f>
+        <f t="shared" ref="V86:Y86" si="66">V74-V67</f>
         <v>231543.39706440276</v>
       </c>
       <c r="W86" s="142">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="X86" s="142">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="Y86" s="142">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AL86" s="243"/>
@@ -9350,101 +9160,98 @@
         <v>232</v>
       </c>
       <c r="C87" s="35"/>
-      <c r="E87" s="203">
-        <f>E85-(E74-E67)</f>
+      <c r="D87" s="35"/>
+      <c r="F87" s="203">
+        <f>F85-(F74-F67)</f>
         <v>139025</v>
       </c>
-      <c r="F87" s="203">
-        <f t="shared" ref="F87:V87" si="62">F85-(F74-F67)</f>
+      <c r="G87" s="203">
+        <f t="shared" ref="G87:V87" si="67">G85-(G74-G67)</f>
         <v>139342</v>
       </c>
-      <c r="G87" s="203">
-        <f t="shared" si="62"/>
+      <c r="H87" s="203">
+        <f t="shared" si="67"/>
         <v>140228</v>
       </c>
-      <c r="H87" s="203">
-        <f t="shared" si="62"/>
+      <c r="I87" s="203">
+        <f t="shared" si="67"/>
         <v>141105</v>
       </c>
-      <c r="I87" s="203">
-        <f t="shared" si="62"/>
+      <c r="J87" s="203">
+        <f t="shared" si="67"/>
         <v>141335</v>
       </c>
-      <c r="J87" s="203">
-        <f t="shared" si="62"/>
+      <c r="K87" s="203">
+        <f t="shared" si="67"/>
         <v>142991</v>
       </c>
-      <c r="K87" s="203">
-        <f t="shared" si="62"/>
+      <c r="L87" s="203">
+        <f t="shared" si="67"/>
         <v>420935</v>
       </c>
-      <c r="L87" s="199">
-        <f>L85-(L74-L67)</f>
+      <c r="M87" s="199">
+        <f>M85-(M74-M67)</f>
         <v>284732</v>
       </c>
-      <c r="M87" s="283">
-        <v>284609</v>
-      </c>
       <c r="N87" s="143">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>222922.84999999998</v>
       </c>
       <c r="O87" s="143">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>203280.15712500003</v>
       </c>
       <c r="P87" s="143">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>187638.3575178124</v>
       </c>
       <c r="Q87" s="143">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>188356.54930540151</v>
       </c>
       <c r="R87" s="143">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>189439.22342519206</v>
       </c>
       <c r="S87" s="143">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>190893.61565944389</v>
       </c>
       <c r="T87" s="143">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>192440.95868391916</v>
       </c>
       <c r="U87" s="143">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>193835.40220004704</v>
       </c>
       <c r="V87" s="143">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>195064.71424715943</v>
       </c>
       <c r="W87" s="143">
-        <f t="shared" ref="W87:Y87" si="63">W85-(W74-W67)</f>
+        <f t="shared" ref="W87:Y87" si="68">W85-(W74-W67)</f>
         <v>0</v>
       </c>
       <c r="X87" s="143">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="Y87" s="143">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AL87" s="268"/>
     </row>
     <row r="88" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88"/>
-      <c r="E88" s="220"/>
       <c r="F88" s="220"/>
       <c r="G88" s="220"/>
       <c r="H88" s="220"/>
       <c r="I88" s="220"/>
       <c r="J88" s="220"/>
       <c r="K88" s="220"/>
-      <c r="L88" s="135"/>
+      <c r="L88" s="220"/>
       <c r="M88" s="135"/>
       <c r="N88" s="94"/>
       <c r="O88" s="94"/>
@@ -9459,14 +9266,13 @@
     </row>
     <row r="89" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="170"/>
-      <c r="E89" s="195"/>
       <c r="F89" s="195"/>
       <c r="G89" s="195"/>
       <c r="H89" s="195"/>
       <c r="I89" s="195"/>
       <c r="J89" s="195"/>
       <c r="K89" s="195"/>
-      <c r="L89" s="221"/>
+      <c r="L89" s="195"/>
       <c r="M89" s="221"/>
       <c r="N89" s="195"/>
       <c r="O89" s="195"/>
@@ -9482,8 +9288,8 @@
       <c r="A90" t="s">
         <v>158</v>
       </c>
-      <c r="K90" s="35"/>
       <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
       <c r="N90" s="35"/>
       <c r="O90" s="35"/>
       <c r="P90" s="35"/>
@@ -9506,8 +9312,8 @@
       <c r="AH90" s="35"/>
     </row>
     <row r="91" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="K91" s="35"/>
       <c r="L91" s="35"/>
+      <c r="M91" s="35"/>
       <c r="N91" s="35"/>
       <c r="O91" s="35"/>
       <c r="P91" s="35"/>
@@ -9530,8 +9336,8 @@
       <c r="AH91" s="35"/>
     </row>
     <row r="92" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="K92" s="35"/>
       <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
       <c r="N92" s="35"/>
       <c r="O92" s="35"/>
       <c r="P92" s="35"/>
@@ -9554,8 +9360,8 @@
       <c r="AH92" s="35"/>
     </row>
     <row r="93" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="K93" s="35"/>
       <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
       <c r="N93" s="35"/>
       <c r="O93" s="35"/>
       <c r="P93" s="35"/>
@@ -9578,8 +9384,8 @@
       <c r="AH93" s="35"/>
     </row>
     <row r="94" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="K94" s="35"/>
       <c r="L94" s="35"/>
+      <c r="M94" s="35"/>
       <c r="N94" s="35"/>
       <c r="O94" s="35"/>
       <c r="P94" s="35"/>
@@ -9602,8 +9408,8 @@
       <c r="AH94" s="35"/>
     </row>
     <row r="95" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="K95" s="35"/>
       <c r="L95" s="35"/>
+      <c r="M95" s="35"/>
       <c r="N95" s="35"/>
       <c r="O95" s="35"/>
       <c r="P95" s="35"/>
@@ -9628,11 +9434,11 @@
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="AC1:AE1"/>
@@ -9680,50 +9486,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="303" t="s">
+      <c r="A5" s="300" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="304"/>
-      <c r="C5" s="304"/>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="304"/>
-      <c r="J5" s="304"/>
-      <c r="K5" s="304"/>
-      <c r="L5" s="304"/>
-      <c r="M5" s="304"/>
-      <c r="N5" s="304"/>
-      <c r="O5" s="304"/>
-      <c r="P5" s="304"/>
-      <c r="Q5" s="304"/>
-      <c r="R5" s="304"/>
-      <c r="S5" s="304"/>
+      <c r="B5" s="301"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="301"/>
+      <c r="H5" s="301"/>
+      <c r="I5" s="301"/>
+      <c r="J5" s="301"/>
+      <c r="K5" s="301"/>
+      <c r="L5" s="301"/>
+      <c r="M5" s="301"/>
+      <c r="N5" s="301"/>
+      <c r="O5" s="301"/>
+      <c r="P5" s="301"/>
+      <c r="Q5" s="301"/>
+      <c r="R5" s="301"/>
+      <c r="S5" s="301"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="305" t="s">
+      <c r="A6" s="302" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="305"/>
-      <c r="C6" s="305"/>
-      <c r="D6" s="305"/>
-      <c r="E6" s="305"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="305"/>
-      <c r="H6" s="305"/>
-      <c r="I6" s="305"/>
-      <c r="J6" s="305"/>
-      <c r="K6" s="305"/>
-      <c r="L6" s="305"/>
-      <c r="M6" s="305"/>
-      <c r="N6" s="305"/>
-      <c r="O6" s="305"/>
-      <c r="P6" s="305"/>
-      <c r="Q6" s="305"/>
-      <c r="R6" s="305"/>
-      <c r="S6" s="305"/>
+      <c r="B6" s="302"/>
+      <c r="C6" s="302"/>
+      <c r="D6" s="302"/>
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
+      <c r="G6" s="302"/>
+      <c r="H6" s="302"/>
+      <c r="I6" s="302"/>
+      <c r="J6" s="302"/>
+      <c r="K6" s="302"/>
+      <c r="L6" s="302"/>
+      <c r="M6" s="302"/>
+      <c r="N6" s="302"/>
+      <c r="O6" s="302"/>
+      <c r="P6" s="302"/>
+      <c r="Q6" s="302"/>
+      <c r="R6" s="302"/>
+      <c r="S6" s="302"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -9764,8 +9570,8 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="131"/>
-      <c r="R8" s="306"/>
-      <c r="S8" s="307"/>
+      <c r="R8" s="303"/>
+      <c r="S8" s="304"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="130"/>
@@ -9965,7 +9771,7 @@
         <v>224</v>
       </c>
       <c r="F15" s="94">
-        <f>main!J76</f>
+        <f>main!K76</f>
         <v>0.67846773573296415</v>
       </c>
       <c r="G15" s="94">
@@ -10030,10 +9836,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="287" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="290"/>
+      <c r="B1" s="287"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -10041,18 +9847,18 @@
       <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="308" t="s">
+      <c r="Z1" s="305" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="308"/>
-      <c r="AB1" s="308"/>
-      <c r="AC1" s="289"/>
-      <c r="AD1" s="289"/>
-      <c r="AE1" s="289"/>
-      <c r="AF1" s="289"/>
+      <c r="AA1" s="305"/>
+      <c r="AB1" s="305"/>
+      <c r="AC1" s="286"/>
+      <c r="AD1" s="286"/>
+      <c r="AE1" s="286"/>
+      <c r="AF1" s="286"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="306" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="107"/>
@@ -10061,45 +9867,45 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="309"/>
+      <c r="A3" s="306"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="309"/>
+      <c r="A4" s="306"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="309"/>
+      <c r="A5" s="306"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="296" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="301"/>
-      <c r="G7" s="299" t="s">
+      <c r="D7" s="297"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="296" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="300"/>
-      <c r="I7" s="300"/>
-      <c r="J7" s="301"/>
-      <c r="K7" s="299" t="s">
+      <c r="H7" s="297"/>
+      <c r="I7" s="297"/>
+      <c r="J7" s="298"/>
+      <c r="K7" s="296" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="300"/>
-      <c r="M7" s="300"/>
-      <c r="N7" s="301"/>
+      <c r="L7" s="297"/>
+      <c r="M7" s="297"/>
+      <c r="N7" s="298"/>
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
@@ -11604,11 +11410,11 @@
       </c>
       <c r="D70" s="100"/>
       <c r="E70" s="102">
-        <f>main!K46/1000</f>
+        <f>main!L46/1000</f>
         <v>1086.548</v>
       </c>
       <c r="F70" s="102">
-        <f>main!L46/1000</f>
+        <f>main!M46/1000</f>
         <v>1213.308</v>
       </c>
       <c r="G70" s="102">
@@ -11980,88 +11786,88 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="310" t="s">
+      <c r="A2" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
-      <c r="F2" s="310"/>
-      <c r="G2" s="310"/>
-      <c r="H2" s="310"/>
-      <c r="I2" s="310"/>
-      <c r="J2" s="310"/>
+      <c r="B2" s="312"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="310" t="s">
+      <c r="A3" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="310"/>
-      <c r="C3" s="310"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="310"/>
-      <c r="F3" s="310"/>
-      <c r="G3" s="310"/>
-      <c r="H3" s="310"/>
-      <c r="I3" s="310"/>
-      <c r="J3" s="310"/>
+      <c r="B3" s="312"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="311"/>
-      <c r="B4" s="311"/>
-      <c r="C4" s="311"/>
-      <c r="D4" s="311"/>
-      <c r="E4" s="311"/>
-      <c r="F4" s="311"/>
-      <c r="G4" s="311"/>
-      <c r="H4" s="311"/>
-      <c r="I4" s="311"/>
-      <c r="J4" s="311"/>
-      <c r="K4" s="316" t="s">
+      <c r="A4" s="313"/>
+      <c r="B4" s="313"/>
+      <c r="C4" s="313"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="313"/>
+      <c r="J4" s="313"/>
+      <c r="K4" s="318" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="316"/>
-      <c r="M4" s="316"/>
-      <c r="N4" s="316"/>
+      <c r="L4" s="318"/>
+      <c r="M4" s="318"/>
+      <c r="N4" s="318"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="312" t="s">
+      <c r="C5" s="314" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="313"/>
-      <c r="E5" s="313"/>
-      <c r="F5" s="313"/>
-      <c r="G5" s="313"/>
-      <c r="H5" s="313"/>
-      <c r="I5" s="313"/>
-      <c r="J5" s="314"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="315"/>
+      <c r="J5" s="316"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="315" t="s">
+      <c r="L5" s="317" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="289"/>
-      <c r="N5" s="289"/>
+      <c r="M5" s="286"/>
+      <c r="N5" s="286"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="318">
+      <c r="C6" s="308">
         <v>2020</v>
       </c>
-      <c r="D6" s="319"/>
-      <c r="E6" s="319"/>
-      <c r="F6" s="319"/>
-      <c r="G6" s="319"/>
-      <c r="H6" s="319"/>
-      <c r="I6" s="319"/>
-      <c r="J6" s="320"/>
+      <c r="D6" s="309"/>
+      <c r="E6" s="309"/>
+      <c r="F6" s="309"/>
+      <c r="G6" s="309"/>
+      <c r="H6" s="309"/>
+      <c r="I6" s="309"/>
+      <c r="J6" s="310"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -12498,24 +12304,24 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="K22" s="289" t="s">
+      <c r="K22" s="286" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="289"/>
-      <c r="M22" s="289"/>
-      <c r="N22" s="289"/>
-      <c r="O22" s="289" t="s">
+      <c r="L22" s="286"/>
+      <c r="M22" s="286"/>
+      <c r="N22" s="286"/>
+      <c r="O22" s="286" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="289"/>
-      <c r="Q22" s="289"/>
-      <c r="R22" s="289"/>
-      <c r="S22" s="289" t="s">
+      <c r="P22" s="286"/>
+      <c r="Q22" s="286"/>
+      <c r="R22" s="286"/>
+      <c r="S22" s="286" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="289"/>
-      <c r="U22" s="289"/>
-      <c r="V22" s="289"/>
+      <c r="T22" s="286"/>
+      <c r="U22" s="286"/>
+      <c r="V22" s="286"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C23" s="67"/>
@@ -12532,12 +12338,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="321" t="s">
+      <c r="K23" s="311" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="321"/>
-      <c r="M23" s="321"/>
-      <c r="N23" s="321"/>
+      <c r="L23" s="311"/>
+      <c r="M23" s="311"/>
+      <c r="N23" s="311"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -12706,7 +12512,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="317" t="s">
+      <c r="I28" s="307" t="s">
         <v>259</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -12757,7 +12563,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="317"/>
+      <c r="I29" s="307"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -12806,7 +12612,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="317"/>
+      <c r="I30" s="307"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -12855,7 +12661,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="317"/>
+      <c r="I31" s="307"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -12917,7 +12723,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="317" t="s">
+      <c r="I33" s="307" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -12965,7 +12771,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="317"/>
+      <c r="I34" s="307"/>
       <c r="J34" t="s">
         <v>260</v>
       </c>
@@ -13144,6 +12950,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -13151,12 +12963,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13264,30 +13070,30 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="325" t="s">
+      <c r="E6" s="320" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="325"/>
-      <c r="G6" s="325"/>
-      <c r="H6" s="325"/>
-      <c r="I6" s="325"/>
-      <c r="J6" s="325"/>
-      <c r="K6" s="325"/>
-      <c r="L6" s="325"/>
-      <c r="M6" s="325"/>
-      <c r="N6" s="325"/>
-      <c r="O6" s="325"/>
-      <c r="P6" s="325"/>
-      <c r="Q6" s="325"/>
-      <c r="R6" s="325"/>
+      <c r="F6" s="320"/>
+      <c r="G6" s="320"/>
+      <c r="H6" s="320"/>
+      <c r="I6" s="320"/>
+      <c r="J6" s="320"/>
+      <c r="K6" s="320"/>
+      <c r="L6" s="320"/>
+      <c r="M6" s="320"/>
+      <c r="N6" s="320"/>
+      <c r="O6" s="320"/>
+      <c r="P6" s="320"/>
+      <c r="Q6" s="320"/>
+      <c r="R6" s="320"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="322" t="s">
+      <c r="A7" s="319" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="322"/>
-      <c r="C7" s="322"/>
-      <c r="D7" s="322"/>
+      <c r="B7" s="319"/>
+      <c r="C7" s="319"/>
+      <c r="D7" s="319"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -13305,11 +13111,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="322" t="s">
+      <c r="B8" s="319" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="322"/>
-      <c r="D8" s="322"/>
+      <c r="C8" s="319"/>
+      <c r="D8" s="319"/>
       <c r="E8" s="42">
         <v>1717.857</v>
       </c>
@@ -13355,11 +13161,11 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
-      <c r="B9" s="322" t="s">
+      <c r="B9" s="319" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="322"/>
-      <c r="D9" s="322"/>
+      <c r="C9" s="319"/>
+      <c r="D9" s="319"/>
       <c r="E9" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -13405,11 +13211,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
-      <c r="B10" s="322" t="s">
+      <c r="B10" s="319" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="322"/>
-      <c r="D10" s="322"/>
+      <c r="C10" s="319"/>
+      <c r="D10" s="319"/>
       <c r="E10" s="42">
         <v>230.245</v>
       </c>
@@ -13455,11 +13261,11 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="36"/>
-      <c r="B11" s="322" t="s">
+      <c r="B11" s="319" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="322"/>
-      <c r="D11" s="322"/>
+      <c r="C11" s="319"/>
+      <c r="D11" s="319"/>
       <c r="E11" s="42">
         <v>271.327</v>
       </c>
@@ -13554,10 +13360,10 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="322" t="s">
+      <c r="C13" s="319" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="322"/>
+      <c r="D13" s="319"/>
       <c r="E13" s="42">
         <v>3462.8009999999999</v>
       </c>
@@ -13708,11 +13514,11 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
-      <c r="B19" s="322" t="s">
+      <c r="B19" s="319" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="322"/>
-      <c r="D19" s="322"/>
+      <c r="C19" s="319"/>
+      <c r="D19" s="319"/>
       <c r="E19" s="42">
         <v>1717.857</v>
       </c>
@@ -13771,11 +13577,11 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
-      <c r="B20" s="322" t="s">
+      <c r="B20" s="319" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="322"/>
-      <c r="D20" s="322"/>
+      <c r="C20" s="319"/>
+      <c r="D20" s="319"/>
       <c r="E20" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -13835,11 +13641,11 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
-      <c r="B21" s="322" t="s">
+      <c r="B21" s="319" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="322"/>
-      <c r="D21" s="322"/>
+      <c r="C21" s="319"/>
+      <c r="D21" s="319"/>
       <c r="E21" s="42">
         <v>230.245</v>
       </c>
@@ -13898,11 +13704,11 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="36"/>
-      <c r="B22" s="322" t="s">
+      <c r="B22" s="319" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="322"/>
-      <c r="D22" s="322"/>
+      <c r="C22" s="319"/>
+      <c r="D22" s="319"/>
       <c r="E22" s="42">
         <v>271.327</v>
       </c>
@@ -14015,21 +13821,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="323" t="s">
+      <c r="H27" s="321" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="323"/>
-      <c r="J27" s="323"/>
-      <c r="K27" s="323"/>
-      <c r="L27" s="323"/>
-      <c r="M27" s="323"/>
-      <c r="N27" s="323"/>
-      <c r="O27" s="323"/>
-      <c r="P27" s="323"/>
-      <c r="Q27" s="323"/>
-      <c r="R27" s="323"/>
-      <c r="S27" s="323"/>
-      <c r="T27" s="323"/>
+      <c r="I27" s="321"/>
+      <c r="J27" s="321"/>
+      <c r="K27" s="321"/>
+      <c r="L27" s="321"/>
+      <c r="M27" s="321"/>
+      <c r="N27" s="321"/>
+      <c r="O27" s="321"/>
+      <c r="P27" s="321"/>
+      <c r="Q27" s="321"/>
+      <c r="R27" s="321"/>
+      <c r="S27" s="321"/>
+      <c r="T27" s="321"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -14345,21 +14151,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="324" t="s">
+      <c r="F37" s="322" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="324"/>
-      <c r="H37" s="324"/>
-      <c r="I37" s="324"/>
-      <c r="J37" s="324"/>
-      <c r="K37" s="324"/>
-      <c r="L37" s="324"/>
-      <c r="M37" s="324"/>
-      <c r="N37" s="324"/>
-      <c r="O37" s="324"/>
-      <c r="P37" s="324"/>
-      <c r="Q37" s="324"/>
-      <c r="R37" s="324"/>
+      <c r="G37" s="322"/>
+      <c r="H37" s="322"/>
+      <c r="I37" s="322"/>
+      <c r="J37" s="322"/>
+      <c r="K37" s="322"/>
+      <c r="L37" s="322"/>
+      <c r="M37" s="322"/>
+      <c r="N37" s="322"/>
+      <c r="O37" s="322"/>
+      <c r="P37" s="322"/>
+      <c r="Q37" s="322"/>
+      <c r="R37" s="322"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -14675,21 +14481,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="323" t="s">
+      <c r="F48" s="321" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="323"/>
-      <c r="H48" s="323"/>
-      <c r="I48" s="323"/>
-      <c r="J48" s="323"/>
-      <c r="K48" s="323"/>
-      <c r="L48" s="323"/>
-      <c r="M48" s="323"/>
-      <c r="N48" s="323"/>
-      <c r="O48" s="323"/>
-      <c r="P48" s="323"/>
-      <c r="Q48" s="323"/>
-      <c r="R48" s="323"/>
+      <c r="G48" s="321"/>
+      <c r="H48" s="321"/>
+      <c r="I48" s="321"/>
+      <c r="J48" s="321"/>
+      <c r="K48" s="321"/>
+      <c r="L48" s="321"/>
+      <c r="M48" s="321"/>
+      <c r="N48" s="321"/>
+      <c r="O48" s="321"/>
+      <c r="P48" s="321"/>
+      <c r="Q48" s="321"/>
+      <c r="R48" s="321"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -15001,12 +14807,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -15015,6 +14815,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15053,50 +14859,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="303" t="s">
+      <c r="A5" s="300" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="304"/>
-      <c r="C5" s="304"/>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="304"/>
-      <c r="J5" s="304"/>
-      <c r="K5" s="304"/>
-      <c r="L5" s="304"/>
-      <c r="M5" s="304"/>
-      <c r="N5" s="304"/>
-      <c r="O5" s="304"/>
-      <c r="P5" s="304"/>
-      <c r="Q5" s="304"/>
-      <c r="R5" s="304"/>
-      <c r="S5" s="304"/>
+      <c r="B5" s="301"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="301"/>
+      <c r="H5" s="301"/>
+      <c r="I5" s="301"/>
+      <c r="J5" s="301"/>
+      <c r="K5" s="301"/>
+      <c r="L5" s="301"/>
+      <c r="M5" s="301"/>
+      <c r="N5" s="301"/>
+      <c r="O5" s="301"/>
+      <c r="P5" s="301"/>
+      <c r="Q5" s="301"/>
+      <c r="R5" s="301"/>
+      <c r="S5" s="301"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="305" t="s">
+      <c r="A6" s="302" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="305"/>
-      <c r="C6" s="305"/>
-      <c r="D6" s="305"/>
-      <c r="E6" s="305"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="305"/>
-      <c r="H6" s="305"/>
-      <c r="I6" s="305"/>
-      <c r="J6" s="305"/>
-      <c r="K6" s="305"/>
-      <c r="L6" s="305"/>
-      <c r="M6" s="305"/>
-      <c r="N6" s="305"/>
-      <c r="O6" s="305"/>
-      <c r="P6" s="305"/>
-      <c r="Q6" s="305"/>
-      <c r="R6" s="305"/>
-      <c r="S6" s="305"/>
+      <c r="B6" s="302"/>
+      <c r="C6" s="302"/>
+      <c r="D6" s="302"/>
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
+      <c r="G6" s="302"/>
+      <c r="H6" s="302"/>
+      <c r="I6" s="302"/>
+      <c r="J6" s="302"/>
+      <c r="K6" s="302"/>
+      <c r="L6" s="302"/>
+      <c r="M6" s="302"/>
+      <c r="N6" s="302"/>
+      <c r="O6" s="302"/>
+      <c r="P6" s="302"/>
+      <c r="Q6" s="302"/>
+      <c r="R6" s="302"/>
+      <c r="S6" s="302"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -15136,10 +14942,10 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="306" t="s">
+      <c r="R8" s="303" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="307"/>
+      <c r="S8" s="304"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
@@ -18010,10 +17816,10 @@
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="326" t="s">
+      <c r="D75" s="323" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="327"/>
+      <c r="E75" s="324"/>
       <c r="F75" s="25">
         <v>-75.135000000000005</v>
       </c>
@@ -18688,7 +18494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -18711,23 +18517,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="291" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="295"/>
+      <c r="B1" s="292"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1" s="250"/>
-      <c r="J1" s="302" t="s">
+      <c r="J1" s="299" t="s">
         <v>283</v>
       </c>
-      <c r="V1" s="289"/>
-      <c r="W1" s="289"/>
-      <c r="X1" s="289"/>
-      <c r="Y1" s="289"/>
+      <c r="V1" s="286"/>
+      <c r="W1" s="286"/>
+      <c r="X1" s="286"/>
+      <c r="Y1" s="286"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="296" t="s">
+      <c r="A2" s="293" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="126"/>
@@ -18735,68 +18541,68 @@
         <v>193</v>
       </c>
       <c r="I2" s="251"/>
-      <c r="J2" s="302"/>
+      <c r="J2" s="299"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="297"/>
+      <c r="A3" s="294"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
       <c r="I3" s="251"/>
-      <c r="J3" s="302"/>
+      <c r="J3" s="299"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="297"/>
+      <c r="A4" s="294"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="298"/>
+      <c r="A5" s="295"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="296" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="301"/>
-      <c r="G7" s="299" t="s">
+      <c r="D7" s="297"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="296" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="300"/>
-      <c r="I7" s="300"/>
-      <c r="J7" s="301"/>
-      <c r="K7" s="299" t="s">
+      <c r="H7" s="297"/>
+      <c r="I7" s="297"/>
+      <c r="J7" s="298"/>
+      <c r="K7" s="296" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="300"/>
-      <c r="M7" s="300"/>
-      <c r="N7" s="300"/>
-      <c r="O7" s="299" t="s">
+      <c r="L7" s="297"/>
+      <c r="M7" s="297"/>
+      <c r="N7" s="297"/>
+      <c r="O7" s="296" t="s">
         <v>272</v>
       </c>
-      <c r="P7" s="300"/>
-      <c r="Q7" s="300"/>
-      <c r="R7" s="300"/>
-      <c r="S7" s="299" t="s">
+      <c r="P7" s="297"/>
+      <c r="Q7" s="297"/>
+      <c r="R7" s="297"/>
+      <c r="S7" s="296" t="s">
         <v>277</v>
       </c>
-      <c r="T7" s="300"/>
-      <c r="U7" s="300"/>
-      <c r="V7" s="300"/>
-      <c r="W7" s="299" t="s">
+      <c r="T7" s="297"/>
+      <c r="U7" s="297"/>
+      <c r="V7" s="297"/>
+      <c r="W7" s="296" t="s">
         <v>278</v>
       </c>
-      <c r="X7" s="300"/>
-      <c r="Y7" s="300"/>
-      <c r="Z7" s="300"/>
+      <c r="X7" s="297"/>
+      <c r="Y7" s="297"/>
+      <c r="Z7" s="297"/>
       <c r="AA7" s="231" t="s">
         <v>279</v>
       </c>
@@ -19793,11 +19599,11 @@
         <v>185</v>
       </c>
       <c r="D24" s="102">
-        <f>main!K86/1000</f>
+        <f>main!L86/1000</f>
         <v>156.18299999999999</v>
       </c>
       <c r="E24" s="104">
-        <f>main!L86/1000</f>
+        <f>main!M86/1000</f>
         <v>205.19499999999999</v>
       </c>
       <c r="F24" s="104">
@@ -19895,99 +19701,99 @@
         <v>178</v>
       </c>
       <c r="D25" s="102">
-        <f>D10</f>
+        <f t="shared" ref="D25:AA25" si="1">D10</f>
         <v>200.67100000000011</v>
       </c>
       <c r="E25" s="104">
-        <f>E10</f>
+        <f t="shared" si="1"/>
         <v>156.16</v>
       </c>
       <c r="F25" s="104">
-        <f>F10</f>
+        <f t="shared" si="1"/>
         <v>205.22800000000001</v>
       </c>
       <c r="G25" s="149">
-        <f>G10</f>
+        <f t="shared" si="1"/>
         <v>213.05988737442189</v>
       </c>
       <c r="H25" s="104">
-        <f>H10</f>
+        <f t="shared" si="1"/>
         <v>220.89177474884389</v>
       </c>
       <c r="I25" s="104">
-        <f>I10</f>
+        <f t="shared" si="1"/>
         <v>228.723662123266</v>
       </c>
       <c r="J25" s="104">
-        <f>J10</f>
+        <f t="shared" si="1"/>
         <v>236.55554949768791</v>
       </c>
       <c r="K25" s="149">
-        <f>K10</f>
+        <f t="shared" si="1"/>
         <v>234.20095430933171</v>
       </c>
       <c r="L25" s="104">
-        <f>L10</f>
+        <f t="shared" si="1"/>
         <v>231.84635912097539</v>
       </c>
       <c r="M25" s="232">
-        <f>M10</f>
+        <f t="shared" si="1"/>
         <v>229.49176393261911</v>
       </c>
       <c r="N25" s="104">
-        <f>N10</f>
+        <f t="shared" si="1"/>
         <v>227.13716874426279</v>
       </c>
       <c r="O25" s="149">
-        <f>O10</f>
+        <f t="shared" si="1"/>
         <v>224.80568263613071</v>
       </c>
       <c r="P25" s="104">
-        <f>P10</f>
+        <f t="shared" si="1"/>
         <v>222.4741965279984</v>
       </c>
       <c r="Q25" s="104">
-        <f>Q10</f>
+        <f t="shared" si="1"/>
         <v>220.14271041986621</v>
       </c>
       <c r="R25" s="104">
-        <f>R10</f>
+        <f t="shared" si="1"/>
         <v>217.81122431173389</v>
       </c>
       <c r="S25" s="149">
-        <f>S10</f>
+        <f t="shared" si="1"/>
         <v>220.26562871801039</v>
       </c>
       <c r="T25" s="104">
-        <f>T10</f>
+        <f t="shared" si="1"/>
         <v>222.7200331242868</v>
       </c>
       <c r="U25" s="104">
-        <f>U10</f>
+        <f t="shared" si="1"/>
         <v>225.17443753056341</v>
       </c>
       <c r="V25" s="104">
-        <f>V10</f>
+        <f t="shared" si="1"/>
         <v>227.62884193683999</v>
       </c>
       <c r="W25" s="149">
-        <f>W10</f>
+        <f t="shared" si="1"/>
         <v>230.7380036161324</v>
       </c>
       <c r="X25" s="104">
-        <f>X10</f>
+        <f t="shared" si="1"/>
         <v>233.8471652954247</v>
       </c>
       <c r="Y25" s="104">
-        <f>Y10</f>
+        <f t="shared" si="1"/>
         <v>236.9563269747172</v>
       </c>
       <c r="Z25" s="104">
-        <f>Z10</f>
+        <f t="shared" si="1"/>
         <v>240.0654886540095</v>
       </c>
       <c r="AA25" s="149">
-        <f>AA10</f>
+        <f t="shared" si="1"/>
         <v>243.3008699286211</v>
       </c>
       <c r="AB25" s="95"/>
@@ -20007,59 +19813,59 @@
       <c r="L26" s="239"/>
       <c r="M26" s="239"/>
       <c r="N26" s="239">
-        <f t="shared" ref="N26" si="1">(N25/M25)-1</f>
+        <f t="shared" ref="N26" si="2">(N25/M25)-1</f>
         <v>-1.0260042225513799E-2</v>
       </c>
       <c r="O26" s="256">
-        <f t="shared" ref="O26" si="2">(O25/N25)-1</f>
+        <f t="shared" ref="O26" si="3">(O25/N25)-1</f>
         <v>-1.0264661310263712E-2</v>
       </c>
       <c r="P26" s="239">
-        <f t="shared" ref="P26" si="3">(P25/O25)-1</f>
+        <f t="shared" ref="P26" si="4">(P25/O25)-1</f>
         <v>-1.0371117316932077E-2</v>
       </c>
       <c r="Q26" s="239">
-        <f t="shared" ref="Q26" si="4">(Q25/P25)-1</f>
+        <f t="shared" ref="Q26" si="5">(Q25/P25)-1</f>
         <v>-1.0479804599895615E-2</v>
       </c>
       <c r="R26" s="239">
-        <f t="shared" ref="R26" si="5">(R25/Q25)-1</f>
+        <f t="shared" ref="R26" si="6">(R25/Q25)-1</f>
         <v>-1.0590794052120045E-2</v>
       </c>
       <c r="S26" s="256">
-        <f t="shared" ref="S26" si="6">(S25/R25)-1</f>
+        <f t="shared" ref="S26" si="7">(S25/R25)-1</f>
         <v>1.126849368774363E-2</v>
       </c>
       <c r="T26" s="239">
-        <f t="shared" ref="T26" si="7">(T25/S25)-1</f>
+        <f t="shared" ref="T26" si="8">(T25/S25)-1</f>
         <v>1.1142929655260092E-2</v>
       </c>
       <c r="U26" s="239">
-        <f t="shared" ref="U26" si="8">(U25/T25)-1</f>
+        <f t="shared" ref="U26" si="9">(U25/T25)-1</f>
         <v>1.1020133087475514E-2</v>
       </c>
       <c r="V26" s="239">
-        <f t="shared" ref="V26" si="9">(V25/U25)-1</f>
+        <f t="shared" ref="V26" si="10">(V25/U25)-1</f>
         <v>1.0900013488180482E-2</v>
       </c>
       <c r="W26" s="256">
-        <f t="shared" ref="W26" si="10">(W25/V25)-1</f>
+        <f t="shared" ref="W26" si="11">(W25/V25)-1</f>
         <v>1.3658909182322043E-2</v>
       </c>
       <c r="X26" s="239">
-        <f t="shared" ref="X26" si="11">(X25/W25)-1</f>
+        <f t="shared" ref="X26" si="12">(X25/W25)-1</f>
         <v>1.3474857329808909E-2</v>
       </c>
       <c r="Y26" s="239">
-        <f t="shared" ref="Y26" si="12">(Y25/X25)-1</f>
+        <f t="shared" ref="Y26" si="13">(Y25/X25)-1</f>
         <v>1.3295699673607775E-2</v>
       </c>
       <c r="Z26" s="239">
-        <f t="shared" ref="Z26" si="13">(Z25/Y25)-1</f>
+        <f t="shared" ref="Z26" si="14">(Z25/Y25)-1</f>
         <v>1.3121243559890416E-2</v>
       </c>
       <c r="AA26" s="256">
-        <f t="shared" ref="AA26" si="14">(AA25/Z25)-1</f>
+        <f t="shared" ref="AA26" si="15">(AA25/Z25)-1</f>
         <v>1.3477077828852435E-2</v>
       </c>
       <c r="AB26" s="253"/>
@@ -20071,91 +19877,91 @@
       <c r="D27" s="103"/>
       <c r="E27" s="225"/>
       <c r="F27" s="225">
-        <f t="shared" ref="F27" si="15">F24-F25</f>
+        <f t="shared" ref="F27" si="16">F24-F25</f>
         <v>-22.257396859939746</v>
       </c>
       <c r="G27" s="150">
-        <f t="shared" ref="G27" si="16">G24-G25</f>
+        <f t="shared" ref="G27" si="17">G24-G25</f>
         <v>-26.789650629444708</v>
       </c>
       <c r="H27" s="225">
-        <f t="shared" ref="H27" si="17">H24-H25</f>
+        <f t="shared" ref="H27" si="18">H24-H25</f>
         <v>-32.762764634016577</v>
       </c>
       <c r="I27" s="225">
-        <f t="shared" ref="I27" si="18">I24-I25</f>
+        <f t="shared" ref="I27" si="19">I24-I25</f>
         <v>-40.594652008438686</v>
       </c>
       <c r="J27" s="225">
-        <f t="shared" ref="J27" si="19">J24-J25</f>
+        <f t="shared" ref="J27" si="20">J24-J25</f>
         <v>-48.426539382860597</v>
       </c>
       <c r="K27" s="150">
-        <f t="shared" ref="K27:AA27" si="20">K24-K25</f>
+        <f t="shared" ref="K27:AA27" si="21">K24-K25</f>
         <v>-46.071944194504397</v>
       </c>
       <c r="L27" s="225">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-0.30296205657262476</v>
       </c>
       <c r="M27" s="249">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.0516331317836602</v>
       </c>
       <c r="N27" s="225">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.0305832892202886</v>
       </c>
       <c r="O27" s="150">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.0097400394941758</v>
       </c>
       <c r="P27" s="225">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.9888967897680345</v>
       </c>
       <c r="Q27" s="225">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.9680535400418933</v>
       </c>
       <c r="R27" s="225">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.9472102903157804</v>
       </c>
       <c r="S27" s="150">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.9691524171809078</v>
       </c>
       <c r="T27" s="225">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.9910945440460637</v>
       </c>
       <c r="U27" s="225">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.0130366709111911</v>
       </c>
       <c r="V27" s="225">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.0349787977763469</v>
       </c>
       <c r="W27" s="150">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.0627743883631524</v>
       </c>
       <c r="X27" s="225">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.0905699789499579</v>
       </c>
       <c r="Y27" s="225">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.1183655695367065</v>
       </c>
       <c r="Z27" s="225">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.1461611601234836</v>
       </c>
       <c r="AA27" s="150">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.1750851411117083</v>
       </c>
       <c r="AB27" s="254"/>
@@ -20239,11 +20045,11 @@
       </c>
       <c r="D31" s="102"/>
       <c r="E31" s="104">
-        <f>main!K87/1000</f>
+        <f>main!L87/1000</f>
         <v>420.935</v>
       </c>
       <c r="F31" s="104">
-        <f>main!L87/1000</f>
+        <f>main!M87/1000</f>
         <v>284.73200000000003</v>
       </c>
       <c r="G31" s="104">
@@ -20275,59 +20081,59 @@
         <v>196.6039455094818</v>
       </c>
       <c r="N31" s="104">
-        <f t="shared" ref="N31:AA31" si="21">M31*(1 + N33)</f>
+        <f t="shared" ref="N31:AA31" si="22">M31*(1 + N33)</f>
         <v>201.92945643912574</v>
       </c>
       <c r="O31" s="104">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>206.82154024469929</v>
       </c>
       <c r="P31" s="104">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>242.80935879117246</v>
       </c>
       <c r="Q31" s="104">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>248.2396911085703</v>
       </c>
       <c r="R31" s="104">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>253.63657746143045</v>
       </c>
       <c r="S31" s="104">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>255.33471782645819</v>
       </c>
       <c r="T31" s="104">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>257.23353397871472</v>
       </c>
       <c r="U31" s="104">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>259.31630293592781</v>
       </c>
       <c r="V31" s="104">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>261.666639609443</v>
       </c>
       <c r="W31" s="104">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>263.5565443671378</v>
       </c>
       <c r="X31" s="104">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>265.41300316029486</v>
       </c>
       <c r="Y31" s="104">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>267.40324581160064</v>
       </c>
       <c r="Z31" s="104">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>269.54399530332751</v>
       </c>
       <c r="AA31" s="104">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>271.72009853733562</v>
       </c>
       <c r="AB31" s="95"/>
@@ -20337,99 +20143,99 @@
         <v>178</v>
       </c>
       <c r="D32" s="102">
-        <f>D11</f>
+        <f t="shared" ref="D32:AA32" si="23">D11</f>
         <v>186.02099999999999</v>
       </c>
       <c r="E32" s="104">
-        <f>E11</f>
+        <f t="shared" si="23"/>
         <v>436.94400000000019</v>
       </c>
       <c r="F32" s="104">
-        <f>F11</f>
+        <f t="shared" si="23"/>
         <v>875.8370000000001</v>
       </c>
       <c r="G32" s="149">
-        <f>G11</f>
+        <f t="shared" si="23"/>
         <v>853.37353126596815</v>
       </c>
       <c r="H32" s="104">
-        <f>H11</f>
+        <f t="shared" si="23"/>
         <v>830.91985713818588</v>
       </c>
       <c r="I32" s="104">
-        <f>I11</f>
+        <f t="shared" si="23"/>
         <v>808.47600210316944</v>
       </c>
       <c r="J32" s="104">
-        <f>J11</f>
+        <f t="shared" si="23"/>
         <v>789.98929054816381</v>
       </c>
       <c r="K32" s="149">
-        <f>K11</f>
+        <f t="shared" si="23"/>
         <v>809.82173278252503</v>
       </c>
       <c r="L32" s="232">
-        <f>L11</f>
+        <f t="shared" si="23"/>
         <v>833.74022244575849</v>
       </c>
       <c r="M32" s="104">
-        <f>M11</f>
+        <f t="shared" si="23"/>
         <v>858.68045768077434</v>
       </c>
       <c r="N32" s="104">
-        <f>N11</f>
+        <f t="shared" si="23"/>
         <v>881.93997137262988</v>
       </c>
       <c r="O32" s="149">
-        <f>O11</f>
+        <f t="shared" si="23"/>
         <v>903.30646404548429</v>
       </c>
       <c r="P32" s="104">
-        <f>P11</f>
+        <f t="shared" si="23"/>
         <v>1060.4855909462101</v>
       </c>
       <c r="Q32" s="104">
-        <f>Q11</f>
+        <f t="shared" si="23"/>
         <v>1084.2029188339</v>
       </c>
       <c r="R32" s="104">
-        <f>R11</f>
+        <f t="shared" si="23"/>
         <v>1107.7741693066</v>
       </c>
       <c r="S32" s="149">
-        <f>S11</f>
+        <f t="shared" si="23"/>
         <v>1115.1909072671201</v>
       </c>
       <c r="T32" s="104">
-        <f>T11</f>
+        <f t="shared" si="23"/>
         <v>1123.4841097175899</v>
       </c>
       <c r="U32" s="104">
-        <f>U11</f>
+        <f t="shared" si="23"/>
         <v>1132.5807379505</v>
       </c>
       <c r="V32" s="104">
-        <f>V11</f>
+        <f t="shared" si="23"/>
         <v>1142.84598550333</v>
       </c>
       <c r="W32" s="149">
-        <f>W11</f>
+        <f t="shared" si="23"/>
         <v>1151.10026686124</v>
       </c>
       <c r="X32" s="104">
-        <f>X11</f>
+        <f t="shared" si="23"/>
         <v>1159.20847080416</v>
       </c>
       <c r="Y32" s="104">
-        <f>Y11</f>
+        <f t="shared" si="23"/>
         <v>1167.9009844070299</v>
       </c>
       <c r="Z32" s="104">
-        <f>Z11</f>
+        <f t="shared" si="23"/>
         <v>1177.2508463773599</v>
       </c>
       <c r="AA32" s="149">
-        <f>AA11</f>
+        <f t="shared" si="23"/>
         <v>1186.75511810546</v>
       </c>
       <c r="AB32" s="95"/>
@@ -20448,63 +20254,63 @@
       <c r="K33" s="256"/>
       <c r="L33" s="239"/>
       <c r="M33" s="239">
-        <f t="shared" ref="M33" si="22">(M32/L32)-1</f>
+        <f t="shared" ref="M33" si="24">(M32/L32)-1</f>
         <v>2.9913676422920199E-2</v>
       </c>
       <c r="N33" s="239">
-        <f t="shared" ref="N33" si="23">(N32/M32)-1</f>
+        <f t="shared" ref="N33" si="25">(N32/M32)-1</f>
         <v>2.7087507912638031E-2</v>
       </c>
       <c r="O33" s="256">
-        <f t="shared" ref="O33" si="24">(O32/N32)-1</f>
+        <f t="shared" ref="O33" si="26">(O32/N32)-1</f>
         <v>2.4226697242897499E-2</v>
       </c>
       <c r="P33" s="239">
-        <f t="shared" ref="P33" si="25">(P32/O32)-1</f>
+        <f t="shared" ref="P33" si="27">(P32/O32)-1</f>
         <v>0.17400420915488035</v>
       </c>
       <c r="Q33" s="239">
-        <f t="shared" ref="Q33" si="26">(Q32/P32)-1</f>
+        <f t="shared" ref="Q33" si="28">(Q32/P32)-1</f>
         <v>2.2364592305802233E-2</v>
       </c>
       <c r="R33" s="239">
-        <f t="shared" ref="R33" si="27">(R32/Q32)-1</f>
+        <f t="shared" ref="R33" si="29">(R32/Q32)-1</f>
         <v>2.1740626282441555E-2</v>
       </c>
       <c r="S33" s="256">
-        <f t="shared" ref="S33" si="28">(S32/R32)-1</f>
+        <f t="shared" ref="S33" si="30">(S32/R32)-1</f>
         <v>6.6951714221343828E-3</v>
       </c>
       <c r="T33" s="239">
-        <f t="shared" ref="T33" si="29">(T32/S32)-1</f>
+        <f t="shared" ref="T33" si="31">(T32/S32)-1</f>
         <v>7.4365764609694018E-3</v>
       </c>
       <c r="U33" s="239">
-        <f t="shared" ref="U33" si="30">(U32/T32)-1</f>
+        <f t="shared" ref="U33" si="32">(U32/T32)-1</f>
         <v>8.0968018632650018E-3</v>
       </c>
       <c r="V33" s="239">
-        <f t="shared" ref="V33" si="31">(V32/U32)-1</f>
+        <f t="shared" ref="V33" si="33">(V32/U32)-1</f>
         <v>9.0635900901916422E-3</v>
       </c>
       <c r="W33" s="256">
-        <f t="shared" ref="W33" si="32">(W32/V32)-1</f>
+        <f t="shared" ref="W33" si="34">(W32/V32)-1</f>
         <v>7.2225666998118054E-3</v>
       </c>
       <c r="X33" s="239">
-        <f t="shared" ref="X33" si="33">(X32/W32)-1</f>
+        <f t="shared" ref="X33" si="35">(X32/W32)-1</f>
         <v>7.0438728721946564E-3</v>
       </c>
       <c r="Y33" s="239">
-        <f t="shared" ref="Y33" si="34">(Y32/X32)-1</f>
+        <f t="shared" ref="Y33" si="36">(Y32/X32)-1</f>
         <v>7.4986629426885276E-3</v>
       </c>
       <c r="Z33" s="239">
-        <f t="shared" ref="Z33" si="35">(Z32/Y32)-1</f>
+        <f t="shared" ref="Z33" si="37">(Z32/Y32)-1</f>
         <v>8.0056974822031446E-3</v>
       </c>
       <c r="AA33" s="256">
-        <f t="shared" ref="AA33" si="36">(AA32/Z32)-1</f>
+        <f t="shared" ref="AA33" si="38">(AA32/Z32)-1</f>
         <v>8.0732766150448665E-3</v>
       </c>
       <c r="AB33" s="253"/>
@@ -20516,91 +20322,91 @@
       <c r="D34" s="103"/>
       <c r="E34" s="225"/>
       <c r="F34" s="225">
-        <f t="shared" ref="F34" si="37">F31-F32</f>
+        <f t="shared" ref="F34" si="39">F31-F32</f>
         <v>-591.10500000000002</v>
       </c>
       <c r="G34" s="150">
-        <f t="shared" ref="G34" si="38">G31-G32</f>
+        <f t="shared" ref="G34" si="40">G31-G32</f>
         <v>-630.45068126596811</v>
       </c>
       <c r="H34" s="225">
-        <f t="shared" ref="H34" si="39">H31-H32</f>
+        <f t="shared" ref="H34" si="41">H31-H32</f>
         <v>-627.6397000131858</v>
       </c>
       <c r="I34" s="225">
-        <f t="shared" ref="I34" si="40">I31-I32</f>
+        <f t="shared" ref="I34" si="42">I31-I32</f>
         <v>-620.837644585357</v>
       </c>
       <c r="J34" s="225">
-        <f t="shared" ref="J34" si="41">J31-J32</f>
+        <f t="shared" ref="J34" si="43">J31-J32</f>
         <v>-601.63274124276234</v>
       </c>
       <c r="K34" s="150">
-        <f t="shared" ref="K34:N34" si="42">K31-K32</f>
+        <f t="shared" ref="K34:N34" si="44">K31-K32</f>
         <v>-620.38250935733299</v>
       </c>
       <c r="L34" s="249">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-642.84660678631462</v>
       </c>
       <c r="M34" s="225">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-662.07651217129251</v>
       </c>
       <c r="N34" s="225">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-680.01051493350417</v>
       </c>
       <c r="O34" s="150">
-        <f t="shared" ref="O34:AA34" si="43">O31-O32</f>
+        <f t="shared" ref="O34:AA34" si="45">O31-O32</f>
         <v>-696.48492380078505</v>
       </c>
       <c r="P34" s="150">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-817.67623215503761</v>
       </c>
       <c r="Q34" s="150">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-835.96322772532972</v>
       </c>
       <c r="R34" s="150">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-854.1375918451696</v>
       </c>
       <c r="S34" s="150">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-859.85618944066186</v>
       </c>
       <c r="T34" s="150">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-866.25057573887523</v>
       </c>
       <c r="U34" s="150">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-873.2644350145722</v>
       </c>
       <c r="V34" s="150">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-881.17934589388699</v>
       </c>
       <c r="W34" s="150">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-887.54372249410221</v>
       </c>
       <c r="X34" s="150">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-893.79546764386509</v>
       </c>
       <c r="Y34" s="150">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-900.49773859542927</v>
       </c>
       <c r="Z34" s="150">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-907.70685107403244</v>
       </c>
       <c r="AA34" s="150">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-915.03501956812443</v>
       </c>
       <c r="AB34" s="254"/>
@@ -20694,11 +20500,11 @@
       </c>
       <c r="D38" s="102"/>
       <c r="E38" s="104">
-        <f>main!K22</f>
+        <f>main!L22</f>
         <v>1779.8019999999999</v>
       </c>
       <c r="F38" s="104">
-        <f>main!L22</f>
+        <f>main!M22</f>
         <v>1836.9459999999999</v>
       </c>
       <c r="G38" s="149">
@@ -20740,35 +20546,35 @@
         <v>178</v>
       </c>
       <c r="D39" s="102">
-        <f>D12</f>
+        <f t="shared" ref="D39:K39" si="46">D12</f>
         <v>1862.4</v>
       </c>
       <c r="E39" s="104">
-        <f>E12</f>
+        <f t="shared" si="46"/>
         <v>1779.8</v>
       </c>
       <c r="F39" s="104">
-        <f>F12</f>
+        <f t="shared" si="46"/>
         <v>1836.9</v>
       </c>
       <c r="G39" s="149">
-        <f>G12</f>
+        <f t="shared" si="46"/>
         <v>1874.0452162092181</v>
       </c>
       <c r="H39" s="104">
-        <f>H12</f>
+        <f t="shared" si="46"/>
         <v>1905.1260939927499</v>
       </c>
       <c r="I39" s="104">
-        <f>I12</f>
+        <f t="shared" si="46"/>
         <v>1935.420345675816</v>
       </c>
       <c r="J39" s="104">
-        <f>J12</f>
+        <f t="shared" si="46"/>
         <v>1967.800071206628</v>
       </c>
       <c r="K39" s="149">
-        <f>K12</f>
+        <f t="shared" si="46"/>
         <v>1989.487169860176</v>
       </c>
       <c r="L39" s="104"/>
@@ -20796,23 +20602,23 @@
         <v>4.5999999999821739E-2</v>
       </c>
       <c r="G40" s="150">
-        <f t="shared" ref="G40:K40" si="44">G38-G39</f>
+        <f t="shared" ref="G40:K40" si="47">G38-G39</f>
         <v>9.1220108456809612E-2</v>
       </c>
       <c r="H40" s="225">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>9.2732986063538192E-2</v>
       </c>
       <c r="I40" s="225">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>9.4207574237998415E-2</v>
       </c>
       <c r="J40" s="225">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>9.5783673922369417E-2</v>
       </c>
       <c r="K40" s="150">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>9.6839304535023984E-2</v>
       </c>
       <c r="L40" s="225">
@@ -20944,11 +20750,11 @@
       </c>
       <c r="D44" s="102"/>
       <c r="E44" s="104">
-        <f>main!K26</f>
+        <f>main!L26</f>
         <v>54.2</v>
       </c>
       <c r="F44" s="104">
-        <f>main!L26</f>
+        <f>main!M26</f>
         <v>79.099999999999994</v>
       </c>
       <c r="G44" s="149">
@@ -20990,35 +20796,35 @@
         <v>178</v>
       </c>
       <c r="D45" s="102">
-        <f>D13</f>
+        <f t="shared" ref="D45:K45" si="48">D13</f>
         <v>62.7</v>
       </c>
       <c r="E45" s="104">
-        <f>E13</f>
+        <f t="shared" si="48"/>
         <v>54.2</v>
       </c>
       <c r="F45" s="104">
-        <f>F13</f>
+        <f t="shared" si="48"/>
         <v>79.099999999999994</v>
       </c>
       <c r="G45" s="149">
-        <f>G13</f>
+        <f t="shared" si="48"/>
         <v>80.69953541409393</v>
       </c>
       <c r="H45" s="104">
-        <f>H13</f>
+        <f t="shared" si="48"/>
         <v>82.037930227462851</v>
       </c>
       <c r="I45" s="104">
-        <f>I13</f>
+        <f t="shared" si="48"/>
         <v>83.342451599410424</v>
       </c>
       <c r="J45" s="104">
-        <f>J13</f>
+        <f t="shared" si="48"/>
         <v>84.736776978847132</v>
       </c>
       <c r="K45" s="149">
-        <f>K13</f>
+        <f t="shared" si="48"/>
         <v>85.670659881289055</v>
       </c>
       <c r="L45" s="104"/>
@@ -21048,23 +20854,23 @@
         <v>0</v>
       </c>
       <c r="G46" s="150">
-        <f t="shared" ref="G46:K46" si="45">G44-G45</f>
+        <f t="shared" ref="G46:K46" si="49">G44-G45</f>
         <v>1.9071502101439819E-3</v>
       </c>
       <c r="H46" s="225">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1.9387801313541786E-3</v>
       </c>
       <c r="I46" s="225">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>1.969609530561911E-3</v>
       </c>
       <c r="J46" s="225">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>2.0025612436285201E-3</v>
       </c>
       <c r="K46" s="150">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>2.024631444953684E-3</v>
       </c>
       <c r="L46" s="225">
@@ -21196,11 +21002,11 @@
       </c>
       <c r="D50" s="102"/>
       <c r="E50" s="104">
-        <f>main!K69/1000</f>
+        <f>main!L69/1000</f>
         <v>1336.6980000000001</v>
       </c>
       <c r="F50" s="104">
-        <f>main!L69/1000</f>
+        <f>main!M69/1000</f>
         <v>1328.8050000000001</v>
       </c>
       <c r="G50" s="149">
@@ -21224,67 +21030,67 @@
         <v>1456.3521805721477</v>
       </c>
       <c r="L50" s="104">
-        <f t="shared" ref="L50:AA50" si="46">K50*(1+L52)</f>
+        <f t="shared" ref="L50:AA50" si="50">K50*(1+L52)</f>
         <v>1492.4820059015367</v>
       </c>
       <c r="M50" s="104">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1528.6118312309259</v>
       </c>
       <c r="N50" s="104">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1564.7416565603151</v>
       </c>
       <c r="O50" s="149">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1569.166071496194</v>
       </c>
       <c r="P50" s="104">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1573.5904864320726</v>
       </c>
       <c r="Q50" s="104">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1578.0149013679513</v>
       </c>
       <c r="R50" s="104">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1582.4393163038303</v>
       </c>
       <c r="S50" s="149">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1594.4899061049841</v>
       </c>
       <c r="T50" s="104">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1606.5404959061379</v>
       </c>
       <c r="U50" s="104">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1618.5910857072909</v>
       </c>
       <c r="V50" s="104">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1630.6416755084458</v>
       </c>
       <c r="W50" s="149">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1669.5855382015102</v>
       </c>
       <c r="X50" s="104">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1708.5294008945755</v>
       </c>
       <c r="Y50" s="104">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1747.4732635876398</v>
       </c>
       <c r="Z50" s="104">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1786.4171262807042</v>
       </c>
       <c r="AA50" s="149">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1815.5043883220089</v>
       </c>
       <c r="AB50" s="95"/>
@@ -21294,99 +21100,99 @@
         <v>178</v>
       </c>
       <c r="D51" s="102">
-        <f>D15</f>
+        <f t="shared" ref="D51:AA51" si="51">D15</f>
         <v>1228.1289999999999</v>
       </c>
       <c r="E51" s="104">
-        <f>E15</f>
+        <f t="shared" si="51"/>
         <v>1336.74</v>
       </c>
       <c r="F51" s="104">
-        <f>F15</f>
+        <f t="shared" si="51"/>
         <v>1328.7719999999999</v>
       </c>
       <c r="G51" s="149">
-        <f>G15</f>
+        <f t="shared" si="51"/>
         <v>1334.5316252300349</v>
       </c>
       <c r="H51" s="104">
-        <f>H15</f>
+        <f t="shared" si="51"/>
         <v>1340.2912504600711</v>
       </c>
       <c r="I51" s="104">
-        <f>I15</f>
+        <f t="shared" si="51"/>
         <v>1346.050875690107</v>
       </c>
       <c r="J51" s="232">
-        <f>J15</f>
+        <f t="shared" si="51"/>
         <v>1351.810500920142</v>
       </c>
       <c r="K51" s="149">
-        <f>K15</f>
+        <f t="shared" si="51"/>
         <v>1386.199959089409</v>
       </c>
       <c r="L51" s="104">
-        <f>L15</f>
+        <f t="shared" si="51"/>
         <v>1420.5894172586759</v>
       </c>
       <c r="M51" s="104">
-        <f>M15</f>
+        <f t="shared" si="51"/>
         <v>1454.978875427943</v>
       </c>
       <c r="N51" s="104">
-        <f>N15</f>
+        <f t="shared" si="51"/>
         <v>1489.36833359721</v>
       </c>
       <c r="O51" s="149">
-        <f>O15</f>
+        <f t="shared" si="51"/>
         <v>1493.5796252647931</v>
       </c>
       <c r="P51" s="104">
-        <f>P15</f>
+        <f t="shared" si="51"/>
         <v>1497.7909169323759</v>
       </c>
       <c r="Q51" s="104">
-        <f>Q15</f>
+        <f t="shared" si="51"/>
         <v>1502.002208599959</v>
       </c>
       <c r="R51" s="104">
-        <f>R15</f>
+        <f t="shared" si="51"/>
         <v>1506.213500267542</v>
       </c>
       <c r="S51" s="149">
-        <f>S15</f>
+        <f t="shared" si="51"/>
         <v>1517.6836153346269</v>
       </c>
       <c r="T51" s="104">
-        <f>T15</f>
+        <f t="shared" si="51"/>
         <v>1529.153730401712</v>
       </c>
       <c r="U51" s="104">
-        <f>U15</f>
+        <f t="shared" si="51"/>
         <v>1540.6238454687959</v>
       </c>
       <c r="V51" s="104">
-        <f>V15</f>
+        <f t="shared" si="51"/>
         <v>1552.0939605358819</v>
       </c>
       <c r="W51" s="149">
-        <f>W15</f>
+        <f t="shared" si="51"/>
         <v>1589.1619043973051</v>
       </c>
       <c r="X51" s="104">
-        <f>X15</f>
+        <f t="shared" si="51"/>
         <v>1626.2298482587289</v>
       </c>
       <c r="Y51" s="104">
-        <f>Y15</f>
+        <f t="shared" si="51"/>
         <v>1663.2977921201521</v>
       </c>
       <c r="Z51" s="104">
-        <f>Z15</f>
+        <f t="shared" si="51"/>
         <v>1700.365735981575</v>
       </c>
       <c r="AA51" s="149">
-        <f>AA15</f>
+        <f t="shared" si="51"/>
         <v>1728.0518698642729</v>
       </c>
       <c r="AB51" s="95"/>
@@ -21403,71 +21209,71 @@
       <c r="I52" s="252"/>
       <c r="J52" s="252"/>
       <c r="K52" s="256">
-        <f t="shared" ref="K52" si="47">(K51/J51)-1</f>
+        <f t="shared" ref="K52" si="52">(K51/J51)-1</f>
         <v>2.5439555430187166E-2</v>
       </c>
       <c r="L52" s="239">
-        <f t="shared" ref="L52" si="48">(L51/K51)-1</f>
+        <f t="shared" ref="L52" si="53">(L51/K51)-1</f>
         <v>2.4808439751980105E-2</v>
       </c>
       <c r="M52" s="239">
-        <f t="shared" ref="M52" si="49">(M51/L51)-1</f>
+        <f t="shared" ref="M52" si="54">(M51/L51)-1</f>
         <v>2.4207880019005534E-2</v>
       </c>
       <c r="N52" s="239">
-        <f t="shared" ref="N52" si="50">(N51/M51)-1</f>
+        <f t="shared" ref="N52" si="55">(N51/M51)-1</f>
         <v>2.3635709596919297E-2</v>
       </c>
       <c r="O52" s="256">
-        <f t="shared" ref="O52" si="51">(O51/N51)-1</f>
+        <f t="shared" ref="O52" si="56">(O51/N51)-1</f>
         <v>2.8275689583192598E-3</v>
       </c>
       <c r="P52" s="239">
-        <f t="shared" ref="P52" si="52">(P51/O51)-1</f>
+        <f t="shared" ref="P52" si="57">(P51/O51)-1</f>
         <v>2.8195963551900238E-3</v>
       </c>
       <c r="Q52" s="239">
-        <f t="shared" ref="Q52" si="53">(Q51/P51)-1</f>
+        <f t="shared" ref="Q52" si="58">(Q51/P51)-1</f>
         <v>2.8116685846968359E-3</v>
       </c>
       <c r="R52" s="239">
-        <f t="shared" ref="R52" si="54">(R51/Q51)-1</f>
+        <f t="shared" ref="R52" si="59">(R51/Q51)-1</f>
         <v>2.8037852697357923E-3</v>
       </c>
       <c r="S52" s="256">
-        <f t="shared" ref="S52" si="55">(S51/R51)-1</f>
+        <f t="shared" ref="S52" si="60">(S51/R51)-1</f>
         <v>7.6151986853441045E-3</v>
       </c>
       <c r="T52" s="239">
-        <f t="shared" ref="T52" si="56">(T51/S51)-1</f>
+        <f t="shared" ref="T52" si="61">(T51/S51)-1</f>
         <v>7.5576457116564022E-3</v>
       </c>
       <c r="U52" s="239">
-        <f t="shared" ref="U52" si="57">(U51/T51)-1</f>
+        <f t="shared" ref="U52" si="62">(U51/T51)-1</f>
         <v>7.5009561426311322E-3</v>
       </c>
       <c r="V52" s="239">
-        <f t="shared" ref="V52" si="58">(V51/U51)-1</f>
+        <f t="shared" ref="V52" si="63">(V51/U51)-1</f>
         <v>7.4451106938409062E-3</v>
       </c>
       <c r="W52" s="256">
-        <f t="shared" ref="W52" si="59">(W51/V51)-1</f>
+        <f t="shared" ref="W52" si="64">(W51/V51)-1</f>
         <v>2.3882538560117128E-2</v>
       </c>
       <c r="X52" s="239">
-        <f t="shared" ref="X52" si="60">(X51/W51)-1</f>
+        <f t="shared" ref="X52" si="65">(X51/W51)-1</f>
         <v>2.3325467190507654E-2</v>
       </c>
       <c r="Y52" s="239">
-        <f t="shared" ref="Y52" si="61">(Y51/X51)-1</f>
+        <f t="shared" ref="Y52" si="66">(Y51/X51)-1</f>
         <v>2.2793791358037829E-2</v>
       </c>
       <c r="Z52" s="239">
-        <f t="shared" ref="Z52" si="62">(Z51/Y51)-1</f>
+        <f t="shared" ref="Z52" si="67">(Z51/Y51)-1</f>
         <v>2.2285813182120418E-2</v>
       </c>
       <c r="AA52" s="256">
-        <f t="shared" ref="AA52" si="63">(AA51/Z51)-1</f>
+        <f t="shared" ref="AA52" si="68">(AA51/Z51)-1</f>
         <v>1.6282458118761944E-2</v>
       </c>
       <c r="AB52" s="253"/>
@@ -21479,91 +21285,91 @@
       <c r="D53" s="103"/>
       <c r="E53" s="225"/>
       <c r="F53" s="225">
-        <f t="shared" ref="F53" si="64">F50-F51</f>
+        <f t="shared" ref="F53" si="69">F50-F51</f>
         <v>3.3000000000129148E-2</v>
       </c>
       <c r="G53" s="150">
-        <f t="shared" ref="G53" si="65">G50-G51</f>
+        <f t="shared" ref="G53" si="70">G50-G51</f>
         <v>39.284047628965254</v>
       </c>
       <c r="H53" s="225">
-        <f t="shared" ref="H53" si="66">H50-H51</f>
+        <f t="shared" ref="H53" si="71">H50-H51</f>
         <v>53.362256246811285</v>
       </c>
       <c r="I53" s="225">
-        <f t="shared" ref="I53" si="67">I50-I51</f>
+        <f t="shared" ref="I53" si="72">I50-I51</f>
         <v>63.467484623819473</v>
       </c>
       <c r="J53" s="249">
-        <f t="shared" ref="J53" si="68">J50-J51</f>
+        <f t="shared" ref="J53" si="73">J50-J51</f>
         <v>68.411854322616591</v>
       </c>
       <c r="K53" s="150">
-        <f t="shared" ref="K53:AA53" si="69">K50-K51</f>
+        <f t="shared" ref="K53:AA53" si="74">K50-K51</f>
         <v>70.152221482738696</v>
       </c>
       <c r="L53" s="225">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>71.892588642860801</v>
       </c>
       <c r="M53" s="225">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>73.632955802982906</v>
       </c>
       <c r="N53" s="225">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>75.373322963105011</v>
       </c>
       <c r="O53" s="150">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>75.586446231400942</v>
       </c>
       <c r="P53" s="225">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>75.799569499696645</v>
       </c>
       <c r="Q53" s="225">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>76.012692767992348</v>
       </c>
       <c r="R53" s="225">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>76.225816036288279</v>
       </c>
       <c r="S53" s="150">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>76.806290770357236</v>
       </c>
       <c r="T53" s="225">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>77.386765504425966</v>
       </c>
       <c r="U53" s="225">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>77.967240238494924</v>
       </c>
       <c r="V53" s="225">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>78.547714972563881</v>
       </c>
       <c r="W53" s="150">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>80.42363380420511</v>
       </c>
       <c r="X53" s="225">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>82.299552635846567</v>
       </c>
       <c r="Y53" s="225">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>84.175471467487796</v>
       </c>
       <c r="Z53" s="225">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>86.051390299129253</v>
       </c>
       <c r="AA53" s="150">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>87.452518457736005</v>
       </c>
       <c r="AB53" s="254"/>
@@ -21646,15 +21452,15 @@
         <v>190</v>
       </c>
       <c r="D57" s="102">
-        <f>main!J68/1000</f>
+        <f>main!K68/1000</f>
         <v>1574.462</v>
       </c>
       <c r="E57" s="104">
-        <f>main!K68/1000</f>
+        <f>main!L68/1000</f>
         <v>3713.565333333333</v>
       </c>
       <c r="F57" s="104">
-        <f>main!L68/1000</f>
+        <f>main!M68/1000</f>
         <v>2508.7139999999999</v>
       </c>
       <c r="G57" s="149">
@@ -21682,63 +21488,63 @@
         <v>1666.6590205531852</v>
       </c>
       <c r="M57" s="104">
-        <f t="shared" ref="M57:AA57" si="70">L57*(1+M59)</f>
+        <f t="shared" ref="M57:AA57" si="75">L57*(1+M59)</f>
         <v>1654.1233225320043</v>
       </c>
       <c r="N57" s="104">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>1614.0246827555854</v>
       </c>
       <c r="O57" s="104">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>1613.2462308130598</v>
       </c>
       <c r="P57" s="104">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>1613.2462308130598</v>
       </c>
       <c r="Q57" s="104">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>1613.2462308130598</v>
       </c>
       <c r="R57" s="104">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>1613.2462308130598</v>
       </c>
       <c r="S57" s="104">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>1613.2462308130598</v>
       </c>
       <c r="T57" s="104">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>1613.2462308130598</v>
       </c>
       <c r="U57" s="104">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>1613.2462308130598</v>
       </c>
       <c r="V57" s="104">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>1613.2462308130598</v>
       </c>
       <c r="W57" s="104">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>1613.2462308130598</v>
       </c>
       <c r="X57" s="104">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>1613.2462308130598</v>
       </c>
       <c r="Y57" s="104">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>1613.2462308130598</v>
       </c>
       <c r="Z57" s="104">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>1613.2462308130598</v>
       </c>
       <c r="AA57" s="104">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>1613.2462308130598</v>
       </c>
       <c r="AB57" s="95"/>
@@ -21748,99 +21554,99 @@
         <v>178</v>
       </c>
       <c r="D58" s="102">
-        <f>D16</f>
+        <f t="shared" ref="D58:AA58" si="76">D16</f>
         <v>1574.779</v>
       </c>
       <c r="E58" s="104">
-        <f>E16</f>
+        <f t="shared" si="76"/>
         <v>3697.6560000000009</v>
       </c>
       <c r="F58" s="104">
-        <f>F16</f>
+        <f t="shared" si="76"/>
         <v>1914.2629999999999</v>
       </c>
       <c r="G58" s="149">
-        <f>G16</f>
+        <f t="shared" si="76"/>
         <v>1652.519124685555</v>
       </c>
       <c r="H58" s="104">
-        <f>H16</f>
+        <f t="shared" si="76"/>
         <v>1447.016042358189</v>
       </c>
       <c r="I58" s="104">
-        <f>I16</f>
+        <f t="shared" si="76"/>
         <v>1282.003150290248</v>
       </c>
       <c r="J58" s="104">
-        <f>J16</f>
+        <f t="shared" si="76"/>
         <v>1167.646687976573</v>
       </c>
       <c r="K58" s="275">
-        <f>K16</f>
+        <f t="shared" si="76"/>
         <v>1195.5066238196489</v>
       </c>
       <c r="L58" s="104">
-        <f>L16</f>
+        <f t="shared" si="76"/>
         <v>1200.816625555186</v>
       </c>
       <c r="M58" s="104">
-        <f>M16</f>
+        <f t="shared" si="76"/>
         <v>1191.784739361826</v>
       </c>
       <c r="N58" s="104">
-        <f>N16</f>
+        <f t="shared" si="76"/>
         <v>1162.893938837019</v>
       </c>
       <c r="O58" s="149">
-        <f>O16</f>
+        <f t="shared" si="76"/>
         <v>1162.3330694430681</v>
       </c>
       <c r="P58" s="104">
-        <f>P16</f>
+        <f t="shared" si="76"/>
         <v>1162.3330694430681</v>
       </c>
       <c r="Q58" s="104">
-        <f>Q16</f>
+        <f t="shared" si="76"/>
         <v>1162.3330694430681</v>
       </c>
       <c r="R58" s="104">
-        <f>R16</f>
+        <f t="shared" si="76"/>
         <v>1162.3330694430681</v>
       </c>
       <c r="S58" s="149">
-        <f>S16</f>
+        <f t="shared" si="76"/>
         <v>1162.3330694430681</v>
       </c>
       <c r="T58" s="104">
-        <f>T16</f>
+        <f t="shared" si="76"/>
         <v>1162.3330694430681</v>
       </c>
       <c r="U58" s="104">
-        <f>U16</f>
+        <f t="shared" si="76"/>
         <v>1162.3330694430681</v>
       </c>
       <c r="V58" s="104">
-        <f>V16</f>
+        <f t="shared" si="76"/>
         <v>1162.3330694430681</v>
       </c>
       <c r="W58" s="149">
-        <f>W16</f>
+        <f t="shared" si="76"/>
         <v>1162.3330694430681</v>
       </c>
       <c r="X58" s="104">
-        <f>X16</f>
+        <f t="shared" si="76"/>
         <v>1162.3330694430681</v>
       </c>
       <c r="Y58" s="104">
-        <f>Y16</f>
+        <f t="shared" si="76"/>
         <v>1162.3330694430681</v>
       </c>
       <c r="Z58" s="104">
-        <f>Z16</f>
+        <f t="shared" si="76"/>
         <v>1162.3330694430681</v>
       </c>
       <c r="AA58" s="149">
-        <f>AA16</f>
+        <f t="shared" si="76"/>
         <v>1162.3330694430681</v>
       </c>
       <c r="AB58" s="95"/>
@@ -21858,67 +21664,67 @@
       <c r="J59" s="252"/>
       <c r="K59" s="256"/>
       <c r="L59" s="239">
-        <f t="shared" ref="L59" si="71">(L58/K58)-1</f>
+        <f t="shared" ref="L59" si="77">(L58/K58)-1</f>
         <v>4.4416330530829828E-3</v>
       </c>
       <c r="M59" s="239">
-        <f t="shared" ref="M59" si="72">(M58/L58)-1</f>
+        <f t="shared" ref="M59" si="78">(M58/L58)-1</f>
         <v>-7.521453318639848E-3</v>
       </c>
       <c r="N59" s="239">
-        <f t="shared" ref="N59" si="73">(N58/M58)-1</f>
+        <f t="shared" ref="N59" si="79">(N58/M58)-1</f>
         <v>-2.4241626504025726E-2</v>
       </c>
       <c r="O59" s="256">
-        <f t="shared" ref="O59" si="74">(O58/N58)-1</f>
+        <f t="shared" ref="O59" si="80">(O58/N58)-1</f>
         <v>-4.82304856203708E-4</v>
       </c>
       <c r="P59" s="239">
-        <f t="shared" ref="P59" si="75">(P58/O58)-1</f>
+        <f t="shared" ref="P59" si="81">(P58/O58)-1</f>
         <v>0</v>
       </c>
       <c r="Q59" s="239">
-        <f t="shared" ref="Q59" si="76">(Q58/P58)-1</f>
+        <f t="shared" ref="Q59" si="82">(Q58/P58)-1</f>
         <v>0</v>
       </c>
       <c r="R59" s="239">
-        <f t="shared" ref="R59" si="77">(R58/Q58)-1</f>
+        <f t="shared" ref="R59" si="83">(R58/Q58)-1</f>
         <v>0</v>
       </c>
       <c r="S59" s="256">
-        <f t="shared" ref="S59" si="78">(S58/R58)-1</f>
+        <f t="shared" ref="S59" si="84">(S58/R58)-1</f>
         <v>0</v>
       </c>
       <c r="T59" s="239">
-        <f t="shared" ref="T59" si="79">(T58/S58)-1</f>
+        <f t="shared" ref="T59" si="85">(T58/S58)-1</f>
         <v>0</v>
       </c>
       <c r="U59" s="239">
-        <f t="shared" ref="U59" si="80">(U58/T58)-1</f>
+        <f t="shared" ref="U59" si="86">(U58/T58)-1</f>
         <v>0</v>
       </c>
       <c r="V59" s="239">
-        <f t="shared" ref="V59" si="81">(V58/U58)-1</f>
+        <f t="shared" ref="V59" si="87">(V58/U58)-1</f>
         <v>0</v>
       </c>
       <c r="W59" s="256">
-        <f t="shared" ref="W59" si="82">(W58/V58)-1</f>
+        <f t="shared" ref="W59" si="88">(W58/V58)-1</f>
         <v>0</v>
       </c>
       <c r="X59" s="239">
-        <f t="shared" ref="X59" si="83">(X58/W58)-1</f>
+        <f t="shared" ref="X59" si="89">(X58/W58)-1</f>
         <v>0</v>
       </c>
       <c r="Y59" s="239">
-        <f t="shared" ref="Y59" si="84">(Y58/X58)-1</f>
+        <f t="shared" ref="Y59" si="90">(Y58/X58)-1</f>
         <v>0</v>
       </c>
       <c r="Z59" s="239">
-        <f t="shared" ref="Z59" si="85">(Z58/Y58)-1</f>
+        <f t="shared" ref="Z59" si="91">(Z58/Y58)-1</f>
         <v>0</v>
       </c>
       <c r="AA59" s="256">
-        <f t="shared" ref="AA59" si="86">(AA58/Z58)-1</f>
+        <f t="shared" ref="AA59" si="92">(AA58/Z58)-1</f>
         <v>0</v>
       </c>
       <c r="AB59" s="253"/>
@@ -21930,91 +21736,91 @@
       <c r="D60" s="103"/>
       <c r="E60" s="225"/>
       <c r="F60" s="225">
-        <f t="shared" ref="F60" si="87">F57-F58</f>
+        <f t="shared" ref="F60" si="93">F57-F58</f>
         <v>594.45100000000002</v>
       </c>
       <c r="G60" s="150">
-        <f t="shared" ref="G60" si="88">G57-G58</f>
+        <f t="shared" ref="G60" si="94">G57-G58</f>
         <v>314.07836196786297</v>
       </c>
       <c r="H60" s="225">
-        <f t="shared" ref="H60" si="89">H57-H58</f>
+        <f t="shared" ref="H60" si="95">H57-H58</f>
         <v>440.92675335280069</v>
       </c>
       <c r="I60" s="225">
-        <f t="shared" ref="I60" si="90">I57-I58</f>
+        <f t="shared" ref="I60" si="96">I57-I58</f>
         <v>517.2278108710334</v>
       </c>
       <c r="J60" s="225">
-        <f t="shared" ref="J60" si="91">J57-J58</f>
+        <f t="shared" ref="J60" si="97">J57-J58</f>
         <v>495.34254097599887</v>
       </c>
       <c r="K60" s="276">
-        <f t="shared" ref="K60" si="92">K57-K58</f>
+        <f t="shared" ref="K60" si="98">K57-K58</f>
         <v>463.78244356721166</v>
       </c>
       <c r="L60" s="225">
-        <f t="shared" ref="L60:AA60" si="93">L57-L58</f>
+        <f t="shared" ref="L60:AA60" si="99">L57-L58</f>
         <v>465.84239499799924</v>
       </c>
       <c r="M60" s="225">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>462.33858317017825</v>
       </c>
       <c r="N60" s="225">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>451.1307439185664</v>
       </c>
       <c r="O60" s="150">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>450.91316136999171</v>
       </c>
       <c r="P60" s="225">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>450.91316136999171</v>
       </c>
       <c r="Q60" s="225">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>450.91316136999171</v>
       </c>
       <c r="R60" s="225">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>450.91316136999171</v>
       </c>
       <c r="S60" s="150">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>450.91316136999171</v>
       </c>
       <c r="T60" s="225">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>450.91316136999171</v>
       </c>
       <c r="U60" s="225">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>450.91316136999171</v>
       </c>
       <c r="V60" s="225">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>450.91316136999171</v>
       </c>
       <c r="W60" s="150">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>450.91316136999171</v>
       </c>
       <c r="X60" s="225">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>450.91316136999171</v>
       </c>
       <c r="Y60" s="225">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>450.91316136999171</v>
       </c>
       <c r="Z60" s="225">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>450.91316136999171</v>
       </c>
       <c r="AA60" s="150">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>450.91316136999171</v>
       </c>
       <c r="AB60" s="254"/>
@@ -22108,11 +21914,11 @@
       </c>
       <c r="D64" s="100"/>
       <c r="E64" s="104">
-        <f>main!K46/1000</f>
+        <f>main!L46/1000</f>
         <v>1086.548</v>
       </c>
       <c r="F64" s="104">
-        <f>main!L46/1000</f>
+        <f>main!M46/1000</f>
         <v>1213.308</v>
       </c>
       <c r="G64" s="149">
@@ -22156,47 +21962,47 @@
         <v>76.163711052140215</v>
       </c>
       <c r="Q64" s="240">
-        <f t="shared" ref="Q64:AA64" si="94">P64*(1+Q66)</f>
+        <f t="shared" ref="Q64:AA64" si="100">P64*(1+Q66)</f>
         <v>76.505429431105526</v>
       </c>
       <c r="R64" s="240">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>76.852083742211434</v>
       </c>
       <c r="S64" s="257">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>77.203673985457925</v>
       </c>
       <c r="T64" s="240">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>77.559061099581882</v>
       </c>
       <c r="U64" s="240">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>77.91520758788127</v>
       </c>
       <c r="V64" s="240">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>78.27325251161939</v>
       </c>
       <c r="W64" s="257">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>78.633195870796172</v>
       </c>
       <c r="X64" s="240">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>78.993898604148441</v>
       </c>
       <c r="Y64" s="240">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>79.35270290206202</v>
       </c>
       <c r="Z64" s="240">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>79.711886887063343</v>
       </c>
       <c r="AA64" s="257">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>80.071070872064709</v>
       </c>
       <c r="AB64" s="95"/>
@@ -22206,99 +22012,99 @@
         <v>178</v>
       </c>
       <c r="D65" s="102">
-        <f t="shared" ref="D65:AA65" si="95">D19</f>
+        <f t="shared" ref="D65:AA65" si="101">D19</f>
         <v>74.5</v>
       </c>
       <c r="E65" s="104">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1085.9000000000001</v>
       </c>
       <c r="F65" s="104">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1212.7</v>
       </c>
       <c r="G65" s="149">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1216.671484401355</v>
       </c>
       <c r="H65" s="104">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1220.7940236769309</v>
       </c>
       <c r="I65" s="104">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1225.20608479476</v>
       </c>
       <c r="J65" s="104">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1229.970607285768</v>
       </c>
       <c r="K65" s="149">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1235.106473009233</v>
       </c>
       <c r="L65" s="232">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1240.437451278565</v>
       </c>
       <c r="M65" s="104">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1245.8565448911911</v>
       </c>
       <c r="N65" s="104">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1251.3448719878349</v>
       </c>
       <c r="O65" s="149">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1256.902432568495</v>
       </c>
       <c r="P65" s="104">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1262.5418145393589</v>
       </c>
       <c r="Q65" s="104">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1268.206372322592</v>
       </c>
       <c r="R65" s="104">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1273.9527514960271</v>
       </c>
       <c r="S65" s="149">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1279.7809520596641</v>
       </c>
       <c r="T65" s="104">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1285.6720921542269</v>
       </c>
       <c r="U65" s="104">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1291.5758201549741</v>
       </c>
       <c r="V65" s="104">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1297.511017921184</v>
       </c>
       <c r="W65" s="149">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1303.4776854528559</v>
       </c>
       <c r="X65" s="104">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1309.456940890713</v>
       </c>
       <c r="Y65" s="104">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1315.4047265631079</v>
       </c>
       <c r="Z65" s="104">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1321.3588061885951</v>
       </c>
       <c r="AA65" s="149">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>1327.3128858140831</v>
       </c>
       <c r="AB65" s="95"/>
@@ -22317,63 +22123,63 @@
       <c r="K66" s="238"/>
       <c r="L66" s="239"/>
       <c r="M66" s="239">
-        <f t="shared" ref="M66:AA66" si="96">(M65/L65)-1</f>
+        <f t="shared" ref="M66:AA66" si="102">(M65/L65)-1</f>
         <v>4.3686955815791517E-3</v>
       </c>
       <c r="N66" s="239">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>4.4052640885097194E-3</v>
       </c>
       <c r="O66" s="256">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>4.4412701127161114E-3</v>
       </c>
       <c r="P66" s="239">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>4.486730095143443E-3</v>
       </c>
       <c r="Q66" s="239">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>4.486629843067691E-3</v>
       </c>
       <c r="R66" s="239">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>4.5311073172666916E-3</v>
       </c>
       <c r="S66" s="256">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>4.5748953850861529E-3</v>
       </c>
       <c r="T66" s="239">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>4.6032409570417876E-3</v>
       </c>
       <c r="U66" s="239">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>4.591939139672041E-3</v>
       </c>
       <c r="V66" s="239">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>4.595315020296642E-3</v>
       </c>
       <c r="W66" s="256">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>4.5985486437190026E-3</v>
       </c>
       <c r="X66" s="239">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>4.5871559633026138E-3</v>
       </c>
       <c r="Y66" s="239">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>4.5421773612113192E-3</v>
       </c>
       <c r="Z66" s="239">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>4.5264240771309971E-3</v>
       </c>
       <c r="AA66" s="256">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>4.5060278840252099E-3</v>
       </c>
       <c r="AB66" s="253"/>
@@ -22389,87 +22195,87 @@
         <v>0.60799999999994725</v>
       </c>
       <c r="G67" s="150">
-        <f t="shared" ref="G67:AA67" si="97">G64-G65</f>
+        <f t="shared" ref="G67:AA67" si="103">G64-G65</f>
         <v>-833.73947605477315</v>
       </c>
       <c r="H67" s="225">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>-1120.5437736769309</v>
       </c>
       <c r="I67" s="225">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>-1124.95583479476</v>
       </c>
       <c r="J67" s="225">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>-1129.7203572857679</v>
       </c>
       <c r="K67" s="150">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>-1134.856223009233</v>
       </c>
       <c r="L67" s="225">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>-1165.6072012785651</v>
       </c>
       <c r="M67" s="225">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>-1170.6993843086477</v>
       </c>
       <c r="N67" s="225">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>-1175.8566242647828</v>
       </c>
       <c r="O67" s="150">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>-1181.0789211469692</v>
       </c>
       <c r="P67" s="225">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>-1186.3781034872188</v>
       </c>
       <c r="Q67" s="225">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>-1191.7009428914864</v>
       </c>
       <c r="R67" s="225">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>-1197.1006677538157</v>
       </c>
       <c r="S67" s="150">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>-1202.5772780742061</v>
       </c>
       <c r="T67" s="225">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>-1208.113031054645</v>
       </c>
       <c r="U67" s="225">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>-1213.6606125670928</v>
       </c>
       <c r="V67" s="225">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>-1219.2377654095646</v>
       </c>
       <c r="W67" s="150">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>-1224.8444895820596</v>
       </c>
       <c r="X67" s="225">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>-1230.4630422865646</v>
       </c>
       <c r="Y67" s="225">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>-1236.052023661046</v>
       </c>
       <c r="Z67" s="225">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>-1241.6469193015316</v>
       </c>
       <c r="AA67" s="150">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>-1247.2418149420184</v>
       </c>
       <c r="AB67" s="225"/>
@@ -22557,11 +22363,11 @@
       </c>
       <c r="D71" s="100"/>
       <c r="E71" s="226">
-        <f>main!K62/1000</f>
+        <f>main!L62/1000</f>
         <v>279.25</v>
       </c>
       <c r="F71" s="226">
-        <f>main!L62/1000</f>
+        <f>main!M62/1000</f>
         <v>286.95061436735779</v>
       </c>
       <c r="G71" s="151">
@@ -22609,43 +22415,43 @@
         <v>266.81611601692032</v>
       </c>
       <c r="R71" s="258">
-        <f t="shared" ref="R71:AA71" si="98">Q71*(1+R73)</f>
+        <f t="shared" ref="R71:AA71" si="104">Q71*(1+R73)</f>
         <v>279.80337812932891</v>
       </c>
       <c r="S71" s="259">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>281.66851724758942</v>
       </c>
       <c r="T71" s="258">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>283.60929960678783</v>
       </c>
       <c r="U71" s="258">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>285.59477857560597</v>
       </c>
       <c r="V71" s="258">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>287.63695688168502</v>
       </c>
       <c r="W71" s="259">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>288.20265857582245</v>
       </c>
       <c r="X71" s="258">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>289.49562212520686</v>
       </c>
       <c r="Y71" s="258">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>290.12695053666232</v>
       </c>
       <c r="Z71" s="258">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>290.79948831348418</v>
       </c>
       <c r="AA71" s="259">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>291.21361923811332</v>
       </c>
       <c r="AB71" s="95"/>
@@ -22655,99 +22461,99 @@
         <v>178</v>
       </c>
       <c r="D72" s="102">
-        <f t="shared" ref="D72:O72" si="99">D20</f>
+        <f t="shared" ref="D72:O72" si="105">D20</f>
         <v>204.37100000000001</v>
       </c>
       <c r="E72" s="104">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>884.2600000000001</v>
       </c>
       <c r="F72" s="104">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>242.12799999999999</v>
       </c>
       <c r="G72" s="149">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>229.13072093917029</v>
       </c>
       <c r="H72" s="104">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>213.52634779891321</v>
       </c>
       <c r="I72" s="104">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>198.35649033856069</v>
       </c>
       <c r="J72" s="104">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>183.7659871180808</v>
       </c>
       <c r="K72" s="149">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>195.0533202337098</v>
       </c>
       <c r="L72" s="104">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>207.1344126604987</v>
       </c>
       <c r="M72" s="104">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>219.29731729779769</v>
       </c>
       <c r="N72" s="104">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>232.19049133666189</v>
       </c>
       <c r="O72" s="149">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>244.4440181553536</v>
       </c>
       <c r="P72" s="232">
-        <f t="shared" ref="P72:AA72" si="100">P20</f>
+        <f t="shared" ref="P72:AA72" si="106">P20</f>
         <v>257.44254207870313</v>
       </c>
       <c r="Q72" s="240">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>269.82423671275291</v>
       </c>
       <c r="R72" s="240">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>282.9579189609679</v>
       </c>
       <c r="S72" s="257">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>284.8440859079293</v>
       </c>
       <c r="T72" s="240">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>286.80674890787742</v>
       </c>
       <c r="U72" s="240">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>288.81461243301999</v>
       </c>
       <c r="V72" s="240">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>290.87981453136018</v>
       </c>
       <c r="W72" s="257">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>291.45189402230841</v>
       </c>
       <c r="X72" s="240">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>292.75943461625042</v>
       </c>
       <c r="Y72" s="240">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>293.39788070893411</v>
       </c>
       <c r="Z72" s="240">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>294.07800076689921</v>
       </c>
       <c r="AA72" s="257">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>294.49680065914453</v>
       </c>
       <c r="AB72" s="95"/>
@@ -22770,47 +22576,47 @@
       <c r="O73" s="256"/>
       <c r="P73" s="239"/>
       <c r="Q73" s="239">
-        <f t="shared" ref="Q73" si="101">(Q72/P72)-1</f>
+        <f t="shared" ref="Q73" si="107">(Q72/P72)-1</f>
         <v>4.8094982803054132E-2</v>
       </c>
       <c r="R73" s="239">
-        <f t="shared" ref="R73" si="102">(R72/Q72)-1</f>
+        <f t="shared" ref="R73" si="108">(R72/Q72)-1</f>
         <v>4.867495377072717E-2</v>
       </c>
       <c r="S73" s="256">
-        <f t="shared" ref="S73" si="103">(S72/R72)-1</f>
+        <f t="shared" ref="S73" si="109">(S72/R72)-1</f>
         <v>6.6658920658149157E-3</v>
       </c>
       <c r="T73" s="239">
-        <f t="shared" ref="T73" si="104">(T72/S72)-1</f>
+        <f t="shared" ref="T73" si="110">(T72/S72)-1</f>
         <v>6.8903063010496979E-3</v>
       </c>
       <c r="U73" s="239">
-        <f t="shared" ref="U73" si="105">(U72/T72)-1</f>
+        <f t="shared" ref="U73" si="111">(U72/T72)-1</f>
         <v>7.0007541063390466E-3</v>
       </c>
       <c r="V73" s="239">
-        <f t="shared" ref="V73" si="106">(V72/U72)-1</f>
+        <f t="shared" ref="V73" si="112">(V72/U72)-1</f>
         <v>7.1506149946589659E-3</v>
       </c>
       <c r="W73" s="256">
-        <f t="shared" ref="W73" si="107">(W72/V72)-1</f>
+        <f t="shared" ref="W73" si="113">(W72/V72)-1</f>
         <v>1.96672117613228E-3</v>
       </c>
       <c r="X73" s="239">
-        <f t="shared" ref="X73" si="108">(X72/W72)-1</f>
+        <f t="shared" ref="X73" si="114">(X72/W72)-1</f>
         <v>4.4862998688968148E-3</v>
       </c>
       <c r="Y73" s="239">
-        <f t="shared" ref="Y73" si="109">(Y72/X72)-1</f>
+        <f t="shared" ref="Y73" si="115">(Y72/X72)-1</f>
         <v>2.1807874220025614E-3</v>
       </c>
       <c r="Z73" s="239">
-        <f t="shared" ref="Z73" si="110">(Z72/Y72)-1</f>
+        <f t="shared" ref="Z73" si="116">(Z72/Y72)-1</f>
         <v>2.3180810179055378E-3</v>
       </c>
       <c r="AA73" s="256">
-        <f t="shared" ref="AA73" si="111">(AA72/Z72)-1</f>
+        <f t="shared" ref="AA73" si="117">(AA72/Z72)-1</f>
         <v>1.4241116001645349E-3</v>
       </c>
       <c r="AB73" s="253"/>
@@ -22826,87 +22632,87 @@
         <v>44.822614367357801</v>
       </c>
       <c r="G74" s="150">
-        <f t="shared" ref="G74:K74" si="112">G71-G72</f>
+        <f t="shared" ref="G74:K74" si="118">G71-G72</f>
         <v>69.242163837897039</v>
       </c>
       <c r="H74" s="225">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>68.614647648729658</v>
       </c>
       <c r="I74" s="225">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>56.665943583511762</v>
       </c>
       <c r="J74" s="225">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>72.288989016896693</v>
       </c>
       <c r="K74" s="150">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>56.491059459541219</v>
       </c>
       <c r="L74" s="225">
-        <f t="shared" ref="L74:N74" si="113">L71-L72</f>
+        <f t="shared" ref="L74:N74" si="119">L71-L72</f>
         <v>40.106394189216502</v>
       </c>
       <c r="M74" s="225">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>29.661254484149993</v>
       </c>
       <c r="N74" s="225">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>18.676309913851043</v>
       </c>
       <c r="O74" s="150">
-        <f t="shared" ref="O74:AA74" si="114">O71-O72</f>
+        <f t="shared" ref="O74:AA74" si="120">O71-O72</f>
         <v>8.1784586186428498</v>
       </c>
       <c r="P74" s="249">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>-2.8700840526758213</v>
       </c>
       <c r="Q74" s="260">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>-3.0081206958325879</v>
       </c>
       <c r="R74" s="260">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>-3.1545408316389967</v>
       </c>
       <c r="S74" s="261">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>-3.1755686603398772</v>
       </c>
       <c r="T74" s="260">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>-3.1974493010895912</v>
       </c>
       <c r="U74" s="260">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>-3.2198338574140166</v>
       </c>
       <c r="V74" s="260">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>-3.2428576496751589</v>
       </c>
       <c r="W74" s="261">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>-3.2492354464859545</v>
       </c>
       <c r="X74" s="260">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>-3.2638124910435522</v>
       </c>
       <c r="Y74" s="260">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>-3.2709301722717896</v>
       </c>
       <c r="Z74" s="260">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>-3.2785124534150327</v>
       </c>
       <c r="AA74" s="261">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>-3.2831814210312018</v>
       </c>
       <c r="AB74" s="254"/>
@@ -23776,36 +23582,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="D1" s="289" t="s">
+      <c r="D1" s="286" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
-      <c r="H1" s="289" t="s">
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="289"/>
-      <c r="J1" s="289"/>
-      <c r="K1" s="289"/>
-      <c r="L1" s="289" t="s">
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="289"/>
-      <c r="N1" s="289"/>
-      <c r="O1" s="289"/>
-      <c r="P1" s="289" t="s">
+      <c r="M1" s="286"/>
+      <c r="N1" s="286"/>
+      <c r="O1" s="286"/>
+      <c r="P1" s="286" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="289"/>
-      <c r="R1" s="289"/>
-      <c r="S1" s="289"/>
-      <c r="T1" s="289" t="s">
+      <c r="Q1" s="286"/>
+      <c r="R1" s="286"/>
+      <c r="S1" s="286"/>
+      <c r="T1" s="286" t="s">
         <v>268</v>
       </c>
-      <c r="U1" s="289"/>
-      <c r="V1" s="289"/>
-      <c r="W1" s="289"/>
+      <c r="U1" s="286"/>
+      <c r="V1" s="286"/>
+      <c r="W1" s="286"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D2" s="199" t="s">
@@ -23874,35 +23680,35 @@
         <v>14</v>
       </c>
       <c r="D3" s="199">
-        <f>main!E30</f>
+        <f>main!F30</f>
         <v>2220523</v>
       </c>
       <c r="E3" s="199">
-        <f>main!F30</f>
+        <f>main!G30</f>
         <v>2298792</v>
       </c>
       <c r="F3" s="199">
-        <f>main!G30</f>
+        <f>main!H30</f>
         <v>2315842</v>
       </c>
       <c r="G3" s="199">
-        <f>main!H30</f>
+        <f>main!I30</f>
         <v>2331428</v>
       </c>
       <c r="H3" s="199">
-        <f>main!I30</f>
+        <f>main!J30</f>
         <v>2347737</v>
       </c>
       <c r="I3" s="199">
-        <f>main!J30</f>
+        <f>main!K30</f>
         <v>2422546</v>
       </c>
       <c r="J3" s="199">
-        <f>main!K30</f>
+        <f>main!L30</f>
         <v>4815254</v>
       </c>
       <c r="K3" s="199">
-        <f>main!L30</f>
+        <f>main!M30</f>
         <v>3488125</v>
       </c>
       <c r="L3" s="267">
@@ -23951,35 +23757,35 @@
         <v>215</v>
       </c>
       <c r="D4" s="199">
-        <f>main!E31</f>
+        <f>main!F31</f>
         <v>753311</v>
       </c>
       <c r="E4" s="199">
-        <f>main!F31</f>
+        <f>main!G31</f>
         <v>767353</v>
       </c>
       <c r="F4" s="199">
-        <f>main!G31</f>
+        <f>main!H31</f>
         <v>779707</v>
       </c>
       <c r="G4" s="199">
-        <f>main!H31</f>
+        <f>main!I31</f>
         <v>789893</v>
       </c>
       <c r="H4" s="199">
-        <f>main!I31</f>
+        <f>main!J31</f>
         <v>797912</v>
       </c>
       <c r="I4" s="199">
-        <f>main!J31</f>
+        <f>main!K31</f>
         <v>804655</v>
       </c>
       <c r="J4" s="199">
-        <f>main!K31</f>
+        <f>main!L31</f>
         <v>824058</v>
       </c>
       <c r="K4" s="199">
-        <f>main!L31</f>
+        <f>main!M31</f>
         <v>842733</v>
       </c>
       <c r="L4" s="220">
@@ -24037,35 +23843,35 @@
         <v>15</v>
       </c>
       <c r="D5" s="199">
-        <f>main!E71</f>
+        <f>main!F71</f>
         <v>728844</v>
       </c>
       <c r="E5" s="199">
-        <f>main!F71</f>
+        <f>main!G71</f>
         <v>738714</v>
       </c>
       <c r="F5" s="199">
-        <f>main!G71</f>
+        <f>main!H71</f>
         <v>755204</v>
       </c>
       <c r="G5" s="199">
-        <f>main!H71</f>
+        <f>main!I71</f>
         <v>763370</v>
       </c>
       <c r="H5" s="199">
-        <f>main!I71</f>
+        <f>main!J71</f>
         <v>760967</v>
       </c>
       <c r="I5" s="199">
-        <f>main!J71</f>
+        <f>main!K71</f>
         <v>767087</v>
       </c>
       <c r="J5" s="199">
-        <f>main!K71</f>
+        <f>main!L71</f>
         <v>812158</v>
       </c>
       <c r="K5" s="199">
-        <f>main!L71</f>
+        <f>main!M71</f>
         <v>835999</v>
       </c>
       <c r="L5" s="274">
@@ -24114,35 +23920,35 @@
         <v>214</v>
       </c>
       <c r="D6" s="199">
-        <f>main!E74</f>
+        <f>main!F74</f>
         <v>589819</v>
       </c>
       <c r="E6" s="199">
-        <f>main!F74</f>
+        <f>main!G74</f>
         <v>599372</v>
       </c>
       <c r="F6" s="199">
-        <f>main!G74</f>
+        <f>main!H74</f>
         <v>614976</v>
       </c>
       <c r="G6" s="199">
-        <f>main!H74</f>
+        <f>main!I74</f>
         <v>622265</v>
       </c>
       <c r="H6" s="199">
-        <f>main!I74</f>
+        <f>main!J74</f>
         <v>619632</v>
       </c>
       <c r="I6" s="199">
-        <f>main!J74</f>
+        <f>main!K74</f>
         <v>624096</v>
       </c>
       <c r="J6" s="199">
-        <f>main!K74</f>
+        <f>main!L74</f>
         <v>668823</v>
       </c>
       <c r="K6" s="199">
-        <f>main!L74</f>
+        <f>main!M74</f>
         <v>691267</v>
       </c>
       <c r="L6" s="35">
@@ -24215,22 +24021,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="291" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="295"/>
+      <c r="B1" s="292"/>
       <c r="C1" s="35"/>
       <c r="I1" s="250"/>
-      <c r="J1" s="302" t="s">
+      <c r="J1" s="299" t="s">
         <v>283</v>
       </c>
-      <c r="V1" s="289"/>
-      <c r="W1" s="289"/>
-      <c r="X1" s="289"/>
-      <c r="Y1" s="289"/>
+      <c r="V1" s="286"/>
+      <c r="W1" s="286"/>
+      <c r="X1" s="286"/>
+      <c r="Y1" s="286"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="296" t="s">
+      <c r="A2" s="293" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="126"/>
@@ -24239,20 +24045,20 @@
       </c>
       <c r="H2" s="95"/>
       <c r="I2" s="251"/>
-      <c r="J2" s="302"/>
+      <c r="J2" s="299"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="297"/>
+      <c r="A3" s="294"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="251"/>
-      <c r="J3" s="302"/>
+      <c r="J3" s="299"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="297"/>
+      <c r="A4" s="294"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>195</v>
@@ -24262,7 +24068,7 @@
       <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="298"/>
+      <c r="A5" s="295"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>182</v>
@@ -24277,42 +24083,42 @@
       <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="296" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="301"/>
-      <c r="G7" s="299" t="s">
+      <c r="D7" s="297"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="296" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="300"/>
-      <c r="I7" s="300"/>
-      <c r="J7" s="301"/>
-      <c r="K7" s="299" t="s">
+      <c r="H7" s="297"/>
+      <c r="I7" s="297"/>
+      <c r="J7" s="298"/>
+      <c r="K7" s="296" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="300"/>
-      <c r="M7" s="300"/>
-      <c r="N7" s="300"/>
-      <c r="O7" s="299" t="s">
+      <c r="L7" s="297"/>
+      <c r="M7" s="297"/>
+      <c r="N7" s="297"/>
+      <c r="O7" s="296" t="s">
         <v>272</v>
       </c>
-      <c r="P7" s="300"/>
-      <c r="Q7" s="300"/>
-      <c r="R7" s="300"/>
-      <c r="S7" s="299" t="s">
+      <c r="P7" s="297"/>
+      <c r="Q7" s="297"/>
+      <c r="R7" s="297"/>
+      <c r="S7" s="296" t="s">
         <v>277</v>
       </c>
-      <c r="T7" s="300"/>
-      <c r="U7" s="300"/>
-      <c r="V7" s="300"/>
-      <c r="W7" s="299" t="s">
+      <c r="T7" s="297"/>
+      <c r="U7" s="297"/>
+      <c r="V7" s="297"/>
+      <c r="W7" s="296" t="s">
         <v>278</v>
       </c>
-      <c r="X7" s="300"/>
-      <c r="Y7" s="300"/>
-      <c r="Z7" s="300"/>
+      <c r="X7" s="297"/>
+      <c r="Y7" s="297"/>
+      <c r="Z7" s="297"/>
       <c r="AA7" s="231" t="s">
         <v>279</v>
       </c>
@@ -27861,28 +27667,28 @@
       <c r="A2" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="287">
+      <c r="B2" s="284">
         <v>20909.900000000001</v>
       </c>
-      <c r="C2" s="287">
+      <c r="C2" s="284">
         <v>21115.3</v>
       </c>
-      <c r="D2" s="287">
+      <c r="D2" s="284">
         <v>21329.9</v>
       </c>
-      <c r="E2" s="287">
+      <c r="E2" s="284">
         <v>21540.3</v>
       </c>
-      <c r="F2" s="287">
+      <c r="F2" s="284">
         <v>21747.4</v>
       </c>
-      <c r="G2" s="287">
+      <c r="G2" s="284">
         <v>21561.1</v>
       </c>
-      <c r="H2" s="287">
+      <c r="H2" s="284">
         <v>19520.099999999999</v>
       </c>
-      <c r="I2" s="287">
+      <c r="I2" s="284">
         <v>21157.1</v>
       </c>
     </row>
@@ -27890,28 +27696,28 @@
       <c r="A3" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="287">
+      <c r="B3" s="284">
         <v>18813.900000000001</v>
       </c>
-      <c r="C3" s="287">
+      <c r="C3" s="284">
         <v>18950.3</v>
       </c>
-      <c r="D3" s="287">
+      <c r="D3" s="284">
         <v>19020.599999999999</v>
       </c>
-      <c r="E3" s="287">
+      <c r="E3" s="284">
         <v>19141.7</v>
       </c>
-      <c r="F3" s="287">
+      <c r="F3" s="284">
         <v>19254</v>
       </c>
-      <c r="G3" s="287">
+      <c r="G3" s="284">
         <v>19010.8</v>
       </c>
-      <c r="H3" s="287">
+      <c r="H3" s="284">
         <v>17302.5</v>
       </c>
-      <c r="I3" s="287">
+      <c r="I3" s="284">
         <v>18583.5</v>
       </c>
     </row>
@@ -27919,28 +27725,28 @@
       <c r="A4" t="s">
         <v>297</v>
       </c>
-      <c r="B4" s="287">
+      <c r="B4" s="284">
         <v>1634.2</v>
       </c>
-      <c r="C4" s="287">
+      <c r="C4" s="284">
         <v>1695.5</v>
       </c>
-      <c r="D4" s="287">
+      <c r="D4" s="284">
         <v>1703.1</v>
       </c>
-      <c r="E4" s="287">
+      <c r="E4" s="284">
         <v>1713.2</v>
       </c>
-      <c r="F4" s="287">
+      <c r="F4" s="284">
         <v>1740.2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="284">
         <v>1756.6</v>
       </c>
-      <c r="H4" s="287">
+      <c r="H4" s="284">
         <v>1600.1</v>
       </c>
-      <c r="I4" s="287">
+      <c r="I4" s="284">
         <v>1687.2</v>
       </c>
     </row>
@@ -27948,28 +27754,28 @@
       <c r="A5" t="s">
         <v>298</v>
       </c>
-      <c r="B5" s="287">
+      <c r="B5" s="284">
         <v>183.5</v>
       </c>
-      <c r="C5" s="287">
+      <c r="C5" s="284">
         <v>172.1</v>
       </c>
-      <c r="D5" s="287">
+      <c r="D5" s="284">
         <v>168.3</v>
       </c>
-      <c r="E5" s="287">
+      <c r="E5" s="284">
         <v>175.1</v>
       </c>
-      <c r="F5" s="287">
+      <c r="F5" s="284">
         <v>179.2</v>
       </c>
-      <c r="G5" s="287">
+      <c r="G5" s="284">
         <v>183.8</v>
       </c>
-      <c r="H5" s="287">
+      <c r="H5" s="284">
         <v>131.4</v>
       </c>
-      <c r="I5" s="287">
+      <c r="I5" s="284">
         <v>144.69999999999999</v>
       </c>
     </row>
@@ -27977,28 +27783,28 @@
       <c r="A6" t="s">
         <v>299</v>
       </c>
-      <c r="B6" s="287">
+      <c r="B6" s="284">
         <v>1355.2</v>
       </c>
-      <c r="C6" s="287">
+      <c r="C6" s="284">
         <v>1386.7</v>
       </c>
-      <c r="D6" s="287">
+      <c r="D6" s="284">
         <v>1392.6</v>
       </c>
-      <c r="E6" s="287">
+      <c r="E6" s="284">
         <v>1397.2</v>
       </c>
-      <c r="F6" s="287">
+      <c r="F6" s="284">
         <v>1411.7</v>
       </c>
-      <c r="G6" s="287">
+      <c r="G6" s="284">
         <v>1431.2</v>
       </c>
-      <c r="H6" s="287">
+      <c r="H6" s="284">
         <v>1369.2</v>
       </c>
-      <c r="I6" s="287">
+      <c r="I6" s="284">
         <v>1429.6</v>
       </c>
     </row>
@@ -28006,28 +27812,28 @@
       <c r="A7" t="s">
         <v>300</v>
       </c>
-      <c r="B7" s="287">
+      <c r="B7" s="284">
         <v>234.7</v>
       </c>
-      <c r="C7" s="287">
+      <c r="C7" s="284">
         <v>213.8</v>
       </c>
-      <c r="D7" s="287">
+      <c r="D7" s="284">
         <v>224.2</v>
       </c>
-      <c r="E7" s="287">
+      <c r="E7" s="284">
         <v>201.6</v>
       </c>
-      <c r="F7" s="287">
+      <c r="F7" s="284">
         <v>229.7</v>
       </c>
-      <c r="G7" s="287">
+      <c r="G7" s="284">
         <v>180.5</v>
       </c>
-      <c r="H7" s="287">
+      <c r="H7" s="284">
         <v>171.5</v>
       </c>
-      <c r="I7" s="287">
+      <c r="I7" s="284">
         <v>205.3</v>
       </c>
     </row>
@@ -28035,28 +27841,28 @@
       <c r="A8" t="s">
         <v>301</v>
       </c>
-      <c r="B8" s="287">
+      <c r="B8" s="284">
         <v>456.5</v>
       </c>
-      <c r="C8" s="287">
+      <c r="C8" s="284">
         <v>475.2</v>
       </c>
-      <c r="D8" s="287">
+      <c r="D8" s="284">
         <v>519.4</v>
       </c>
-      <c r="E8" s="287">
+      <c r="E8" s="284">
         <v>483.9</v>
       </c>
-      <c r="F8" s="287">
+      <c r="F8" s="284">
         <v>480.9</v>
       </c>
-      <c r="G8" s="287">
+      <c r="G8" s="284">
         <v>495.8</v>
       </c>
-      <c r="H8" s="287">
+      <c r="H8" s="284">
         <v>496.4</v>
       </c>
-      <c r="I8" s="287">
+      <c r="I8" s="284">
         <v>499.4</v>
       </c>
     </row>
@@ -28064,28 +27870,28 @@
       <c r="A9" t="s">
         <v>302</v>
       </c>
-      <c r="B9" s="287">
+      <c r="B9" s="284">
         <v>1295.5</v>
       </c>
-      <c r="C9" s="287">
+      <c r="C9" s="284">
         <v>1301.5999999999999</v>
       </c>
-      <c r="D9" s="287">
+      <c r="D9" s="284">
         <v>1312.4</v>
       </c>
-      <c r="E9" s="287">
+      <c r="E9" s="284">
         <v>1326.5</v>
       </c>
-      <c r="F9" s="287">
+      <c r="F9" s="284">
         <v>1330.4</v>
       </c>
-      <c r="G9" s="287">
+      <c r="G9" s="284">
         <v>1346.2</v>
       </c>
-      <c r="H9" s="287">
+      <c r="H9" s="284">
         <v>1264.3</v>
       </c>
-      <c r="I9" s="287">
+      <c r="I9" s="284">
         <v>1317.3</v>
       </c>
     </row>
@@ -28093,28 +27899,28 @@
       <c r="A10" t="s">
         <v>334</v>
       </c>
-      <c r="B10" s="287">
+      <c r="B10" s="284">
         <v>8600</v>
       </c>
-      <c r="C10" s="287">
+      <c r="C10" s="284">
         <v>8932</v>
       </c>
-      <c r="D10" s="287">
+      <c r="D10" s="284">
         <v>8944</v>
       </c>
-      <c r="E10" s="287">
+      <c r="E10" s="284">
         <v>8604</v>
       </c>
-      <c r="F10" s="287">
+      <c r="F10" s="284">
         <v>7908</v>
       </c>
-      <c r="G10" s="287">
+      <c r="G10" s="284">
         <v>7020</v>
       </c>
-      <c r="H10" s="287">
+      <c r="H10" s="284">
         <v>6744</v>
       </c>
-      <c r="I10" s="287">
+      <c r="I10" s="284">
         <v>7248</v>
       </c>
     </row>
@@ -28122,28 +27928,28 @@
       <c r="A11" t="s">
         <v>335</v>
       </c>
-      <c r="B11" s="287">
+      <c r="B11" s="284">
         <v>12969</v>
       </c>
-      <c r="C11" s="287">
+      <c r="C11" s="284">
         <v>13054</v>
       </c>
-      <c r="D11" s="287">
+      <c r="D11" s="284">
         <v>13132</v>
       </c>
-      <c r="E11" s="287">
+      <c r="E11" s="284">
         <v>13183</v>
       </c>
-      <c r="F11" s="287">
+      <c r="F11" s="284">
         <v>13235</v>
       </c>
-      <c r="G11" s="287">
+      <c r="G11" s="284">
         <v>13345</v>
       </c>
-      <c r="H11" s="287">
+      <c r="H11" s="284">
         <v>12362</v>
       </c>
-      <c r="I11" s="287">
+      <c r="I11" s="284">
         <v>12998</v>
       </c>
     </row>
@@ -28151,28 +27957,28 @@
       <c r="A12" t="s">
         <v>304</v>
       </c>
-      <c r="B12" s="287">
+      <c r="B12" s="284">
         <v>63.5</v>
       </c>
-      <c r="C12" s="287">
+      <c r="C12" s="284">
         <v>68.5</v>
       </c>
-      <c r="D12" s="287">
+      <c r="D12" s="284">
         <v>68.7</v>
       </c>
-      <c r="E12" s="287">
+      <c r="E12" s="284">
         <v>69.8</v>
       </c>
-      <c r="F12" s="287">
+      <c r="F12" s="284">
         <v>71</v>
       </c>
-      <c r="G12" s="287">
+      <c r="G12" s="284">
         <v>62.7</v>
       </c>
-      <c r="H12" s="287">
+      <c r="H12" s="284">
         <v>54.2</v>
       </c>
-      <c r="I12" s="287">
+      <c r="I12" s="284">
         <v>79.099999999999994</v>
       </c>
     </row>
@@ -28180,28 +27986,28 @@
       <c r="A13" t="s">
         <v>305</v>
       </c>
-      <c r="B13" s="287">
+      <c r="B13" s="284">
         <v>2220523</v>
       </c>
-      <c r="C13" s="287">
+      <c r="C13" s="284">
         <v>2298792</v>
       </c>
-      <c r="D13" s="287">
+      <c r="D13" s="284">
         <v>2315842</v>
       </c>
-      <c r="E13" s="287">
+      <c r="E13" s="284">
         <v>2331428</v>
       </c>
-      <c r="F13" s="287">
+      <c r="F13" s="284">
         <v>2347737</v>
       </c>
-      <c r="G13" s="287">
+      <c r="G13" s="284">
         <v>2422546</v>
       </c>
-      <c r="H13" s="287">
+      <c r="H13" s="284">
         <v>4815254</v>
       </c>
-      <c r="I13" s="287">
+      <c r="I13" s="284">
         <v>3488125</v>
       </c>
     </row>
@@ -28209,28 +28015,28 @@
       <c r="A14" t="s">
         <v>306</v>
       </c>
-      <c r="B14" s="287">
+      <c r="B14" s="284">
         <v>753311</v>
       </c>
-      <c r="C14" s="287">
+      <c r="C14" s="284">
         <v>767353</v>
       </c>
-      <c r="D14" s="287">
+      <c r="D14" s="284">
         <v>779707</v>
       </c>
-      <c r="E14" s="287">
+      <c r="E14" s="284">
         <v>789893</v>
       </c>
-      <c r="F14" s="287">
+      <c r="F14" s="284">
         <v>797912</v>
       </c>
-      <c r="G14" s="287">
+      <c r="G14" s="284">
         <v>804655</v>
       </c>
-      <c r="H14" s="287">
+      <c r="H14" s="284">
         <v>824058</v>
       </c>
-      <c r="I14" s="287">
+      <c r="I14" s="284">
         <v>842733</v>
       </c>
     </row>
@@ -28238,10 +28044,10 @@
       <c r="A15" t="s">
         <v>307</v>
       </c>
-      <c r="H15" s="287">
+      <c r="H15" s="284">
         <v>1078100</v>
       </c>
-      <c r="I15" s="287">
+      <c r="I15" s="284">
         <v>15600</v>
       </c>
     </row>
@@ -28249,28 +28055,28 @@
       <c r="A16" t="s">
         <v>308</v>
       </c>
-      <c r="B16" s="287">
+      <c r="B16" s="284">
         <v>27025</v>
       </c>
-      <c r="C16" s="287">
+      <c r="C16" s="284">
         <v>28029</v>
       </c>
-      <c r="D16" s="287">
+      <c r="D16" s="284">
         <v>27483</v>
       </c>
-      <c r="E16" s="287">
+      <c r="E16" s="284">
         <v>27578</v>
       </c>
-      <c r="F16" s="287">
+      <c r="F16" s="284">
         <v>27884</v>
       </c>
-      <c r="G16" s="287">
+      <c r="G16" s="284">
         <v>43429</v>
       </c>
-      <c r="H16" s="287">
+      <c r="H16" s="284">
         <v>1084572</v>
       </c>
-      <c r="I16" s="287">
+      <c r="I16" s="284">
         <v>768678</v>
       </c>
     </row>
@@ -28278,10 +28084,10 @@
       <c r="A17" t="s">
         <v>309</v>
       </c>
-      <c r="H17" s="287">
+      <c r="H17" s="284">
         <v>19100</v>
       </c>
-      <c r="I17" s="287">
+      <c r="I17" s="284">
         <v>27000</v>
       </c>
     </row>
@@ -28289,10 +28095,10 @@
       <c r="A18" t="s">
         <v>310</v>
       </c>
-      <c r="H18" s="287">
+      <c r="H18" s="284">
         <v>160900</v>
       </c>
-      <c r="I18" s="287">
+      <c r="I18" s="284">
         <v>58400</v>
       </c>
     </row>
@@ -28300,28 +28106,28 @@
       <c r="A19" t="s">
         <v>311</v>
       </c>
-      <c r="B19" s="287">
+      <c r="B19" s="284">
         <v>79458</v>
       </c>
-      <c r="C19" s="287">
+      <c r="C19" s="284">
         <v>71318</v>
       </c>
-      <c r="D19" s="287">
+      <c r="D19" s="284">
         <v>61083</v>
       </c>
-      <c r="E19" s="287">
+      <c r="E19" s="284">
         <v>81998</v>
       </c>
-      <c r="F19" s="287">
+      <c r="F19" s="284">
         <v>81147</v>
       </c>
-      <c r="G19" s="287">
+      <c r="G19" s="284">
         <v>75093</v>
       </c>
-      <c r="H19" s="287">
+      <c r="H19" s="284">
         <v>1086548</v>
       </c>
-      <c r="I19" s="287">
+      <c r="I19" s="284">
         <v>1213308</v>
       </c>
     </row>
@@ -28329,10 +28135,10 @@
       <c r="A20" t="s">
         <v>312</v>
       </c>
-      <c r="H20" s="287">
+      <c r="H20" s="284">
         <v>609300</v>
       </c>
-      <c r="I20" s="287">
+      <c r="I20" s="284">
         <v>865600</v>
       </c>
     </row>
@@ -28340,10 +28146,10 @@
       <c r="A21" t="s">
         <v>313</v>
       </c>
-      <c r="H21" s="287">
+      <c r="H21" s="284">
         <v>63800</v>
       </c>
-      <c r="I21" s="287">
+      <c r="I21" s="284">
         <v>15000</v>
       </c>
     </row>
@@ -28351,10 +28157,10 @@
       <c r="A22" t="s">
         <v>314</v>
       </c>
-      <c r="H22" s="287">
+      <c r="H22" s="284">
         <v>73300</v>
       </c>
-      <c r="I22" s="287">
+      <c r="I22" s="284">
         <v>73300</v>
       </c>
     </row>
@@ -28362,10 +28168,10 @@
       <c r="A23" t="s">
         <v>315</v>
       </c>
-      <c r="H23" s="287">
+      <c r="H23" s="284">
         <v>140000</v>
       </c>
-      <c r="I23" s="287">
+      <c r="I23" s="284">
         <v>140000</v>
       </c>
     </row>
@@ -28373,28 +28179,28 @@
       <c r="A24" t="s">
         <v>316</v>
       </c>
-      <c r="B24" s="287">
+      <c r="B24" s="284">
         <v>586475</v>
       </c>
-      <c r="C24" s="287">
+      <c r="C24" s="284">
         <v>594213</v>
       </c>
-      <c r="D24" s="287">
+      <c r="D24" s="284">
         <v>612547</v>
       </c>
-      <c r="E24" s="287">
+      <c r="E24" s="284">
         <v>610331</v>
       </c>
-      <c r="F24" s="287">
+      <c r="F24" s="284">
         <v>615406</v>
       </c>
-      <c r="G24" s="287">
+      <c r="G24" s="284">
         <v>627805</v>
       </c>
-      <c r="H24" s="287">
+      <c r="H24" s="284">
         <v>1396890</v>
       </c>
-      <c r="I24" s="287">
+      <c r="I24" s="284">
         <v>728172</v>
       </c>
     </row>
@@ -28402,28 +28208,28 @@
       <c r="A25" t="s">
         <v>319</v>
       </c>
-      <c r="B25" s="287">
+      <c r="B25" s="284">
         <v>1368395</v>
       </c>
-      <c r="C25" s="287">
+      <c r="C25" s="284">
         <v>1388750</v>
       </c>
-      <c r="D25" s="287">
+      <c r="D25" s="284">
         <v>1410626</v>
       </c>
-      <c r="E25" s="287">
+      <c r="E25" s="284">
         <v>1429281</v>
       </c>
-      <c r="F25" s="287">
+      <c r="F25" s="284">
         <v>1447946</v>
       </c>
-      <c r="G25" s="287">
+      <c r="G25" s="284">
         <v>1452551</v>
       </c>
-      <c r="H25" s="287">
+      <c r="H25" s="284">
         <v>1504782</v>
       </c>
-      <c r="I25" s="287">
+      <c r="I25" s="284">
         <v>1486802</v>
       </c>
     </row>
@@ -28431,28 +28237,28 @@
       <c r="A26" t="s">
         <v>318</v>
       </c>
-      <c r="B26" s="287">
+      <c r="B26" s="284">
         <v>1241599</v>
       </c>
-      <c r="C26" s="287">
+      <c r="C26" s="284">
         <v>1245767</v>
       </c>
-      <c r="D26" s="287">
+      <c r="D26" s="284">
         <v>1273567</v>
       </c>
-      <c r="E26" s="287">
+      <c r="E26" s="284">
         <v>1288518</v>
       </c>
-      <c r="F26" s="287">
+      <c r="F26" s="284">
         <v>1301120</v>
       </c>
-      <c r="G26" s="287">
+      <c r="G26" s="284">
         <v>1306142</v>
       </c>
-      <c r="H26" s="287">
+      <c r="H26" s="284">
         <v>1356816</v>
       </c>
-      <c r="I26" s="287">
+      <c r="I26" s="284">
         <v>1335322</v>
       </c>
     </row>
@@ -28460,28 +28266,28 @@
       <c r="A27" t="s">
         <v>320</v>
       </c>
-      <c r="B27" s="287">
+      <c r="B27" s="284">
         <v>389624</v>
       </c>
-      <c r="C27" s="287">
+      <c r="C27" s="284">
         <v>404529</v>
       </c>
-      <c r="D27" s="287">
+      <c r="D27" s="284">
         <v>419672</v>
       </c>
-      <c r="E27" s="287">
+      <c r="E27" s="284">
         <v>418824</v>
       </c>
-      <c r="F27" s="287">
+      <c r="F27" s="284">
         <v>411409</v>
       </c>
-      <c r="G27" s="287">
+      <c r="G27" s="284">
         <v>423429</v>
       </c>
-      <c r="H27" s="287">
+      <c r="H27" s="284">
         <v>512640</v>
       </c>
-      <c r="I27" s="287">
+      <c r="I27" s="284">
         <v>486072</v>
       </c>
     </row>
@@ -28489,28 +28295,28 @@
       <c r="A28" t="s">
         <v>321</v>
       </c>
-      <c r="B28" s="287">
+      <c r="B28" s="284">
         <v>728844</v>
       </c>
-      <c r="C28" s="287">
+      <c r="C28" s="284">
         <v>738714</v>
       </c>
-      <c r="D28" s="287">
+      <c r="D28" s="284">
         <v>755204</v>
       </c>
-      <c r="E28" s="287">
+      <c r="E28" s="284">
         <v>763370</v>
       </c>
-      <c r="F28" s="287">
+      <c r="F28" s="284">
         <v>760967</v>
       </c>
-      <c r="G28" s="287">
+      <c r="G28" s="284">
         <v>767087</v>
       </c>
-      <c r="H28" s="287">
+      <c r="H28" s="284">
         <v>812158</v>
       </c>
-      <c r="I28" s="287">
+      <c r="I28" s="284">
         <v>835999</v>
       </c>
     </row>
@@ -28518,28 +28324,28 @@
       <c r="A29" t="s">
         <v>322</v>
       </c>
-      <c r="B29" s="287">
+      <c r="B29" s="284">
         <v>589819</v>
       </c>
-      <c r="C29" s="287">
+      <c r="C29" s="284">
         <v>599372</v>
       </c>
-      <c r="D29" s="287">
+      <c r="D29" s="284">
         <v>614976</v>
       </c>
-      <c r="E29" s="287">
+      <c r="E29" s="284">
         <v>622265</v>
       </c>
-      <c r="F29" s="287">
+      <c r="F29" s="284">
         <v>619362</v>
       </c>
-      <c r="G29" s="287">
+      <c r="G29" s="284">
         <v>624096</v>
       </c>
-      <c r="H29" s="287">
+      <c r="H29" s="284">
         <v>668823</v>
       </c>
-      <c r="I29" s="287">
+      <c r="I29" s="284">
         <v>691267</v>
       </c>
     </row>
@@ -28547,28 +28353,28 @@
       <c r="A30" t="s">
         <v>323</v>
       </c>
-      <c r="B30" s="287">
+      <c r="B30" s="284">
         <v>1997129</v>
       </c>
-      <c r="C30" s="287">
+      <c r="C30" s="284">
         <v>2012720</v>
       </c>
-      <c r="D30" s="287">
+      <c r="D30" s="284">
         <v>2025477</v>
       </c>
-      <c r="E30" s="287">
+      <c r="E30" s="284">
         <v>2028275</v>
       </c>
-      <c r="F30" s="287">
+      <c r="F30" s="284">
         <v>2035602</v>
       </c>
-      <c r="G30" s="287">
+      <c r="G30" s="284">
         <v>2041017</v>
       </c>
-      <c r="H30" s="287">
+      <c r="H30" s="284">
         <v>2013139</v>
       </c>
-      <c r="I30" s="287">
+      <c r="I30" s="284">
         <v>1992677</v>
       </c>
     </row>
@@ -28576,28 +28382,28 @@
       <c r="A31" t="s">
         <v>324</v>
       </c>
-      <c r="B31" s="287">
+      <c r="B31" s="284">
         <v>2279638</v>
       </c>
-      <c r="C31" s="287">
+      <c r="C31" s="284">
         <v>2292717</v>
       </c>
-      <c r="D31" s="287">
+      <c r="D31" s="284">
         <v>2327018</v>
       </c>
-      <c r="E31" s="287">
+      <c r="E31" s="284">
         <v>2337774</v>
       </c>
-      <c r="F31" s="287">
+      <c r="F31" s="284">
         <v>2357385</v>
       </c>
-      <c r="G31" s="287">
+      <c r="G31" s="284">
         <v>2381563</v>
       </c>
-      <c r="H31" s="287">
+      <c r="H31" s="284">
         <v>2334544</v>
       </c>
-      <c r="I31" s="287">
+      <c r="I31" s="284">
         <v>2329677</v>
       </c>
     </row>
@@ -28605,28 +28411,28 @@
       <c r="A32" t="s">
         <v>303</v>
       </c>
-      <c r="B32" s="287">
+      <c r="B32" s="284">
         <v>21.568999999999999</v>
       </c>
-      <c r="C32" s="287">
+      <c r="C32" s="284">
         <v>21.986000000000001</v>
       </c>
-      <c r="D32" s="287">
+      <c r="D32" s="284">
         <v>22.076000000000001</v>
       </c>
-      <c r="E32" s="287">
+      <c r="E32" s="284">
         <v>21.786999999999999</v>
       </c>
-      <c r="F32" s="287">
+      <c r="F32" s="284">
         <v>21.143000000000001</v>
       </c>
-      <c r="G32" s="287">
+      <c r="G32" s="284">
         <v>20.364999999999998</v>
       </c>
-      <c r="H32" s="287">
+      <c r="H32" s="284">
         <v>19.106000000000002</v>
       </c>
-      <c r="I32" s="287">
+      <c r="I32" s="284">
         <v>20.245999999999999</v>
       </c>
     </row>
@@ -28634,10 +28440,10 @@
       <c r="A33" t="s">
         <v>337</v>
       </c>
-      <c r="H33" s="287">
+      <c r="H33" s="284">
         <v>277100</v>
       </c>
-      <c r="I33" s="287">
+      <c r="I33" s="284">
         <v>228300</v>
       </c>
     </row>
@@ -28645,10 +28451,10 @@
       <c r="A34" t="s">
         <v>317</v>
       </c>
-      <c r="H34" s="287">
+      <c r="H34" s="284">
         <v>690700</v>
       </c>
-      <c r="I34" s="287">
+      <c r="I34" s="284">
         <v>39200</v>
       </c>
     </row>
@@ -29378,9 +29184,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29601,27 +29410,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29646,9 +29443,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>